--- a/strategy/全球购策略/data/global strategy data.xlsx
+++ b/strategy/全球购策略/data/global strategy data.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\zjsxzy_in_js\strategy\全球购策略\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19440" windowHeight="8055" firstSheet="1" activeTab="2"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="数据" sheetId="1" r:id="rId2"/>
     <sheet name="data" sheetId="28" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -26,7 +21,7 @@
     <author>robertchen</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +55,7 @@
     <author>robertchen</author>
   </authors>
   <commentList>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -369,6 +364,305 @@
 </styleSheet>
 </file>
 
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="bloomberg.rtd">
+      <tp t="s">
+        <v>SHANGHAI SE COMPOSITE</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SHCOMP Index</stp>
+        <stp>name</stp>
+        <stp>[global strategy data.xlsx]数据!R1C2</stp>
+        <tr r="B1" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>SHANGHAI SE COMPOSITE</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SHCOMP Index</stp>
+        <stp>name</stp>
+        <stp>[global strategy data.xlsx]数据!R1C7</stp>
+        <tr r="G1" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>HANG SENG INDEX</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>HSI Index</stp>
+        <stp>name</stp>
+        <stp>[global strategy data.xlsx]数据!R1C8</stp>
+        <tr r="H1" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>HANG SENG INDEX</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>HSI Index</stp>
+        <stp>name</stp>
+        <stp>[global strategy data.xlsx]数据!R1C3</stp>
+        <tr r="C1" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>China Household Benchmark Savi</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>CNDR1Y index</stp>
+        <stp>name</stp>
+        <stp>[global strategy data.xlsx]数据!R1C6</stp>
+        <tr r="F1" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BDHV12</stp>
+        <stp>SHCOMP Index</stp>
+        <stp>TOT_RETURN_INDEX_GROSS_DVDS</stp>
+        <stp>1997/12/31</stp>
+        <stp/>
+        <stp>[global strategy data.xlsx]数据!R4C1</stp>
+        <stp>Dir=V</stp>
+        <stp>Dts=S</stp>
+        <stp>Sort=A</stp>
+        <stp>Quote=C</stp>
+        <stp>QtTyp=Y</stp>
+        <stp>Days=W</stp>
+        <stp>Per=cm</stp>
+        <stp>DtFmt=D</stp>
+        <stp>Fill=P</stp>
+        <stp>UseDPDF=Y</stp>
+        <stp>curr=usd</stp>
+        <stp>cols=2;rows=261</stp>
+        <tr r="A4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>S&amp;P 500 INDEX</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SPX Index</stp>
+        <stp>name</stp>
+        <stp>[global strategy data.xlsx]数据!R1C9</stp>
+        <tr r="I1" s="1"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BDHV12</stp>
+        <stp>CNDR1Y index</stp>
+        <stp>PX_LAST</stp>
+        <stp>1997/12/31</stp>
+        <stp/>
+        <stp>[global strategy data.xlsx]数据!R4C6</stp>
+        <stp>Dir=V</stp>
+        <stp>Dts=H</stp>
+        <stp>Sort=A</stp>
+        <stp>Quote=C</stp>
+        <stp>QtTyp=Y</stp>
+        <stp>Days=W</stp>
+        <stp>Per=cm</stp>
+        <stp>DtFmt=D</stp>
+        <stp>Fill=P</stp>
+        <stp>UseDPDF=Y</stp>
+        <stp>fx=cny</stp>
+        <stp>cols=1;rows=261</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BDHV12</stp>
+        <stp>SHCOMP Index</stp>
+        <stp>PE_Ratio</stp>
+        <stp>1997/12/31</stp>
+        <stp/>
+        <stp>[global strategy data.xlsx]数据!R4C7</stp>
+        <stp>Dir=V</stp>
+        <stp>Dts=H</stp>
+        <stp>Sort=A</stp>
+        <stp>Quote=C</stp>
+        <stp>QtTyp=Y</stp>
+        <stp>Days=W</stp>
+        <stp>Per=cm</stp>
+        <stp>DtFmt=D</stp>
+        <stp>Fill=P</stp>
+        <stp>UseDPDF=Y</stp>
+        <stp>fx=cny</stp>
+        <stp>cols=1;rows=261</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BDHV12</stp>
+        <stp>SPXT  Index</stp>
+        <stp>PX_LAST</stp>
+        <stp>1997/12/31</stp>
+        <stp/>
+        <stp>[global strategy data.xlsx]数据!R4C4</stp>
+        <stp>Dir=V</stp>
+        <stp>Dts=H</stp>
+        <stp>Sort=A</stp>
+        <stp>Quote=C</stp>
+        <stp>QtTyp=Y</stp>
+        <stp>Days=W</stp>
+        <stp>Per=cm</stp>
+        <stp>DtFmt=D</stp>
+        <stp>Fill=P</stp>
+        <stp>UseDPDF=Y</stp>
+        <stp>fx=cny</stp>
+        <stp>cols=1;rows=261</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Federal Funds Target Rate Mid</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>FDTRMID Index</stp>
+        <stp>name</stp>
+        <stp>[global strategy data.xlsx]数据!R1C10</stp>
+        <tr r="J1" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>U.S. Treasury</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>LUATTRUU Index</stp>
+        <stp>name</stp>
+        <stp>[global strategy data.xlsx]数据!R1C5</stp>
+        <tr r="E1" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BDHV12</stp>
+        <stp>HSI Index</stp>
+        <stp>TOT_RETURN_INDEX_GROSS_DVDS</stp>
+        <stp>1997/12/31</stp>
+        <stp/>
+        <stp>[global strategy data.xlsx]数据!R4C3</stp>
+        <stp>Dir=V</stp>
+        <stp>Dts=H</stp>
+        <stp>Sort=A</stp>
+        <stp>Quote=C</stp>
+        <stp>QtTyp=Y</stp>
+        <stp>Days=W</stp>
+        <stp>Per=cm</stp>
+        <stp>DtFmt=D</stp>
+        <stp>Fill=P</stp>
+        <stp>UseDPDF=Y</stp>
+        <stp>fx=cny</stp>
+        <stp>cols=1;rows=261</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BDHV12</stp>
+        <stp>FDTRMID Index</stp>
+        <stp>PX_LAST</stp>
+        <stp>1997/12/31</stp>
+        <stp/>
+        <stp>[global strategy data.xlsx]数据!R4C10</stp>
+        <stp>Dir=V</stp>
+        <stp>Dts=H</stp>
+        <stp>Sort=A</stp>
+        <stp>Quote=C</stp>
+        <stp>QtTyp=Y</stp>
+        <stp>Days=W</stp>
+        <stp>Per=cm</stp>
+        <stp>DtFmt=D</stp>
+        <stp>Fill=P</stp>
+        <stp>UseDPDF=Y</stp>
+        <stp/>
+        <stp>cols=1;rows=261</stp>
+        <tr r="J4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>S&amp;P 500 Total Return</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SPXT  Index</stp>
+        <stp>name</stp>
+        <stp>[global strategy data.xlsx]数据!R1C4</stp>
+        <tr r="D1" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BDHV12</stp>
+        <stp>LUATTRUU Index</stp>
+        <stp>PX_LAST</stp>
+        <stp>1997/12/31</stp>
+        <stp/>
+        <stp>[global strategy data.xlsx]数据!R4C5</stp>
+        <stp>Dir=V</stp>
+        <stp>Dts=H</stp>
+        <stp>Sort=A</stp>
+        <stp>Quote=C</stp>
+        <stp>QtTyp=Y</stp>
+        <stp>Days=W</stp>
+        <stp>Per=cm</stp>
+        <stp>DtFmt=D</stp>
+        <stp>Fill=P</stp>
+        <stp>UseDPDF=Y</stp>
+        <stp>fx=cny</stp>
+        <stp>cols=1;rows=261</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BDHV12</stp>
+        <stp>HSI Index</stp>
+        <stp>PE_Ratio</stp>
+        <stp>1997/12/31</stp>
+        <stp/>
+        <stp>[global strategy data.xlsx]数据!R4C8</stp>
+        <stp>Dir=V</stp>
+        <stp>Dts=H</stp>
+        <stp>Sort=A</stp>
+        <stp>Quote=C</stp>
+        <stp>QtTyp=Y</stp>
+        <stp>Days=W</stp>
+        <stp>Per=cm</stp>
+        <stp>DtFmt=D</stp>
+        <stp>Fill=P</stp>
+        <stp>UseDPDF=Y</stp>
+        <stp>fx=cny</stp>
+        <stp>cols=1;rows=261</stp>
+        <tr r="H4" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>##V3_BDHV12</stp>
+        <stp>SPX Index</stp>
+        <stp>PE_Ratio</stp>
+        <stp>1997/12/31</stp>
+        <stp/>
+        <stp>[global strategy data.xlsx]数据!R4C9</stp>
+        <stp>Dir=V</stp>
+        <stp>Dts=H</stp>
+        <stp>Sort=A</stp>
+        <stp>Quote=C</stp>
+        <stp>QtTyp=Y</stp>
+        <stp>Days=W</stp>
+        <stp>Per=cm</stp>
+        <stp>DtFmt=D</stp>
+        <stp>Fill=P</stp>
+        <stp>UseDPDF=Y</stp>
+        <stp>fx=cny</stp>
+        <stp>cols=1;rows=261</stp>
+        <tr r="I4" s="1"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
+</file>
+
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -2948,12 +3242,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="801957288"/>
-        <c:axId val="801957680"/>
+        <c:axId val="341665280"/>
+        <c:axId val="341666816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="801957288"/>
+        <c:axId val="341665280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,7 +3258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="801957680"/>
+        <c:crossAx val="341666816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2972,7 +3267,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="801957680"/>
+        <c:axId val="341666816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2982,7 +3277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="801957288"/>
+        <c:crossAx val="341665280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
@@ -3898,12 +4193,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="802562952"/>
-        <c:axId val="802563344"/>
+        <c:axId val="341703680"/>
+        <c:axId val="323642112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="802562952"/>
+        <c:axId val="341703680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3913,7 +4209,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="802563344"/>
+        <c:crossAx val="323642112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3922,7 +4218,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="802563344"/>
+        <c:axId val="323642112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3932,7 +4228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="802562952"/>
+        <c:crossAx val="341703680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4859,8 +5155,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="802565304"/>
-        <c:axId val="802564912"/>
+        <c:axId val="323690496"/>
+        <c:axId val="323680512"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6537,11 +6833,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="802564128"/>
-        <c:axId val="802564520"/>
+        <c:axId val="323677184"/>
+        <c:axId val="323678976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="802564128"/>
+        <c:axId val="323677184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6551,7 +6847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="802564520"/>
+        <c:crossAx val="323678976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6560,7 +6856,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="802564520"/>
+        <c:axId val="323678976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6570,13 +6866,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="802564128"/>
+        <c:crossAx val="323677184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="802564912"/>
+        <c:axId val="323680512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6586,13 +6882,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="802565304"/>
+        <c:crossAx val="323690496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="802565304"/>
+        <c:axId val="323690496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6602,7 +6898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="802564912"/>
+        <c:crossAx val="323680512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7531,12 +7827,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="802566088"/>
-        <c:axId val="802566480"/>
+        <c:axId val="323719168"/>
+        <c:axId val="323720704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="802566088"/>
+        <c:axId val="323719168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7546,7 +7843,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="802566480"/>
+        <c:crossAx val="323720704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7555,7 +7852,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="802566480"/>
+        <c:axId val="323720704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7565,7 +7862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="802566088"/>
+        <c:crossAx val="323719168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8464,12 +8761,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="801672320"/>
-        <c:axId val="801672712"/>
+        <c:axId val="323740800"/>
+        <c:axId val="323742336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="801672320"/>
+        <c:axId val="323740800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8479,7 +8777,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="801672712"/>
+        <c:crossAx val="323742336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -8488,7 +8786,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="801672712"/>
+        <c:axId val="323742336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8498,7 +8796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="801672320"/>
+        <c:crossAx val="323740800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9412,12 +9710,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="801673888"/>
-        <c:axId val="801725208"/>
+        <c:axId val="323844736"/>
+        <c:axId val="323846528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="801673888"/>
+        <c:axId val="323844736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9427,7 +9726,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="801725208"/>
+        <c:crossAx val="323846528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -9436,7 +9735,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="801725208"/>
+        <c:axId val="323846528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9446,7 +9745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="801673888"/>
+        <c:crossAx val="323844736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11223,12 +11522,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="801725992"/>
-        <c:axId val="801726384"/>
+        <c:axId val="323868160"/>
+        <c:axId val="323869696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="801725992"/>
+        <c:axId val="323868160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11238,7 +11538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="801726384"/>
+        <c:crossAx val="323869696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -11247,7 +11547,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="801726384"/>
+        <c:axId val="323869696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -11258,7 +11558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="801725992"/>
+        <c:crossAx val="323868160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -11496,7 +11796,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11538,7 +11838,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11573,7 +11873,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11863,9 +12163,9 @@
         <f>数据!A5</f>
         <v>35825</v>
       </c>
-      <c r="B2" s="3" t="e">
+      <c r="B2" s="3">
         <f>1/数据!E4</f>
-        <v>#NAME?</v>
+        <v>1.118743427382364E-3</v>
       </c>
       <c r="C2" s="3" t="e">
         <f>0.01*数据!#REF!</f>
@@ -11880,7 +12180,7 @@
       </c>
       <c r="F2" s="3" t="e">
         <f t="shared" ref="F2:F65" si="0">B2-C2</f>
-        <v>#NAME?</v>
+        <v>#REF!</v>
       </c>
       <c r="G2" s="2" t="e">
         <f>数据!#REF!/数据!#REF!</f>
@@ -11904,7 +12204,7 @@
       </c>
       <c r="O2" s="10" t="e">
         <f>数据!C4/数据!#REF!</f>
-        <v>#NAME?</v>
+        <v>#REF!</v>
       </c>
       <c r="P2" s="10" t="e">
         <f>数据!#REF!/数据!#REF!</f>
@@ -30129,11 +30429,11 @@
   <dimension ref="A1:S350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B200" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="D231" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L4741" sqref="L4741"/>
       <selection pane="topRight" activeCell="L4741" sqref="L4741"/>
       <selection pane="bottomLeft" activeCell="L4741" sqref="L4741"/>
-      <selection pane="bottomRight" activeCell="B258" sqref="B258"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4:I264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30152,41 +30452,41 @@
       <c r="A1" s="4">
         <v>35795</v>
       </c>
-      <c r="B1" s="17" t="e">
-        <f ca="1">_xll.BDP(B2,"name")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1" s="17" t="e">
-        <f ca="1">_xll.BDP(C2,"name")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1" s="17" t="e">
-        <f ca="1">_xll.BDP(D2,"name")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E1" s="17" t="e">
-        <f ca="1">_xll.BDP(E2,"name")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F1" s="17" t="e">
-        <f ca="1">_xll.BDP(F2,"name")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G1" s="16" t="e">
-        <f ca="1">_xll.BDP(G2,"name")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H1" s="16" t="e">
-        <f ca="1">_xll.BDP(H2,"name")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I1" s="16" t="e">
-        <f ca="1">_xll.BDP(I2,"name")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J1" s="17" t="e">
-        <f ca="1">_xll.BDP(J2,"name")</f>
-        <v>#NAME?</v>
+      <c r="B1" s="17" t="str">
+        <f>_xll.BDP(B2,"name")</f>
+        <v>SHANGHAI SE COMPOSITE</v>
+      </c>
+      <c r="C1" s="17" t="str">
+        <f>_xll.BDP(C2,"name")</f>
+        <v>HANG SENG INDEX</v>
+      </c>
+      <c r="D1" s="17" t="str">
+        <f>_xll.BDP(D2,"name")</f>
+        <v>S&amp;P 500 Total Return</v>
+      </c>
+      <c r="E1" s="17" t="str">
+        <f>_xll.BDP(E2,"name")</f>
+        <v>U.S. Treasury</v>
+      </c>
+      <c r="F1" s="17" t="str">
+        <f>_xll.BDP(F2,"name")</f>
+        <v>China Household Benchmark Savi</v>
+      </c>
+      <c r="G1" s="16" t="str">
+        <f>_xll.BDP(G2,"name")</f>
+        <v>SHANGHAI SE COMPOSITE</v>
+      </c>
+      <c r="H1" s="16" t="str">
+        <f>_xll.BDP(H2,"name")</f>
+        <v>HANG SENG INDEX</v>
+      </c>
+      <c r="I1" s="16" t="str">
+        <f>_xll.BDP(I2,"name")</f>
+        <v>S&amp;P 500 INDEX</v>
+      </c>
+      <c r="J1" s="17" t="str">
+        <f>_xll.BDP(J2,"name")</f>
+        <v>Federal Funds Target Rate Mid</v>
       </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
@@ -30277,44 +30577,44 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="e">
-        <f ca="1">_xll.BDH(B$2,B$3,$A$1,"","Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","curr=usd","cols=2;rows=258")</f>
-        <v>#NAME?</v>
+      <c r="A4" s="14">
+        <f>_xll.BDH(B$2,B$3,$A$1,"","Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","curr=usd","cols=2;rows=261")</f>
+        <v>35795</v>
       </c>
       <c r="B4" s="11">
         <v>144.22370000000001</v>
       </c>
-      <c r="C4" s="11" t="e">
-        <f ca="1">_xll.BDH(C$2,C$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=258")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D4" s="11" t="e">
-        <f ca="1">_xll.BDH(D$2,D$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=258")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E4" s="11" t="e">
-        <f ca="1">_xll.BDH(E$2,E$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=258")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F4" s="11" t="e">
-        <f ca="1">_xll.BDH(F$2,F$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=258")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G4" s="11" t="e">
-        <f ca="1">_xll.BDH(G$2,G$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=258")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H4" s="11" t="e">
-        <f ca="1">_xll.BDH(H$2,H$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=258")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I4" s="11" t="e">
-        <f ca="1">_xll.BDH(I$2,I$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=258")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J4" s="11" t="e">
-        <f ca="1">_xll.BDH(J$2,J$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","","cols=1;rows=258")</f>
-        <v>#NAME?</v>
+      <c r="C4" s="11">
+        <f>_xll.BDH(C$2,C$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
+        <v>11458.3236</v>
+      </c>
+      <c r="D4" s="11">
+        <f>_xll.BDH(D$2,D$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
+        <v>10753.588470000001</v>
+      </c>
+      <c r="E4" s="11">
+        <f>_xll.BDH(E$2,E$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
+        <v>893.86</v>
+      </c>
+      <c r="F4" s="11">
+        <f>_xll.BDH(F$2,F$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
+        <v>5.67</v>
+      </c>
+      <c r="G4" s="11">
+        <f>_xll.BDH(G$2,G$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
+        <v>37.039299999999997</v>
+      </c>
+      <c r="H4" s="11">
+        <f>_xll.BDH(H$2,H$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
+        <v>9.5499000000000009</v>
+      </c>
+      <c r="I4" s="11">
+        <f>_xll.BDH(I$2,I$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
+        <v>22.239699999999999</v>
+      </c>
+      <c r="J4" s="11">
+        <f>_xll.BDH(J$2,J$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","","cols=1;rows=261")</f>
+        <v>5.5</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>23</v>
@@ -30364,7 +30664,7 @@
         <v>8.2468000000000004</v>
       </c>
       <c r="I5" s="11">
-        <v>22.367999999999999</v>
+        <v>22.398</v>
       </c>
       <c r="J5" s="11">
         <v>5.5</v>
@@ -30373,21 +30673,21 @@
         <f>B5/B4-1</f>
         <v>2.4290043869350075E-2</v>
       </c>
-      <c r="L5" s="19" t="e">
-        <f t="shared" ref="L5:N5" ca="1" si="0">C5/C4-1</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M5" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N5" s="19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O5" s="19" t="e">
-        <f t="array" aca="1" ref="O5" ca="1">(1+F4*0.01)^(1/12)-1</f>
-        <v>#NAME?</v>
+      <c r="L5" s="19">
+        <f t="shared" ref="L5:N5" si="0">C5/C4-1</f>
+        <v>-0.13599995552578048</v>
+      </c>
+      <c r="M5" s="19">
+        <f t="shared" si="0"/>
+        <v>1.0938684359008244E-2</v>
+      </c>
+      <c r="N5" s="19">
+        <f t="shared" si="0"/>
+        <v>1.5315597520864532E-2</v>
+      </c>
+      <c r="O5" s="19">
+        <f t="array" ref="O5">(1+F4*0.01)^(1/12)-1</f>
+        <v>4.6064810688120073E-3</v>
       </c>
       <c r="P5" s="19" t="s">
         <v>0</v>
@@ -30419,7 +30719,7 @@
         <v>10.227499999999999</v>
       </c>
       <c r="I6" s="11">
-        <v>23.962299999999999</v>
+        <v>23.994299999999999</v>
       </c>
       <c r="J6" s="11">
         <v>5.5</v>
@@ -30471,7 +30771,7 @@
         <v>10.2081</v>
       </c>
       <c r="I7" s="11">
-        <v>25.006499999999999</v>
+        <v>24.994900000000001</v>
       </c>
       <c r="J7" s="11">
         <v>5.5</v>
@@ -30523,7 +30823,7 @@
         <v>9.2121999999999993</v>
       </c>
       <c r="I8" s="11">
-        <v>25.3444</v>
+        <v>25.325900000000001</v>
       </c>
       <c r="J8" s="11">
         <v>5.5</v>
@@ -30575,7 +30875,7 @@
         <v>7.9253</v>
       </c>
       <c r="I9" s="11">
-        <v>25.035399999999999</v>
+        <v>25.013000000000002</v>
       </c>
       <c r="J9" s="11">
         <v>5.5</v>
@@ -30627,7 +30927,7 @@
         <v>8.532</v>
       </c>
       <c r="I10" s="11">
-        <v>25.959600000000002</v>
+        <v>25.916499999999999</v>
       </c>
       <c r="J10" s="11">
         <v>5.5</v>
@@ -30679,7 +30979,7 @@
         <v>7.9260000000000002</v>
       </c>
       <c r="I11" s="11">
-        <v>25.557300000000001</v>
+        <v>25.513999999999999</v>
       </c>
       <c r="J11" s="11">
         <v>5.5</v>
@@ -30731,7 +31031,7 @@
         <v>7.3367000000000004</v>
       </c>
       <c r="I12" s="11">
-        <v>21.828700000000001</v>
+        <v>21.791899999999998</v>
       </c>
       <c r="J12" s="11">
         <v>5.5</v>
@@ -30783,7 +31083,7 @@
         <v>7.9010999999999996</v>
       </c>
       <c r="I13" s="11">
-        <v>23.154699999999998</v>
+        <v>23.115400000000001</v>
       </c>
       <c r="J13" s="11">
         <v>5.25</v>
@@ -30835,7 +31135,7 @@
         <v>10.1815</v>
       </c>
       <c r="I14" s="11">
-        <v>25.122</v>
+        <v>25.085799999999999</v>
       </c>
       <c r="J14" s="11">
         <v>5</v>
@@ -30887,7 +31187,7 @@
         <v>10.4305</v>
       </c>
       <c r="I15" s="11">
-        <v>26.7514</v>
+        <v>26.712599999999998</v>
       </c>
       <c r="J15" s="11">
         <v>4.75</v>
@@ -30939,7 +31239,7 @@
         <v>12.229699999999999</v>
       </c>
       <c r="I16" s="11">
-        <v>28.1553</v>
+        <v>28.1556</v>
       </c>
       <c r="J16" s="11">
         <v>4.75</v>
@@ -31002,7 +31302,7 @@
         <v>11.567500000000001</v>
       </c>
       <c r="I17" s="11">
-        <v>29.1922</v>
+        <v>29.203700000000001</v>
       </c>
       <c r="J17" s="11">
         <v>4.75</v>
@@ -31062,7 +31362,7 @@
         <v>11.9964</v>
       </c>
       <c r="I18" s="11">
-        <v>28.188199999999998</v>
+        <v>28.032800000000002</v>
       </c>
       <c r="J18" s="11">
         <v>4.75</v>
@@ -31122,7 +31422,7 @@
         <v>13.2736</v>
       </c>
       <c r="I19" s="11">
-        <v>28.552</v>
+        <v>28.453299999999999</v>
       </c>
       <c r="J19" s="11">
         <v>4.75</v>
@@ -31182,7 +31482,7 @@
         <v>16.1952</v>
       </c>
       <c r="I20" s="11">
-        <v>29.583400000000001</v>
+        <v>29.489899999999999</v>
       </c>
       <c r="J20" s="11">
         <v>4.75</v>
@@ -31242,7 +31542,7 @@
         <v>14.7492</v>
       </c>
       <c r="I21" s="11">
-        <v>28.879899999999999</v>
+        <v>28.799199999999999</v>
       </c>
       <c r="J21" s="11">
         <v>4.75</v>
@@ -31302,7 +31602,7 @@
         <v>15.8597</v>
       </c>
       <c r="I22" s="11">
-        <v>29.833200000000001</v>
+        <v>29.828399999999998</v>
       </c>
       <c r="J22" s="11">
         <v>5</v>
@@ -31362,7 +31662,7 @@
         <v>24.7074</v>
       </c>
       <c r="I23" s="11">
-        <v>28.731999999999999</v>
+        <v>28.717099999999999</v>
       </c>
       <c r="J23" s="11">
         <v>5</v>
@@ -31422,7 +31722,7 @@
         <v>25.149100000000001</v>
       </c>
       <c r="I24" s="11">
-        <v>28.511600000000001</v>
+        <v>28.487200000000001</v>
       </c>
       <c r="J24" s="11">
         <v>5.25</v>
@@ -31482,7 +31782,7 @@
         <v>23.747299999999999</v>
       </c>
       <c r="I25" s="11">
-        <v>26.966200000000001</v>
+        <v>26.981100000000001</v>
       </c>
       <c r="J25" s="11">
         <v>5.25</v>
@@ -31542,7 +31842,7 @@
         <v>24.9025</v>
       </c>
       <c r="I26" s="11">
-        <v>28.339700000000001</v>
+        <v>28.398</v>
       </c>
       <c r="J26" s="11">
         <v>5.25</v>
@@ -31602,7 +31902,7 @@
         <v>28.8888</v>
       </c>
       <c r="I27" s="11">
-        <v>28.809000000000001</v>
+        <v>28.867999999999999</v>
       </c>
       <c r="J27" s="11">
         <v>5.5</v>
@@ -31662,7 +31962,7 @@
         <v>13.555300000000001</v>
       </c>
       <c r="I28" s="11">
-        <v>29.324200000000001</v>
+        <v>29.286999999999999</v>
       </c>
       <c r="J28" s="11">
         <v>5.5</v>
@@ -31722,7 +32022,7 @@
         <v>12.4114</v>
       </c>
       <c r="I29" s="11">
-        <v>27.862200000000001</v>
+        <v>27.856200000000001</v>
       </c>
       <c r="J29" s="11">
         <v>5.5</v>
@@ -31782,7 +32082,7 @@
         <v>13.7188</v>
       </c>
       <c r="I30" s="11">
-        <v>27.281700000000001</v>
+        <v>27.2789</v>
       </c>
       <c r="J30" s="11">
         <v>5.75</v>
@@ -31842,7 +32142,7 @@
         <v>13.8866</v>
       </c>
       <c r="I31" s="11">
-        <v>28.910499999999999</v>
+        <v>28.889199999999999</v>
       </c>
       <c r="J31" s="11">
         <v>6</v>
@@ -31902,7 +32202,7 @@
         <v>12.391299999999999</v>
       </c>
       <c r="I32" s="11">
-        <v>28.017700000000001</v>
+        <v>28.022400000000001</v>
       </c>
       <c r="J32" s="11">
         <v>6</v>
@@ -31962,7 +32262,7 @@
         <v>12.1934</v>
       </c>
       <c r="I33" s="11">
-        <v>27.318200000000001</v>
+        <v>27.323599999999999</v>
       </c>
       <c r="J33" s="11">
         <v>6.5</v>
@@ -32022,7 +32322,7 @@
         <v>13.087899999999999</v>
       </c>
       <c r="I34" s="11">
-        <v>27.3215</v>
+        <v>27.4099</v>
       </c>
       <c r="J34" s="11">
         <v>6.5</v>
@@ -32082,7 +32382,7 @@
         <v>13.6419</v>
       </c>
       <c r="I35" s="11">
-        <v>26.886299999999999</v>
+        <v>26.987500000000001</v>
       </c>
       <c r="J35" s="11">
         <v>6.5</v>
@@ -32142,7 +32442,7 @@
         <v>13.9901</v>
       </c>
       <c r="I36" s="11">
-        <v>28.160499999999999</v>
+        <v>28.296600000000002</v>
       </c>
       <c r="J36" s="11">
         <v>6.5</v>
@@ -32202,7 +32502,7 @@
         <v>12.831099999999999</v>
       </c>
       <c r="I37" s="11">
-        <v>25.9482</v>
+        <v>25.955400000000001</v>
       </c>
       <c r="J37" s="11">
         <v>6.5</v>
@@ -32262,7 +32562,7 @@
         <v>12.212300000000001</v>
       </c>
       <c r="I38" s="11">
-        <v>25.846399999999999</v>
+        <v>25.835799999999999</v>
       </c>
       <c r="J38" s="11">
         <v>6.5</v>
@@ -32322,7 +32622,7 @@
         <v>11.465299999999999</v>
       </c>
       <c r="I39" s="11">
-        <v>23.8261</v>
+        <v>23.816299999999998</v>
       </c>
       <c r="J39" s="11">
         <v>6.5</v>
@@ -32382,7 +32682,7 @@
         <v>12.1312</v>
       </c>
       <c r="I40" s="11">
-        <v>24.106400000000001</v>
+        <v>24.1721</v>
       </c>
       <c r="J40" s="11">
         <v>6.5</v>
@@ -32442,7 +32742,7 @@
         <v>12.1312</v>
       </c>
       <c r="I41" s="11">
-        <v>24.8733</v>
+        <v>24.9422</v>
       </c>
       <c r="J41" s="11">
         <v>5.5</v>
@@ -32502,7 +32802,7 @@
         <v>12.1312</v>
       </c>
       <c r="I42" s="11">
-        <v>22.636299999999999</v>
+        <v>22.671600000000002</v>
       </c>
       <c r="J42" s="11">
         <v>5.5</v>
@@ -32562,7 +32862,7 @@
         <v>12.1312</v>
       </c>
       <c r="I43" s="11">
-        <v>21.6629</v>
+        <v>21.7423</v>
       </c>
       <c r="J43" s="11">
         <v>5</v>
@@ -32622,7 +32922,7 @@
         <v>12.1312</v>
       </c>
       <c r="I44" s="11">
-        <v>23.381</v>
+        <v>23.6035</v>
       </c>
       <c r="J44" s="11">
         <v>4.5</v>
@@ -32682,7 +32982,7 @@
         <v>12.1312</v>
       </c>
       <c r="I45" s="11">
-        <v>23.573699999999999</v>
+        <v>23.801100000000002</v>
       </c>
       <c r="J45" s="11">
         <v>4</v>
@@ -32742,7 +33042,7 @@
         <v>12.1312</v>
       </c>
       <c r="I46" s="11">
-        <v>24.044699999999999</v>
+        <v>24.213999999999999</v>
       </c>
       <c r="J46" s="11">
         <v>3.75</v>
@@ -32802,7 +33102,7 @@
         <v>12.1312</v>
       </c>
       <c r="I47" s="11">
-        <v>23.962900000000001</v>
+        <v>24.136700000000001</v>
       </c>
       <c r="J47" s="11">
         <v>3.75</v>
@@ -44949,13 +45249,13 @@
         <v>1.5</v>
       </c>
       <c r="G250" s="11">
-        <v>13.4734</v>
+        <v>13.472</v>
       </c>
       <c r="H250" s="11">
         <v>10.9018</v>
       </c>
       <c r="I250" s="11">
-        <v>19.0152</v>
+        <v>18.983799999999999</v>
       </c>
       <c r="J250" s="11">
         <v>1.875</v>
@@ -44982,13 +45282,13 @@
         <v>1.5</v>
       </c>
       <c r="G251" s="11">
-        <v>13.5725</v>
+        <v>13.581</v>
       </c>
       <c r="H251" s="11">
         <v>10.761699999999999</v>
       </c>
       <c r="I251" s="11">
-        <v>19.641300000000001</v>
+        <v>19.646899999999999</v>
       </c>
       <c r="J251" s="11">
         <v>1.875</v>
@@ -45015,13 +45315,13 @@
         <v>1.5</v>
       </c>
       <c r="G252" s="11">
-        <v>12.745100000000001</v>
+        <v>12.6998</v>
       </c>
       <c r="H252" s="11">
-        <v>10.5002</v>
+        <v>10.499499999999999</v>
       </c>
       <c r="I252" s="11">
-        <v>20.154199999999999</v>
+        <v>20.228999999999999</v>
       </c>
       <c r="J252" s="11">
         <v>1.875</v>
@@ -45048,13 +45348,13 @@
         <v>1.5</v>
       </c>
       <c r="G253" s="11">
-        <v>13.043799999999999</v>
+        <v>13.0037</v>
       </c>
       <c r="H253" s="11">
-        <v>10.528600000000001</v>
+        <v>10.53</v>
       </c>
       <c r="I253" s="11">
-        <v>19.210699999999999</v>
+        <v>19.277000000000001</v>
       </c>
       <c r="J253" s="11">
         <v>2.125</v>
@@ -45081,13 +45381,13 @@
         <v>1.5</v>
       </c>
       <c r="G254" s="11">
-        <v>12.028600000000001</v>
+        <v>11.9838</v>
       </c>
       <c r="H254" s="11">
-        <v>9.4643999999999995</v>
+        <v>9.4656000000000002</v>
       </c>
       <c r="I254" s="11">
-        <v>17.8246</v>
+        <v>17.942599999999999</v>
       </c>
       <c r="J254" s="11">
         <v>2.125</v>
@@ -45114,13 +45414,13 @@
         <v>1.5</v>
       </c>
       <c r="G255" s="11">
-        <v>12.0008</v>
+        <v>11.958299999999999</v>
       </c>
       <c r="H255" s="11">
-        <v>10.042999999999999</v>
+        <v>10.0443</v>
       </c>
       <c r="I255" s="11">
-        <v>18.091000000000001</v>
+        <v>18.2042</v>
       </c>
       <c r="J255" s="11">
         <v>2.125</v>
@@ -45147,13 +45447,13 @@
         <v>1.5</v>
       </c>
       <c r="G256" s="11">
-        <v>12.3302</v>
+        <v>12.2972</v>
       </c>
       <c r="H256" s="11">
-        <v>10.0219</v>
+        <v>10.023199999999999</v>
       </c>
       <c r="I256" s="11">
-        <v>16.494800000000001</v>
+        <v>16.5166</v>
       </c>
       <c r="J256" s="11">
         <v>2.375</v>
@@ -45180,13 +45480,13 @@
         <v>1.5</v>
       </c>
       <c r="G257" s="11">
-        <v>12.7806</v>
+        <v>12.7453</v>
       </c>
       <c r="H257" s="11">
-        <v>10.835000000000001</v>
+        <v>10.836399999999999</v>
       </c>
       <c r="I257" s="11">
-        <v>17.822600000000001</v>
+        <v>17.846800000000002</v>
       </c>
       <c r="J257" s="11">
         <v>2.375</v>
@@ -45213,13 +45513,13 @@
         <v>1.5</v>
       </c>
       <c r="G258" s="11">
-        <v>14.5389</v>
+        <v>14.4977</v>
       </c>
       <c r="H258" s="11">
-        <v>11.1028</v>
+        <v>11.104200000000001</v>
       </c>
       <c r="I258" s="11">
-        <v>18.358000000000001</v>
+        <v>18.389700000000001</v>
       </c>
       <c r="J258" s="11">
         <v>2.375</v>
@@ -45246,13 +45546,13 @@
         <v>1.5</v>
       </c>
       <c r="G259" s="11">
-        <v>14.9193</v>
+        <v>14.8775</v>
       </c>
       <c r="H259" s="11">
-        <v>11.4046</v>
+        <v>11.4024</v>
       </c>
       <c r="I259" s="11">
-        <v>18.615600000000001</v>
+        <v>18.627400000000002</v>
       </c>
       <c r="J259" s="11">
         <v>2.375</v>
@@ -45279,13 +45579,13 @@
         <v>1.5</v>
       </c>
       <c r="G260" s="11">
-        <v>14.8728</v>
+        <v>14.8309</v>
       </c>
       <c r="H260" s="11">
-        <v>11.658899999999999</v>
+        <v>11.656599999999999</v>
       </c>
       <c r="I260" s="11">
-        <v>19.326699999999999</v>
+        <v>19.340199999999999</v>
       </c>
       <c r="J260" s="11">
         <v>2.375</v>
@@ -45293,55 +45593,135 @@
       <c r="K260" s="11"/>
     </row>
     <row r="261" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="14"/>
-      <c r="B261" s="11"/>
-      <c r="C261" s="11"/>
-      <c r="D261" s="11"/>
-      <c r="E261" s="11"/>
-      <c r="F261" s="11"/>
-      <c r="G261" s="11"/>
-      <c r="H261" s="11"/>
-      <c r="I261" s="11"/>
-      <c r="J261" s="11"/>
+      <c r="A261" s="14">
+        <v>43616</v>
+      </c>
+      <c r="B261" s="11">
+        <v>599.50300000000004</v>
+      </c>
+      <c r="C261" s="11">
+        <v>49097.863100000002</v>
+      </c>
+      <c r="D261" s="11">
+        <v>38111.111279999997</v>
+      </c>
+      <c r="E261" s="11">
+        <v>2311.308</v>
+      </c>
+      <c r="F261" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G261" s="11">
+        <v>13.976800000000001</v>
+      </c>
+      <c r="H261" s="11">
+        <v>10.558400000000001</v>
+      </c>
+      <c r="I261" s="11">
+        <v>18.115500000000001</v>
+      </c>
+      <c r="J261" s="11">
+        <v>2.375</v>
+      </c>
       <c r="K261" s="11"/>
     </row>
     <row r="262" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="14"/>
-      <c r="B262" s="11"/>
-      <c r="C262" s="11"/>
-      <c r="D262" s="11"/>
-      <c r="E262" s="11"/>
-      <c r="F262" s="11"/>
-      <c r="G262" s="11"/>
-      <c r="H262" s="11"/>
-      <c r="I262" s="11"/>
-      <c r="J262" s="11"/>
+      <c r="A262" s="14">
+        <v>43644</v>
+      </c>
+      <c r="B262" s="11">
+        <v>625.32799999999997</v>
+      </c>
+      <c r="C262" s="11">
+        <v>52291.869200000001</v>
+      </c>
+      <c r="D262" s="11">
+        <v>40570.771099999998</v>
+      </c>
+      <c r="E262" s="11">
+        <v>2332.6350000000002</v>
+      </c>
+      <c r="F262" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G262" s="11">
+        <v>14.3378</v>
+      </c>
+      <c r="H262" s="11">
+        <v>11.0875</v>
+      </c>
+      <c r="I262" s="11">
+        <v>19.2349</v>
+      </c>
+      <c r="J262" s="11">
+        <v>2.375</v>
+      </c>
       <c r="K262" s="11"/>
     </row>
     <row r="263" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="14"/>
-      <c r="B263" s="11"/>
-      <c r="C263" s="11"/>
-      <c r="D263" s="11"/>
-      <c r="E263" s="11"/>
-      <c r="F263" s="11"/>
-      <c r="G263" s="11"/>
-      <c r="H263" s="11"/>
-      <c r="I263" s="11"/>
-      <c r="J263" s="11"/>
+      <c r="A263" s="14">
+        <v>43677</v>
+      </c>
+      <c r="B263" s="11">
+        <v>619.63909999999998</v>
+      </c>
+      <c r="C263" s="11">
+        <v>51107.631600000001</v>
+      </c>
+      <c r="D263" s="11">
+        <v>41258.180910000003</v>
+      </c>
+      <c r="E263" s="11">
+        <v>2329.893</v>
+      </c>
+      <c r="F263" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G263" s="11">
+        <v>14.1668</v>
+      </c>
+      <c r="H263" s="11">
+        <v>10.7904</v>
+      </c>
+      <c r="I263" s="11">
+        <v>19.4985</v>
+      </c>
+      <c r="J263" s="11">
+        <v>2.125</v>
+      </c>
       <c r="K263" s="11"/>
     </row>
     <row r="264" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="14"/>
-      <c r="B264" s="11"/>
-      <c r="C264" s="11"/>
-      <c r="D264" s="11"/>
-      <c r="E264" s="11"/>
-      <c r="F264" s="11"/>
-      <c r="G264" s="11"/>
-      <c r="H264" s="11"/>
-      <c r="I264" s="11"/>
-      <c r="J264" s="11"/>
+      <c r="A264" s="14">
+        <v>43707</v>
+      </c>
+      <c r="B264" s="11">
+        <v>587.34389999999996</v>
+      </c>
+      <c r="C264" s="11">
+        <v>49300.746500000001</v>
+      </c>
+      <c r="D264" s="11">
+        <v>42211.862639999999</v>
+      </c>
+      <c r="E264" s="11">
+        <v>2409.096</v>
+      </c>
+      <c r="F264" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G264" s="11">
+        <v>13.984500000000001</v>
+      </c>
+      <c r="H264" s="11">
+        <v>9.9929000000000006</v>
+      </c>
+      <c r="I264" s="11">
+        <v>19.159700000000001</v>
+      </c>
+      <c r="J264" s="11">
+        <v>2.125</v>
+      </c>
       <c r="K264" s="11"/>
     </row>
     <row r="265" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -46462,10 +46842,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J259"/>
+  <dimension ref="A1:J262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E222" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -46517,8 +46897,8 @@
       <c r="A2" s="1">
         <v>35795</v>
       </c>
-      <c r="B2">
-        <v>35795</v>
+      <c r="B2" s="11">
+        <v>144.22370000000001</v>
       </c>
       <c r="C2">
         <v>11458.3236</v>
@@ -46539,7 +46919,7 @@
         <v>9.5499000000000009</v>
       </c>
       <c r="I2">
-        <v>22.209299999999999</v>
+        <v>22.239699999999999</v>
       </c>
       <c r="J2">
         <v>5.5</v>
@@ -46549,8 +46929,8 @@
       <c r="A3" s="1">
         <v>35825</v>
       </c>
-      <c r="B3">
-        <v>1222.913</v>
+      <c r="B3" s="11">
+        <v>147.7269</v>
       </c>
       <c r="C3">
         <v>9899.9920999999995</v>
@@ -46571,7 +46951,7 @@
         <v>8.2468000000000004</v>
       </c>
       <c r="I3">
-        <v>22.367999999999999</v>
+        <v>22.398</v>
       </c>
       <c r="J3">
         <v>5.5</v>
@@ -46581,8 +46961,8 @@
       <c r="A4" s="1">
         <v>35853</v>
       </c>
-      <c r="B4">
-        <v>1206.5335</v>
+      <c r="B4" s="11">
+        <v>145.73599999999999</v>
       </c>
       <c r="C4">
         <v>12281.787899999999</v>
@@ -46603,7 +46983,7 @@
         <v>10.227499999999999</v>
       </c>
       <c r="I4">
-        <v>23.962299999999999</v>
+        <v>23.994299999999999</v>
       </c>
       <c r="J4">
         <v>5.5</v>
@@ -46613,8 +46993,8 @@
       <c r="A5" s="1">
         <v>35885</v>
       </c>
-      <c r="B5">
-        <v>1242.2285999999999</v>
+      <c r="B5" s="11">
+        <v>150.0403</v>
       </c>
       <c r="C5">
         <v>12394.085999999999</v>
@@ -46635,7 +47015,7 @@
         <v>10.2081</v>
       </c>
       <c r="I5">
-        <v>25.006499999999999</v>
+        <v>24.994900000000001</v>
       </c>
       <c r="J5">
         <v>5.5</v>
@@ -46645,8 +47025,8 @@
       <c r="A6" s="1">
         <v>35915</v>
       </c>
-      <c r="B6">
-        <v>1343.7260000000001</v>
+      <c r="B6" s="11">
+        <v>162.32689999999999</v>
       </c>
       <c r="C6">
         <v>11214.002500000001</v>
@@ -46667,7 +47047,7 @@
         <v>9.2121999999999993</v>
       </c>
       <c r="I6">
-        <v>25.3444</v>
+        <v>25.325900000000001</v>
       </c>
       <c r="J6">
         <v>5.5</v>
@@ -46677,8 +47057,8 @@
       <c r="A7" s="1">
         <v>35944</v>
       </c>
-      <c r="B7">
-        <v>1412.4764</v>
+      <c r="B7" s="11">
+        <v>170.60339999999999</v>
       </c>
       <c r="C7">
         <v>9704.1919999999991</v>
@@ -46699,7 +47079,7 @@
         <v>7.9253</v>
       </c>
       <c r="I7">
-        <v>25.035399999999999</v>
+        <v>25.013000000000002</v>
       </c>
       <c r="J7">
         <v>5.5</v>
@@ -46709,8 +47089,8 @@
       <c r="A8" s="1">
         <v>35976</v>
       </c>
-      <c r="B8">
-        <v>1342.6591000000001</v>
+      <c r="B8" s="11">
+        <v>162.1628</v>
       </c>
       <c r="C8">
         <v>9327.8250000000007</v>
@@ -46731,7 +47111,7 @@
         <v>8.532</v>
       </c>
       <c r="I8">
-        <v>25.959600000000002</v>
+        <v>25.916499999999999</v>
       </c>
       <c r="J8">
         <v>5.5</v>
@@ -46741,8 +47121,8 @@
       <c r="A9" s="1">
         <v>36007</v>
       </c>
-      <c r="B9">
-        <v>1321.6318000000001</v>
+      <c r="B9" s="11">
+        <v>159.61930000000001</v>
       </c>
       <c r="C9">
         <v>8666.0156999999999</v>
@@ -46763,7 +47143,7 @@
         <v>7.9260000000000002</v>
       </c>
       <c r="I9">
-        <v>25.557300000000001</v>
+        <v>25.513999999999999</v>
       </c>
       <c r="J9">
         <v>5.5</v>
@@ -46773,8 +47153,8 @@
       <c r="A10" s="1">
         <v>36038</v>
       </c>
-      <c r="B10">
-        <v>1155.4636</v>
+      <c r="B10" s="11">
+        <v>139.5487</v>
       </c>
       <c r="C10">
         <v>7998.8301000000001</v>
@@ -46795,7 +47175,7 @@
         <v>7.3367000000000004</v>
       </c>
       <c r="I10">
-        <v>21.828700000000001</v>
+        <v>21.791899999999998</v>
       </c>
       <c r="J10">
         <v>5.5</v>
@@ -46805,8 +47185,8 @@
       <c r="A11" s="1">
         <v>36068</v>
       </c>
-      <c r="B11">
-        <v>1248.7360000000001</v>
+      <c r="B11" s="11">
+        <v>150.85</v>
       </c>
       <c r="C11">
         <v>8685.6808000000001</v>
@@ -46827,7 +47207,7 @@
         <v>7.9010999999999996</v>
       </c>
       <c r="I11">
-        <v>23.154699999999998</v>
+        <v>23.115400000000001</v>
       </c>
       <c r="J11">
         <v>5.25</v>
@@ -46837,8 +47217,8 @@
       <c r="A12" s="1">
         <v>36098</v>
       </c>
-      <c r="B12">
-        <v>1223.1342</v>
+      <c r="B12" s="11">
+        <v>147.75720000000001</v>
       </c>
       <c r="C12">
         <v>11218.9563</v>
@@ -46859,7 +47239,7 @@
         <v>10.1815</v>
       </c>
       <c r="I12">
-        <v>25.122</v>
+        <v>25.085799999999999</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -46869,8 +47249,8 @@
       <c r="A13" s="1">
         <v>36129</v>
       </c>
-      <c r="B13">
-        <v>1253.4409000000001</v>
+      <c r="B13" s="11">
+        <v>151.42019999999999</v>
       </c>
       <c r="C13">
         <v>11542.5934</v>
@@ -46891,7 +47271,7 @@
         <v>10.4305</v>
       </c>
       <c r="I13">
-        <v>26.7514</v>
+        <v>26.712599999999998</v>
       </c>
       <c r="J13">
         <v>4.75</v>
@@ -46901,8 +47281,8 @@
       <c r="A14" s="1">
         <v>36160</v>
       </c>
-      <c r="B14">
-        <v>1152.2375</v>
+      <c r="B14" s="11">
+        <v>139.17760000000001</v>
       </c>
       <c r="C14">
         <v>11150.137000000001</v>
@@ -46923,7 +47303,7 @@
         <v>12.229699999999999</v>
       </c>
       <c r="I14">
-        <v>28.1553</v>
+        <v>28.1556</v>
       </c>
       <c r="J14">
         <v>4.75</v>
@@ -46933,8 +47313,8 @@
       <c r="A15" s="1">
         <v>36189</v>
       </c>
-      <c r="B15">
-        <v>1140.3022000000001</v>
+      <c r="B15" s="11">
+        <v>137.7543</v>
       </c>
       <c r="C15">
         <v>10551.577799999999</v>
@@ -46955,7 +47335,7 @@
         <v>11.567500000000001</v>
       </c>
       <c r="I15">
-        <v>29.1922</v>
+        <v>29.203700000000001</v>
       </c>
       <c r="J15">
         <v>4.75</v>
@@ -46965,8 +47345,8 @@
       <c r="A16" s="1">
         <v>36217</v>
       </c>
-      <c r="B16">
-        <v>1095.4949999999999</v>
+      <c r="B16" s="11">
+        <v>132.3477</v>
       </c>
       <c r="C16">
         <v>10944.0951</v>
@@ -46987,7 +47367,7 @@
         <v>11.9964</v>
       </c>
       <c r="I16">
-        <v>28.188199999999998</v>
+        <v>28.032800000000002</v>
       </c>
       <c r="J16">
         <v>4.75</v>
@@ -46997,8 +47377,8 @@
       <c r="A17" s="1">
         <v>36250</v>
       </c>
-      <c r="B17">
-        <v>1163.9055000000001</v>
+      <c r="B17" s="11">
+        <v>140.56829999999999</v>
       </c>
       <c r="C17">
         <v>12232.5898</v>
@@ -47019,7 +47399,7 @@
         <v>13.2736</v>
       </c>
       <c r="I17">
-        <v>28.552</v>
+        <v>28.453299999999999</v>
       </c>
       <c r="J17">
         <v>4.75</v>
@@ -47029,8 +47409,8 @@
       <c r="A18" s="1">
         <v>36280</v>
       </c>
-      <c r="B18">
-        <v>1126.8977</v>
+      <c r="B18" s="11">
+        <v>136.1086</v>
       </c>
       <c r="C18">
         <v>14945.4323</v>
@@ -47051,7 +47431,7 @@
         <v>16.1952</v>
       </c>
       <c r="I18">
-        <v>29.583400000000001</v>
+        <v>29.489899999999999</v>
       </c>
       <c r="J18">
         <v>4.75</v>
@@ -47061,8 +47441,8 @@
       <c r="A19" s="1">
         <v>36311</v>
       </c>
-      <c r="B19">
-        <v>1288.2217000000001</v>
+      <c r="B19" s="11">
+        <v>155.6105</v>
       </c>
       <c r="C19">
         <v>13673.4683</v>
@@ -47083,7 +47463,7 @@
         <v>14.7492</v>
       </c>
       <c r="I19">
-        <v>28.879899999999999</v>
+        <v>28.799199999999999</v>
       </c>
       <c r="J19">
         <v>4.75</v>
@@ -47093,8 +47473,8 @@
       <c r="A20" s="1">
         <v>36341</v>
       </c>
-      <c r="B20">
-        <v>1705.1319000000001</v>
+      <c r="B20" s="11">
+        <v>205.96610000000001</v>
       </c>
       <c r="C20">
         <v>15246.577300000001</v>
@@ -47115,7 +47495,7 @@
         <v>15.8597</v>
       </c>
       <c r="I20">
-        <v>29.833200000000001</v>
+        <v>29.828399999999998</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -47125,8 +47505,8 @@
       <c r="A21" s="1">
         <v>36371</v>
       </c>
-      <c r="B21">
-        <v>1618.6257000000001</v>
+      <c r="B21" s="11">
+        <v>195.54759999999999</v>
       </c>
       <c r="C21">
         <v>14847.947</v>
@@ -47147,7 +47527,7 @@
         <v>24.7074</v>
       </c>
       <c r="I21">
-        <v>28.731999999999999</v>
+        <v>28.717099999999999</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -47157,8 +47537,8 @@
       <c r="A22" s="1">
         <v>36403</v>
       </c>
-      <c r="B22">
-        <v>1646.6383000000001</v>
+      <c r="B22" s="11">
+        <v>198.94139999999999</v>
       </c>
       <c r="C22">
         <v>15241.543</v>
@@ -47179,7 +47559,7 @@
         <v>25.149100000000001</v>
       </c>
       <c r="I22">
-        <v>28.511600000000001</v>
+        <v>28.487200000000001</v>
       </c>
       <c r="J22">
         <v>5.25</v>
@@ -47189,8 +47569,8 @@
       <c r="A23" s="1">
         <v>36433</v>
       </c>
-      <c r="B23">
-        <v>1589.6767</v>
+      <c r="B23" s="11">
+        <v>192.041</v>
       </c>
       <c r="C23">
         <v>14408.593199999999</v>
@@ -47211,7 +47591,7 @@
         <v>23.747299999999999</v>
       </c>
       <c r="I23">
-        <v>26.966200000000001</v>
+        <v>26.981100000000001</v>
       </c>
       <c r="J23">
         <v>5.25</v>
@@ -47221,8 +47601,8 @@
       <c r="A24" s="1">
         <v>36462</v>
       </c>
-      <c r="B24">
-        <v>1522.7523000000001</v>
+      <c r="B24" s="11">
+        <v>183.9562</v>
       </c>
       <c r="C24">
         <v>15072.6448</v>
@@ -47243,7 +47623,7 @@
         <v>24.9025</v>
       </c>
       <c r="I24">
-        <v>28.339700000000001</v>
+        <v>28.398</v>
       </c>
       <c r="J24">
         <v>5.25</v>
@@ -47253,8 +47633,8 @@
       <c r="A25" s="1">
         <v>36494</v>
       </c>
-      <c r="B25">
-        <v>1452.8426999999999</v>
+      <c r="B25" s="11">
+        <v>175.48740000000001</v>
       </c>
       <c r="C25">
         <v>17553.988099999999</v>
@@ -47275,7 +47655,7 @@
         <v>28.8888</v>
       </c>
       <c r="I25">
-        <v>28.809000000000001</v>
+        <v>28.867999999999999</v>
       </c>
       <c r="J25">
         <v>5.5</v>
@@ -47285,8 +47665,8 @@
       <c r="A26" s="1">
         <v>36525</v>
       </c>
-      <c r="B26">
-        <v>1384.2999</v>
+      <c r="B26" s="11">
+        <v>167.1961</v>
       </c>
       <c r="C26">
         <v>19365.8668</v>
@@ -47307,7 +47687,7 @@
         <v>13.555300000000001</v>
       </c>
       <c r="I26">
-        <v>29.324200000000001</v>
+        <v>29.286999999999999</v>
       </c>
       <c r="J26">
         <v>5.5</v>
@@ -47317,8 +47697,8 @@
       <c r="A27" s="1">
         <v>36556</v>
       </c>
-      <c r="B27">
-        <v>1555.2872</v>
+      <c r="B27" s="11">
+        <v>187.87970000000001</v>
       </c>
       <c r="C27">
         <v>17705.058000000001</v>
@@ -47339,7 +47719,7 @@
         <v>12.4114</v>
       </c>
       <c r="I27">
-        <v>27.862200000000001</v>
+        <v>27.856200000000001</v>
       </c>
       <c r="J27">
         <v>5.5</v>
@@ -47349,8 +47729,8 @@
       <c r="A28" s="1">
         <v>36585</v>
       </c>
-      <c r="B28">
-        <v>1737.2437</v>
+      <c r="B28" s="11">
+        <v>209.8475</v>
       </c>
       <c r="C28">
         <v>19567.2533</v>
@@ -47371,7 +47751,7 @@
         <v>13.7188</v>
       </c>
       <c r="I28">
-        <v>27.281700000000001</v>
+        <v>27.2789</v>
       </c>
       <c r="J28">
         <v>5.75</v>
@@ -47381,8 +47761,8 @@
       <c r="A29" s="1">
         <v>36616</v>
       </c>
-      <c r="B29">
-        <v>1824.0605</v>
+      <c r="B29" s="11">
+        <v>220.33179999999999</v>
       </c>
       <c r="C29">
         <v>19930.3024</v>
@@ -47403,7 +47783,7 @@
         <v>13.8866</v>
       </c>
       <c r="I29">
-        <v>28.910499999999999</v>
+        <v>28.889199999999999</v>
       </c>
       <c r="J29">
         <v>6</v>
@@ -47413,8 +47793,8 @@
       <c r="A30" s="1">
         <v>36644</v>
       </c>
-      <c r="B30">
-        <v>1861.1514999999999</v>
+      <c r="B30" s="11">
+        <v>224.77950000000001</v>
       </c>
       <c r="C30">
         <v>17811.766899999999</v>
@@ -47435,7 +47815,7 @@
         <v>12.391299999999999</v>
       </c>
       <c r="I30">
-        <v>28.017700000000001</v>
+        <v>28.022400000000001</v>
       </c>
       <c r="J30">
         <v>6</v>
@@ -47445,8 +47825,8 @@
       <c r="A31" s="1">
         <v>36677</v>
       </c>
-      <c r="B31">
-        <v>1922.3521000000001</v>
+      <c r="B31" s="11">
+        <v>232.2439</v>
       </c>
       <c r="C31">
         <v>16932.046200000001</v>
@@ -47467,7 +47847,7 @@
         <v>12.1934</v>
       </c>
       <c r="I31">
-        <v>27.318200000000001</v>
+        <v>27.323599999999999</v>
       </c>
       <c r="J31">
         <v>6.5</v>
@@ -47477,8 +47857,8 @@
       <c r="A32" s="1">
         <v>36707</v>
       </c>
-      <c r="B32">
-        <v>1959.4917</v>
+      <c r="B32" s="11">
+        <v>236.70500000000001</v>
       </c>
       <c r="C32">
         <v>18623.427599999999</v>
@@ -47499,7 +47879,7 @@
         <v>13.087899999999999</v>
       </c>
       <c r="I32">
-        <v>27.3215</v>
+        <v>27.4099</v>
       </c>
       <c r="J32">
         <v>6.5</v>
@@ -47509,8 +47889,8 @@
       <c r="A33" s="1">
         <v>36738</v>
       </c>
-      <c r="B33">
-        <v>2059.7435999999998</v>
+      <c r="B33" s="11">
+        <v>248.78530000000001</v>
       </c>
       <c r="C33">
         <v>19407.912799999998</v>
@@ -47531,7 +47911,7 @@
         <v>13.6419</v>
       </c>
       <c r="I33">
-        <v>26.886299999999999</v>
+        <v>26.987500000000001</v>
       </c>
       <c r="J33">
         <v>6.5</v>
@@ -47541,8 +47921,8 @@
       <c r="A34" s="1">
         <v>36769</v>
       </c>
-      <c r="B34">
-        <v>2058.9690000000001</v>
+      <c r="B34" s="11">
+        <v>248.7098</v>
       </c>
       <c r="C34">
         <v>19780.430199999999</v>
@@ -47563,7 +47943,7 @@
         <v>13.9901</v>
       </c>
       <c r="I34">
-        <v>28.160499999999999</v>
+        <v>28.296600000000002</v>
       </c>
       <c r="J34">
         <v>6.5</v>
@@ -47573,8 +47953,8 @@
       <c r="A35" s="1">
         <v>36798</v>
       </c>
-      <c r="B35">
-        <v>1946.0274999999999</v>
+      <c r="B35" s="11">
+        <v>235.03319999999999</v>
       </c>
       <c r="C35">
         <v>18129.784</v>
@@ -47595,7 +47975,7 @@
         <v>12.831099999999999</v>
       </c>
       <c r="I35">
-        <v>25.9482</v>
+        <v>25.955400000000001</v>
       </c>
       <c r="J35">
         <v>6.5</v>
@@ -47605,8 +47985,8 @@
       <c r="A36" s="1">
         <v>36830</v>
       </c>
-      <c r="B36">
-        <v>1998.3386</v>
+      <c r="B36" s="11">
+        <v>241.41810000000001</v>
       </c>
       <c r="C36">
         <v>17266.980200000002</v>
@@ -47627,7 +48007,7 @@
         <v>12.212300000000001</v>
       </c>
       <c r="I36">
-        <v>25.846399999999999</v>
+        <v>25.835799999999999</v>
       </c>
       <c r="J36">
         <v>6.5</v>
@@ -47637,8 +48017,8 @@
       <c r="A37" s="1">
         <v>36860</v>
       </c>
-      <c r="B37">
-        <v>2109.73</v>
+      <c r="B37" s="11">
+        <v>254.8691</v>
       </c>
       <c r="C37">
         <v>16242.5386</v>
@@ -47659,7 +48039,7 @@
         <v>11.465299999999999</v>
       </c>
       <c r="I37">
-        <v>23.8261</v>
+        <v>23.816299999999998</v>
       </c>
       <c r="J37">
         <v>6.5</v>
@@ -47669,8 +48049,8 @@
       <c r="A38" s="1">
         <v>36889</v>
       </c>
-      <c r="B38">
-        <v>2112.6505999999999</v>
+      <c r="B38" s="11">
+        <v>255.2312</v>
       </c>
       <c r="C38">
         <v>17537.212599999999</v>
@@ -47691,7 +48071,7 @@
         <v>12.1312</v>
       </c>
       <c r="I38">
-        <v>24.106400000000001</v>
+        <v>24.1721</v>
       </c>
       <c r="J38">
         <v>6.5</v>
@@ -47701,8 +48081,8 @@
       <c r="A39" s="1">
         <v>36922</v>
       </c>
-      <c r="B39">
-        <v>2104.6309000000001</v>
+      <c r="B39" s="11">
+        <v>254.29300000000001</v>
       </c>
       <c r="C39">
         <v>18710.8655</v>
@@ -47723,7 +48103,7 @@
         <v>12.1312</v>
       </c>
       <c r="I39">
-        <v>24.8733</v>
+        <v>24.9422</v>
       </c>
       <c r="J39">
         <v>5.5</v>
@@ -47733,8 +48113,8 @@
       <c r="A40" s="1">
         <v>36950</v>
       </c>
-      <c r="B40">
-        <v>1996.2748999999999</v>
+      <c r="B40" s="11">
+        <v>241.1455</v>
       </c>
       <c r="C40">
         <v>17182.317999999999</v>
@@ -47755,7 +48135,7 @@
         <v>12.1312</v>
       </c>
       <c r="I40">
-        <v>22.636299999999999</v>
+        <v>22.671600000000002</v>
       </c>
       <c r="J40">
         <v>5.5</v>
@@ -47765,8 +48145,8 @@
       <c r="A41" s="1">
         <v>36980</v>
       </c>
-      <c r="B41">
-        <v>2152.9983999999999</v>
+      <c r="B41" s="11">
+        <v>260.09620000000001</v>
       </c>
       <c r="C41">
         <v>14940.988600000001</v>
@@ -47787,7 +48167,7 @@
         <v>12.1312</v>
       </c>
       <c r="I41">
-        <v>21.6629</v>
+        <v>21.7423</v>
       </c>
       <c r="J41">
         <v>5</v>
@@ -47797,8 +48177,8 @@
       <c r="A42" s="1">
         <v>37011</v>
       </c>
-      <c r="B42">
-        <v>2160.3348999999998</v>
+      <c r="B42" s="11">
+        <v>260.99200000000002</v>
       </c>
       <c r="C42">
         <v>15719.6106</v>
@@ -47819,7 +48199,7 @@
         <v>12.1312</v>
       </c>
       <c r="I42">
-        <v>23.381</v>
+        <v>23.6035</v>
       </c>
       <c r="J42">
         <v>4.5</v>
@@ -47829,8 +48209,8 @@
       <c r="A43" s="1">
         <v>37042</v>
       </c>
-      <c r="B43">
-        <v>2260.7266</v>
+      <c r="B43" s="11">
+        <v>273.1336</v>
       </c>
       <c r="C43">
         <v>15532.2901</v>
@@ -47851,7 +48231,7 @@
         <v>12.1312</v>
       </c>
       <c r="I43">
-        <v>23.573699999999999</v>
+        <v>23.801100000000002</v>
       </c>
       <c r="J43">
         <v>4</v>
@@ -47861,8 +48241,8 @@
       <c r="A44" s="1">
         <v>37071</v>
       </c>
-      <c r="B44">
-        <v>2271.1864999999998</v>
+      <c r="B44" s="11">
+        <v>274.40719999999999</v>
       </c>
       <c r="C44">
         <v>15380.6265</v>
@@ -47883,7 +48263,7 @@
         <v>12.1312</v>
       </c>
       <c r="I44">
-        <v>24.044699999999999</v>
+        <v>24.213999999999999</v>
       </c>
       <c r="J44">
         <v>3.75</v>
@@ -47893,8 +48273,8 @@
       <c r="A45" s="1">
         <v>37103</v>
       </c>
-      <c r="B45">
-        <v>1968.3982000000001</v>
+      <c r="B45" s="11">
+        <v>237.81540000000001</v>
       </c>
       <c r="C45">
         <v>14526.7263</v>
@@ -47915,7 +48295,7 @@
         <v>12.1312</v>
       </c>
       <c r="I45">
-        <v>23.962900000000001</v>
+        <v>24.136700000000001</v>
       </c>
       <c r="J45">
         <v>3.75</v>
@@ -47925,8 +48305,8 @@
       <c r="A46" s="1">
         <v>37134</v>
       </c>
-      <c r="B46">
-        <v>1880.9186</v>
+      <c r="B46" s="11">
+        <v>227.2492</v>
       </c>
       <c r="C46">
         <v>13163.3964</v>
@@ -47957,8 +48337,8 @@
       <c r="A47" s="1">
         <v>37162</v>
       </c>
-      <c r="B47">
-        <v>1809.8964000000001</v>
+      <c r="B47" s="11">
+        <v>218.67099999999999</v>
       </c>
       <c r="C47">
         <v>11831.4714</v>
@@ -47989,8 +48369,8 @@
       <c r="A48" s="1">
         <v>37195</v>
       </c>
-      <c r="B48">
-        <v>1732.42</v>
+      <c r="B48" s="11">
+        <v>209.31039999999999</v>
       </c>
       <c r="C48">
         <v>11996.890299999999</v>
@@ -48021,8 +48401,8 @@
       <c r="A49" s="1">
         <v>37225</v>
       </c>
-      <c r="B49">
-        <v>1792.8312000000001</v>
+      <c r="B49" s="11">
+        <v>216.59350000000001</v>
       </c>
       <c r="C49">
         <v>13462.3006</v>
@@ -48053,8 +48433,8 @@
       <c r="A50" s="1">
         <v>37256</v>
       </c>
-      <c r="B50">
-        <v>1693.0461</v>
+      <c r="B50" s="11">
+        <v>204.56059999999999</v>
       </c>
       <c r="C50">
         <v>13604.7084</v>
@@ -48085,8 +48465,8 @@
       <c r="A51" s="1">
         <v>37287</v>
       </c>
-      <c r="B51">
-        <v>1534.3271</v>
+      <c r="B51" s="11">
+        <v>185.38130000000001</v>
       </c>
       <c r="C51">
         <v>12801.753500000001</v>
@@ -48117,8 +48497,8 @@
       <c r="A52" s="1">
         <v>37315</v>
       </c>
-      <c r="B52">
-        <v>1568.3116</v>
+      <c r="B52" s="11">
+        <v>189.4897</v>
       </c>
       <c r="C52">
         <v>12513.735199999999</v>
@@ -48149,8 +48529,8 @@
       <c r="A53" s="1">
         <v>37344</v>
       </c>
-      <c r="B53">
-        <v>1649.8440000000001</v>
+      <c r="B53" s="11">
+        <v>199.31909999999999</v>
       </c>
       <c r="C53">
         <v>13301.072</v>
@@ -48181,8 +48561,8 @@
       <c r="A54" s="1">
         <v>37376</v>
       </c>
-      <c r="B54">
-        <v>1716.4646</v>
+      <c r="B54" s="11">
+        <v>207.37010000000001</v>
       </c>
       <c r="C54">
         <v>13904.173000000001</v>
@@ -48213,8 +48593,8 @@
       <c r="A55" s="1">
         <v>37407</v>
       </c>
-      <c r="B55">
-        <v>1562.0288</v>
+      <c r="B55" s="11">
+        <v>188.73060000000001</v>
       </c>
       <c r="C55">
         <v>13725.178099999999</v>
@@ -48245,8 +48625,8 @@
       <c r="A56" s="1">
         <v>37435</v>
       </c>
-      <c r="B56">
-        <v>1791.7633000000001</v>
+      <c r="B56" s="11">
+        <v>216.47229999999999</v>
       </c>
       <c r="C56">
         <v>12871.742899999999</v>
@@ -48277,8 +48657,8 @@
       <c r="A57" s="1">
         <v>37468</v>
       </c>
-      <c r="B57">
-        <v>1714.0255999999999</v>
+      <c r="B57" s="11">
+        <v>207.09299999999999</v>
       </c>
       <c r="C57">
         <v>12471.0923</v>
@@ -48309,8 +48689,8 @@
       <c r="A58" s="1">
         <v>37498</v>
       </c>
-      <c r="B58">
-        <v>1730.7399</v>
+      <c r="B58" s="11">
+        <v>209.10740000000001</v>
       </c>
       <c r="C58">
         <v>12290.145</v>
@@ -48341,8 +48721,8 @@
       <c r="A59" s="1">
         <v>37529</v>
       </c>
-      <c r="B59">
-        <v>1643.2974999999999</v>
+      <c r="B59" s="11">
+        <v>198.55459999999999</v>
       </c>
       <c r="C59">
         <v>11131.052</v>
@@ -48373,8 +48753,8 @@
       <c r="A60" s="1">
         <v>37560</v>
       </c>
-      <c r="B60">
-        <v>1566.3322000000001</v>
+      <c r="B60" s="11">
+        <v>189.2345</v>
       </c>
       <c r="C60">
         <v>11595.3038</v>
@@ -48405,8 +48785,8 @@
       <c r="A61" s="1">
         <v>37589</v>
       </c>
-      <c r="B61">
-        <v>1490.1931999999999</v>
+      <c r="B61" s="11">
+        <v>180.0359</v>
       </c>
       <c r="C61">
         <v>12397.657300000001</v>
@@ -48437,8 +48817,8 @@
       <c r="A62" s="1">
         <v>37621</v>
       </c>
-      <c r="B62">
-        <v>1410.6794</v>
+      <c r="B62" s="11">
+        <v>170.43369999999999</v>
       </c>
       <c r="C62">
         <v>11480.9331</v>
@@ -48469,8 +48849,8 @@
       <c r="A63" s="1">
         <v>37652</v>
       </c>
-      <c r="B63">
-        <v>1558.3925999999999</v>
+      <c r="B63" s="11">
+        <v>188.2731</v>
       </c>
       <c r="C63">
         <v>11401.9076</v>
@@ -48501,8 +48881,8 @@
       <c r="A64" s="1">
         <v>37680</v>
       </c>
-      <c r="B64">
-        <v>1570.9829</v>
+      <c r="B64" s="11">
+        <v>189.7895</v>
       </c>
       <c r="C64">
         <v>11237.8861</v>
@@ -48533,8 +48913,8 @@
       <c r="A65" s="1">
         <v>37711</v>
       </c>
-      <c r="B65">
-        <v>1569.6991</v>
+      <c r="B65" s="11">
+        <v>189.63669999999999</v>
       </c>
       <c r="C65">
         <v>10772.051799999999</v>
@@ -48565,8 +48945,8 @@
       <c r="A66" s="1">
         <v>37741</v>
       </c>
-      <c r="B66">
-        <v>1582.1658</v>
+      <c r="B66" s="11">
+        <v>191.15209999999999</v>
       </c>
       <c r="C66">
         <v>10952.5569</v>
@@ -48597,8 +48977,8 @@
       <c r="A67" s="1">
         <v>37771</v>
       </c>
-      <c r="B67">
-        <v>1640.8345999999999</v>
+      <c r="B67" s="11">
+        <v>198.245</v>
       </c>
       <c r="C67">
         <v>12005.856400000001</v>
@@ -48629,8 +49009,8 @@
       <c r="A68" s="1">
         <v>37802</v>
       </c>
-      <c r="B68">
-        <v>1556.3921</v>
+      <c r="B68" s="11">
+        <v>188.02680000000001</v>
       </c>
       <c r="C68">
         <v>12124.7438</v>
@@ -48661,8 +49041,8 @@
       <c r="A69" s="1">
         <v>37833</v>
       </c>
-      <c r="B69">
-        <v>1549.8896999999999</v>
+      <c r="B69" s="11">
+        <v>187.2458</v>
       </c>
       <c r="C69">
         <v>12832.8045</v>
@@ -48693,8 +49073,8 @@
       <c r="A70" s="1">
         <v>37862</v>
       </c>
-      <c r="B70">
-        <v>1493.4123999999999</v>
+      <c r="B70" s="11">
+        <v>180.42699999999999</v>
       </c>
       <c r="C70">
         <v>13940.8141</v>
@@ -48725,8 +49105,8 @@
       <c r="A71" s="1">
         <v>37894</v>
       </c>
-      <c r="B71">
-        <v>1437.1371999999999</v>
+      <c r="B71" s="11">
+        <v>173.6302</v>
       </c>
       <c r="C71">
         <v>14496.149299999999</v>
@@ -48757,8 +49137,8 @@
       <c r="A72" s="1">
         <v>37925</v>
       </c>
-      <c r="B72">
-        <v>1417.4167</v>
+      <c r="B72" s="11">
+        <v>171.2559</v>
       </c>
       <c r="C72">
         <v>15697.3465</v>
@@ -48789,8 +49169,8 @@
       <c r="A73" s="1">
         <v>37953</v>
       </c>
-      <c r="B73">
-        <v>1469.0467000000001</v>
+      <c r="B73" s="11">
+        <v>177.4854</v>
       </c>
       <c r="C73">
         <v>15929.2027</v>
@@ -48821,8 +49201,8 @@
       <c r="A74" s="1">
         <v>37986</v>
       </c>
-      <c r="B74">
-        <v>1574.0168000000001</v>
+      <c r="B74" s="11">
+        <v>190.17439999999999</v>
       </c>
       <c r="C74">
         <v>16283.597100000001</v>
@@ -48853,8 +49233,8 @@
       <c r="A75" s="1">
         <v>38016</v>
       </c>
-      <c r="B75">
-        <v>1672.5512000000001</v>
+      <c r="B75" s="11">
+        <v>202.077</v>
       </c>
       <c r="C75">
         <v>17179.908500000001</v>
@@ -48885,8 +49265,8 @@
       <c r="A76" s="1">
         <v>38044</v>
       </c>
-      <c r="B76">
-        <v>1761.2273</v>
+      <c r="B76" s="11">
+        <v>212.78829999999999</v>
       </c>
       <c r="C76">
         <v>17963.2837</v>
@@ -48917,8 +49297,8 @@
       <c r="A77" s="1">
         <v>38077</v>
       </c>
-      <c r="B77">
-        <v>1831.6262999999999</v>
+      <c r="B77" s="11">
+        <v>221.2911</v>
       </c>
       <c r="C77">
         <v>16479.3459</v>
@@ -48949,8 +49329,8 @@
       <c r="A78" s="1">
         <v>38107</v>
       </c>
-      <c r="B78">
-        <v>1679.6922</v>
+      <c r="B78" s="11">
+        <v>202.9324</v>
       </c>
       <c r="C78">
         <v>15542.868399999999</v>
@@ -48981,8 +49361,8 @@
       <c r="A79" s="1">
         <v>38138</v>
       </c>
-      <c r="B79">
-        <v>1642.4781</v>
+      <c r="B79" s="11">
+        <v>198.4436</v>
       </c>
       <c r="C79">
         <v>16036.5224</v>
@@ -49013,8 +49393,8 @@
       <c r="A80" s="1">
         <v>38168</v>
       </c>
-      <c r="B80">
-        <v>1488.4791</v>
+      <c r="B80" s="11">
+        <v>179.84399999999999</v>
       </c>
       <c r="C80">
         <v>16161.2948</v>
@@ -49045,8 +49425,8 @@
       <c r="A81" s="1">
         <v>38198</v>
       </c>
-      <c r="B81">
-        <v>1477.9092000000001</v>
+      <c r="B81" s="11">
+        <v>178.55609999999999</v>
       </c>
       <c r="C81">
         <v>16102.1304</v>
@@ -49077,8 +49457,8 @@
       <c r="A82" s="1">
         <v>38230</v>
       </c>
-      <c r="B82">
-        <v>1431.3058000000001</v>
+      <c r="B82" s="11">
+        <v>172.93610000000001</v>
       </c>
       <c r="C82">
         <v>16973.270199999999</v>
@@ -49109,8 +49489,8 @@
       <c r="A83" s="1">
         <v>38260</v>
       </c>
-      <c r="B83">
-        <v>1491.0668000000001</v>
+      <c r="B83" s="11">
+        <v>180.1567</v>
       </c>
       <c r="C83">
         <v>17419.561300000001</v>
@@ -49141,8 +49521,8 @@
       <c r="A84" s="1">
         <v>38289</v>
       </c>
-      <c r="B84">
-        <v>1410.1737000000001</v>
+      <c r="B84" s="11">
+        <v>170.38079999999999</v>
       </c>
       <c r="C84">
         <v>17370.017599999999</v>
@@ -49173,8 +49553,8 @@
       <c r="A85" s="1">
         <v>38321</v>
       </c>
-      <c r="B85">
-        <v>1431.8373999999999</v>
+      <c r="B85" s="11">
+        <v>173.00030000000001</v>
       </c>
       <c r="C85">
         <v>18803.180100000001</v>
@@ -49205,8 +49585,8 @@
       <c r="A86" s="1">
         <v>38352</v>
       </c>
-      <c r="B86">
-        <v>1352.6216999999999</v>
+      <c r="B86" s="11">
+        <v>163.42920000000001</v>
       </c>
       <c r="C86">
         <v>19051.2788</v>
@@ -49237,8 +49617,8 @@
       <c r="A87" s="1">
         <v>38383</v>
       </c>
-      <c r="B87">
-        <v>1272.8706999999999</v>
+      <c r="B87" s="11">
+        <v>153.79519999999999</v>
       </c>
       <c r="C87">
         <v>18307.224900000001</v>
@@ -49269,8 +49649,8 @@
       <c r="A88" s="1">
         <v>38411</v>
       </c>
-      <c r="B88">
-        <v>1394.8154</v>
+      <c r="B88" s="11">
+        <v>168.52719999999999</v>
       </c>
       <c r="C88">
         <v>18943.706600000001</v>
@@ -49301,8 +49681,8 @@
       <c r="A89" s="1">
         <v>38442</v>
       </c>
-      <c r="B89">
-        <v>1261.6141</v>
+      <c r="B89" s="11">
+        <v>152.43510000000001</v>
       </c>
       <c r="C89">
         <v>18174.3318</v>
@@ -49333,8 +49713,8 @@
       <c r="A90" s="1">
         <v>38471</v>
       </c>
-      <c r="B90">
-        <v>1239.9938999999999</v>
+      <c r="B90" s="11">
+        <v>149.8229</v>
       </c>
       <c r="C90">
         <v>18732.805400000001</v>
@@ -49365,8 +49745,8 @@
       <c r="A91" s="1">
         <v>38503</v>
       </c>
-      <c r="B91">
-        <v>1139.8880999999999</v>
+      <c r="B91" s="11">
+        <v>137.7225</v>
       </c>
       <c r="C91">
         <v>18946.883000000002</v>
@@ -49397,8 +49777,8 @@
       <c r="A92" s="1">
         <v>38533</v>
       </c>
-      <c r="B92">
-        <v>1174.4247</v>
+      <c r="B92" s="11">
+        <v>141.90039999999999</v>
       </c>
       <c r="C92">
         <v>19430.815200000001</v>
@@ -49429,8 +49809,8 @@
       <c r="A93" s="1">
         <v>38562</v>
       </c>
-      <c r="B93">
-        <v>1181.5676000000001</v>
+      <c r="B93" s="11">
+        <v>145.77180000000001</v>
       </c>
       <c r="C93">
         <v>19935.253000000001</v>
@@ -49461,8 +49841,8 @@
       <c r="A94" s="1">
         <v>38595</v>
       </c>
-      <c r="B94">
-        <v>1273.1596</v>
+      <c r="B94" s="11">
+        <v>157.1841</v>
       </c>
       <c r="C94">
         <v>20061.326799999999</v>
@@ -49493,8 +49873,8 @@
       <c r="A95" s="1">
         <v>38625</v>
       </c>
-      <c r="B95">
-        <v>1266.7731000000001</v>
+      <c r="B95" s="11">
+        <v>156.54640000000001</v>
       </c>
       <c r="C95">
         <v>20858.9709</v>
@@ -49525,8 +49905,8 @@
       <c r="A96" s="1">
         <v>38656</v>
       </c>
-      <c r="B96">
-        <v>1198.0826999999999</v>
+      <c r="B96" s="11">
+        <v>148.19499999999999</v>
       </c>
       <c r="C96">
         <v>19464.069200000002</v>
@@ -49557,8 +49937,8 @@
       <c r="A97" s="1">
         <v>38686</v>
       </c>
-      <c r="B97">
-        <v>1205.4645</v>
+      <c r="B97" s="11">
+        <v>149.18379999999999</v>
       </c>
       <c r="C97">
         <v>20278.632000000001</v>
@@ -49589,8 +49969,8 @@
       <c r="A98" s="1">
         <v>38716</v>
       </c>
-      <c r="B98">
-        <v>1273.8697</v>
+      <c r="B98" s="11">
+        <v>157.8486</v>
       </c>
       <c r="C98">
         <v>20187.816200000001</v>
@@ -49621,8 +50001,8 @@
       <c r="A99" s="1">
         <v>38748</v>
       </c>
-      <c r="B99">
-        <v>1380.2826</v>
+      <c r="B99" s="11">
+        <v>171.2106</v>
       </c>
       <c r="C99">
         <v>21346.501</v>
@@ -49653,8 +50033,8 @@
       <c r="A100" s="1">
         <v>38776</v>
       </c>
-      <c r="B100">
-        <v>1425.4165</v>
+      <c r="B100" s="11">
+        <v>177.28620000000001</v>
       </c>
       <c r="C100">
         <v>21511.6531</v>
@@ -49685,8 +50065,8 @@
       <c r="A101" s="1">
         <v>38807</v>
       </c>
-      <c r="B101">
-        <v>1425.9160999999999</v>
+      <c r="B101" s="11">
+        <v>177.8571</v>
       </c>
       <c r="C101">
         <v>21451.284800000001</v>
@@ -49717,8 +50097,8 @@
       <c r="A102" s="1">
         <v>38835</v>
       </c>
-      <c r="B102">
-        <v>1585.5953</v>
+      <c r="B102" s="11">
+        <v>197.85319999999999</v>
       </c>
       <c r="C102">
         <v>22638.261900000001</v>
@@ -49749,8 +50129,8 @@
       <c r="A103" s="1">
         <v>38868</v>
       </c>
-      <c r="B103">
-        <v>1812.8391999999999</v>
+      <c r="B103" s="11">
+        <v>226.1103</v>
       </c>
       <c r="C103">
         <v>21843.200799999999</v>
@@ -49781,8 +50161,8 @@
       <c r="A104" s="1">
         <v>38898</v>
       </c>
-      <c r="B104">
-        <v>1863.5359000000001</v>
+      <c r="B104" s="11">
+        <v>233.10810000000001</v>
       </c>
       <c r="C104">
         <v>22281.333900000001</v>
@@ -49813,8 +50193,8 @@
       <c r="A105" s="1">
         <v>38929</v>
       </c>
-      <c r="B105">
-        <v>1800.8313000000001</v>
+      <c r="B105" s="11">
+        <v>225.9796</v>
       </c>
       <c r="C105">
         <v>23164.334299999999</v>
@@ -49845,8 +50225,8 @@
       <c r="A106" s="1">
         <v>38960</v>
       </c>
-      <c r="B106">
-        <v>1853.3853999999999</v>
+      <c r="B106" s="11">
+        <v>233.05109999999999</v>
       </c>
       <c r="C106">
         <v>23745.244200000001</v>
@@ -49877,8 +50257,8 @@
       <c r="A107" s="1">
         <v>38989</v>
       </c>
-      <c r="B107">
-        <v>1960.8715999999999</v>
+      <c r="B107" s="11">
+        <v>248.08279999999999</v>
       </c>
       <c r="C107">
         <v>23900.9977</v>
@@ -49909,8 +50289,8 @@
       <c r="A108" s="1">
         <v>39021</v>
       </c>
-      <c r="B108">
-        <v>2056.6527999999998</v>
+      <c r="B108" s="11">
+        <v>261.02969999999999</v>
       </c>
       <c r="C108">
         <v>24947.981500000002</v>
@@ -49941,8 +50321,8 @@
       <c r="A109" s="1">
         <v>39051</v>
       </c>
-      <c r="B109">
-        <v>2349.0365000000002</v>
+      <c r="B109" s="11">
+        <v>299.87439999999998</v>
       </c>
       <c r="C109">
         <v>25750.701499999999</v>
@@ -49973,8 +50353,8 @@
       <c r="A110" s="1">
         <v>39080</v>
       </c>
-      <c r="B110">
-        <v>2994.5798</v>
+      <c r="B110" s="11">
+        <v>383.6696</v>
       </c>
       <c r="C110">
         <v>27044.057799999999</v>
@@ -50005,8 +50385,8 @@
       <c r="A111" s="1">
         <v>39113</v>
       </c>
-      <c r="B111">
-        <v>3118.6632</v>
+      <c r="B111" s="11">
+        <v>401.14519999999999</v>
       </c>
       <c r="C111">
         <v>27026.385699999999</v>
@@ -50037,8 +50417,8 @@
       <c r="A112" s="1">
         <v>39141</v>
       </c>
-      <c r="B112">
-        <v>3224.7006999999999</v>
+      <c r="B112" s="11">
+        <v>416.60109999999997</v>
       </c>
       <c r="C112">
         <v>26292.780500000001</v>
@@ -50069,8 +50449,8 @@
       <c r="A113" s="1">
         <v>39171</v>
       </c>
-      <c r="B113">
-        <v>3563.8508999999999</v>
+      <c r="B113" s="11">
+        <v>461.28019999999998</v>
       </c>
       <c r="C113">
         <v>26574.832200000001</v>
@@ -50101,8 +50481,8 @@
       <c r="A114" s="1">
         <v>39202</v>
       </c>
-      <c r="B114">
-        <v>4300.5020000000004</v>
+      <c r="B114" s="11">
+        <v>557.85469999999998</v>
       </c>
       <c r="C114">
         <v>27228.997200000002</v>
@@ -50133,8 +50513,8 @@
       <c r="A115" s="1">
         <v>39233</v>
       </c>
-      <c r="B115">
-        <v>4605.3225000000002</v>
+      <c r="B115" s="11">
+        <v>601.87710000000004</v>
       </c>
       <c r="C115">
         <v>27752.962200000002</v>
@@ -50165,8 +50545,8 @@
       <c r="A116" s="1">
         <v>39262</v>
       </c>
-      <c r="B116">
-        <v>4294.3028000000004</v>
+      <c r="B116" s="11">
+        <v>564.06020000000001</v>
       </c>
       <c r="C116">
         <v>29129.809700000002</v>
@@ -50197,8 +50577,8 @@
       <c r="A117" s="1">
         <v>39294</v>
       </c>
-      <c r="B117">
-        <v>5034.7583999999997</v>
+      <c r="B117" s="11">
+        <v>664.88279999999997</v>
       </c>
       <c r="C117">
         <v>30831.122599999999</v>
@@ -50229,8 +50609,8 @@
       <c r="A118" s="1">
         <v>39325</v>
       </c>
-      <c r="B118">
-        <v>5878.0520999999999</v>
+      <c r="B118" s="11">
+        <v>779.06590000000006</v>
       </c>
       <c r="C118">
         <v>31976.332699999999</v>
@@ -50261,8 +50641,8 @@
       <c r="A119" s="1">
         <v>39353</v>
       </c>
-      <c r="B119">
-        <v>6255.3689000000004</v>
+      <c r="B119" s="11">
+        <v>833.37139999999999</v>
       </c>
       <c r="C119">
         <v>36327.9018</v>
@@ -50293,8 +50673,8 @@
       <c r="A120" s="1">
         <v>39386</v>
       </c>
-      <c r="B120">
-        <v>6709.2920999999997</v>
+      <c r="B120" s="11">
+        <v>898.88689999999997</v>
       </c>
       <c r="C120">
         <v>41833.026899999997</v>
@@ -50325,8 +50705,8 @@
       <c r="A121" s="1">
         <v>39416</v>
       </c>
-      <c r="B121">
-        <v>5489.0825999999997</v>
+      <c r="B121" s="11">
+        <v>743.02300000000002</v>
       </c>
       <c r="C121">
         <v>37762.421300000002</v>
@@ -50357,8 +50737,8 @@
       <c r="A122" s="1">
         <v>39447</v>
       </c>
-      <c r="B122">
-        <v>5928.2575999999999</v>
+      <c r="B122" s="11">
+        <v>811.63419999999996</v>
       </c>
       <c r="C122">
         <v>36156.936500000003</v>
@@ -50389,8 +50769,8 @@
       <c r="A123" s="1">
         <v>39478</v>
       </c>
-      <c r="B123">
-        <v>4938.8145000000004</v>
+      <c r="B123" s="11">
+        <v>687.6848</v>
       </c>
       <c r="C123">
         <v>30019.917300000001</v>
@@ -50421,8 +50801,8 @@
       <c r="A124" s="1">
         <v>39507</v>
       </c>
-      <c r="B124">
-        <v>4899.5694000000003</v>
+      <c r="B124" s="11">
+        <v>688.96429999999998</v>
       </c>
       <c r="C124">
         <v>30907.881000000001</v>
@@ -50453,8 +50833,8 @@
       <c r="A125" s="1">
         <v>39538</v>
       </c>
-      <c r="B125">
-        <v>3912.9283</v>
+      <c r="B125" s="11">
+        <v>558.03309999999999</v>
       </c>
       <c r="C125">
         <v>28759.9607</v>
@@ -50485,8 +50865,8 @@
       <c r="A126" s="1">
         <v>39568</v>
       </c>
-      <c r="B126">
-        <v>4163.2811000000002</v>
+      <c r="B126" s="11">
+        <v>595.8184</v>
       </c>
       <c r="C126">
         <v>32331.6558</v>
@@ -50517,8 +50897,8 @@
       <c r="A127" s="1">
         <v>39598</v>
       </c>
-      <c r="B127">
-        <v>3880.6134000000002</v>
+      <c r="B127" s="11">
+        <v>558.98090000000002</v>
       </c>
       <c r="C127">
         <v>30774.685000000001</v>
@@ -50549,8 +50929,8 @@
       <c r="A128" s="1">
         <v>39629</v>
       </c>
-      <c r="B128">
-        <v>3114.5720000000001</v>
+      <c r="B128" s="11">
+        <v>454.39679999999998</v>
       </c>
       <c r="C128">
         <v>27505.8799</v>
@@ -50581,8 +50961,8 @@
       <c r="A129" s="1">
         <v>39660</v>
       </c>
-      <c r="B129">
-        <v>3163.9830000000002</v>
+      <c r="B129" s="11">
+        <v>463.15969999999999</v>
       </c>
       <c r="C129">
         <v>28180.329900000001</v>
@@ -50613,8 +50993,8 @@
       <c r="A130" s="1">
         <v>39689</v>
       </c>
-      <c r="B130">
-        <v>2733.2435</v>
+      <c r="B130" s="11">
+        <v>399.72559999999999</v>
       </c>
       <c r="C130">
         <v>26448.438900000001</v>
@@ -50645,8 +51025,8 @@
       <c r="A131" s="1">
         <v>39721</v>
       </c>
-      <c r="B131">
-        <v>2621.4355999999998</v>
+      <c r="B131" s="11">
+        <v>382.77510000000001</v>
       </c>
       <c r="C131">
         <v>22681.931700000001</v>
@@ -50677,8 +51057,8 @@
       <c r="A132" s="1">
         <v>39752</v>
       </c>
-      <c r="B132">
-        <v>1975.9292</v>
+      <c r="B132" s="11">
+        <v>288.8997</v>
       </c>
       <c r="C132">
         <v>17613.418799999999</v>
@@ -50709,8 +51089,8 @@
       <c r="A133" s="1">
         <v>39780</v>
       </c>
-      <c r="B133">
-        <v>2138.8905</v>
+      <c r="B133" s="11">
+        <v>312.52510000000001</v>
       </c>
       <c r="C133">
         <v>17655.604899999998</v>
@@ -50741,8 +51121,8 @@
       <c r="A134" s="1">
         <v>39813</v>
       </c>
-      <c r="B134">
-        <v>2081.4715000000001</v>
+      <c r="B134" s="11">
+        <v>304.95519999999999</v>
       </c>
       <c r="C134">
         <v>18246.896199999999</v>
@@ -50773,8 +51153,8 @@
       <c r="A135" s="1">
         <v>39843</v>
       </c>
-      <c r="B135">
-        <v>2275.6395000000002</v>
+      <c r="B135" s="11">
+        <v>332.38</v>
       </c>
       <c r="C135">
         <v>16881.640500000001</v>
@@ -50805,8 +51185,8 @@
       <c r="A136" s="1">
         <v>39871</v>
       </c>
-      <c r="B136">
-        <v>2381.0331999999999</v>
+      <c r="B136" s="11">
+        <v>348.11439999999999</v>
       </c>
       <c r="C136">
         <v>16272.974899999999</v>
@@ -50837,8 +51217,8 @@
       <c r="A137" s="1">
         <v>39903</v>
       </c>
-      <c r="B137">
-        <v>2712.9749000000002</v>
+      <c r="B137" s="11">
+        <v>397.0052</v>
       </c>
       <c r="C137">
         <v>17317.7228</v>
@@ -50869,8 +51249,8 @@
       <c r="A138" s="1">
         <v>39933</v>
       </c>
-      <c r="B138">
-        <v>2833.0455000000002</v>
+      <c r="B138" s="11">
+        <v>415.2199</v>
       </c>
       <c r="C138">
         <v>19800.778999999999</v>
@@ -50901,8 +51281,8 @@
       <c r="A139" s="1">
         <v>39962</v>
       </c>
-      <c r="B139">
-        <v>3013.3960000000002</v>
+      <c r="B139" s="11">
+        <v>441.32279999999997</v>
       </c>
       <c r="C139">
         <v>23450.0281</v>
@@ -50933,8 +51313,8 @@
       <c r="A140" s="1">
         <v>39994</v>
       </c>
-      <c r="B140">
-        <v>3420.2575999999999</v>
+      <c r="B140" s="11">
+        <v>500.71850000000001</v>
       </c>
       <c r="C140">
         <v>23832.442200000001</v>
@@ -50965,8 +51345,8 @@
       <c r="A141" s="1">
         <v>40025</v>
       </c>
-      <c r="B141">
-        <v>3949.6963999999998</v>
+      <c r="B141" s="11">
+        <v>578.1087</v>
       </c>
       <c r="C141">
         <v>26683.736700000001</v>
@@ -50997,8 +51377,8 @@
       <c r="A142" s="1">
         <v>40056</v>
       </c>
-      <c r="B142">
-        <v>3088.7826</v>
+      <c r="B142" s="11">
+        <v>452.19779999999997</v>
       </c>
       <c r="C142">
         <v>25623.424299999999</v>
@@ -51029,8 +51409,8 @@
       <c r="A143" s="1">
         <v>40086</v>
       </c>
-      <c r="B143">
-        <v>3223.6707999999999</v>
+      <c r="B143" s="11">
+        <v>472.24279999999999</v>
       </c>
       <c r="C143">
         <v>27336.143800000002</v>
@@ -51061,8 +51441,8 @@
       <c r="A144" s="1">
         <v>40116</v>
       </c>
-      <c r="B144">
-        <v>3475.1127999999999</v>
+      <c r="B144" s="11">
+        <v>508.98759999999999</v>
       </c>
       <c r="C144">
         <v>28393.140100000001</v>
@@ -51093,8 +51473,8 @@
       <c r="A145" s="1">
         <v>40147</v>
       </c>
-      <c r="B145">
-        <v>3706.4922000000001</v>
+      <c r="B145" s="11">
+        <v>542.90869999999995</v>
       </c>
       <c r="C145">
         <v>28534.0357</v>
@@ -51125,8 +51505,8 @@
       <c r="A146" s="1">
         <v>40178</v>
       </c>
-      <c r="B146">
-        <v>3801.4519</v>
+      <c r="B146" s="11">
+        <v>556.81799999999998</v>
       </c>
       <c r="C146">
         <v>28593.195199999998</v>
@@ -51157,8 +51537,8 @@
       <c r="A147" s="1">
         <v>40207</v>
       </c>
-      <c r="B147">
-        <v>3467.5533999999998</v>
+      <c r="B147" s="11">
+        <v>507.9325</v>
       </c>
       <c r="C147">
         <v>26265.375700000001</v>
@@ -51189,8 +51569,8 @@
       <c r="A148" s="1">
         <v>40235</v>
       </c>
-      <c r="B148">
-        <v>3540.2278999999999</v>
+      <c r="B148" s="11">
+        <v>518.63869999999997</v>
       </c>
       <c r="C148">
         <v>26911.8076</v>
@@ -51221,8 +51601,8 @@
       <c r="A149" s="1">
         <v>40268</v>
       </c>
-      <c r="B149">
-        <v>3606.7604999999999</v>
+      <c r="B149" s="11">
+        <v>528.34699999999998</v>
       </c>
       <c r="C149">
         <v>27791.986499999999</v>
@@ -51253,8 +51633,8 @@
       <c r="A150" s="1">
         <v>40298</v>
       </c>
-      <c r="B150">
-        <v>3331.7858999999999</v>
+      <c r="B150" s="11">
+        <v>488.15949999999998</v>
       </c>
       <c r="C150">
         <v>27688.891199999998</v>
@@ -51285,8 +51665,8 @@
       <c r="A151" s="1">
         <v>40329</v>
       </c>
-      <c r="B151">
-        <v>3020.0511000000001</v>
+      <c r="B151" s="11">
+        <v>442.3039</v>
       </c>
       <c r="C151">
         <v>26179.016800000001</v>
@@ -51317,8 +51697,8 @@
       <c r="A152" s="1">
         <v>40359</v>
       </c>
-      <c r="B152">
-        <v>2813.4315999999999</v>
+      <c r="B152" s="11">
+        <v>414.87470000000002</v>
       </c>
       <c r="C152">
         <v>26571.232199999999</v>
@@ -51349,8 +51729,8 @@
       <c r="A153" s="1">
         <v>40389</v>
       </c>
-      <c r="B153">
-        <v>3104.5342999999998</v>
+      <c r="B153" s="11">
+        <v>458.23379999999997</v>
       </c>
       <c r="C153">
         <v>27802.357800000002</v>
@@ -51381,8 +51761,8 @@
       <c r="A154" s="1">
         <v>40421</v>
       </c>
-      <c r="B154">
-        <v>3106.3602000000001</v>
+      <c r="B154" s="11">
+        <v>456.11340000000001</v>
       </c>
       <c r="C154">
         <v>27315.031900000002</v>
@@ -51413,8 +51793,8 @@
       <c r="A155" s="1">
         <v>40451</v>
       </c>
-      <c r="B155">
-        <v>3133.1469999999999</v>
+      <c r="B155" s="11">
+        <v>468.3329</v>
       </c>
       <c r="C155">
         <v>29431.141100000001</v>
@@ -51445,8 +51825,8 @@
       <c r="A156" s="1">
         <v>40480</v>
       </c>
-      <c r="B156">
-        <v>3514.4942000000001</v>
+      <c r="B156" s="11">
+        <v>526.67380000000003</v>
       </c>
       <c r="C156">
         <v>30370.747100000001</v>
@@ -51477,8 +51857,8 @@
       <c r="A157" s="1">
         <v>40512</v>
       </c>
-      <c r="B157">
-        <v>3327.3181</v>
+      <c r="B157" s="11">
+        <v>499.07279999999997</v>
       </c>
       <c r="C157">
         <v>30229.598699999999</v>
@@ -51509,8 +51889,8 @@
       <c r="A158" s="1">
         <v>40543</v>
       </c>
-      <c r="B158">
-        <v>3313.1950000000002</v>
+      <c r="B158" s="11">
+        <v>502.78390000000002</v>
       </c>
       <c r="C158">
         <v>29892.436600000001</v>
@@ -51541,8 +51921,8 @@
       <c r="A159" s="1">
         <v>40574</v>
       </c>
-      <c r="B159">
-        <v>3292.6853999999998</v>
+      <c r="B159" s="11">
+        <v>499.27</v>
       </c>
       <c r="C159">
         <v>30368.5772</v>
@@ -51573,8 +51953,8 @@
       <c r="A160" s="1">
         <v>40602</v>
       </c>
-      <c r="B160">
-        <v>3427.7109999999998</v>
+      <c r="B160" s="11">
+        <v>521.59460000000001</v>
       </c>
       <c r="C160">
         <v>30142.926899999999</v>
@@ -51605,8 +51985,8 @@
       <c r="A161" s="1">
         <v>40633</v>
       </c>
-      <c r="B161">
-        <v>3455.2251999999999</v>
+      <c r="B161" s="11">
+        <v>527.62810000000002</v>
       </c>
       <c r="C161">
         <v>30418.6217</v>
@@ -51637,8 +52017,8 @@
       <c r="A162" s="1">
         <v>40662</v>
       </c>
-      <c r="B162">
-        <v>3436.5693000000001</v>
+      <c r="B162" s="11">
+        <v>529.43600000000004</v>
       </c>
       <c r="C162">
         <v>30486.613499999999</v>
@@ -51669,8 +52049,8 @@
       <c r="A163" s="1">
         <v>40694</v>
       </c>
-      <c r="B163">
-        <v>3240.8694999999998</v>
+      <c r="B163" s="11">
+        <v>500.20359999999999</v>
       </c>
       <c r="C163">
         <v>30590.7487</v>
@@ -51701,8 +52081,8 @@
       <c r="A164" s="1">
         <v>40724</v>
       </c>
-      <c r="B164">
-        <v>3305.9585000000002</v>
+      <c r="B164" s="11">
+        <v>511.4495</v>
       </c>
       <c r="C164">
         <v>29053.677500000002</v>
@@ -51733,8 +52113,8 @@
       <c r="A165" s="1">
         <v>40753</v>
       </c>
-      <c r="B165">
-        <v>3238.1559999999999</v>
+      <c r="B165" s="11">
+        <v>503.04579999999999</v>
       </c>
       <c r="C165">
         <v>28939.9804</v>
@@ -51765,8 +52145,8 @@
       <c r="A166" s="1">
         <v>40786</v>
       </c>
-      <c r="B166">
-        <v>3077.8887</v>
+      <c r="B166" s="11">
+        <v>482.56380000000001</v>
       </c>
       <c r="C166">
         <v>26340.132900000001</v>
@@ -51797,8 +52177,8 @@
       <c r="A167" s="1">
         <v>40816</v>
       </c>
-      <c r="B167">
-        <v>2834.4904999999999</v>
+      <c r="B167" s="11">
+        <v>444.06869999999998</v>
       </c>
       <c r="C167">
         <v>22718.042300000001</v>
@@ -51829,8 +52209,8 @@
       <c r="A168" s="1">
         <v>40847</v>
       </c>
-      <c r="B168">
-        <v>2965.8334</v>
+      <c r="B168" s="11">
+        <v>466.36270000000002</v>
       </c>
       <c r="C168">
         <v>25621.734100000001</v>
@@ -51861,8 +52241,8 @@
       <c r="A169" s="1">
         <v>40877</v>
       </c>
-      <c r="B169">
-        <v>2804.3447999999999</v>
+      <c r="B169" s="11">
+        <v>439.60070000000002</v>
       </c>
       <c r="C169">
         <v>23325.846000000001</v>
@@ -51893,8 +52273,8 @@
       <c r="A170" s="1">
         <v>40907</v>
       </c>
-      <c r="B170">
-        <v>2643.3789000000002</v>
+      <c r="B170" s="11">
+        <v>419.60390000000001</v>
       </c>
       <c r="C170">
         <v>23633.262999999999</v>
@@ -51925,8 +52305,8 @@
       <c r="A171" s="1">
         <v>40939</v>
       </c>
-      <c r="B171">
-        <v>2755.3832000000002</v>
+      <c r="B171" s="11">
+        <v>436.71769999999998</v>
       </c>
       <c r="C171">
         <v>26216.301800000001</v>
@@ -51957,8 +52337,8 @@
       <c r="A172" s="1">
         <v>40968</v>
       </c>
-      <c r="B172">
-        <v>2918.6878000000002</v>
+      <c r="B172" s="11">
+        <v>463.66649999999998</v>
       </c>
       <c r="C172">
         <v>27812.0756</v>
@@ -51989,8 +52369,8 @@
       <c r="A173" s="1">
         <v>40998</v>
       </c>
-      <c r="B173">
-        <v>2719.7165</v>
+      <c r="B173" s="11">
+        <v>431.79700000000003</v>
       </c>
       <c r="C173">
         <v>26445.671699999999</v>
@@ -52021,8 +52401,8 @@
       <c r="A174" s="1">
         <v>41029</v>
       </c>
-      <c r="B174">
-        <v>2880.9911999999999</v>
+      <c r="B174" s="11">
+        <v>457.48899999999998</v>
       </c>
       <c r="C174">
         <v>27103.138200000001</v>
@@ -52053,8 +52433,8 @@
       <c r="A175" s="1">
         <v>41060</v>
       </c>
-      <c r="B175">
-        <v>2859.6565999999998</v>
+      <c r="B175" s="11">
+        <v>448.95389999999998</v>
       </c>
       <c r="C175">
         <v>24533.4522</v>
@@ -52085,8 +52465,8 @@
       <c r="A176" s="1">
         <v>41089</v>
       </c>
-      <c r="B176">
-        <v>2722.4047</v>
+      <c r="B176" s="11">
+        <v>428.3811</v>
       </c>
       <c r="C176">
         <v>25834.245200000001</v>
@@ -52117,8 +52497,8 @@
       <c r="A177" s="1">
         <v>41121</v>
       </c>
-      <c r="B177">
-        <v>2584.1259</v>
+      <c r="B177" s="11">
+        <v>406.13029999999998</v>
       </c>
       <c r="C177">
         <v>26352.224300000002</v>
@@ -52149,8 +52529,8 @@
       <c r="A178" s="1">
         <v>41152</v>
       </c>
-      <c r="B178">
-        <v>2517.3845000000001</v>
+      <c r="B178" s="11">
+        <v>396.46350000000001</v>
       </c>
       <c r="C178">
         <v>25947.5851</v>
@@ -52181,8 +52561,8 @@
       <c r="A179" s="1">
         <v>41180</v>
       </c>
-      <c r="B179">
-        <v>2571.4654999999998</v>
+      <c r="B179" s="11">
+        <v>409.09120000000001</v>
       </c>
       <c r="C179">
         <v>27616.356400000001</v>
@@ -52213,8 +52593,8 @@
       <c r="A180" s="1">
         <v>41213</v>
       </c>
-      <c r="B180">
-        <v>2550.2654000000002</v>
+      <c r="B180" s="11">
+        <v>408.87979999999999</v>
       </c>
       <c r="C180">
         <v>28515.295900000001</v>
@@ -52245,8 +52625,8 @@
       <c r="A181" s="1">
         <v>41243</v>
       </c>
-      <c r="B181">
-        <v>2441.0237000000002</v>
+      <c r="B181" s="11">
+        <v>392.02530000000002</v>
       </c>
       <c r="C181">
         <v>29003.260699999999</v>
@@ -52277,8 +52657,8 @@
       <c r="A182" s="1">
         <v>41274</v>
       </c>
-      <c r="B182">
-        <v>2797.3890000000001</v>
+      <c r="B182" s="11">
+        <v>448.65899999999999</v>
       </c>
       <c r="C182">
         <v>29870.257699999998</v>
@@ -52309,8 +52689,8 @@
       <c r="A183" s="1">
         <v>41305</v>
       </c>
-      <c r="B183">
-        <v>2940.7566000000002</v>
+      <c r="B183" s="11">
+        <v>472.85890000000001</v>
       </c>
       <c r="C183">
         <v>31184.059399999998</v>
@@ -52341,8 +52721,8 @@
       <c r="A184" s="1">
         <v>41333</v>
       </c>
-      <c r="B184">
-        <v>2916.3112000000001</v>
+      <c r="B184" s="11">
+        <v>468.65690000000001</v>
       </c>
       <c r="C184">
         <v>30282.0573</v>
@@ -52373,8 +52753,8 @@
       <c r="A185" s="1">
         <v>41362</v>
       </c>
-      <c r="B185">
-        <v>2757.6307999999999</v>
+      <c r="B185" s="11">
+        <v>444.00569999999999</v>
       </c>
       <c r="C185">
         <v>29362.924500000001</v>
@@ -52405,8 +52785,8 @@
       <c r="A186" s="1">
         <v>41394</v>
       </c>
-      <c r="B186">
-        <v>2685.8780000000002</v>
+      <c r="B186" s="11">
+        <v>435.66550000000001</v>
       </c>
       <c r="C186">
         <v>29730.281299999999</v>
@@ -52437,8 +52817,8 @@
       <c r="A187" s="1">
         <v>41425</v>
       </c>
-      <c r="B187">
-        <v>2841.8060999999998</v>
+      <c r="B187" s="11">
+        <v>463.24979999999999</v>
       </c>
       <c r="C187">
         <v>29317.173999999999</v>
@@ -52469,8 +52849,8 @@
       <c r="A188" s="1">
         <v>41453</v>
       </c>
-      <c r="B188">
-        <v>2488.0201999999999</v>
+      <c r="B188" s="11">
+        <v>405.37349999999998</v>
       </c>
       <c r="C188">
         <v>27677.013299999999</v>
@@ -52501,8 +52881,8 @@
       <c r="A189" s="1">
         <v>41486</v>
       </c>
-      <c r="B189">
-        <v>2524.4423999999999</v>
+      <c r="B189" s="11">
+        <v>411.89159999999998</v>
       </c>
       <c r="C189">
         <v>29079.386200000001</v>
@@ -52533,8 +52913,8 @@
       <c r="A190" s="1">
         <v>41516</v>
       </c>
-      <c r="B190">
-        <v>2659.5412999999999</v>
+      <c r="B190" s="11">
+        <v>434.60109999999997</v>
       </c>
       <c r="C190">
         <v>28910.6315</v>
@@ -52565,8 +52945,8 @@
       <c r="A191" s="1">
         <v>41547</v>
       </c>
-      <c r="B191">
-        <v>2763.0536999999999</v>
+      <c r="B191" s="11">
+        <v>451.37610000000001</v>
       </c>
       <c r="C191">
         <v>30560.5972</v>
@@ -52597,8 +52977,8 @@
       <c r="A192" s="1">
         <v>41578</v>
       </c>
-      <c r="B192">
-        <v>2721.2770999999998</v>
+      <c r="B192" s="11">
+        <v>446.46230000000003</v>
       </c>
       <c r="C192">
         <v>30950.685300000001</v>
@@ -52629,8 +53009,8 @@
       <c r="A193" s="1">
         <v>41607</v>
       </c>
-      <c r="B193">
-        <v>2821.5223000000001</v>
+      <c r="B193" s="11">
+        <v>463.07600000000002</v>
       </c>
       <c r="C193">
         <v>31861.4241</v>
@@ -52661,8 +53041,8 @@
       <c r="A194" s="1">
         <v>41639</v>
       </c>
-      <c r="B194">
-        <v>2688.7727</v>
+      <c r="B194" s="11">
+        <v>444.24900000000002</v>
       </c>
       <c r="C194">
         <v>30886.483700000001</v>
@@ -52693,8 +53073,8 @@
       <c r="A195" s="1">
         <v>41670</v>
       </c>
-      <c r="B195">
-        <v>2583.4598999999998</v>
+      <c r="B195" s="11">
+        <v>426.11660000000001</v>
       </c>
       <c r="C195">
         <v>29202.9882</v>
@@ -52725,8 +53105,8 @@
       <c r="A196" s="1">
         <v>41698</v>
       </c>
-      <c r="B196">
-        <v>2613.0410000000002</v>
+      <c r="B196" s="11">
+        <v>425.17509999999999</v>
       </c>
       <c r="C196">
         <v>30720.178899999999</v>
@@ -52757,8 +53137,8 @@
       <c r="A197" s="1">
         <v>41729</v>
       </c>
-      <c r="B197">
-        <v>2583.8548000000001</v>
+      <c r="B197" s="11">
+        <v>415.51089999999999</v>
       </c>
       <c r="C197">
         <v>30278.587299999999</v>
@@ -52789,8 +53169,8 @@
       <c r="A198" s="1">
         <v>41759</v>
       </c>
-      <c r="B198">
-        <v>2575.7631999999999</v>
+      <c r="B198" s="11">
+        <v>411.4966</v>
       </c>
       <c r="C198">
         <v>30494.885200000001</v>
@@ -52821,8 +53201,8 @@
       <c r="A199" s="1">
         <v>41789</v>
       </c>
-      <c r="B199">
-        <v>2596.5664999999999</v>
+      <c r="B199" s="11">
+        <v>415.63679999999999</v>
       </c>
       <c r="C199">
         <v>32092.935700000002</v>
@@ -52853,8 +53233,8 @@
       <c r="A200" s="1">
         <v>41820</v>
       </c>
-      <c r="B200">
-        <v>2648.2669999999998</v>
+      <c r="B200" s="11">
+        <v>426.85070000000002</v>
       </c>
       <c r="C200">
         <v>32302.602500000001</v>
@@ -52885,8 +53265,8 @@
       <c r="A201" s="1">
         <v>41851</v>
       </c>
-      <c r="B201">
-        <v>2881.7404999999999</v>
+      <c r="B201" s="11">
+        <v>466.69369999999998</v>
       </c>
       <c r="C201">
         <v>34497.227200000001</v>
@@ -52917,8 +53297,8 @@
       <c r="A202" s="1">
         <v>41880</v>
       </c>
-      <c r="B202">
-        <v>2904.4277999999999</v>
+      <c r="B202" s="11">
+        <v>472.94139999999999</v>
       </c>
       <c r="C202">
         <v>34373.313199999997</v>
@@ -52949,8 +53329,8 @@
       <c r="A203" s="1">
         <v>41912</v>
       </c>
-      <c r="B203">
-        <v>3103.2718</v>
+      <c r="B203" s="11">
+        <v>505.56709999999998</v>
       </c>
       <c r="C203">
         <v>31917.004099999998</v>
@@ -52981,8 +53361,8 @@
       <c r="A204" s="1">
         <v>41943</v>
       </c>
-      <c r="B204">
-        <v>3177.2802000000001</v>
+      <c r="B204" s="11">
+        <v>519.62189999999998</v>
       </c>
       <c r="C204">
         <v>33367.191400000003</v>
@@ -53013,8 +53393,8 @@
       <c r="A205" s="1">
         <v>41971</v>
       </c>
-      <c r="B205">
-        <v>3522.3244</v>
+      <c r="B205" s="11">
+        <v>573.43499999999995</v>
       </c>
       <c r="C205">
         <v>33535.370699999999</v>
@@ -53045,8 +53425,8 @@
       <c r="A206" s="1">
         <v>42004</v>
       </c>
-      <c r="B206">
-        <v>4247.0204999999996</v>
+      <c r="B206" s="11">
+        <v>684.18669999999997</v>
       </c>
       <c r="C206">
         <v>33359.855900000002</v>
@@ -53077,8 +53457,8 @@
       <c r="A207" s="1">
         <v>42034</v>
       </c>
-      <c r="B207">
-        <v>4215.4449000000004</v>
+      <c r="B207" s="11">
+        <v>674.16909999999996</v>
       </c>
       <c r="C207">
         <v>34892.885300000002</v>
@@ -53109,8 +53489,8 @@
       <c r="A208" s="1">
         <v>42062</v>
       </c>
-      <c r="B208">
-        <v>4346.6741000000002</v>
+      <c r="B208" s="11">
+        <v>693.26049999999998</v>
       </c>
       <c r="C208">
         <v>35438.508999999998</v>
@@ -53141,8 +53521,8 @@
       <c r="A209" s="1">
         <v>42094</v>
       </c>
-      <c r="B209">
-        <v>4921.2798000000003</v>
+      <c r="B209" s="11">
+        <v>793.56280000000004</v>
       </c>
       <c r="C209">
         <v>35328.741699999999</v>
@@ -53173,8 +53553,8 @@
       <c r="A210" s="1">
         <v>42124</v>
       </c>
-      <c r="B210">
-        <v>5834.0496000000003</v>
+      <c r="B210" s="11">
+        <v>941.00609999999995</v>
       </c>
       <c r="C210">
         <v>39929.547299999998</v>
@@ -53205,8 +53585,8 @@
       <c r="A211" s="1">
         <v>42153</v>
       </c>
-      <c r="B211">
-        <v>6064.7547999999997</v>
+      <c r="B211" s="11">
+        <v>979.45</v>
       </c>
       <c r="C211">
         <v>39004.398099999999</v>
@@ -53237,8 +53617,8 @@
       <c r="A212" s="1">
         <v>42185</v>
       </c>
-      <c r="B212">
-        <v>5645.415</v>
+      <c r="B212" s="11">
+        <v>910.77120000000002</v>
       </c>
       <c r="C212">
         <v>37869.502500000002</v>
@@ -53269,8 +53649,8 @@
       <c r="A213" s="1">
         <v>42216</v>
       </c>
-      <c r="B213">
-        <v>4878.3953000000001</v>
+      <c r="B213" s="11">
+        <v>785.73540000000003</v>
       </c>
       <c r="C213">
         <v>35618.286699999997</v>
@@ -53301,8 +53681,8 @@
       <c r="A214" s="1">
         <v>42247</v>
       </c>
-      <c r="B214">
-        <v>4270.4798000000001</v>
+      <c r="B214" s="11">
+        <v>669.06060000000002</v>
       </c>
       <c r="C214">
         <v>32297.242399999999</v>
@@ -53333,8 +53713,8 @@
       <c r="A215" s="1">
         <v>42277</v>
       </c>
-      <c r="B215">
-        <v>4070.1943000000001</v>
+      <c r="B215" s="11">
+        <v>640.17899999999997</v>
       </c>
       <c r="C215">
         <v>31154.187699999999</v>
@@ -53365,8 +53745,8 @@
       <c r="A216" s="1">
         <v>42307</v>
       </c>
-      <c r="B216">
-        <v>4510.8344999999999</v>
+      <c r="B216" s="11">
+        <v>714.05600000000004</v>
       </c>
       <c r="C216">
         <v>33668.098100000003</v>
@@ -53397,8 +53777,8 @@
       <c r="A217" s="1">
         <v>42338</v>
       </c>
-      <c r="B217">
-        <v>4595.1318000000001</v>
+      <c r="B217" s="11">
+        <v>718.28110000000004</v>
       </c>
       <c r="C217">
         <v>33157.136700000003</v>
@@ -53429,8 +53809,8 @@
       <c r="A218" s="1">
         <v>42369</v>
       </c>
-      <c r="B218">
-        <v>4720.7425000000003</v>
+      <c r="B218" s="11">
+        <v>727.66740000000004</v>
       </c>
       <c r="C218">
         <v>33514.6567</v>
@@ -53461,8 +53841,8 @@
       <c r="A219" s="1">
         <v>42398</v>
       </c>
-      <c r="B219">
-        <v>3651.6073000000001</v>
+      <c r="B219" s="11">
+        <v>555.45360000000005</v>
       </c>
       <c r="C219">
         <v>30370.835899999998</v>
@@ -53493,8 +53873,8 @@
       <c r="A220" s="1">
         <v>42429</v>
       </c>
-      <c r="B220">
-        <v>3585.7611000000002</v>
+      <c r="B220" s="11">
+        <v>547.11030000000005</v>
       </c>
       <c r="C220">
         <v>29441.261600000002</v>
@@ -53525,8 +53905,8 @@
       <c r="A221" s="1">
         <v>42460</v>
       </c>
-      <c r="B221">
-        <v>4007.2357000000002</v>
+      <c r="B221" s="11">
+        <v>621.01689999999996</v>
       </c>
       <c r="C221">
         <v>31730.781299999999</v>
@@ -53557,8 +53937,8 @@
       <c r="A222" s="1">
         <v>42489</v>
       </c>
-      <c r="B222">
-        <v>3920.6172000000001</v>
+      <c r="B222" s="11">
+        <v>605.58489999999995</v>
       </c>
       <c r="C222">
         <v>32295.413799999998</v>
@@ -53589,8 +53969,8 @@
       <c r="A223" s="1">
         <v>42521</v>
       </c>
-      <c r="B223">
-        <v>3897.2482</v>
+      <c r="B223" s="11">
+        <v>592.125</v>
       </c>
       <c r="C223">
         <v>32617.3586</v>
@@ -53621,8 +54001,8 @@
       <c r="A224" s="1">
         <v>42551</v>
       </c>
-      <c r="B224">
-        <v>3941.5920999999998</v>
+      <c r="B224" s="11">
+        <v>592.30200000000002</v>
       </c>
       <c r="C224">
         <v>33493.001799999998</v>
@@ -53653,8 +54033,8 @@
       <c r="A225" s="1">
         <v>42580</v>
       </c>
-      <c r="B225">
-        <v>4048.096</v>
+      <c r="B225" s="11">
+        <v>609.76319999999998</v>
       </c>
       <c r="C225">
         <v>35198.7405</v>
@@ -53685,8 +54065,8 @@
       <c r="A226" s="1">
         <v>42613</v>
       </c>
-      <c r="B226">
-        <v>4196.6629999999996</v>
+      <c r="B226" s="11">
+        <v>628.05489999999998</v>
       </c>
       <c r="C226">
         <v>37290.4807</v>
@@ -53717,8 +54097,8 @@
       <c r="A227" s="1">
         <v>42643</v>
       </c>
-      <c r="B227">
-        <v>4089.9115999999999</v>
+      <c r="B227" s="11">
+        <v>613.52049999999997</v>
       </c>
       <c r="C227">
         <v>37885.133399999999</v>
@@ -53749,8 +54129,8 @@
       <c r="A228" s="1">
         <v>42674</v>
       </c>
-      <c r="B228">
-        <v>4220.4128000000001</v>
+      <c r="B228" s="11">
+        <v>623.46370000000002</v>
       </c>
       <c r="C228">
         <v>37928.504000000001</v>
@@ -53781,8 +54161,8 @@
       <c r="A229" s="1">
         <v>42704</v>
       </c>
-      <c r="B229">
-        <v>4424.2376999999997</v>
+      <c r="B229" s="11">
+        <v>641.53790000000004</v>
       </c>
       <c r="C229">
         <v>38446.5363</v>
@@ -53813,8 +54193,8 @@
       <c r="A230" s="1">
         <v>42734</v>
       </c>
-      <c r="B230">
-        <v>4225.1518999999998</v>
+      <c r="B230" s="11">
+        <v>608.83780000000002</v>
       </c>
       <c r="C230">
         <v>37365.778299999998</v>
@@ -53845,8 +54225,8 @@
       <c r="A231" s="1">
         <v>42766</v>
       </c>
-      <c r="B231">
-        <v>4300.7460000000001</v>
+      <c r="B231" s="11">
+        <v>625.1902</v>
       </c>
       <c r="C231">
         <v>39450.057500000003</v>
@@ -53877,8 +54257,8 @@
       <c r="A232" s="1">
         <v>42794</v>
       </c>
-      <c r="B232">
-        <v>4413.1552000000001</v>
+      <c r="B232" s="11">
+        <v>643.27959999999996</v>
       </c>
       <c r="C232">
         <v>39964.807500000003</v>
@@ -53909,8 +54289,8 @@
       <c r="A233" s="1">
         <v>42825</v>
       </c>
-      <c r="B233">
-        <v>4387.8543</v>
+      <c r="B233" s="11">
+        <v>637.99210000000005</v>
       </c>
       <c r="C233">
         <v>40694.438699999999</v>
@@ -53941,8 +54321,8 @@
       <c r="A234" s="1">
         <v>42853</v>
       </c>
-      <c r="B234">
-        <v>4297.0689000000002</v>
+      <c r="B234" s="11">
+        <v>623.35990000000004</v>
       </c>
       <c r="C234">
         <v>41618.488299999997</v>
@@ -53973,8 +54353,8 @@
       <c r="A235" s="1">
         <v>42886</v>
       </c>
-      <c r="B235">
-        <v>4251.6396000000004</v>
+      <c r="B235" s="11">
+        <v>623.59960000000001</v>
       </c>
       <c r="C235">
         <v>43038.583200000001</v>
@@ -54005,8 +54385,8 @@
       <c r="A236" s="1">
         <v>42916</v>
       </c>
-      <c r="B236">
-        <v>4377.8959000000004</v>
+      <c r="B236" s="11">
+        <v>647.12950000000001</v>
       </c>
       <c r="C236">
         <v>43234.465199999999</v>
@@ -54037,8 +54417,8 @@
       <c r="A237" s="1">
         <v>42947</v>
       </c>
-      <c r="B237">
-        <v>4538.1868999999997</v>
+      <c r="B237" s="11">
+        <v>674.88350000000003</v>
       </c>
       <c r="C237">
         <v>45803.987399999998</v>
@@ -54069,8 +54449,8 @@
       <c r="A238" s="1">
         <v>42978</v>
       </c>
-      <c r="B238">
-        <v>4664.7155000000002</v>
+      <c r="B238" s="11">
+        <v>707.24659999999994</v>
       </c>
       <c r="C238">
         <v>46210.067600000002</v>
@@ -54101,8 +54481,8 @@
       <c r="A239" s="1">
         <v>43007</v>
       </c>
-      <c r="B239">
-        <v>4652.7426999999998</v>
+      <c r="B239" s="11">
+        <v>701.25289999999995</v>
       </c>
       <c r="C239">
         <v>46025.734700000001</v>
@@ -54133,8 +54513,8 @@
       <c r="A240" s="1">
         <v>43039</v>
       </c>
-      <c r="B240">
-        <v>4714.5824000000002</v>
+      <c r="B240" s="11">
+        <v>711.23789999999997</v>
       </c>
       <c r="C240">
         <v>47258.1005</v>
@@ -54165,8 +54545,8 @@
       <c r="A241" s="1">
         <v>43069</v>
       </c>
-      <c r="B241">
-        <v>4608.8257000000003</v>
+      <c r="B241" s="11">
+        <v>697.76769999999999</v>
       </c>
       <c r="C241">
         <v>48634.049700000003</v>
@@ -54197,8 +54577,8 @@
       <c r="A242" s="1">
         <v>43098</v>
       </c>
-      <c r="B242">
-        <v>4594.9097000000002</v>
+      <c r="B242" s="11">
+        <v>706.18129999999996</v>
       </c>
       <c r="C242">
         <v>49124.097800000003</v>
@@ -54229,8 +54609,8 @@
       <c r="A243" s="1">
         <v>43131</v>
       </c>
-      <c r="B243">
-        <v>4836.7988999999998</v>
+      <c r="B243" s="11">
+        <v>769.29669999999999</v>
       </c>
       <c r="C243">
         <v>52113.322800000002</v>
@@ -54261,8 +54641,8 @@
       <c r="A244" s="1">
         <v>43159</v>
       </c>
-      <c r="B244">
-        <v>4529.1378000000004</v>
+      <c r="B244" s="11">
+        <v>715.39059999999995</v>
       </c>
       <c r="C244">
         <v>49298.283499999998</v>
@@ -54293,8 +54673,8 @@
       <c r="A245" s="1">
         <v>43189</v>
       </c>
-      <c r="B245">
-        <v>4403.3946999999998</v>
+      <c r="B245" s="11">
+        <v>700.28539999999998</v>
       </c>
       <c r="C245">
         <v>47805.287600000003</v>
@@ -54325,8 +54705,8 @@
       <c r="A246" s="1">
         <v>43220</v>
       </c>
-      <c r="B246">
-        <v>4284.0334999999995</v>
+      <c r="B246" s="11">
+        <v>675.98159999999996</v>
       </c>
       <c r="C246">
         <v>49353.547400000003</v>
@@ -54357,8 +54737,8 @@
       <c r="A247" s="1">
         <v>43251</v>
       </c>
-      <c r="B247">
-        <v>4315.8885</v>
+      <c r="B247" s="11">
+        <v>673.26350000000002</v>
       </c>
       <c r="C247">
         <v>49656.548199999997</v>
@@ -54389,8 +54769,8 @@
       <c r="A248" s="1">
         <v>43280</v>
       </c>
-      <c r="B248">
-        <v>4001.6241</v>
+      <c r="B248" s="11">
+        <v>604.11900000000003</v>
       </c>
       <c r="C248">
         <v>48977.088900000002</v>
@@ -54405,13 +54785,13 @@
         <v>1.5</v>
       </c>
       <c r="G248">
-        <v>13.4734</v>
+        <v>13.472</v>
       </c>
       <c r="H248">
         <v>10.9018</v>
       </c>
       <c r="I248">
-        <v>19.0152</v>
+        <v>18.983799999999999</v>
       </c>
       <c r="J248">
         <v>1.875</v>
@@ -54421,8 +54801,8 @@
       <c r="A249" s="1">
         <v>43312</v>
       </c>
-      <c r="B249">
-        <v>4081.7339000000002</v>
+      <c r="B249" s="11">
+        <v>598.29290000000003</v>
       </c>
       <c r="C249">
         <v>50194.3151</v>
@@ -54437,13 +54817,13 @@
         <v>1.5</v>
       </c>
       <c r="G249">
-        <v>13.5725</v>
+        <v>13.581</v>
       </c>
       <c r="H249">
         <v>10.761699999999999</v>
       </c>
       <c r="I249">
-        <v>19.641300000000001</v>
+        <v>19.646899999999999</v>
       </c>
       <c r="J249">
         <v>1.875</v>
@@ -54453,8 +54833,8 @@
       <c r="A250" s="1">
         <v>43343</v>
       </c>
-      <c r="B250">
-        <v>3872.5482000000002</v>
+      <c r="B250" s="11">
+        <v>566.26959999999997</v>
       </c>
       <c r="C250">
         <v>49258.206400000003</v>
@@ -54469,13 +54849,13 @@
         <v>1.5</v>
       </c>
       <c r="G250">
-        <v>12.745100000000001</v>
+        <v>12.6998</v>
       </c>
       <c r="H250">
-        <v>10.5002</v>
+        <v>10.499499999999999</v>
       </c>
       <c r="I250">
-        <v>20.154199999999999</v>
+        <v>20.228999999999999</v>
       </c>
       <c r="J250">
         <v>1.875</v>
@@ -54485,8 +54865,8 @@
       <c r="A251" s="1">
         <v>43371</v>
       </c>
-      <c r="B251">
-        <v>4014.6167999999998</v>
+      <c r="B251" s="11">
+        <v>584.44579999999996</v>
       </c>
       <c r="C251">
         <v>49650.835500000001</v>
@@ -54501,13 +54881,13 @@
         <v>1.5</v>
       </c>
       <c r="G251">
-        <v>13.043799999999999</v>
+        <v>13.0037</v>
       </c>
       <c r="H251">
-        <v>10.528600000000001</v>
+        <v>10.53</v>
       </c>
       <c r="I251">
-        <v>19.210699999999999</v>
+        <v>19.277000000000001</v>
       </c>
       <c r="J251">
         <v>2.125</v>
@@ -54517,8 +54897,8 @@
       <c r="A252" s="1">
         <v>43404</v>
       </c>
-      <c r="B252">
-        <v>3704.0816</v>
+      <c r="B252" s="11">
+        <v>530.99019999999996</v>
       </c>
       <c r="C252">
         <v>45301.114000000001</v>
@@ -54533,13 +54913,13 @@
         <v>1.5</v>
       </c>
       <c r="G252">
-        <v>12.028600000000001</v>
+        <v>11.9838</v>
       </c>
       <c r="H252">
-        <v>9.4643999999999995</v>
+        <v>9.4656000000000002</v>
       </c>
       <c r="I252">
-        <v>17.8246</v>
+        <v>17.942599999999999</v>
       </c>
       <c r="J252">
         <v>2.125</v>
@@ -54549,8 +54929,8 @@
       <c r="A253" s="1">
         <v>43434</v>
       </c>
-      <c r="B253">
-        <v>3683.7491</v>
+      <c r="B253" s="11">
+        <v>529.34270000000004</v>
       </c>
       <c r="C253">
         <v>48114.306499999999</v>
@@ -54565,13 +54945,13 @@
         <v>1.5</v>
       </c>
       <c r="G253">
-        <v>12.0008</v>
+        <v>11.958299999999999</v>
       </c>
       <c r="H253">
-        <v>10.042999999999999</v>
+        <v>10.0443</v>
       </c>
       <c r="I253">
-        <v>18.091000000000001</v>
+        <v>18.2042</v>
       </c>
       <c r="J253">
         <v>2.125</v>
@@ -54581,8 +54961,8 @@
       <c r="A254" s="1">
         <v>43465</v>
       </c>
-      <c r="B254">
-        <v>3549.9434000000001</v>
+      <c r="B254" s="11">
+        <v>516.11519999999996</v>
       </c>
       <c r="C254">
         <v>46332.768600000003</v>
@@ -54597,13 +54977,13 @@
         <v>1.5</v>
       </c>
       <c r="G254">
-        <v>12.3302</v>
+        <v>12.2972</v>
       </c>
       <c r="H254">
-        <v>10.0219</v>
+        <v>10.023199999999999</v>
       </c>
       <c r="I254">
-        <v>16.494800000000001</v>
+        <v>16.5166</v>
       </c>
       <c r="J254">
         <v>2.375</v>
@@ -54613,8 +54993,8 @@
       <c r="A255" s="1">
         <v>43496</v>
       </c>
-      <c r="B255">
-        <v>3679.0522000000001</v>
+      <c r="B255" s="11">
+        <v>549.07950000000005</v>
       </c>
       <c r="C255">
         <v>48715.938699999999</v>
@@ -54629,13 +55009,13 @@
         <v>1.5</v>
       </c>
       <c r="G255">
-        <v>12.7806</v>
+        <v>12.7453</v>
       </c>
       <c r="H255">
-        <v>10.835000000000001</v>
+        <v>10.836399999999999</v>
       </c>
       <c r="I255">
-        <v>17.822600000000001</v>
+        <v>17.846800000000002</v>
       </c>
       <c r="J255">
         <v>2.375</v>
@@ -54645,8 +55025,8 @@
       <c r="A256" s="1">
         <v>43524</v>
       </c>
-      <c r="B256">
-        <v>4186.3485000000001</v>
+      <c r="B256" s="11">
+        <v>625.4162</v>
       </c>
       <c r="C256">
         <v>49965.653899999998</v>
@@ -54661,13 +55041,13 @@
         <v>1.5</v>
       </c>
       <c r="G256">
-        <v>14.5389</v>
+        <v>14.4977</v>
       </c>
       <c r="H256">
-        <v>11.1028</v>
+        <v>11.104200000000001</v>
       </c>
       <c r="I256">
-        <v>18.358000000000001</v>
+        <v>18.389700000000001</v>
       </c>
       <c r="J256">
         <v>2.375</v>
@@ -54677,8 +55057,8 @@
       <c r="A257" s="1">
         <v>43553</v>
       </c>
-      <c r="B257">
-        <v>4399.9192999999996</v>
+      <c r="B257" s="11">
+        <v>655.52049999999997</v>
       </c>
       <c r="C257">
         <v>50900.108</v>
@@ -54693,13 +55073,13 @@
         <v>1.5</v>
       </c>
       <c r="G257">
-        <v>14.9193</v>
+        <v>14.8775</v>
       </c>
       <c r="H257">
-        <v>11.4046</v>
+        <v>11.4024</v>
       </c>
       <c r="I257">
-        <v>18.615600000000001</v>
+        <v>18.627400000000002</v>
       </c>
       <c r="J257">
         <v>2.375</v>
@@ -54709,8 +55089,8 @@
       <c r="A258" s="1">
         <v>43585</v>
       </c>
-      <c r="B258">
-        <v>4383.5160999999998</v>
+      <c r="B258" s="11">
+        <v>650.87549999999999</v>
       </c>
       <c r="C258">
         <v>52252.376199999999</v>
@@ -54725,13 +55105,13 @@
         <v>1.5</v>
       </c>
       <c r="G258">
-        <v>14.8728</v>
+        <v>14.8309</v>
       </c>
       <c r="H258">
-        <v>11.658899999999999</v>
+        <v>11.656599999999999</v>
       </c>
       <c r="I258">
-        <v>19.326699999999999</v>
+        <v>19.340199999999999</v>
       </c>
       <c r="J258">
         <v>2.375</v>
@@ -54741,8 +55121,8 @@
       <c r="A259" s="1">
         <v>43616</v>
       </c>
-      <c r="B259">
-        <v>4139.6283000000003</v>
+      <c r="B259" s="11">
+        <v>599.50300000000004</v>
       </c>
       <c r="C259">
         <v>49097.863100000002</v>
@@ -54757,16 +55137,112 @@
         <v>1.5</v>
       </c>
       <c r="G259">
-        <v>14.0159</v>
+        <v>13.976800000000001</v>
       </c>
       <c r="H259">
-        <v>10.560499999999999</v>
+        <v>10.558400000000001</v>
       </c>
       <c r="I259">
-        <v>18.040400000000002</v>
+        <v>18.115500000000001</v>
       </c>
       <c r="J259">
         <v>2.375</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A260" s="14">
+        <v>43644</v>
+      </c>
+      <c r="B260" s="11">
+        <v>625.32799999999997</v>
+      </c>
+      <c r="C260" s="11">
+        <v>52291.869200000001</v>
+      </c>
+      <c r="D260" s="11">
+        <v>40570.771099999998</v>
+      </c>
+      <c r="E260" s="11">
+        <v>2332.6350000000002</v>
+      </c>
+      <c r="F260" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G260">
+        <v>14.3378</v>
+      </c>
+      <c r="H260">
+        <v>11.0875</v>
+      </c>
+      <c r="I260">
+        <v>19.2349</v>
+      </c>
+      <c r="J260" s="11">
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A261" s="14">
+        <v>43677</v>
+      </c>
+      <c r="B261" s="11">
+        <v>619.63909999999998</v>
+      </c>
+      <c r="C261" s="11">
+        <v>51107.631600000001</v>
+      </c>
+      <c r="D261" s="11">
+        <v>41258.180910000003</v>
+      </c>
+      <c r="E261" s="11">
+        <v>2329.893</v>
+      </c>
+      <c r="F261" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G261">
+        <v>14.1668</v>
+      </c>
+      <c r="H261">
+        <v>10.7904</v>
+      </c>
+      <c r="I261">
+        <v>19.4985</v>
+      </c>
+      <c r="J261" s="11">
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A262" s="14">
+        <v>43707</v>
+      </c>
+      <c r="B262" s="11">
+        <v>587.34389999999996</v>
+      </c>
+      <c r="C262" s="11">
+        <v>49300.746500000001</v>
+      </c>
+      <c r="D262" s="11">
+        <v>42211.862639999999</v>
+      </c>
+      <c r="E262" s="11">
+        <v>2409.096</v>
+      </c>
+      <c r="F262" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G262">
+        <v>13.984500000000001</v>
+      </c>
+      <c r="H262">
+        <v>9.9929000000000006</v>
+      </c>
+      <c r="I262">
+        <v>19.159700000000001</v>
+      </c>
+      <c r="J262" s="11">
+        <v>2.125</v>
       </c>
     </row>
   </sheetData>

--- a/strategy/全球购策略/data/global strategy data.xlsx
+++ b/strategy/全球购策略/data/global strategy data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\zjsxzy_in_js\strategy\全球购策略\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19440" windowHeight="8055" firstSheet="1" activeTab="2"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="数据" sheetId="1" r:id="rId2"/>
     <sheet name="data" sheetId="28" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>robertchen</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
     <author>robertchen</author>
   </authors>
   <commentList>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,16 +177,13 @@
     <t>基准利率变化</t>
   </si>
   <si>
+    <t>SHCOMP Index PE</t>
+  </si>
+  <si>
     <t>HSI Index PE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>SPX Index PE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHCOMP Index PE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -364,305 +366,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>SHANGHAI SE COMPOSITE</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SHCOMP Index</stp>
-        <stp>name</stp>
-        <stp>[global strategy data.xlsx]数据!R1C2</stp>
-        <tr r="B1" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>SHANGHAI SE COMPOSITE</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SHCOMP Index</stp>
-        <stp>name</stp>
-        <stp>[global strategy data.xlsx]数据!R1C7</stp>
-        <tr r="G1" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>HANG SENG INDEX</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>HSI Index</stp>
-        <stp>name</stp>
-        <stp>[global strategy data.xlsx]数据!R1C8</stp>
-        <tr r="H1" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>HANG SENG INDEX</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>HSI Index</stp>
-        <stp>name</stp>
-        <stp>[global strategy data.xlsx]数据!R1C3</stp>
-        <tr r="C1" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>China Household Benchmark Savi</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>CNDR1Y index</stp>
-        <stp>name</stp>
-        <stp>[global strategy data.xlsx]数据!R1C6</stp>
-        <tr r="F1" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>SHCOMP Index</stp>
-        <stp>TOT_RETURN_INDEX_GROSS_DVDS</stp>
-        <stp>1997/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C1</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=S</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>curr=usd</stp>
-        <stp>cols=2;rows=261</stp>
-        <tr r="A4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>S&amp;P 500 INDEX</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SPX Index</stp>
-        <stp>name</stp>
-        <stp>[global strategy data.xlsx]数据!R1C9</stp>
-        <tr r="I1" s="1"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>CNDR1Y index</stp>
-        <stp>PX_LAST</stp>
-        <stp>1997/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C6</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>fx=cny</stp>
-        <stp>cols=1;rows=261</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>SHCOMP Index</stp>
-        <stp>PE_Ratio</stp>
-        <stp>1997/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C7</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>fx=cny</stp>
-        <stp>cols=1;rows=261</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>SPXT  Index</stp>
-        <stp>PX_LAST</stp>
-        <stp>1997/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C4</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>fx=cny</stp>
-        <stp>cols=1;rows=261</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Federal Funds Target Rate Mid</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>FDTRMID Index</stp>
-        <stp>name</stp>
-        <stp>[global strategy data.xlsx]数据!R1C10</stp>
-        <tr r="J1" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>U.S. Treasury</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>LUATTRUU Index</stp>
-        <stp>name</stp>
-        <stp>[global strategy data.xlsx]数据!R1C5</stp>
-        <tr r="E1" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>HSI Index</stp>
-        <stp>TOT_RETURN_INDEX_GROSS_DVDS</stp>
-        <stp>1997/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C3</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>fx=cny</stp>
-        <stp>cols=1;rows=261</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>FDTRMID Index</stp>
-        <stp>PX_LAST</stp>
-        <stp>1997/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C10</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp/>
-        <stp>cols=1;rows=261</stp>
-        <tr r="J4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>S&amp;P 500 Total Return</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SPXT  Index</stp>
-        <stp>name</stp>
-        <stp>[global strategy data.xlsx]数据!R1C4</stp>
-        <tr r="D1" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>LUATTRUU Index</stp>
-        <stp>PX_LAST</stp>
-        <stp>1997/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C5</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>fx=cny</stp>
-        <stp>cols=1;rows=261</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>HSI Index</stp>
-        <stp>PE_Ratio</stp>
-        <stp>1997/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C8</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>fx=cny</stp>
-        <stp>cols=1;rows=261</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>SPX Index</stp>
-        <stp>PE_Ratio</stp>
-        <stp>1997/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C9</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>fx=cny</stp>
-        <stp>cols=1;rows=261</stp>
-        <tr r="I4" s="1"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
-</file>
-
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -3242,13 +2945,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="341665280"/>
-        <c:axId val="341666816"/>
+        <c:axId val="544342608"/>
+        <c:axId val="544341432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="341665280"/>
+        <c:axId val="544342608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3258,7 +2960,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="341666816"/>
+        <c:crossAx val="544341432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3267,7 +2969,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="341666816"/>
+        <c:axId val="544341432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3277,7 +2979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="341665280"/>
+        <c:crossAx val="544342608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
@@ -4193,13 +3895,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="341703680"/>
-        <c:axId val="323642112"/>
+        <c:axId val="544343784"/>
+        <c:axId val="544343392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="341703680"/>
+        <c:axId val="544343784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4209,7 +3910,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="323642112"/>
+        <c:crossAx val="544343392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4218,7 +3919,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="323642112"/>
+        <c:axId val="544343392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4228,7 +3929,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="341703680"/>
+        <c:crossAx val="544343784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5155,8 +4856,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="323690496"/>
-        <c:axId val="323680512"/>
+        <c:axId val="548795480"/>
+        <c:axId val="548795872"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6833,11 +6534,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="323677184"/>
-        <c:axId val="323678976"/>
+        <c:axId val="548796656"/>
+        <c:axId val="548796264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="323677184"/>
+        <c:axId val="548796656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6847,7 +6548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="323678976"/>
+        <c:crossAx val="548796264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6856,7 +6557,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="323678976"/>
+        <c:axId val="548796264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6866,13 +6567,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="323677184"/>
+        <c:crossAx val="548796656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="323680512"/>
+        <c:axId val="548795872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6882,13 +6583,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="323690496"/>
+        <c:crossAx val="548795480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="323690496"/>
+        <c:axId val="548795480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6898,7 +6599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="323680512"/>
+        <c:crossAx val="548795872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7827,13 +7528,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="323719168"/>
-        <c:axId val="323720704"/>
+        <c:axId val="548793912"/>
+        <c:axId val="548793520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="323719168"/>
+        <c:axId val="548793912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7843,7 +7543,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="323720704"/>
+        <c:crossAx val="548793520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7852,7 +7552,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="323720704"/>
+        <c:axId val="548793520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7862,7 +7562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="323719168"/>
+        <c:crossAx val="548793912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8761,13 +8461,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="323740800"/>
-        <c:axId val="323742336"/>
+        <c:axId val="287151632"/>
+        <c:axId val="287151240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="323740800"/>
+        <c:axId val="287151632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8777,7 +8476,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="323742336"/>
+        <c:crossAx val="287151240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -8786,7 +8485,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="323742336"/>
+        <c:axId val="287151240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8796,7 +8495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="323740800"/>
+        <c:crossAx val="287151632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9710,13 +9409,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="323844736"/>
-        <c:axId val="323846528"/>
+        <c:axId val="539430376"/>
+        <c:axId val="539430768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="323844736"/>
+        <c:axId val="539430376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9726,7 +9424,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="323846528"/>
+        <c:crossAx val="539430768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -9735,7 +9433,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="323846528"/>
+        <c:axId val="539430768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9745,7 +9443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="323844736"/>
+        <c:crossAx val="539430376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11522,13 +11220,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="323868160"/>
-        <c:axId val="323869696"/>
+        <c:axId val="289005136"/>
+        <c:axId val="289005528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="323868160"/>
+        <c:axId val="289005136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11538,7 +11235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="323869696"/>
+        <c:crossAx val="289005528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -11547,7 +11244,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="323869696"/>
+        <c:axId val="289005528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -11558,7 +11255,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="323868160"/>
+        <c:crossAx val="289005136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -11796,7 +11493,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11838,7 +11535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11873,7 +11570,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12163,9 +11860,9 @@
         <f>数据!A5</f>
         <v>35825</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="3" t="e">
         <f>1/数据!E4</f>
-        <v>1.118743427382364E-3</v>
+        <v>#NAME?</v>
       </c>
       <c r="C2" s="3" t="e">
         <f>0.01*数据!#REF!</f>
@@ -12180,7 +11877,7 @@
       </c>
       <c r="F2" s="3" t="e">
         <f t="shared" ref="F2:F65" si="0">B2-C2</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="G2" s="2" t="e">
         <f>数据!#REF!/数据!#REF!</f>
@@ -12204,7 +11901,7 @@
       </c>
       <c r="O2" s="10" t="e">
         <f>数据!C4/数据!#REF!</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
       <c r="P2" s="10" t="e">
         <f>数据!#REF!/数据!#REF!</f>
@@ -30452,41 +30149,41 @@
       <c r="A1" s="4">
         <v>35795</v>
       </c>
-      <c r="B1" s="17" t="str">
-        <f>_xll.BDP(B2,"name")</f>
-        <v>SHANGHAI SE COMPOSITE</v>
-      </c>
-      <c r="C1" s="17" t="str">
-        <f>_xll.BDP(C2,"name")</f>
-        <v>HANG SENG INDEX</v>
-      </c>
-      <c r="D1" s="17" t="str">
-        <f>_xll.BDP(D2,"name")</f>
-        <v>S&amp;P 500 Total Return</v>
-      </c>
-      <c r="E1" s="17" t="str">
-        <f>_xll.BDP(E2,"name")</f>
-        <v>U.S. Treasury</v>
-      </c>
-      <c r="F1" s="17" t="str">
-        <f>_xll.BDP(F2,"name")</f>
-        <v>China Household Benchmark Savi</v>
-      </c>
-      <c r="G1" s="16" t="str">
-        <f>_xll.BDP(G2,"name")</f>
-        <v>SHANGHAI SE COMPOSITE</v>
-      </c>
-      <c r="H1" s="16" t="str">
-        <f>_xll.BDP(H2,"name")</f>
-        <v>HANG SENG INDEX</v>
-      </c>
-      <c r="I1" s="16" t="str">
-        <f>_xll.BDP(I2,"name")</f>
-        <v>S&amp;P 500 INDEX</v>
-      </c>
-      <c r="J1" s="17" t="str">
-        <f>_xll.BDP(J2,"name")</f>
-        <v>Federal Funds Target Rate Mid</v>
+      <c r="B1" s="17" t="e">
+        <f ca="1">_xll.BDP(B2,"name")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1" s="17" t="e">
+        <f ca="1">_xll.BDP(C2,"name")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1" s="17" t="e">
+        <f ca="1">_xll.BDP(D2,"name")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E1" s="17" t="e">
+        <f ca="1">_xll.BDP(E2,"name")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F1" s="17" t="e">
+        <f ca="1">_xll.BDP(F2,"name")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G1" s="16" t="e">
+        <f ca="1">_xll.BDP(G2,"name")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H1" s="16" t="e">
+        <f ca="1">_xll.BDP(H2,"name")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I1" s="16" t="e">
+        <f ca="1">_xll.BDP(I2,"name")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J1" s="17" t="e">
+        <f ca="1">_xll.BDP(J2,"name")</f>
+        <v>#NAME?</v>
       </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
@@ -30577,44 +30274,44 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
-        <f>_xll.BDH(B$2,B$3,$A$1,"","Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","curr=usd","cols=2;rows=261")</f>
-        <v>35795</v>
+      <c r="A4" s="14" t="e">
+        <f ca="1">_xll.BDH(B$2,B$3,$A$1,"","Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","curr=usd","cols=2;rows=261")</f>
+        <v>#NAME?</v>
       </c>
       <c r="B4" s="11">
         <v>144.22370000000001</v>
       </c>
-      <c r="C4" s="11">
-        <f>_xll.BDH(C$2,C$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
-        <v>11458.3236</v>
-      </c>
-      <c r="D4" s="11">
-        <f>_xll.BDH(D$2,D$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
-        <v>10753.588470000001</v>
-      </c>
-      <c r="E4" s="11">
-        <f>_xll.BDH(E$2,E$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
-        <v>893.86</v>
-      </c>
-      <c r="F4" s="11">
-        <f>_xll.BDH(F$2,F$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
-        <v>5.67</v>
-      </c>
-      <c r="G4" s="11">
-        <f>_xll.BDH(G$2,G$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
-        <v>37.039299999999997</v>
-      </c>
-      <c r="H4" s="11">
-        <f>_xll.BDH(H$2,H$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
-        <v>9.5499000000000009</v>
-      </c>
-      <c r="I4" s="11">
-        <f>_xll.BDH(I$2,I$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
-        <v>22.239699999999999</v>
-      </c>
-      <c r="J4" s="11">
-        <f>_xll.BDH(J$2,J$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","","cols=1;rows=261")</f>
-        <v>5.5</v>
+      <c r="C4" s="11" t="e">
+        <f ca="1">_xll.BDH(C$2,C$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="11" t="e">
+        <f ca="1">_xll.BDH(D$2,D$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" s="11" t="e">
+        <f ca="1">_xll.BDH(E$2,E$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F4" s="11" t="e">
+        <f ca="1">_xll.BDH(F$2,F$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G4" s="11" t="e">
+        <f ca="1">_xll.BDH(G$2,G$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H4" s="11" t="e">
+        <f ca="1">_xll.BDH(H$2,H$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I4" s="11" t="e">
+        <f ca="1">_xll.BDH(I$2,I$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=261")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J4" s="11" t="e">
+        <f ca="1">_xll.BDH(J$2,J$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","","cols=1;rows=261")</f>
+        <v>#NAME?</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>23</v>
@@ -30673,21 +30370,21 @@
         <f>B5/B4-1</f>
         <v>2.4290043869350075E-2</v>
       </c>
-      <c r="L5" s="19">
-        <f t="shared" ref="L5:N5" si="0">C5/C4-1</f>
-        <v>-0.13599995552578048</v>
-      </c>
-      <c r="M5" s="19">
-        <f t="shared" si="0"/>
-        <v>1.0938684359008244E-2</v>
-      </c>
-      <c r="N5" s="19">
-        <f t="shared" si="0"/>
-        <v>1.5315597520864532E-2</v>
-      </c>
-      <c r="O5" s="19">
-        <f t="array" ref="O5">(1+F4*0.01)^(1/12)-1</f>
-        <v>4.6064810688120073E-3</v>
+      <c r="L5" s="19" t="e">
+        <f t="shared" ref="L5:N5" ca="1" si="0">C5/C4-1</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M5" s="19" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="N5" s="19" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="O5" s="19" t="e">
+        <f t="array" aca="1" ref="O5" ca="1">(1+F4*0.01)^(1/12)-1</f>
+        <v>#NAME?</v>
       </c>
       <c r="P5" s="19" t="s">
         <v>0</v>
@@ -46842,10 +46539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J262"/>
+  <dimension ref="A1:J263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E222" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection sqref="A1:J263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -46881,13 +46578,13 @@
         <v>22</v>
       </c>
       <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
       </c>
       <c r="J1" t="s">
         <v>28</v>
@@ -46916,7 +46613,7 @@
         <v>37.039299999999997</v>
       </c>
       <c r="H2">
-        <v>9.5499000000000009</v>
+        <v>9.5498999999999992</v>
       </c>
       <c r="I2">
         <v>22.239699999999999</v>
@@ -47294,7 +46991,7 @@
         <v>983.5</v>
       </c>
       <c r="F14">
-        <v>3.7800000000000002</v>
+        <v>3.78</v>
       </c>
       <c r="G14">
         <v>44.5062</v>
@@ -47314,10 +47011,10 @@
         <v>36189</v>
       </c>
       <c r="B15" s="11">
-        <v>137.7543</v>
+        <v>137.09219999999999</v>
       </c>
       <c r="C15">
-        <v>10551.577799999999</v>
+        <v>10163.3537</v>
       </c>
       <c r="D15">
         <v>14402.039269999999</v>
@@ -47326,7 +47023,7 @@
         <v>989.21</v>
       </c>
       <c r="F15">
-        <v>3.7800000000000002</v>
+        <v>3.78</v>
       </c>
       <c r="G15">
         <v>34.694000000000003</v>
@@ -47346,10 +47043,10 @@
         <v>36217</v>
       </c>
       <c r="B16" s="11">
-        <v>132.3477</v>
+        <v>131.71170000000001</v>
       </c>
       <c r="C16">
-        <v>10944.0951</v>
+        <v>10541.4292</v>
       </c>
       <c r="D16">
         <v>13956.46499</v>
@@ -47358,7 +47055,7 @@
         <v>963.96</v>
       </c>
       <c r="F16">
-        <v>3.7800000000000002</v>
+        <v>3.78</v>
       </c>
       <c r="G16">
         <v>33.368600000000001</v>
@@ -47378,10 +47075,10 @@
         <v>36250</v>
       </c>
       <c r="B17" s="11">
-        <v>140.56829999999999</v>
+        <v>139.89269999999999</v>
       </c>
       <c r="C17">
-        <v>12232.5898</v>
+        <v>11782.516299999999</v>
       </c>
       <c r="D17">
         <v>14516.595359999999</v>
@@ -47390,7 +47087,7 @@
         <v>967.66</v>
       </c>
       <c r="F17">
-        <v>3.7800000000000002</v>
+        <v>3.78</v>
       </c>
       <c r="G17">
         <v>35.658299999999997</v>
@@ -47410,10 +47107,10 @@
         <v>36280</v>
       </c>
       <c r="B18" s="11">
-        <v>136.1086</v>
+        <v>135.4545</v>
       </c>
       <c r="C18">
-        <v>14945.4323</v>
+        <v>14395.545099999999</v>
       </c>
       <c r="D18">
         <v>15077.66502</v>
@@ -47422,7 +47119,7 @@
         <v>969.96</v>
       </c>
       <c r="F18">
-        <v>3.7800000000000002</v>
+        <v>3.78</v>
       </c>
       <c r="G18">
         <v>34.933100000000003</v>
@@ -47442,10 +47139,10 @@
         <v>36311</v>
       </c>
       <c r="B19" s="11">
-        <v>155.6105</v>
+        <v>154.86269999999999</v>
       </c>
       <c r="C19">
-        <v>13673.4683</v>
+        <v>13170.380499999999</v>
       </c>
       <c r="D19">
         <v>14719.67006</v>
@@ -47454,7 +47151,7 @@
         <v>960.91</v>
       </c>
       <c r="F19">
-        <v>3.7800000000000002</v>
+        <v>3.78</v>
       </c>
       <c r="G19">
         <v>40.996400000000001</v>
@@ -47474,10 +47171,10 @@
         <v>36341</v>
       </c>
       <c r="B20" s="11">
-        <v>205.96610000000001</v>
+        <v>204.97630000000001</v>
       </c>
       <c r="C20">
-        <v>15246.577300000001</v>
+        <v>14685.610199999999</v>
       </c>
       <c r="D20">
         <v>15537.323420000001</v>
@@ -47506,10 +47203,10 @@
         <v>36371</v>
       </c>
       <c r="B21" s="11">
-        <v>195.54759999999999</v>
+        <v>194.6078</v>
       </c>
       <c r="C21">
-        <v>14847.947</v>
+        <v>14301.646699999999</v>
       </c>
       <c r="D21">
         <v>15049.81141</v>
@@ -47538,10 +47235,10 @@
         <v>36403</v>
       </c>
       <c r="B22" s="11">
-        <v>198.94139999999999</v>
+        <v>197.9853</v>
       </c>
       <c r="C22">
-        <v>15241.543</v>
+        <v>14680.7611</v>
       </c>
       <c r="D22">
         <v>14974.632519999999</v>
@@ -47570,10 +47267,10 @@
         <v>36433</v>
       </c>
       <c r="B23" s="11">
-        <v>192.041</v>
+        <v>191.11799999999999</v>
       </c>
       <c r="C23">
-        <v>14408.593199999999</v>
+        <v>13878.458000000001</v>
       </c>
       <c r="D23">
         <v>14565.525820000001</v>
@@ -47602,10 +47299,10 @@
         <v>36462</v>
       </c>
       <c r="B24" s="11">
-        <v>183.9562</v>
+        <v>183.07210000000001</v>
       </c>
       <c r="C24">
-        <v>15072.6448</v>
+        <v>14518.0771</v>
       </c>
       <c r="D24">
         <v>15487.2423</v>
@@ -47634,10 +47331,10 @@
         <v>36494</v>
       </c>
       <c r="B25" s="11">
-        <v>175.48740000000001</v>
+        <v>174.64400000000001</v>
       </c>
       <c r="C25">
-        <v>17553.988099999999</v>
+        <v>16908.124500000002</v>
       </c>
       <c r="D25">
         <v>15804.17173</v>
@@ -47666,10 +47363,10 @@
         <v>36525</v>
       </c>
       <c r="B26" s="11">
-        <v>167.1961</v>
+        <v>166.39250000000001</v>
       </c>
       <c r="C26">
-        <v>19365.8668</v>
+        <v>18653.338599999999</v>
       </c>
       <c r="D26">
         <v>16736.189579999998</v>
@@ -47698,10 +47395,10 @@
         <v>36556</v>
       </c>
       <c r="B27" s="11">
-        <v>187.87970000000001</v>
+        <v>186.9768</v>
       </c>
       <c r="C27">
-        <v>17705.058000000001</v>
+        <v>17053.635999999999</v>
       </c>
       <c r="D27">
         <v>15891.867850000001</v>
@@ -47730,10 +47427,10 @@
         <v>36585</v>
       </c>
       <c r="B28" s="11">
-        <v>209.8475</v>
+        <v>208.839</v>
       </c>
       <c r="C28">
-        <v>19567.2533</v>
+        <v>18847.315600000002</v>
       </c>
       <c r="D28">
         <v>15592.73482</v>
@@ -47762,10 +47459,10 @@
         <v>36616</v>
       </c>
       <c r="B29" s="11">
-        <v>220.33179999999999</v>
+        <v>219.27289999999999</v>
       </c>
       <c r="C29">
-        <v>19930.3024</v>
+        <v>19197.007099999999</v>
       </c>
       <c r="D29">
         <v>17118.364710000002</v>
@@ -47794,10 +47491,10 @@
         <v>36644</v>
       </c>
       <c r="B30" s="11">
-        <v>224.77950000000001</v>
+        <v>223.69919999999999</v>
       </c>
       <c r="C30">
-        <v>17811.766899999999</v>
+        <v>17156.418799999999</v>
       </c>
       <c r="D30">
         <v>16605.745169999998</v>
@@ -47826,10 +47523,10 @@
         <v>36677</v>
       </c>
       <c r="B31" s="11">
-        <v>232.2439</v>
+        <v>231.1277</v>
       </c>
       <c r="C31">
-        <v>16932.046200000001</v>
+        <v>16309.0656</v>
       </c>
       <c r="D31">
         <v>16259.936400000001</v>
@@ -47858,10 +47555,10 @@
         <v>36707</v>
       </c>
       <c r="B32" s="11">
-        <v>236.70500000000001</v>
+        <v>235.5675</v>
       </c>
       <c r="C32">
-        <v>18623.427599999999</v>
+        <v>17938.216</v>
       </c>
       <c r="D32">
         <v>16662.60931</v>
@@ -47890,10 +47587,10 @@
         <v>36738</v>
       </c>
       <c r="B33" s="11">
-        <v>248.78530000000001</v>
+        <v>247.58969999999999</v>
       </c>
       <c r="C33">
-        <v>19407.912799999998</v>
+        <v>18693.8377</v>
       </c>
       <c r="D33">
         <v>16404.083989999999</v>
@@ -47922,10 +47619,10 @@
         <v>36769</v>
       </c>
       <c r="B34" s="11">
-        <v>248.7098</v>
+        <v>247.5145</v>
       </c>
       <c r="C34">
-        <v>19780.430199999999</v>
+        <v>19052.649099999999</v>
       </c>
       <c r="D34">
         <v>17421.750759999999</v>
@@ -47954,10 +47651,10 @@
         <v>36798</v>
       </c>
       <c r="B35" s="11">
-        <v>235.03319999999999</v>
+        <v>233.90360000000001</v>
       </c>
       <c r="C35">
-        <v>18129.784</v>
+        <v>17462.735100000002</v>
       </c>
       <c r="D35">
         <v>16504.390289999999</v>
@@ -47986,10 +47683,10 @@
         <v>36830</v>
       </c>
       <c r="B36" s="11">
-        <v>241.41810000000001</v>
+        <v>240.25790000000001</v>
       </c>
       <c r="C36">
-        <v>17266.980200000002</v>
+        <v>16631.6764</v>
       </c>
       <c r="D36">
         <v>16430.05114</v>
@@ -48018,10 +47715,10 @@
         <v>36860</v>
       </c>
       <c r="B37" s="11">
-        <v>254.8691</v>
+        <v>253.64420000000001</v>
       </c>
       <c r="C37">
-        <v>16242.5386</v>
+        <v>15644.927100000001</v>
       </c>
       <c r="D37">
         <v>15135.07912</v>
@@ -48050,10 +47747,10 @@
         <v>36889</v>
       </c>
       <c r="B38" s="11">
-        <v>255.2312</v>
+        <v>254.00460000000001</v>
       </c>
       <c r="C38">
-        <v>17537.212599999999</v>
+        <v>16891.966100000001</v>
       </c>
       <c r="D38">
         <v>15208.60505</v>
@@ -48082,10 +47779,10 @@
         <v>36922</v>
       </c>
       <c r="B39" s="11">
-        <v>254.29300000000001</v>
+        <v>253.07089999999999</v>
       </c>
       <c r="C39">
-        <v>18710.8655</v>
+        <v>18022.436900000001</v>
       </c>
       <c r="D39">
         <v>15749.52399</v>
@@ -48114,10 +47811,10 @@
         <v>36950</v>
       </c>
       <c r="B40" s="11">
-        <v>241.1455</v>
+        <v>239.98660000000001</v>
       </c>
       <c r="C40">
-        <v>17182.317999999999</v>
+        <v>16550.129199999999</v>
       </c>
       <c r="D40">
         <v>14313.80157</v>
@@ -48146,10 +47843,10 @@
         <v>36980</v>
       </c>
       <c r="B41" s="11">
-        <v>260.09620000000001</v>
+        <v>258.84620000000001</v>
       </c>
       <c r="C41">
-        <v>14940.988600000001</v>
+        <v>14391.264999999999</v>
       </c>
       <c r="D41">
         <v>13406.04142</v>
@@ -48178,10 +47875,10 @@
         <v>37011</v>
       </c>
       <c r="B42" s="11">
-        <v>260.99200000000002</v>
+        <v>259.73770000000002</v>
       </c>
       <c r="C42">
-        <v>15719.6106</v>
+        <v>15141.239100000001</v>
       </c>
       <c r="D42">
         <v>14447.30774</v>
@@ -48210,10 +47907,10 @@
         <v>37042</v>
       </c>
       <c r="B43" s="11">
-        <v>273.1336</v>
+        <v>271.82089999999999</v>
       </c>
       <c r="C43">
-        <v>15532.2901</v>
+        <v>14960.8107</v>
       </c>
       <c r="D43">
         <v>14543.400820000001</v>
@@ -48242,10 +47939,10 @@
         <v>37071</v>
       </c>
       <c r="B44" s="11">
-        <v>274.40719999999999</v>
+        <v>273.08850000000001</v>
       </c>
       <c r="C44">
-        <v>15380.6265</v>
+        <v>14814.7273</v>
       </c>
       <c r="D44">
         <v>14188.920620000001</v>
@@ -48274,10 +47971,10 @@
         <v>37103</v>
       </c>
       <c r="B45" s="11">
-        <v>237.81540000000001</v>
+        <v>236.67250000000001</v>
       </c>
       <c r="C45">
-        <v>14526.7263</v>
+        <v>13992.244699999999</v>
       </c>
       <c r="D45">
         <v>14049.752259999999</v>
@@ -48306,10 +48003,10 @@
         <v>37134</v>
       </c>
       <c r="B46" s="11">
-        <v>227.2492</v>
+        <v>226.15700000000001</v>
       </c>
       <c r="C46">
-        <v>13163.3964</v>
+        <v>12679.075699999999</v>
       </c>
       <c r="D46">
         <v>13170.0543</v>
@@ -48338,10 +48035,10 @@
         <v>37162</v>
       </c>
       <c r="B47" s="11">
-        <v>218.67099999999999</v>
+        <v>217.62010000000001</v>
       </c>
       <c r="C47">
-        <v>11831.4714</v>
+        <v>11396.156199999999</v>
       </c>
       <c r="D47">
         <v>12106.392589999999</v>
@@ -48370,10 +48067,10 @@
         <v>37195</v>
       </c>
       <c r="B48" s="11">
-        <v>209.31039999999999</v>
+        <v>208.30439999999999</v>
       </c>
       <c r="C48">
-        <v>11996.890299999999</v>
+        <v>11555.4889</v>
       </c>
       <c r="D48">
         <v>12337.249100000001</v>
@@ -48402,10 +48099,10 @@
         <v>37225</v>
       </c>
       <c r="B49" s="11">
-        <v>216.59350000000001</v>
+        <v>215.55260000000001</v>
       </c>
       <c r="C49">
-        <v>13462.3006</v>
+        <v>12966.9823</v>
       </c>
       <c r="D49">
         <v>13284.55653</v>
@@ -48434,10 +48131,10 @@
         <v>37256</v>
       </c>
       <c r="B50" s="11">
-        <v>204.56059999999999</v>
+        <v>203.57749999999999</v>
       </c>
       <c r="C50">
-        <v>13604.7084</v>
+        <v>13104.1505</v>
       </c>
       <c r="D50">
         <v>13399.47969</v>
@@ -48466,10 +48163,10 @@
         <v>37287</v>
       </c>
       <c r="B51" s="11">
-        <v>185.38130000000001</v>
+        <v>184.49039999999999</v>
       </c>
       <c r="C51">
-        <v>12801.753500000001</v>
+        <v>12330.738799999999</v>
       </c>
       <c r="D51">
         <v>13204.09864</v>
@@ -48498,10 +48195,10 @@
         <v>37315</v>
       </c>
       <c r="B52" s="11">
-        <v>189.4897</v>
+        <v>188.57900000000001</v>
       </c>
       <c r="C52">
-        <v>12513.735199999999</v>
+        <v>12053.3174</v>
       </c>
       <c r="D52">
         <v>12949.29603</v>
@@ -48530,10 +48227,10 @@
         <v>37344</v>
       </c>
       <c r="B53" s="11">
-        <v>199.31909999999999</v>
+        <v>198.3612</v>
       </c>
       <c r="C53">
-        <v>13301.072</v>
+        <v>12811.685799999999</v>
       </c>
       <c r="D53">
         <v>13437.771199999999</v>
@@ -48562,10 +48259,10 @@
         <v>37376</v>
       </c>
       <c r="B54" s="11">
-        <v>207.37010000000001</v>
+        <v>206.37350000000001</v>
       </c>
       <c r="C54">
-        <v>13904.173000000001</v>
+        <v>13392.597</v>
       </c>
       <c r="D54">
         <v>12622.91561</v>
@@ -48594,10 +48291,10 @@
         <v>37407</v>
       </c>
       <c r="B55" s="11">
-        <v>188.73060000000001</v>
+        <v>187.8236</v>
       </c>
       <c r="C55">
-        <v>13725.178099999999</v>
+        <v>13220.1877</v>
       </c>
       <c r="D55">
         <v>12528.709129999999</v>
@@ -48626,10 +48323,10 @@
         <v>37435</v>
       </c>
       <c r="B56" s="11">
-        <v>216.47229999999999</v>
+        <v>215.43199999999999</v>
       </c>
       <c r="C56">
-        <v>12871.742899999999</v>
+        <v>12398.1531</v>
       </c>
       <c r="D56">
         <v>11637.130810000001</v>
@@ -48658,10 +48355,10 @@
         <v>37468</v>
       </c>
       <c r="B57" s="11">
-        <v>207.09299999999999</v>
+        <v>206.0977</v>
       </c>
       <c r="C57">
-        <v>12471.0923</v>
+        <v>12012.2435</v>
       </c>
       <c r="D57">
         <v>10729.320750000001</v>
@@ -48690,10 +48387,10 @@
         <v>37498</v>
       </c>
       <c r="B58" s="11">
-        <v>209.10740000000001</v>
+        <v>208.10239999999999</v>
       </c>
       <c r="C58">
-        <v>12290.145</v>
+        <v>11837.953799999999</v>
       </c>
       <c r="D58">
         <v>10800.023859999999</v>
@@ -48711,7 +48408,7 @@
         <v>17.261500000000002</v>
       </c>
       <c r="I58">
-        <v>20.923000000000002</v>
+        <v>20.922999999999998</v>
       </c>
       <c r="J58">
         <v>1.75</v>
@@ -48722,10 +48419,10 @@
         <v>37529</v>
       </c>
       <c r="B59" s="11">
-        <v>198.55459999999999</v>
+        <v>197.60040000000001</v>
       </c>
       <c r="C59">
-        <v>11131.052</v>
+        <v>10721.5074</v>
       </c>
       <c r="D59">
         <v>9626.7477999999992</v>
@@ -48754,10 +48451,10 @@
         <v>37560</v>
       </c>
       <c r="B60" s="11">
-        <v>189.2345</v>
+        <v>188.32509999999999</v>
       </c>
       <c r="C60">
-        <v>11595.3038</v>
+        <v>11168.677900000001</v>
       </c>
       <c r="D60">
         <v>10474.059929999999</v>
@@ -48786,10 +48483,10 @@
         <v>37589</v>
       </c>
       <c r="B61" s="11">
-        <v>180.0359</v>
+        <v>179.17070000000001</v>
       </c>
       <c r="C61">
-        <v>12397.657300000001</v>
+        <v>11941.5105</v>
       </c>
       <c r="D61">
         <v>11090.55406</v>
@@ -48818,10 +48515,10 @@
         <v>37621</v>
       </c>
       <c r="B62" s="11">
-        <v>170.43369999999999</v>
+        <v>169.6146</v>
       </c>
       <c r="C62">
-        <v>11480.9331</v>
+        <v>11058.515299999999</v>
       </c>
       <c r="D62">
         <v>10438.75375</v>
@@ -48833,7 +48530,7 @@
         <v>1.98</v>
       </c>
       <c r="G62">
-        <v>42.518299999999996</v>
+        <v>42.518300000000004</v>
       </c>
       <c r="H62">
         <v>14.497</v>
@@ -48850,10 +48547,10 @@
         <v>37652</v>
       </c>
       <c r="B63" s="11">
-        <v>188.2731</v>
+        <v>187.3682</v>
       </c>
       <c r="C63">
-        <v>11401.9076</v>
+        <v>10982.3974</v>
       </c>
       <c r="D63">
         <v>10165.17541</v>
@@ -48882,10 +48579,10 @@
         <v>37680</v>
       </c>
       <c r="B64" s="11">
-        <v>189.7895</v>
+        <v>188.87739999999999</v>
       </c>
       <c r="C64">
-        <v>11237.8861</v>
+        <v>10824.4107</v>
       </c>
       <c r="D64">
         <v>10013.382799999999</v>
@@ -48914,10 +48611,10 @@
         <v>37711</v>
       </c>
       <c r="B65" s="11">
-        <v>189.63669999999999</v>
+        <v>188.7253</v>
       </c>
       <c r="C65">
-        <v>10772.051799999999</v>
+        <v>10375.7158</v>
       </c>
       <c r="D65">
         <v>10110.479890000001</v>
@@ -48946,10 +48643,10 @@
         <v>37741</v>
       </c>
       <c r="B66" s="11">
-        <v>191.15209999999999</v>
+        <v>190.23339999999999</v>
       </c>
       <c r="C66">
-        <v>10952.5569</v>
+        <v>10549.579599999999</v>
       </c>
       <c r="D66">
         <v>10942.75684</v>
@@ -48978,10 +48675,10 @@
         <v>37771</v>
       </c>
       <c r="B67" s="11">
-        <v>198.245</v>
+        <v>197.29230000000001</v>
       </c>
       <c r="C67">
-        <v>12005.856400000001</v>
+        <v>11564.125099999999</v>
       </c>
       <c r="D67">
         <v>11519.021199999999</v>
@@ -49010,10 +48707,10 @@
         <v>37802</v>
       </c>
       <c r="B68" s="11">
-        <v>188.02680000000001</v>
+        <v>187.1232</v>
       </c>
       <c r="C68">
-        <v>12124.7438</v>
+        <v>11678.638199999999</v>
       </c>
       <c r="D68">
         <v>11666.95414</v>
@@ -49028,7 +48725,7 @@
         <v>37.718600000000002</v>
       </c>
       <c r="H68">
-        <v>14.850999999999999</v>
+        <v>14.851000000000001</v>
       </c>
       <c r="I68">
         <v>20.158100000000001</v>
@@ -49042,10 +48739,10 @@
         <v>37833</v>
       </c>
       <c r="B69" s="11">
-        <v>187.2458</v>
+        <v>186.3459</v>
       </c>
       <c r="C69">
-        <v>12832.8045</v>
+        <v>12360.647199999999</v>
       </c>
       <c r="D69">
         <v>11872.371429999999</v>
@@ -49074,10 +48771,10 @@
         <v>37862</v>
       </c>
       <c r="B70" s="11">
-        <v>180.42699999999999</v>
+        <v>179.5599</v>
       </c>
       <c r="C70">
-        <v>13940.8141</v>
+        <v>13427.8899</v>
       </c>
       <c r="D70">
         <v>12103.61988</v>
@@ -49106,10 +48803,10 @@
         <v>37894</v>
       </c>
       <c r="B71" s="11">
-        <v>173.6302</v>
+        <v>172.79570000000001</v>
       </c>
       <c r="C71">
-        <v>14496.149299999999</v>
+        <v>13962.7927</v>
       </c>
       <c r="D71">
         <v>11974.940119999999</v>
@@ -49138,10 +48835,10 @@
         <v>37925</v>
       </c>
       <c r="B72" s="11">
-        <v>171.2559</v>
+        <v>170.43289999999999</v>
       </c>
       <c r="C72">
-        <v>15697.3465</v>
+        <v>15119.7942</v>
       </c>
       <c r="D72">
         <v>12651.743189999999</v>
@@ -49170,10 +48867,10 @@
         <v>37953</v>
       </c>
       <c r="B73" s="11">
-        <v>177.4854</v>
+        <v>176.63239999999999</v>
       </c>
       <c r="C73">
-        <v>15929.2027</v>
+        <v>15343.119699999999</v>
       </c>
       <c r="D73">
         <v>12763.68028</v>
@@ -49202,10 +48899,10 @@
         <v>37986</v>
       </c>
       <c r="B74" s="11">
-        <v>190.17439999999999</v>
+        <v>189.26050000000001</v>
       </c>
       <c r="C74">
-        <v>16283.597100000001</v>
+        <v>15684.474899999999</v>
       </c>
       <c r="D74">
         <v>13432.57922</v>
@@ -49234,10 +48931,10 @@
         <v>38016</v>
       </c>
       <c r="B75" s="11">
-        <v>202.077</v>
+        <v>201.10589999999999</v>
       </c>
       <c r="C75">
-        <v>17179.908500000001</v>
+        <v>16547.808300000001</v>
       </c>
       <c r="D75">
         <v>13679.29911</v>
@@ -49255,7 +48952,7 @@
         <v>18.838999999999999</v>
       </c>
       <c r="I75">
-        <v>20.8171</v>
+        <v>20.7912</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -49266,10 +48963,10 @@
         <v>38044</v>
       </c>
       <c r="B76" s="11">
-        <v>212.78829999999999</v>
+        <v>211.76560000000001</v>
       </c>
       <c r="C76">
-        <v>17963.2837</v>
+        <v>17302.360799999999</v>
       </c>
       <c r="D76">
         <v>13869.60133</v>
@@ -49287,7 +48984,7 @@
         <v>19.707699999999999</v>
       </c>
       <c r="I76">
-        <v>20.9909</v>
+        <v>20.9695</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -49298,10 +48995,10 @@
         <v>38077</v>
       </c>
       <c r="B77" s="11">
-        <v>221.2911</v>
+        <v>220.2276</v>
       </c>
       <c r="C77">
-        <v>16479.3459</v>
+        <v>15873.021500000001</v>
       </c>
       <c r="D77">
         <v>13660.52634</v>
@@ -49319,7 +49016,7 @@
         <v>17.979700000000001</v>
       </c>
       <c r="I77">
-        <v>19.635000000000002</v>
+        <v>19.610099999999999</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -49330,10 +49027,10 @@
         <v>38107</v>
       </c>
       <c r="B78" s="11">
-        <v>202.9324</v>
+        <v>201.9572</v>
       </c>
       <c r="C78">
-        <v>15542.868399999999</v>
+        <v>14970.9998</v>
       </c>
       <c r="D78">
         <v>13446.24</v>
@@ -49351,7 +49048,7 @@
         <v>16.975200000000001</v>
       </c>
       <c r="I78">
-        <v>19.164899999999999</v>
+        <v>19.139700000000001</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -49362,10 +49059,10 @@
         <v>38138</v>
       </c>
       <c r="B79" s="11">
-        <v>198.4436</v>
+        <v>197.48990000000001</v>
       </c>
       <c r="C79">
-        <v>16036.5224</v>
+        <v>15446.4908</v>
       </c>
       <c r="D79">
         <v>13630.43203</v>
@@ -49377,13 +49074,13 @@
         <v>1.98</v>
       </c>
       <c r="G79">
-        <v>31.634900000000002</v>
+        <v>31.634899999999998</v>
       </c>
       <c r="H79">
         <v>17.374099999999999</v>
       </c>
       <c r="I79">
-        <v>19.266100000000002</v>
+        <v>19.246400000000001</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -49394,10 +49091,10 @@
         <v>38168</v>
       </c>
       <c r="B80" s="11">
-        <v>179.84399999999999</v>
+        <v>178.97970000000001</v>
       </c>
       <c r="C80">
-        <v>16161.2948</v>
+        <v>15566.672500000001</v>
       </c>
       <c r="D80">
         <v>13894.803389999999</v>
@@ -49415,7 +49112,7 @@
         <v>14.311500000000001</v>
       </c>
       <c r="I80">
-        <v>18.802199999999999</v>
+        <v>18.854399999999998</v>
       </c>
       <c r="J80">
         <v>1.25</v>
@@ -49426,10 +49123,10 @@
         <v>38198</v>
       </c>
       <c r="B81" s="11">
-        <v>178.55609999999999</v>
+        <v>177.69800000000001</v>
       </c>
       <c r="C81">
-        <v>16102.1304</v>
+        <v>15509.6849</v>
       </c>
       <c r="D81">
         <v>13435.73957</v>
@@ -49447,7 +49144,7 @@
         <v>14.254799999999999</v>
       </c>
       <c r="I81">
-        <v>17.9938</v>
+        <v>18.041799999999999</v>
       </c>
       <c r="J81">
         <v>1.25</v>
@@ -49458,10 +49155,10 @@
         <v>38230</v>
       </c>
       <c r="B82" s="11">
-        <v>172.93610000000001</v>
+        <v>172.10499999999999</v>
       </c>
       <c r="C82">
-        <v>16973.270199999999</v>
+        <v>16348.7729</v>
       </c>
       <c r="D82">
         <v>13489.27144</v>
@@ -49479,7 +49176,7 @@
         <v>14.9015</v>
       </c>
       <c r="I82">
-        <v>18.0092</v>
+        <v>18.0548</v>
       </c>
       <c r="J82">
         <v>1.5</v>
@@ -49490,10 +49187,10 @@
         <v>38260</v>
       </c>
       <c r="B83" s="11">
-        <v>180.1567</v>
+        <v>179.29089999999999</v>
       </c>
       <c r="C83">
-        <v>17419.561300000001</v>
+        <v>16778.643599999999</v>
       </c>
       <c r="D83">
         <v>13635.36822</v>
@@ -49511,7 +49208,7 @@
         <v>15.1708</v>
       </c>
       <c r="I83">
-        <v>17.7318</v>
+        <v>17.836099999999998</v>
       </c>
       <c r="J83">
         <v>1.75</v>
@@ -49522,10 +49219,10 @@
         <v>38289</v>
       </c>
       <c r="B84" s="11">
-        <v>170.38079999999999</v>
+        <v>169.56200000000001</v>
       </c>
       <c r="C84">
-        <v>17370.017599999999</v>
+        <v>16730.9228</v>
       </c>
       <c r="D84">
         <v>13843.84671</v>
@@ -49543,7 +49240,7 @@
         <v>15.112399999999999</v>
       </c>
       <c r="I84">
-        <v>17.789100000000001</v>
+        <v>17.8812</v>
       </c>
       <c r="J84">
         <v>1.75</v>
@@ -49554,10 +49251,10 @@
         <v>38321</v>
       </c>
       <c r="B85" s="11">
-        <v>173.00030000000001</v>
+        <v>172.16890000000001</v>
       </c>
       <c r="C85">
-        <v>18803.180100000001</v>
+        <v>18111.354899999998</v>
       </c>
       <c r="D85">
         <v>14403.816419999999</v>
@@ -49575,7 +49272,7 @@
         <v>16.219799999999999</v>
       </c>
       <c r="I85">
-        <v>18.385100000000001</v>
+        <v>18.480399999999999</v>
       </c>
       <c r="J85">
         <v>2</v>
@@ -49586,10 +49283,10 @@
         <v>38352</v>
       </c>
       <c r="B86" s="11">
-        <v>163.42920000000001</v>
+        <v>162.6438</v>
       </c>
       <c r="C86">
-        <v>19051.2788</v>
+        <v>18350.3253</v>
       </c>
       <c r="D86">
         <v>14893.95902</v>
@@ -49607,7 +49304,7 @@
         <v>14.519399999999999</v>
       </c>
       <c r="I86">
-        <v>18.541399999999999</v>
+        <v>18.518000000000001</v>
       </c>
       <c r="J86">
         <v>2.25</v>
@@ -49618,10 +49315,10 @@
         <v>38383</v>
       </c>
       <c r="B87" s="11">
-        <v>153.79519999999999</v>
+        <v>153.05609999999999</v>
       </c>
       <c r="C87">
-        <v>18307.224900000001</v>
+        <v>17633.647400000002</v>
       </c>
       <c r="D87">
         <v>14530.743060000001</v>
@@ -49639,7 +49336,7 @@
         <v>14.005000000000001</v>
       </c>
       <c r="I87">
-        <v>18.026399999999999</v>
+        <v>18.002500000000001</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -49650,10 +49347,10 @@
         <v>38411</v>
       </c>
       <c r="B88" s="11">
-        <v>168.52719999999999</v>
+        <v>167.71729999999999</v>
       </c>
       <c r="C88">
-        <v>18943.706600000001</v>
+        <v>18246.7111</v>
       </c>
       <c r="D88">
         <v>14836.71047</v>
@@ -49671,7 +49368,7 @@
         <v>14.4857</v>
       </c>
       <c r="I88">
-        <v>18.319199999999999</v>
+        <v>18.297499999999999</v>
       </c>
       <c r="J88">
         <v>2.5</v>
@@ -49682,10 +49379,10 @@
         <v>38442</v>
       </c>
       <c r="B89" s="11">
-        <v>152.43510000000001</v>
+        <v>151.70249999999999</v>
       </c>
       <c r="C89">
-        <v>18174.3318</v>
+        <v>17505.643800000002</v>
       </c>
       <c r="D89">
         <v>14573.80517</v>
@@ -49703,7 +49400,7 @@
         <v>13.565099999999999</v>
       </c>
       <c r="I89">
-        <v>17.651599999999998</v>
+        <v>17.635400000000001</v>
       </c>
       <c r="J89">
         <v>2.75</v>
@@ -49714,10 +49411,10 @@
         <v>38471</v>
       </c>
       <c r="B90" s="11">
-        <v>149.8229</v>
+        <v>149.1028</v>
       </c>
       <c r="C90">
-        <v>18732.805400000001</v>
+        <v>18043.569500000001</v>
       </c>
       <c r="D90">
         <v>14297.39824</v>
@@ -49735,7 +49432,7 @@
         <v>13.941700000000001</v>
       </c>
       <c r="I90">
-        <v>17.107299999999999</v>
+        <v>17.183199999999999</v>
       </c>
       <c r="J90">
         <v>2.75</v>
@@ -49746,10 +49443,10 @@
         <v>38503</v>
       </c>
       <c r="B91" s="11">
-        <v>137.7225</v>
+        <v>137.0607</v>
       </c>
       <c r="C91">
-        <v>18946.883000000002</v>
+        <v>18249.7706</v>
       </c>
       <c r="D91">
         <v>14752.861849999999</v>
@@ -49767,7 +49464,7 @@
         <v>13.9346</v>
       </c>
       <c r="I91">
-        <v>17.612400000000001</v>
+        <v>17.6873</v>
       </c>
       <c r="J91">
         <v>3</v>
@@ -49778,10 +49475,10 @@
         <v>38533</v>
       </c>
       <c r="B92" s="11">
-        <v>141.90039999999999</v>
+        <v>141.21850000000001</v>
       </c>
       <c r="C92">
-        <v>19430.815200000001</v>
+        <v>18715.897400000002</v>
       </c>
       <c r="D92">
         <v>14773.26641</v>
@@ -49799,7 +49496,7 @@
         <v>12.751300000000001</v>
       </c>
       <c r="I92">
-        <v>17.311800000000002</v>
+        <v>17.352599999999999</v>
       </c>
       <c r="J92">
         <v>3.25</v>
@@ -49810,10 +49507,10 @@
         <v>38562</v>
       </c>
       <c r="B93" s="11">
-        <v>145.77180000000001</v>
+        <v>145.0712</v>
       </c>
       <c r="C93">
-        <v>19935.253000000001</v>
+        <v>19201.7755</v>
       </c>
       <c r="D93">
         <v>15006.44846</v>
@@ -49831,7 +49528,7 @@
         <v>13.337</v>
       </c>
       <c r="I93">
-        <v>17.833500000000001</v>
+        <v>17.884</v>
       </c>
       <c r="J93">
         <v>3.25</v>
@@ -49842,10 +49539,10 @@
         <v>38595</v>
       </c>
       <c r="B94" s="11">
-        <v>157.1841</v>
+        <v>156.42869999999999</v>
       </c>
       <c r="C94">
-        <v>20061.326799999999</v>
+        <v>19323.210599999999</v>
       </c>
       <c r="D94">
         <v>14858.8887</v>
@@ -49863,7 +49560,7 @@
         <v>13.3637</v>
       </c>
       <c r="I94">
-        <v>17.5185</v>
+        <v>17.5701</v>
       </c>
       <c r="J94">
         <v>3.5</v>
@@ -49874,10 +49571,10 @@
         <v>38625</v>
       </c>
       <c r="B95" s="11">
-        <v>156.54640000000001</v>
+        <v>155.79400000000001</v>
       </c>
       <c r="C95">
-        <v>20858.9709</v>
+        <v>20091.507099999999</v>
       </c>
       <c r="D95">
         <v>14964.810729999999</v>
@@ -49895,7 +49592,7 @@
         <v>13.840199999999999</v>
       </c>
       <c r="I95">
-        <v>17.296199999999999</v>
+        <v>17.406700000000001</v>
       </c>
       <c r="J95">
         <v>3.75</v>
@@ -49906,10 +49603,10 @@
         <v>38656</v>
       </c>
       <c r="B96" s="11">
-        <v>148.19499999999999</v>
+        <v>147.4828</v>
       </c>
       <c r="C96">
-        <v>19464.069200000002</v>
+        <v>18747.928</v>
       </c>
       <c r="D96">
         <v>14701.695589999999</v>
@@ -49927,7 +49624,7 @@
         <v>12.9139</v>
       </c>
       <c r="I96">
-        <v>16.7302</v>
+        <v>16.853300000000001</v>
       </c>
       <c r="J96">
         <v>3.75</v>
@@ -49938,10 +49635,10 @@
         <v>38686</v>
       </c>
       <c r="B97" s="11">
-        <v>149.18379999999999</v>
+        <v>148.46680000000001</v>
       </c>
       <c r="C97">
-        <v>20278.632000000001</v>
+        <v>19532.5206</v>
       </c>
       <c r="D97">
         <v>15250.00963</v>
@@ -49959,7 +49656,7 @@
         <v>13.425599999999999</v>
       </c>
       <c r="I97">
-        <v>17.302</v>
+        <v>17.425000000000001</v>
       </c>
       <c r="J97">
         <v>4</v>
@@ -49970,10 +49667,10 @@
         <v>38716</v>
       </c>
       <c r="B98" s="11">
-        <v>157.8486</v>
+        <v>157.09</v>
       </c>
       <c r="C98">
-        <v>20187.816200000001</v>
+        <v>19445.0461</v>
       </c>
       <c r="D98">
         <v>15236.061460000001</v>
@@ -50002,10 +49699,10 @@
         <v>38748</v>
       </c>
       <c r="B99" s="11">
-        <v>171.2106</v>
+        <v>170.3878</v>
       </c>
       <c r="C99">
-        <v>21346.501</v>
+        <v>20561.099399999999</v>
       </c>
       <c r="D99">
         <v>15622.808429999999</v>
@@ -50034,10 +49731,10 @@
         <v>38776</v>
       </c>
       <c r="B100" s="11">
-        <v>177.28620000000001</v>
+        <v>176.4342</v>
       </c>
       <c r="C100">
-        <v>21511.6531</v>
+        <v>20720.1751</v>
       </c>
       <c r="D100">
         <v>15623.62016</v>
@@ -50066,10 +49763,10 @@
         <v>38807</v>
       </c>
       <c r="B101" s="11">
-        <v>177.8571</v>
+        <v>177.00229999999999</v>
       </c>
       <c r="C101">
-        <v>21451.284800000001</v>
+        <v>20662.027999999998</v>
       </c>
       <c r="D101">
         <v>15772.83885</v>
@@ -50098,10 +49795,10 @@
         <v>38835</v>
       </c>
       <c r="B102" s="11">
-        <v>197.85319999999999</v>
+        <v>196.9023</v>
       </c>
       <c r="C102">
-        <v>22638.261900000001</v>
+        <v>21805.332600000002</v>
       </c>
       <c r="D102">
         <v>15978.257100000001</v>
@@ -50130,10 +49827,10 @@
         <v>38868</v>
       </c>
       <c r="B103" s="11">
-        <v>226.1103</v>
+        <v>225.02359999999999</v>
       </c>
       <c r="C103">
-        <v>21843.200799999999</v>
+        <v>21039.524099999999</v>
       </c>
       <c r="D103">
         <v>15525.159159999999</v>
@@ -50162,10 +49859,10 @@
         <v>38898</v>
       </c>
       <c r="B104" s="11">
-        <v>233.10810000000001</v>
+        <v>231.98779999999999</v>
       </c>
       <c r="C104">
-        <v>22281.333900000001</v>
+        <v>21461.537</v>
       </c>
       <c r="D104">
         <v>15501.219510000001</v>
@@ -50194,10 +49891,10 @@
         <v>38929</v>
       </c>
       <c r="B105" s="11">
-        <v>225.9796</v>
+        <v>224.89349999999999</v>
       </c>
       <c r="C105">
-        <v>23164.334299999999</v>
+        <v>22312.049200000001</v>
       </c>
       <c r="D105">
         <v>15547.479149999999</v>
@@ -50226,10 +49923,10 @@
         <v>38960</v>
       </c>
       <c r="B106" s="11">
-        <v>233.05109999999999</v>
+        <v>231.93109999999999</v>
       </c>
       <c r="C106">
-        <v>23745.244200000001</v>
+        <v>22871.5857</v>
       </c>
       <c r="D106">
         <v>15884.842269999999</v>
@@ -50258,10 +49955,10 @@
         <v>38989</v>
       </c>
       <c r="B107" s="11">
-        <v>248.08279999999999</v>
+        <v>246.89060000000001</v>
       </c>
       <c r="C107">
-        <v>23900.9977</v>
+        <v>23021.608499999998</v>
       </c>
       <c r="D107">
         <v>16194.623540000001</v>
@@ -50290,10 +49987,10 @@
         <v>39021</v>
       </c>
       <c r="B108" s="11">
-        <v>261.02969999999999</v>
+        <v>259.77519999999998</v>
       </c>
       <c r="C108">
-        <v>24947.981500000002</v>
+        <v>24030.0707</v>
       </c>
       <c r="D108">
         <v>16669.237870000001</v>
@@ -50322,10 +50019,10 @@
         <v>39051</v>
       </c>
       <c r="B109" s="11">
-        <v>299.87439999999998</v>
+        <v>298.43329999999997</v>
       </c>
       <c r="C109">
-        <v>25750.701499999999</v>
+        <v>24803.2562</v>
       </c>
       <c r="D109">
         <v>16887.90956</v>
@@ -50354,10 +50051,10 @@
         <v>39080</v>
       </c>
       <c r="B110" s="11">
-        <v>383.6696</v>
+        <v>381.82569999999998</v>
       </c>
       <c r="C110">
-        <v>27044.057799999999</v>
+        <v>26049.026099999999</v>
       </c>
       <c r="D110">
         <v>17062.939849999999</v>
@@ -50386,10 +50083,10 @@
         <v>39113</v>
       </c>
       <c r="B111" s="11">
-        <v>401.14519999999999</v>
+        <v>399.21730000000002</v>
       </c>
       <c r="C111">
-        <v>27026.385699999999</v>
+        <v>26032.004199999999</v>
       </c>
       <c r="D111">
         <v>17252.862959999999</v>
@@ -50418,10 +50115,10 @@
         <v>39141</v>
       </c>
       <c r="B112" s="11">
-        <v>416.60109999999997</v>
+        <v>414.59890000000001</v>
       </c>
       <c r="C112">
-        <v>26292.780500000001</v>
+        <v>25325.390500000001</v>
       </c>
       <c r="D112">
         <v>16841.656050000001</v>
@@ -50450,10 +50147,10 @@
         <v>39171</v>
       </c>
       <c r="B113" s="11">
-        <v>461.28019999999998</v>
+        <v>459.06330000000003</v>
       </c>
       <c r="C113">
-        <v>26574.832200000001</v>
+        <v>25597.0648</v>
       </c>
       <c r="D113">
         <v>16998.127120000001</v>
@@ -50482,10 +50179,10 @@
         <v>39202</v>
       </c>
       <c r="B114" s="11">
-        <v>557.85469999999998</v>
+        <v>555.17370000000005</v>
       </c>
       <c r="C114">
-        <v>27228.997200000002</v>
+        <v>26227.161</v>
       </c>
       <c r="D114">
         <v>17712.005669999999</v>
@@ -50514,10 +50211,10 @@
         <v>39233</v>
       </c>
       <c r="B115" s="11">
-        <v>601.87710000000004</v>
+        <v>598.98450000000003</v>
       </c>
       <c r="C115">
-        <v>27752.962200000002</v>
+        <v>26731.8478</v>
       </c>
       <c r="D115">
         <v>18193.58425</v>
@@ -50546,10 +50243,10 @@
         <v>39262</v>
       </c>
       <c r="B116" s="11">
-        <v>564.06020000000001</v>
+        <v>561.34929999999997</v>
       </c>
       <c r="C116">
-        <v>29129.809700000002</v>
+        <v>28058.037</v>
       </c>
       <c r="D116">
         <v>17801.54206</v>
@@ -50578,10 +50275,10 @@
         <v>39294</v>
       </c>
       <c r="B117" s="11">
-        <v>664.88279999999997</v>
+        <v>661.68740000000003</v>
       </c>
       <c r="C117">
-        <v>30831.122599999999</v>
+        <v>29696.753400000001</v>
       </c>
       <c r="D117">
         <v>17157.165300000001</v>
@@ -50610,10 +50307,10 @@
         <v>39325</v>
       </c>
       <c r="B118" s="11">
-        <v>779.06590000000006</v>
+        <v>775.32169999999996</v>
       </c>
       <c r="C118">
-        <v>31976.332699999999</v>
+        <v>30799.8279</v>
       </c>
       <c r="D118">
         <v>17351.342130000001</v>
@@ -50642,10 +50339,10 @@
         <v>39353</v>
       </c>
       <c r="B119" s="11">
-        <v>833.37139999999999</v>
+        <v>829.36620000000005</v>
       </c>
       <c r="C119">
-        <v>36327.9018</v>
+        <v>34991.289700000001</v>
       </c>
       <c r="D119">
         <v>17907.45289</v>
@@ -50674,10 +50371,10 @@
         <v>39386</v>
       </c>
       <c r="B120" s="11">
-        <v>898.88689999999997</v>
+        <v>894.56690000000003</v>
       </c>
       <c r="C120">
-        <v>41833.026899999997</v>
+        <v>40293.864800000003</v>
       </c>
       <c r="D120">
         <v>18090.26542</v>
@@ -50706,10 +50403,10 @@
         <v>39416</v>
       </c>
       <c r="B121" s="11">
-        <v>743.02300000000002</v>
+        <v>739.45209999999997</v>
       </c>
       <c r="C121">
-        <v>37762.421300000002</v>
+        <v>36373.029000000002</v>
       </c>
       <c r="D121">
         <v>17156.316299999999</v>
@@ -50738,10 +50435,10 @@
         <v>39447</v>
       </c>
       <c r="B122" s="11">
-        <v>811.63419999999996</v>
+        <v>807.73360000000002</v>
       </c>
       <c r="C122">
-        <v>36156.936500000003</v>
+        <v>34826.614800000003</v>
       </c>
       <c r="D122">
         <v>16828.805530000001</v>
@@ -50756,7 +50453,7 @@
         <v>39.645000000000003</v>
       </c>
       <c r="H122">
-        <v>16.848300000000002</v>
+        <v>16.848299999999998</v>
       </c>
       <c r="I122">
         <v>17.4497</v>
@@ -50770,10 +50467,10 @@
         <v>39478</v>
       </c>
       <c r="B123" s="11">
-        <v>687.6848</v>
+        <v>684.37980000000005</v>
       </c>
       <c r="C123">
-        <v>30019.917300000001</v>
+        <v>28915.394899999999</v>
       </c>
       <c r="D123">
         <v>15569.431399999999</v>
@@ -50802,10 +50499,10 @@
         <v>39507</v>
       </c>
       <c r="B124" s="11">
-        <v>688.96429999999998</v>
+        <v>685.65319999999997</v>
       </c>
       <c r="C124">
-        <v>30907.881000000001</v>
+        <v>29770.687699999999</v>
       </c>
       <c r="D124">
         <v>14916.19346</v>
@@ -50834,10 +50531,10 @@
         <v>39538</v>
       </c>
       <c r="B125" s="11">
-        <v>558.03309999999999</v>
+        <v>555.35130000000004</v>
       </c>
       <c r="C125">
-        <v>28759.9607</v>
+        <v>27701.7958</v>
       </c>
       <c r="D125">
         <v>14643.98702</v>
@@ -50866,10 +50563,10 @@
         <v>39568</v>
       </c>
       <c r="B126" s="11">
-        <v>595.8184</v>
+        <v>592.95489999999995</v>
       </c>
       <c r="C126">
-        <v>32331.6558</v>
+        <v>31142.077499999999</v>
       </c>
       <c r="D126">
         <v>15303.540360000001</v>
@@ -50898,10 +50595,10 @@
         <v>39598</v>
       </c>
       <c r="B127" s="11">
-        <v>558.98090000000002</v>
+        <v>556.29449999999997</v>
       </c>
       <c r="C127">
-        <v>30774.685000000001</v>
+        <v>29642.392400000001</v>
       </c>
       <c r="D127">
         <v>15401.48561</v>
@@ -50930,10 +50627,10 @@
         <v>39629</v>
       </c>
       <c r="B128" s="11">
-        <v>454.39679999999998</v>
+        <v>452.21300000000002</v>
       </c>
       <c r="C128">
-        <v>27505.8799</v>
+        <v>26493.856299999999</v>
       </c>
       <c r="D128">
         <v>13924.311680000001</v>
@@ -50962,10 +50659,10 @@
         <v>39660</v>
       </c>
       <c r="B129" s="11">
-        <v>463.15969999999999</v>
+        <v>460.93380000000002</v>
       </c>
       <c r="C129">
-        <v>28180.329900000001</v>
+        <v>27143.491399999999</v>
       </c>
       <c r="D129">
         <v>13760.92973</v>
@@ -50994,10 +50691,10 @@
         <v>39689</v>
       </c>
       <c r="B130" s="11">
-        <v>399.72559999999999</v>
+        <v>397.80450000000002</v>
       </c>
       <c r="C130">
-        <v>26448.438900000001</v>
+        <v>25475.321800000002</v>
       </c>
       <c r="D130">
         <v>13973.26311</v>
@@ -51026,10 +50723,10 @@
         <v>39721</v>
       </c>
       <c r="B131" s="11">
-        <v>382.77510000000001</v>
+        <v>380.93560000000002</v>
       </c>
       <c r="C131">
-        <v>22681.931700000001</v>
+        <v>21847.3956</v>
       </c>
       <c r="D131">
         <v>12743.404549999999</v>
@@ -51058,10 +50755,10 @@
         <v>39752</v>
       </c>
       <c r="B132" s="11">
-        <v>288.8997</v>
+        <v>287.51119999999997</v>
       </c>
       <c r="C132">
-        <v>17613.418799999999</v>
+        <v>16965.3685</v>
       </c>
       <c r="D132">
         <v>10593.11335</v>
@@ -51090,10 +50787,10 @@
         <v>39780</v>
       </c>
       <c r="B133" s="11">
-        <v>312.52510000000001</v>
+        <v>311.0231</v>
       </c>
       <c r="C133">
-        <v>17655.604899999998</v>
+        <v>17006.002400000001</v>
       </c>
       <c r="D133">
         <v>9839.3313099999996</v>
@@ -51122,10 +50819,10 @@
         <v>39813</v>
       </c>
       <c r="B134" s="11">
-        <v>304.95519999999999</v>
+        <v>303.4896</v>
       </c>
       <c r="C134">
-        <v>18246.896199999999</v>
+        <v>17575.538400000001</v>
       </c>
       <c r="D134">
         <v>9917.2876899999992</v>
@@ -51154,10 +50851,10 @@
         <v>39843</v>
       </c>
       <c r="B135" s="11">
-        <v>332.38</v>
+        <v>330.7826</v>
       </c>
       <c r="C135">
-        <v>16881.640500000001</v>
+        <v>16260.514499999999</v>
       </c>
       <c r="D135">
         <v>9109.3367099999996</v>
@@ -51186,10 +50883,10 @@
         <v>39871</v>
       </c>
       <c r="B136" s="11">
-        <v>348.11439999999999</v>
+        <v>346.44139999999999</v>
       </c>
       <c r="C136">
-        <v>16272.974899999999</v>
+        <v>15674.2435</v>
       </c>
       <c r="D136">
         <v>8131.4278299999996</v>
@@ -51218,10 +50915,10 @@
         <v>39903</v>
       </c>
       <c r="B137" s="11">
-        <v>397.0052</v>
+        <v>395.09719999999999</v>
       </c>
       <c r="C137">
-        <v>17317.7228</v>
+        <v>16680.552</v>
       </c>
       <c r="D137">
         <v>8835.6876300000004</v>
@@ -51250,10 +50947,10 @@
         <v>39933</v>
       </c>
       <c r="B138" s="11">
-        <v>415.2199</v>
+        <v>413.2244</v>
       </c>
       <c r="C138">
-        <v>19800.778999999999</v>
+        <v>19072.249199999998</v>
       </c>
       <c r="D138">
         <v>9666.34879</v>
@@ -51282,10 +50979,10 @@
         <v>39962</v>
       </c>
       <c r="B139" s="11">
-        <v>441.32279999999997</v>
+        <v>439.20179999999999</v>
       </c>
       <c r="C139">
-        <v>23450.0281</v>
+        <v>22587.231500000002</v>
       </c>
       <c r="D139">
         <v>10217.4751</v>
@@ -51314,10 +51011,10 @@
         <v>39994</v>
       </c>
       <c r="B140" s="11">
-        <v>500.71850000000001</v>
+        <v>498.31200000000001</v>
       </c>
       <c r="C140">
-        <v>23832.442200000001</v>
+        <v>22955.575400000002</v>
       </c>
       <c r="D140">
         <v>10238.80946</v>
@@ -51332,7 +51029,7 @@
         <v>31.408300000000001</v>
       </c>
       <c r="H140">
-        <v>18.872700000000002</v>
+        <v>18.872699999999998</v>
       </c>
       <c r="I140">
         <v>18.128799999999998</v>
@@ -51346,10 +51043,10 @@
         <v>40025</v>
       </c>
       <c r="B141" s="11">
-        <v>578.1087</v>
+        <v>575.33029999999997</v>
       </c>
       <c r="C141">
-        <v>26683.736700000001</v>
+        <v>25701.962200000002</v>
       </c>
       <c r="D141">
         <v>11015.46315</v>
@@ -51378,10 +51075,10 @@
         <v>40056</v>
       </c>
       <c r="B142" s="11">
-        <v>452.19779999999997</v>
+        <v>450.02460000000002</v>
       </c>
       <c r="C142">
-        <v>25623.424299999999</v>
+        <v>24680.662</v>
       </c>
       <c r="D142">
         <v>11410.653910000001</v>
@@ -51410,10 +51107,10 @@
         <v>40086</v>
       </c>
       <c r="B143" s="11">
-        <v>472.24279999999999</v>
+        <v>469.97320000000002</v>
       </c>
       <c r="C143">
-        <v>27336.143800000002</v>
+        <v>26330.365399999999</v>
       </c>
       <c r="D143">
         <v>11829.022220000001</v>
@@ -51442,10 +51139,10 @@
         <v>40116</v>
       </c>
       <c r="B144" s="11">
-        <v>508.98759999999999</v>
+        <v>506.54140000000001</v>
       </c>
       <c r="C144">
-        <v>28393.140100000001</v>
+        <v>27348.471600000001</v>
       </c>
       <c r="D144">
         <v>11611.324430000001</v>
@@ -51474,10 +51171,10 @@
         <v>40147</v>
       </c>
       <c r="B145" s="11">
-        <v>542.90869999999995</v>
+        <v>540.29960000000005</v>
       </c>
       <c r="C145">
-        <v>28534.0357</v>
+        <v>27484.183199999999</v>
       </c>
       <c r="D145">
         <v>12307.07663</v>
@@ -51506,10 +51203,10 @@
         <v>40178</v>
       </c>
       <c r="B146" s="11">
-        <v>556.81799999999998</v>
+        <v>554.14189999999996</v>
       </c>
       <c r="C146">
-        <v>28593.195199999998</v>
+        <v>27541.166099999999</v>
       </c>
       <c r="D146">
         <v>12544.796249999999</v>
@@ -51538,10 +51235,10 @@
         <v>40207</v>
       </c>
       <c r="B147" s="11">
-        <v>507.9325</v>
+        <v>505.4914</v>
       </c>
       <c r="C147">
-        <v>26265.375700000001</v>
+        <v>25298.993999999999</v>
       </c>
       <c r="D147">
         <v>12092.99352</v>
@@ -51570,10 +51267,10 @@
         <v>40235</v>
       </c>
       <c r="B148" s="11">
-        <v>518.63869999999997</v>
+        <v>516.14620000000002</v>
       </c>
       <c r="C148">
-        <v>26911.8076</v>
+        <v>25921.641800000001</v>
       </c>
       <c r="D148">
         <v>12466.11902</v>
@@ -51602,10 +51299,10 @@
         <v>40268</v>
       </c>
       <c r="B149" s="11">
-        <v>528.34699999999998</v>
+        <v>525.80780000000004</v>
       </c>
       <c r="C149">
-        <v>27791.986499999999</v>
+        <v>26769.436300000001</v>
       </c>
       <c r="D149">
         <v>13219.380719999999</v>
@@ -51634,10 +51331,10 @@
         <v>40298</v>
       </c>
       <c r="B150" s="11">
-        <v>488.15949999999998</v>
+        <v>485.8134</v>
       </c>
       <c r="C150">
-        <v>27688.891199999998</v>
+        <v>26670.1342</v>
       </c>
       <c r="D150">
         <v>13425.50966</v>
@@ -51666,10 +51363,10 @@
         <v>40329</v>
       </c>
       <c r="B151" s="11">
-        <v>442.3039</v>
+        <v>440.1782</v>
       </c>
       <c r="C151">
-        <v>26179.016800000001</v>
+        <v>25215.812600000001</v>
       </c>
       <c r="D151">
         <v>12364.516369999999</v>
@@ -51698,10 +51395,10 @@
         <v>40359</v>
       </c>
       <c r="B152" s="11">
-        <v>414.87470000000002</v>
+        <v>412.8809</v>
       </c>
       <c r="C152">
-        <v>26571.232199999999</v>
+        <v>25593.5972</v>
       </c>
       <c r="D152">
         <v>11631.66072</v>
@@ -51730,10 +51427,10 @@
         <v>40389</v>
       </c>
       <c r="B153" s="11">
-        <v>458.23379999999997</v>
+        <v>456.03160000000003</v>
       </c>
       <c r="C153">
-        <v>27802.357800000002</v>
+        <v>26779.425999999999</v>
       </c>
       <c r="D153">
         <v>12434.834999999999</v>
@@ -51762,10 +51459,10 @@
         <v>40421</v>
       </c>
       <c r="B154" s="11">
-        <v>456.11340000000001</v>
+        <v>453.92129999999997</v>
       </c>
       <c r="C154">
-        <v>27315.031900000002</v>
+        <v>26310.030299999999</v>
       </c>
       <c r="D154">
         <v>11935.74178</v>
@@ -51794,10 +51491,10 @@
         <v>40451</v>
       </c>
       <c r="B155" s="11">
-        <v>468.3329</v>
+        <v>466.08210000000003</v>
       </c>
       <c r="C155">
-        <v>29431.141100000001</v>
+        <v>28348.281500000001</v>
       </c>
       <c r="D155">
         <v>12770.8755</v>
@@ -51815,7 +51512,7 @@
         <v>13.7698</v>
       </c>
       <c r="I155">
-        <v>14.732099999999999</v>
+        <v>14.732100000000001</v>
       </c>
       <c r="J155">
         <v>0.125</v>
@@ -51826,10 +51523,10 @@
         <v>40480</v>
       </c>
       <c r="B156" s="11">
-        <v>526.67380000000003</v>
+        <v>524.14260000000002</v>
       </c>
       <c r="C156">
-        <v>30370.747100000001</v>
+        <v>29253.316500000001</v>
       </c>
       <c r="D156">
         <v>13223.15007</v>
@@ -51858,10 +51555,10 @@
         <v>40512</v>
       </c>
       <c r="B157" s="11">
-        <v>499.07279999999997</v>
+        <v>496.67419999999998</v>
       </c>
       <c r="C157">
-        <v>30229.598699999999</v>
+        <v>29117.361499999999</v>
       </c>
       <c r="D157">
         <v>13212.92728</v>
@@ -51890,10 +51587,10 @@
         <v>40543</v>
       </c>
       <c r="B158" s="11">
-        <v>502.78390000000002</v>
+        <v>500.36750000000001</v>
       </c>
       <c r="C158">
-        <v>29892.436600000001</v>
+        <v>28792.604599999999</v>
       </c>
       <c r="D158">
         <v>13932.53681</v>
@@ -51922,10 +51619,10 @@
         <v>40574</v>
       </c>
       <c r="B159" s="11">
-        <v>499.27</v>
+        <v>496.87049999999999</v>
       </c>
       <c r="C159">
-        <v>30368.5772</v>
+        <v>29251.226500000001</v>
       </c>
       <c r="D159">
         <v>14274.218000000001</v>
@@ -51954,10 +51651,10 @@
         <v>40602</v>
       </c>
       <c r="B160" s="11">
-        <v>521.59460000000001</v>
+        <v>519.08780000000002</v>
       </c>
       <c r="C160">
-        <v>30142.926899999999</v>
+        <v>29033.878499999999</v>
       </c>
       <c r="D160">
         <v>14710.85518</v>
@@ -51986,10 +51683,10 @@
         <v>40633</v>
       </c>
       <c r="B161" s="11">
-        <v>527.62810000000002</v>
+        <v>525.09230000000002</v>
       </c>
       <c r="C161">
-        <v>30418.6217</v>
+        <v>29299.429700000001</v>
       </c>
       <c r="D161">
         <v>14665.19678</v>
@@ -52018,10 +51715,10 @@
         <v>40662</v>
       </c>
       <c r="B162" s="11">
-        <v>529.43600000000004</v>
+        <v>526.89160000000004</v>
       </c>
       <c r="C162">
-        <v>30486.613499999999</v>
+        <v>29364.919900000001</v>
       </c>
       <c r="D162">
         <v>14966.68816</v>
@@ -52050,10 +51747,10 @@
         <v>40694</v>
       </c>
       <c r="B163" s="11">
-        <v>500.20359999999999</v>
+        <v>497.79969999999997</v>
       </c>
       <c r="C163">
-        <v>30590.7487</v>
+        <v>29465.223699999999</v>
       </c>
       <c r="D163">
         <v>14770.145109999999</v>
@@ -52082,10 +51779,10 @@
         <v>40724</v>
       </c>
       <c r="B164" s="11">
-        <v>511.4495</v>
+        <v>508.99149999999997</v>
       </c>
       <c r="C164">
-        <v>29053.677500000002</v>
+        <v>27984.705900000001</v>
       </c>
       <c r="D164">
         <v>14489.86607</v>
@@ -52114,10 +51811,10 @@
         <v>40753</v>
       </c>
       <c r="B165" s="11">
-        <v>503.04579999999999</v>
+        <v>500.62819999999999</v>
       </c>
       <c r="C165">
-        <v>28939.9804</v>
+        <v>27875.191999999999</v>
       </c>
       <c r="D165">
         <v>14136.386570000001</v>
@@ -52146,10 +51843,10 @@
         <v>40786</v>
       </c>
       <c r="B166" s="11">
-        <v>482.56380000000001</v>
+        <v>480.24470000000002</v>
       </c>
       <c r="C166">
-        <v>26340.132900000001</v>
+        <v>25371.000700000001</v>
       </c>
       <c r="D166">
         <v>13246.118200000001</v>
@@ -52178,10 +51875,10 @@
         <v>40816</v>
       </c>
       <c r="B167" s="11">
-        <v>444.06869999999998</v>
+        <v>441.93450000000001</v>
       </c>
       <c r="C167">
-        <v>22718.042300000001</v>
+        <v>21882.177599999999</v>
       </c>
       <c r="D167">
         <v>12324.23257</v>
@@ -52210,10 +51907,10 @@
         <v>40847</v>
       </c>
       <c r="B168" s="11">
-        <v>466.36270000000002</v>
+        <v>464.12139999999999</v>
       </c>
       <c r="C168">
-        <v>25621.734100000001</v>
+        <v>24679.033899999999</v>
       </c>
       <c r="D168">
         <v>13620.840690000001</v>
@@ -52242,10 +51939,10 @@
         <v>40877</v>
       </c>
       <c r="B169" s="11">
-        <v>439.60070000000002</v>
+        <v>437.488</v>
       </c>
       <c r="C169">
-        <v>23325.846000000001</v>
+        <v>22467.618399999999</v>
       </c>
       <c r="D169">
         <v>13633.07444</v>
@@ -52274,10 +51971,10 @@
         <v>40907</v>
       </c>
       <c r="B170" s="11">
-        <v>419.60390000000001</v>
+        <v>417.58730000000003</v>
       </c>
       <c r="C170">
-        <v>23633.262999999999</v>
+        <v>22763.724600000001</v>
       </c>
       <c r="D170">
         <v>13600.67432</v>
@@ -52306,10 +52003,10 @@
         <v>40939</v>
       </c>
       <c r="B171" s="11">
-        <v>436.71769999999998</v>
+        <v>434.6189</v>
       </c>
       <c r="C171">
-        <v>26216.301800000001</v>
+        <v>25251.725699999999</v>
       </c>
       <c r="D171">
         <v>14231.824919999999</v>
@@ -52338,10 +52035,10 @@
         <v>40968</v>
       </c>
       <c r="B172" s="11">
-        <v>463.66649999999998</v>
+        <v>461.43810000000002</v>
       </c>
       <c r="C172">
-        <v>27812.0756</v>
+        <v>26788.786199999999</v>
       </c>
       <c r="D172">
         <v>14813.1122</v>
@@ -52356,7 +52053,7 @@
         <v>13.019500000000001</v>
       </c>
       <c r="H172">
-        <v>10.669599999999999</v>
+        <v>10.669600000000001</v>
       </c>
       <c r="I172">
         <v>14.511699999999999</v>
@@ -52370,10 +52067,10 @@
         <v>40998</v>
       </c>
       <c r="B173" s="11">
-        <v>431.79700000000003</v>
+        <v>429.72179999999997</v>
       </c>
       <c r="C173">
-        <v>26445.671699999999</v>
+        <v>25472.6564</v>
       </c>
       <c r="D173">
         <v>15309.81806</v>
@@ -52402,10 +52099,10 @@
         <v>41029</v>
       </c>
       <c r="B174" s="11">
-        <v>457.48899999999998</v>
+        <v>455.2903</v>
       </c>
       <c r="C174">
-        <v>27103.138200000001</v>
+        <v>26105.932799999999</v>
       </c>
       <c r="D174">
         <v>15170.04531</v>
@@ -52434,10 +52131,10 @@
         <v>41060</v>
       </c>
       <c r="B175" s="11">
-        <v>448.95389999999998</v>
+        <v>446.7962</v>
       </c>
       <c r="C175">
-        <v>24533.4522</v>
+        <v>23630.7932</v>
       </c>
       <c r="D175">
         <v>14460.5844</v>
@@ -52455,7 +52152,7 @@
         <v>9.2317</v>
       </c>
       <c r="I175">
-        <v>13.744299999999999</v>
+        <v>13.744300000000001</v>
       </c>
       <c r="J175">
         <v>0.125</v>
@@ -52466,10 +52163,10 @@
         <v>41089</v>
       </c>
       <c r="B176" s="11">
-        <v>428.3811</v>
+        <v>426.32229999999998</v>
       </c>
       <c r="C176">
-        <v>25834.245200000001</v>
+        <v>24883.7261</v>
       </c>
       <c r="D176">
         <v>15022.12183</v>
@@ -52498,10 +52195,10 @@
         <v>41121</v>
       </c>
       <c r="B177" s="11">
-        <v>406.13029999999998</v>
+        <v>404.17849999999999</v>
       </c>
       <c r="C177">
-        <v>26352.224300000002</v>
+        <v>25382.647199999999</v>
       </c>
       <c r="D177">
         <v>15249.213739999999</v>
@@ -52530,10 +52227,10 @@
         <v>41152</v>
       </c>
       <c r="B178" s="11">
-        <v>396.46350000000001</v>
+        <v>394.55810000000002</v>
       </c>
       <c r="C178">
-        <v>25947.5851</v>
+        <v>24992.8959</v>
       </c>
       <c r="D178">
         <v>15560.329760000001</v>
@@ -52562,10 +52259,10 @@
         <v>41180</v>
       </c>
       <c r="B179" s="11">
-        <v>409.09120000000001</v>
+        <v>407.12509999999997</v>
       </c>
       <c r="C179">
-        <v>27616.356400000001</v>
+        <v>26600.268100000001</v>
       </c>
       <c r="D179">
         <v>15802.06119</v>
@@ -52594,10 +52291,10 @@
         <v>41213</v>
       </c>
       <c r="B180" s="11">
-        <v>408.87979999999999</v>
+        <v>406.91480000000001</v>
       </c>
       <c r="C180">
-        <v>28515.295900000001</v>
+        <v>27466.132900000001</v>
       </c>
       <c r="D180">
         <v>15390.353370000001</v>
@@ -52626,10 +52323,10 @@
         <v>41243</v>
       </c>
       <c r="B181" s="11">
-        <v>392.02530000000002</v>
+        <v>390.14120000000003</v>
       </c>
       <c r="C181">
-        <v>29003.260699999999</v>
+        <v>27936.144</v>
       </c>
       <c r="D181">
         <v>15453.54859</v>
@@ -52658,10 +52355,10 @@
         <v>41274</v>
       </c>
       <c r="B182" s="11">
-        <v>448.65899999999999</v>
+        <v>446.50279999999998</v>
       </c>
       <c r="C182">
-        <v>29870.257699999998</v>
+        <v>28771.241600000001</v>
       </c>
       <c r="D182">
         <v>15615.1834</v>
@@ -52690,10 +52387,10 @@
         <v>41305</v>
       </c>
       <c r="B183" s="11">
-        <v>472.85890000000001</v>
+        <v>470.58629999999999</v>
       </c>
       <c r="C183">
-        <v>31184.059399999998</v>
+        <v>30036.704699999998</v>
       </c>
       <c r="D183">
         <v>16382.10446</v>
@@ -52722,10 +52419,10 @@
         <v>41333</v>
       </c>
       <c r="B184" s="11">
-        <v>468.65690000000001</v>
+        <v>466.40449999999998</v>
       </c>
       <c r="C184">
-        <v>30282.0573</v>
+        <v>29167.889899999998</v>
       </c>
       <c r="D184">
         <v>16614.11118</v>
@@ -52754,10 +52451,10 @@
         <v>41362</v>
       </c>
       <c r="B185" s="11">
-        <v>444.00569999999999</v>
+        <v>441.87189999999998</v>
       </c>
       <c r="C185">
-        <v>29362.924500000001</v>
+        <v>28282.574700000001</v>
       </c>
       <c r="D185">
         <v>17213.921719999998</v>
@@ -52786,10 +52483,10 @@
         <v>41394</v>
       </c>
       <c r="B186" s="11">
-        <v>435.66550000000001</v>
+        <v>433.5718</v>
       </c>
       <c r="C186">
-        <v>29730.281299999999</v>
+        <v>28636.415400000002</v>
       </c>
       <c r="D186">
         <v>17406.384300000002</v>
@@ -52818,10 +52515,10 @@
         <v>41425</v>
       </c>
       <c r="B187" s="11">
-        <v>463.24979999999999</v>
+        <v>461.02350000000001</v>
       </c>
       <c r="C187">
-        <v>29317.173999999999</v>
+        <v>28238.5075</v>
       </c>
       <c r="D187">
         <v>17725.392370000001</v>
@@ -52850,10 +52547,10 @@
         <v>41453</v>
       </c>
       <c r="B188" s="11">
-        <v>405.37349999999998</v>
+        <v>403.42529999999999</v>
       </c>
       <c r="C188">
-        <v>27677.013299999999</v>
+        <v>26658.693299999999</v>
       </c>
       <c r="D188">
         <v>17496.21082</v>
@@ -52882,10 +52579,10 @@
         <v>41486</v>
       </c>
       <c r="B189" s="11">
-        <v>411.89159999999998</v>
+        <v>409.91210000000001</v>
       </c>
       <c r="C189">
-        <v>29079.386200000001</v>
+        <v>28009.4686</v>
       </c>
       <c r="D189">
         <v>18360.46831</v>
@@ -52914,10 +52611,10 @@
         <v>41516</v>
       </c>
       <c r="B190" s="11">
-        <v>434.60109999999997</v>
+        <v>432.51240000000001</v>
       </c>
       <c r="C190">
-        <v>28910.6315</v>
+        <v>27846.922999999999</v>
       </c>
       <c r="D190">
         <v>17801.380720000001</v>
@@ -52946,10 +52643,10 @@
         <v>41547</v>
       </c>
       <c r="B191" s="11">
-        <v>451.37610000000001</v>
+        <v>449.20679999999999</v>
       </c>
       <c r="C191">
-        <v>30560.5972</v>
+        <v>29436.181499999999</v>
       </c>
       <c r="D191">
         <v>18365.30185</v>
@@ -52978,10 +52675,10 @@
         <v>41578</v>
       </c>
       <c r="B192" s="11">
-        <v>446.46230000000003</v>
+        <v>444.31659999999999</v>
       </c>
       <c r="C192">
-        <v>30950.685300000001</v>
+        <v>29811.917099999999</v>
       </c>
       <c r="D192">
         <v>19127.286169999999</v>
@@ -53010,10 +52707,10 @@
         <v>41607</v>
       </c>
       <c r="B193" s="11">
-        <v>463.07600000000002</v>
+        <v>460.85050000000001</v>
       </c>
       <c r="C193">
-        <v>31861.4241</v>
+        <v>30689.147099999998</v>
       </c>
       <c r="D193">
         <v>19703.055960000002</v>
@@ -53042,10 +52739,10 @@
         <v>41639</v>
       </c>
       <c r="B194" s="11">
-        <v>444.24900000000002</v>
+        <v>442.11399999999998</v>
       </c>
       <c r="C194">
-        <v>30886.483700000001</v>
+        <v>29750.077700000002</v>
       </c>
       <c r="D194">
         <v>20067.27692</v>
@@ -53074,10 +52771,10 @@
         <v>41670</v>
       </c>
       <c r="B195" s="11">
-        <v>426.11660000000001</v>
+        <v>424.06869999999998</v>
       </c>
       <c r="C195">
-        <v>29202.9882</v>
+        <v>28128.5229</v>
       </c>
       <c r="D195">
         <v>19392.31538</v>
@@ -53106,10 +52803,10 @@
         <v>41698</v>
       </c>
       <c r="B196" s="11">
-        <v>425.17509999999999</v>
+        <v>423.13170000000002</v>
       </c>
       <c r="C196">
-        <v>30720.178899999999</v>
+        <v>29589.891800000001</v>
       </c>
       <c r="D196">
         <v>20572.328000000001</v>
@@ -53138,10 +52835,10 @@
         <v>41729</v>
       </c>
       <c r="B197" s="11">
-        <v>415.51089999999999</v>
+        <v>413.51400000000001</v>
       </c>
       <c r="C197">
-        <v>30278.587299999999</v>
+        <v>29164.547600000002</v>
       </c>
       <c r="D197">
         <v>20990.608939999998</v>
@@ -53170,10 +52867,10 @@
         <v>41759</v>
       </c>
       <c r="B198" s="11">
-        <v>411.4966</v>
+        <v>409.51900000000001</v>
       </c>
       <c r="C198">
-        <v>30494.885200000001</v>
+        <v>29372.887299999999</v>
       </c>
       <c r="D198">
         <v>21285.179370000002</v>
@@ -53202,10 +52899,10 @@
         <v>41789</v>
       </c>
       <c r="B199" s="11">
-        <v>415.63679999999999</v>
+        <v>413.63929999999999</v>
       </c>
       <c r="C199">
-        <v>32092.935700000002</v>
+        <v>30912.1407</v>
       </c>
       <c r="D199">
         <v>21742.06769</v>
@@ -53234,10 +52931,10 @@
         <v>41820</v>
       </c>
       <c r="B200" s="11">
-        <v>426.85070000000002</v>
+        <v>424.79930000000002</v>
       </c>
       <c r="C200">
-        <v>32302.602500000001</v>
+        <v>31114.093199999999</v>
       </c>
       <c r="D200">
         <v>22038.435160000001</v>
@@ -53266,10 +52963,10 @@
         <v>41851</v>
       </c>
       <c r="B201" s="11">
-        <v>466.69369999999998</v>
+        <v>464.45080000000002</v>
       </c>
       <c r="C201">
-        <v>34497.227200000001</v>
+        <v>33227.971100000002</v>
       </c>
       <c r="D201">
         <v>21631.497609999999</v>
@@ -53298,10 +52995,10 @@
         <v>41880</v>
       </c>
       <c r="B202" s="11">
-        <v>472.94139999999999</v>
+        <v>470.66849999999999</v>
       </c>
       <c r="C202">
-        <v>34373.313199999997</v>
+        <v>33108.616199999997</v>
       </c>
       <c r="D202">
         <v>22374.479609999999</v>
@@ -53313,7 +53010,7 @@
         <v>3</v>
       </c>
       <c r="G202">
-        <v>10.419599999999999</v>
+        <v>10.419600000000001</v>
       </c>
       <c r="H202">
         <v>10.890700000000001</v>
@@ -53330,10 +53027,10 @@
         <v>41912</v>
       </c>
       <c r="B203" s="11">
-        <v>505.56709999999998</v>
+        <v>503.13729999999998</v>
       </c>
       <c r="C203">
-        <v>31917.004099999998</v>
+        <v>30742.682100000002</v>
       </c>
       <c r="D203">
         <v>22049.948950000002</v>
@@ -53362,10 +53059,10 @@
         <v>41943</v>
       </c>
       <c r="B204" s="11">
-        <v>519.62189999999998</v>
+        <v>517.12469999999996</v>
       </c>
       <c r="C204">
-        <v>33367.191400000003</v>
+        <v>32139.512699999999</v>
       </c>
       <c r="D204">
         <v>22501.666850000001</v>
@@ -53394,10 +53091,10 @@
         <v>41971</v>
       </c>
       <c r="B205" s="11">
-        <v>573.43499999999995</v>
+        <v>570.67909999999995</v>
       </c>
       <c r="C205">
-        <v>33535.370699999999</v>
+        <v>32301.504199999999</v>
       </c>
       <c r="D205">
         <v>23212.2618</v>
@@ -53426,10 +53123,10 @@
         <v>42004</v>
       </c>
       <c r="B206" s="11">
-        <v>684.18669999999997</v>
+        <v>680.89850000000001</v>
       </c>
       <c r="C206">
-        <v>33359.855900000002</v>
+        <v>32132.447100000001</v>
       </c>
       <c r="D206">
         <v>23398.421859999999</v>
@@ -53458,10 +53155,10 @@
         <v>42034</v>
       </c>
       <c r="B207" s="11">
-        <v>674.16909999999996</v>
+        <v>670.92909999999995</v>
       </c>
       <c r="C207">
-        <v>34892.885300000002</v>
+        <v>33609.071799999998</v>
       </c>
       <c r="D207">
         <v>22861.987580000001</v>
@@ -53490,10 +53187,10 @@
         <v>42062</v>
       </c>
       <c r="B208" s="11">
-        <v>693.26049999999998</v>
+        <v>689.92880000000002</v>
       </c>
       <c r="C208">
-        <v>35438.508999999998</v>
+        <v>34134.6204</v>
       </c>
       <c r="D208">
         <v>24242.066760000002</v>
@@ -53522,10 +53219,10 @@
         <v>42094</v>
       </c>
       <c r="B209" s="11">
-        <v>793.56280000000004</v>
+        <v>789.74900000000002</v>
       </c>
       <c r="C209">
-        <v>35328.741699999999</v>
+        <v>34028.8917</v>
       </c>
       <c r="D209">
         <v>23598.38191</v>
@@ -53554,10 +53251,10 @@
         <v>42124</v>
       </c>
       <c r="B210" s="11">
-        <v>941.00609999999995</v>
+        <v>936.4837</v>
       </c>
       <c r="C210">
-        <v>39929.547299999998</v>
+        <v>38460.42</v>
       </c>
       <c r="D210">
         <v>23818.267639999998</v>
@@ -53586,10 +53283,10 @@
         <v>42153</v>
       </c>
       <c r="B211" s="11">
-        <v>979.45</v>
+        <v>974.74289999999996</v>
       </c>
       <c r="C211">
-        <v>39004.398099999999</v>
+        <v>37569.309699999998</v>
       </c>
       <c r="D211">
         <v>24094.186559999998</v>
@@ -53618,10 +53315,10 @@
         <v>42185</v>
       </c>
       <c r="B212" s="11">
-        <v>910.77120000000002</v>
+        <v>906.39409999999998</v>
       </c>
       <c r="C212">
-        <v>37869.502500000002</v>
+        <v>36476.170299999998</v>
       </c>
       <c r="D212">
         <v>23652.54622</v>
@@ -53650,10 +53347,10 @@
         <v>42216</v>
       </c>
       <c r="B213" s="11">
-        <v>785.73540000000003</v>
+        <v>781.95920000000001</v>
       </c>
       <c r="C213">
-        <v>35618.286699999997</v>
+        <v>34307.783499999998</v>
       </c>
       <c r="D213">
         <v>24187.853459999998</v>
@@ -53682,10 +53379,10 @@
         <v>42247</v>
       </c>
       <c r="B214" s="11">
-        <v>669.06060000000002</v>
+        <v>665.8451</v>
       </c>
       <c r="C214">
-        <v>32297.242399999999</v>
+        <v>31108.930400000001</v>
       </c>
       <c r="D214">
         <v>23365.8351</v>
@@ -53714,10 +53411,10 @@
         <v>42277</v>
       </c>
       <c r="B215" s="11">
-        <v>640.17899999999997</v>
+        <v>637.10239999999999</v>
       </c>
       <c r="C215">
-        <v>31154.187699999999</v>
+        <v>30007.932100000002</v>
       </c>
       <c r="D215">
         <v>22698.790199999999</v>
@@ -53746,10 +53443,10 @@
         <v>42307</v>
       </c>
       <c r="B216" s="11">
-        <v>714.05600000000004</v>
+        <v>710.62429999999995</v>
       </c>
       <c r="C216">
-        <v>33668.098100000003</v>
+        <v>32429.348099999999</v>
       </c>
       <c r="D216">
         <v>24455.96588</v>
@@ -53778,10 +53475,10 @@
         <v>42338</v>
       </c>
       <c r="B217" s="11">
-        <v>718.28110000000004</v>
+        <v>714.82910000000004</v>
       </c>
       <c r="C217">
-        <v>33157.136700000003</v>
+        <v>31937.1865</v>
       </c>
       <c r="D217">
         <v>24840.080620000001</v>
@@ -53810,10 +53507,10 @@
         <v>42369</v>
       </c>
       <c r="B218" s="11">
-        <v>727.66740000000004</v>
+        <v>724.1703</v>
       </c>
       <c r="C218">
-        <v>33514.6567</v>
+        <v>32281.552299999999</v>
       </c>
       <c r="D218">
         <v>24792.63</v>
@@ -53842,10 +53539,10 @@
         <v>42398</v>
       </c>
       <c r="B219" s="11">
-        <v>555.45360000000005</v>
+        <v>552.78409999999997</v>
       </c>
       <c r="C219">
-        <v>30370.835899999998</v>
+        <v>29253.402099999999</v>
       </c>
       <c r="D219">
         <v>23876.86824</v>
@@ -53874,10 +53571,10 @@
         <v>42429</v>
       </c>
       <c r="B220" s="11">
-        <v>547.11030000000005</v>
+        <v>544.48099999999999</v>
       </c>
       <c r="C220">
-        <v>29441.261600000002</v>
+        <v>28358.029600000002</v>
       </c>
       <c r="D220">
         <v>23771.751240000001</v>
@@ -53889,7 +53586,7 @@
         <v>1.5</v>
       </c>
       <c r="G220">
-        <v>13.711500000000001</v>
+        <v>13.711499999999999</v>
       </c>
       <c r="H220">
         <v>9.3550000000000004</v>
@@ -53906,10 +53603,10 @@
         <v>42460</v>
       </c>
       <c r="B221" s="11">
-        <v>621.01689999999996</v>
+        <v>618.03229999999996</v>
       </c>
       <c r="C221">
-        <v>31730.781299999999</v>
+        <v>30563.311099999999</v>
       </c>
       <c r="D221">
         <v>24992.016899999999</v>
@@ -53938,10 +53635,10 @@
         <v>42489</v>
       </c>
       <c r="B222" s="11">
-        <v>605.58489999999995</v>
+        <v>602.67449999999997</v>
       </c>
       <c r="C222">
-        <v>32295.413799999998</v>
+        <v>31107.169000000002</v>
       </c>
       <c r="D222">
         <v>25172.14243</v>
@@ -53970,10 +53667,10 @@
         <v>42521</v>
       </c>
       <c r="B223" s="11">
-        <v>592.125</v>
+        <v>589.27930000000003</v>
       </c>
       <c r="C223">
-        <v>32617.3586</v>
+        <v>31417.268499999998</v>
       </c>
       <c r="D223">
         <v>26050.435310000001</v>
@@ -54002,10 +53699,10 @@
         <v>42551</v>
       </c>
       <c r="B224" s="11">
-        <v>592.30200000000002</v>
+        <v>589.45540000000005</v>
       </c>
       <c r="C224">
-        <v>33493.001799999998</v>
+        <v>32260.694100000001</v>
       </c>
       <c r="D224">
         <v>26407.247090000001</v>
@@ -54034,10 +53731,10 @@
         <v>42580</v>
       </c>
       <c r="B225" s="11">
-        <v>609.76319999999998</v>
+        <v>606.83270000000005</v>
       </c>
       <c r="C225">
-        <v>35198.7405</v>
+        <v>33903.673600000002</v>
       </c>
       <c r="D225">
         <v>27315.40899</v>
@@ -54066,10 +53763,10 @@
         <v>42613</v>
       </c>
       <c r="B226" s="11">
-        <v>628.05489999999998</v>
+        <v>625.03650000000005</v>
       </c>
       <c r="C226">
-        <v>37290.4807</v>
+        <v>35918.452499999999</v>
       </c>
       <c r="D226">
         <v>27531.77778</v>
@@ -54098,10 +53795,10 @@
         <v>42643</v>
       </c>
       <c r="B227" s="11">
-        <v>613.52049999999997</v>
+        <v>610.57190000000003</v>
       </c>
       <c r="C227">
-        <v>37885.133399999999</v>
+        <v>36491.226199999997</v>
       </c>
       <c r="D227">
         <v>27472.222280000002</v>
@@ -54130,10 +53827,10 @@
         <v>42674</v>
       </c>
       <c r="B228" s="11">
-        <v>623.46370000000002</v>
+        <v>620.4674</v>
       </c>
       <c r="C228">
-        <v>37928.504000000001</v>
+        <v>36533.000999999997</v>
       </c>
       <c r="D228">
         <v>27387.84318</v>
@@ -54148,7 +53845,7 @@
         <v>17.179200000000002</v>
       </c>
       <c r="H228">
-        <v>12.925699999999999</v>
+        <v>12.925700000000001</v>
       </c>
       <c r="I228">
         <v>20.0243</v>
@@ -54162,10 +53859,10 @@
         <v>42704</v>
       </c>
       <c r="B229" s="11">
-        <v>641.53790000000004</v>
+        <v>638.4547</v>
       </c>
       <c r="C229">
-        <v>38446.5363</v>
+        <v>37031.973400000003</v>
       </c>
       <c r="D229">
         <v>28935.0128</v>
@@ -54194,10 +53891,10 @@
         <v>42734</v>
       </c>
       <c r="B230" s="11">
-        <v>608.83780000000002</v>
+        <v>605.91179999999997</v>
       </c>
       <c r="C230">
-        <v>37365.778299999998</v>
+        <v>35990.979700000004</v>
       </c>
       <c r="D230">
         <v>29692.6168</v>
@@ -54226,10 +53923,10 @@
         <v>42766</v>
       </c>
       <c r="B231" s="11">
-        <v>625.1902</v>
+        <v>622.18560000000002</v>
       </c>
       <c r="C231">
-        <v>39450.057500000003</v>
+        <v>37998.572</v>
       </c>
       <c r="D231">
         <v>29930.96761</v>
@@ -54258,10 +53955,10 @@
         <v>42794</v>
       </c>
       <c r="B232" s="11">
-        <v>643.27959999999996</v>
+        <v>640.18799999999999</v>
       </c>
       <c r="C232">
-        <v>39964.807500000003</v>
+        <v>38494.382799999999</v>
       </c>
       <c r="D232">
         <v>31097.71297</v>
@@ -54290,10 +53987,10 @@
         <v>42825</v>
       </c>
       <c r="B233" s="11">
-        <v>637.99210000000005</v>
+        <v>634.92589999999996</v>
       </c>
       <c r="C233">
-        <v>40694.438699999999</v>
+        <v>39197.168700000002</v>
       </c>
       <c r="D233">
         <v>31211.9931</v>
@@ -54322,10 +54019,10 @@
         <v>42853</v>
       </c>
       <c r="B234" s="11">
-        <v>623.35990000000004</v>
+        <v>620.36400000000003</v>
       </c>
       <c r="C234">
-        <v>41618.488299999997</v>
+        <v>40087.219700000001</v>
       </c>
       <c r="D234">
         <v>31604.998189999998</v>
@@ -54354,10 +54051,10 @@
         <v>42886</v>
       </c>
       <c r="B235" s="11">
-        <v>623.59960000000001</v>
+        <v>620.60260000000005</v>
       </c>
       <c r="C235">
-        <v>43038.583200000001</v>
+        <v>41455.0651</v>
       </c>
       <c r="D235">
         <v>31698.735189999999</v>
@@ -54386,10 +54083,10 @@
         <v>42916</v>
       </c>
       <c r="B236" s="11">
-        <v>647.12950000000001</v>
+        <v>644.01949999999999</v>
       </c>
       <c r="C236">
-        <v>43234.465199999999</v>
+        <v>41643.74</v>
       </c>
       <c r="D236">
         <v>31649.573240000002</v>
@@ -54418,10 +54115,10 @@
         <v>42947</v>
       </c>
       <c r="B237" s="11">
-        <v>674.88350000000003</v>
+        <v>671.64009999999996</v>
       </c>
       <c r="C237">
-        <v>45803.987399999998</v>
+        <v>44118.721799999999</v>
       </c>
       <c r="D237">
         <v>32106.05126</v>
@@ -54450,10 +54147,10 @@
         <v>42978</v>
       </c>
       <c r="B238" s="11">
-        <v>707.24659999999994</v>
+        <v>703.84760000000006</v>
       </c>
       <c r="C238">
-        <v>46210.067600000002</v>
+        <v>44509.861100000002</v>
       </c>
       <c r="D238">
         <v>31587.515609999999</v>
@@ -54482,10 +54179,10 @@
         <v>43007</v>
       </c>
       <c r="B239" s="11">
-        <v>701.25289999999995</v>
+        <v>697.8827</v>
       </c>
       <c r="C239">
-        <v>46025.734700000001</v>
+        <v>44332.310400000002</v>
       </c>
       <c r="D239">
         <v>32431.192149999999</v>
@@ -54497,7 +54194,7 @@
         <v>1.5</v>
       </c>
       <c r="G239">
-        <v>16.810200000000002</v>
+        <v>16.810199999999998</v>
       </c>
       <c r="H239">
         <v>12.9475</v>
@@ -54514,10 +54211,10 @@
         <v>43039</v>
       </c>
       <c r="B240" s="11">
-        <v>711.23789999999997</v>
+        <v>707.81970000000001</v>
       </c>
       <c r="C240">
-        <v>47258.1005</v>
+        <v>45519.3338</v>
       </c>
       <c r="D240">
         <v>33156.956259999999</v>
@@ -54546,10 +54243,10 @@
         <v>43069</v>
       </c>
       <c r="B241" s="11">
-        <v>697.76769999999999</v>
+        <v>694.41430000000003</v>
       </c>
       <c r="C241">
-        <v>48634.049700000003</v>
+        <v>46844.657700000003</v>
       </c>
       <c r="D241">
         <v>34052.196739999999</v>
@@ -54578,10 +54275,10 @@
         <v>43098</v>
       </c>
       <c r="B242" s="11">
-        <v>706.18129999999996</v>
+        <v>702.78740000000005</v>
       </c>
       <c r="C242">
-        <v>49124.097800000003</v>
+        <v>47316.6754</v>
       </c>
       <c r="D242">
         <v>33917.865489999996</v>
@@ -54610,10 +54307,10 @@
         <v>43131</v>
       </c>
       <c r="B243" s="11">
-        <v>769.29669999999999</v>
+        <v>765.59950000000003</v>
       </c>
       <c r="C243">
-        <v>52113.322800000002</v>
+        <v>50195.9179</v>
       </c>
       <c r="D243">
         <v>34650.63063</v>
@@ -54642,10 +54339,10 @@
         <v>43159</v>
       </c>
       <c r="B244" s="11">
-        <v>715.39059999999995</v>
+        <v>711.95249999999999</v>
       </c>
       <c r="C244">
-        <v>49298.283499999998</v>
+        <v>47484.452299999997</v>
       </c>
       <c r="D244">
         <v>33605.517789999998</v>
@@ -54660,7 +54357,7 @@
         <v>16.4452</v>
       </c>
       <c r="H244">
-        <v>12.762599999999999</v>
+        <v>12.762600000000001</v>
       </c>
       <c r="I244">
         <v>21.2453</v>
@@ -54674,10 +54371,10 @@
         <v>43189</v>
       </c>
       <c r="B245" s="11">
-        <v>700.28539999999998</v>
+        <v>696.91989999999998</v>
       </c>
       <c r="C245">
-        <v>47805.287600000003</v>
+        <v>46046.388200000001</v>
       </c>
       <c r="D245">
         <v>32609.203160000001</v>
@@ -54689,7 +54386,7 @@
         <v>1.5</v>
       </c>
       <c r="G245">
-        <v>15.4757</v>
+        <v>15.5298</v>
       </c>
       <c r="H245">
         <v>11.948700000000001</v>
@@ -54706,10 +54403,10 @@
         <v>43220</v>
       </c>
       <c r="B246" s="11">
-        <v>675.98159999999996</v>
+        <v>672.73289999999997</v>
       </c>
       <c r="C246">
-        <v>49353.547400000003</v>
+        <v>47537.6829</v>
       </c>
       <c r="D246">
         <v>32959.186269999998</v>
@@ -54721,7 +54418,7 @@
         <v>1.5</v>
       </c>
       <c r="G246">
-        <v>15.0543</v>
+        <v>15.1182</v>
       </c>
       <c r="H246">
         <v>12.239800000000001</v>
@@ -54738,10 +54435,10 @@
         <v>43251</v>
       </c>
       <c r="B247" s="11">
-        <v>673.26350000000002</v>
+        <v>670.02790000000005</v>
       </c>
       <c r="C247">
-        <v>49656.548199999997</v>
+        <v>47829.535400000001</v>
       </c>
       <c r="D247">
         <v>34091.148240000002</v>
@@ -54753,7 +54450,7 @@
         <v>1.5</v>
       </c>
       <c r="G247">
-        <v>15.151299999999999</v>
+        <v>15.151300000000001</v>
       </c>
       <c r="H247">
         <v>12.083600000000001</v>
@@ -54770,10 +54467,10 @@
         <v>43280</v>
       </c>
       <c r="B248" s="11">
-        <v>604.11900000000003</v>
+        <v>601.21569999999997</v>
       </c>
       <c r="C248">
-        <v>48977.088900000002</v>
+        <v>47175.075400000002</v>
       </c>
       <c r="D248">
         <v>35443.362840000002</v>
@@ -54802,10 +54499,10 @@
         <v>43312</v>
       </c>
       <c r="B249" s="11">
-        <v>598.29290000000003</v>
+        <v>595.41759999999999</v>
       </c>
       <c r="C249">
-        <v>50194.3151</v>
+        <v>48347.516199999998</v>
       </c>
       <c r="D249">
         <v>37863.492109999999</v>
@@ -54834,10 +54531,10 @@
         <v>43343</v>
       </c>
       <c r="B250" s="11">
-        <v>566.26959999999997</v>
+        <v>563.54819999999995</v>
       </c>
       <c r="C250">
-        <v>49258.206400000003</v>
+        <v>47445.849800000004</v>
       </c>
       <c r="D250">
         <v>39191.221960000003</v>
@@ -54866,10 +54563,10 @@
         <v>43371</v>
       </c>
       <c r="B251" s="11">
-        <v>584.44579999999996</v>
+        <v>581.63699999999994</v>
       </c>
       <c r="C251">
-        <v>49650.835500000001</v>
+        <v>47824.032800000001</v>
       </c>
       <c r="D251">
         <v>39589.508320000001</v>
@@ -54881,13 +54578,13 @@
         <v>1.5</v>
       </c>
       <c r="G251">
-        <v>13.0037</v>
+        <v>13.0345</v>
       </c>
       <c r="H251">
-        <v>10.53</v>
+        <v>10.5497</v>
       </c>
       <c r="I251">
-        <v>19.277000000000001</v>
+        <v>19.274799999999999</v>
       </c>
       <c r="J251">
         <v>2.125</v>
@@ -54898,10 +54595,10 @@
         <v>43404</v>
       </c>
       <c r="B252" s="11">
-        <v>530.99019999999996</v>
+        <v>528.43830000000003</v>
       </c>
       <c r="C252">
-        <v>45301.114000000001</v>
+        <v>43634.350599999998</v>
       </c>
       <c r="D252">
         <v>37456.488340000004</v>
@@ -54913,13 +54610,13 @@
         <v>1.5</v>
       </c>
       <c r="G252">
-        <v>11.9838</v>
+        <v>12.013299999999999</v>
       </c>
       <c r="H252">
-        <v>9.4656000000000002</v>
+        <v>9.4833999999999996</v>
       </c>
       <c r="I252">
-        <v>17.942599999999999</v>
+        <v>18.5183</v>
       </c>
       <c r="J252">
         <v>2.125</v>
@@ -54930,10 +54627,10 @@
         <v>43434</v>
       </c>
       <c r="B253" s="11">
-        <v>529.34270000000004</v>
+        <v>526.79880000000003</v>
       </c>
       <c r="C253">
-        <v>48114.306499999999</v>
+        <v>46344.037300000004</v>
       </c>
       <c r="D253">
         <v>38128.282579999999</v>
@@ -54945,13 +54642,13 @@
         <v>1.5</v>
       </c>
       <c r="G253">
-        <v>11.958299999999999</v>
+        <v>11.987500000000001</v>
       </c>
       <c r="H253">
-        <v>10.0443</v>
+        <v>10.0631</v>
       </c>
       <c r="I253">
-        <v>18.2042</v>
+        <v>18.787800000000001</v>
       </c>
       <c r="J253">
         <v>2.125</v>
@@ -54962,10 +54659,10 @@
         <v>43465</v>
       </c>
       <c r="B254" s="11">
-        <v>516.11519999999996</v>
+        <v>513.63480000000004</v>
       </c>
       <c r="C254">
-        <v>46332.768600000003</v>
+        <v>44628.047599999998</v>
       </c>
       <c r="D254">
         <v>34283.957269999999</v>
@@ -54977,13 +54674,13 @@
         <v>1.5</v>
       </c>
       <c r="G254">
-        <v>12.2972</v>
+        <v>12.307399999999999</v>
       </c>
       <c r="H254">
-        <v>10.023199999999999</v>
+        <v>10.068199999999999</v>
       </c>
       <c r="I254">
-        <v>16.5166</v>
+        <v>16.482399999999998</v>
       </c>
       <c r="J254">
         <v>2.375</v>
@@ -54994,10 +54691,10 @@
         <v>43496</v>
       </c>
       <c r="B255" s="11">
-        <v>549.07950000000005</v>
+        <v>546.44060000000002</v>
       </c>
       <c r="C255">
-        <v>48715.938699999999</v>
+        <v>46923.5337</v>
       </c>
       <c r="D255">
         <v>36072.474450000002</v>
@@ -55009,13 +54706,13 @@
         <v>1.5</v>
       </c>
       <c r="G255">
-        <v>12.7453</v>
+        <v>12.7546</v>
       </c>
       <c r="H255">
-        <v>10.836399999999999</v>
+        <v>10.8849</v>
       </c>
       <c r="I255">
-        <v>17.846800000000002</v>
+        <v>17.807400000000001</v>
       </c>
       <c r="J255">
         <v>2.375</v>
@@ -55026,10 +54723,10 @@
         <v>43524</v>
       </c>
       <c r="B256" s="11">
-        <v>625.4162</v>
+        <v>622.41049999999996</v>
       </c>
       <c r="C256">
-        <v>49965.653899999998</v>
+        <v>48127.268199999999</v>
       </c>
       <c r="D256">
         <v>37193.47711</v>
@@ -55041,13 +54738,13 @@
         <v>1.5</v>
       </c>
       <c r="G256">
-        <v>14.4977</v>
+        <v>14.5077</v>
       </c>
       <c r="H256">
-        <v>11.104200000000001</v>
+        <v>11.154</v>
       </c>
       <c r="I256">
-        <v>18.389700000000001</v>
+        <v>18.351400000000002</v>
       </c>
       <c r="J256">
         <v>2.375</v>
@@ -55058,10 +54755,10 @@
         <v>43553</v>
       </c>
       <c r="B257" s="11">
-        <v>655.52049999999997</v>
+        <v>652.37009999999998</v>
       </c>
       <c r="C257">
-        <v>50900.108</v>
+        <v>49027.340900000003</v>
       </c>
       <c r="D257">
         <v>38020.421970000003</v>
@@ -55073,13 +54770,13 @@
         <v>1.5</v>
       </c>
       <c r="G257">
-        <v>14.8775</v>
+        <v>14.891500000000001</v>
       </c>
       <c r="H257">
-        <v>11.4024</v>
+        <v>11.4534</v>
       </c>
       <c r="I257">
-        <v>18.627400000000002</v>
+        <v>18.625599999999999</v>
       </c>
       <c r="J257">
         <v>2.375</v>
@@ -55090,10 +54787,10 @@
         <v>43585</v>
       </c>
       <c r="B258" s="11">
-        <v>650.87549999999999</v>
+        <v>647.74739999999997</v>
       </c>
       <c r="C258">
-        <v>52252.376199999999</v>
+        <v>50329.855100000001</v>
       </c>
       <c r="D258">
         <v>39693.631589999997</v>
@@ -55105,13 +54802,13 @@
         <v>1.5</v>
       </c>
       <c r="G258">
-        <v>14.8309</v>
+        <v>14.8451</v>
       </c>
       <c r="H258">
-        <v>11.656599999999999</v>
+        <v>11.7088</v>
       </c>
       <c r="I258">
-        <v>19.340199999999999</v>
+        <v>19.337700000000002</v>
       </c>
       <c r="J258">
         <v>2.375</v>
@@ -55122,10 +54819,10 @@
         <v>43616</v>
       </c>
       <c r="B259" s="11">
-        <v>599.50300000000004</v>
+        <v>596.62189999999998</v>
       </c>
       <c r="C259">
-        <v>49097.863100000002</v>
+        <v>47291.406000000003</v>
       </c>
       <c r="D259">
         <v>38111.111279999997</v>
@@ -55137,13 +54834,13 @@
         <v>1.5</v>
       </c>
       <c r="G259">
-        <v>13.976800000000001</v>
+        <v>13.9884</v>
       </c>
       <c r="H259">
-        <v>10.558400000000001</v>
+        <v>10.605700000000001</v>
       </c>
       <c r="I259">
-        <v>18.115500000000001</v>
+        <v>18.121400000000001</v>
       </c>
       <c r="J259">
         <v>2.375</v>
@@ -55154,10 +54851,10 @@
         <v>43644</v>
       </c>
       <c r="B260" s="11">
-        <v>625.32799999999997</v>
+        <v>622.32270000000005</v>
       </c>
       <c r="C260" s="11">
-        <v>52291.869200000001</v>
+        <v>50367.894999999997</v>
       </c>
       <c r="D260" s="11">
         <v>40570.771099999998</v>
@@ -55169,13 +54866,13 @@
         <v>1.5</v>
       </c>
       <c r="G260">
-        <v>14.3378</v>
+        <v>14.339499999999999</v>
       </c>
       <c r="H260">
-        <v>11.0875</v>
+        <v>11.1739</v>
       </c>
       <c r="I260">
-        <v>19.2349</v>
+        <v>19.279499999999999</v>
       </c>
       <c r="J260" s="11">
         <v>2.375</v>
@@ -55186,10 +54883,10 @@
         <v>43677</v>
       </c>
       <c r="B261" s="11">
-        <v>619.63909999999998</v>
+        <v>616.66120000000001</v>
       </c>
       <c r="C261" s="11">
-        <v>51107.631600000001</v>
+        <v>49227.229099999997</v>
       </c>
       <c r="D261" s="11">
         <v>41258.180910000003</v>
@@ -55204,10 +54901,10 @@
         <v>14.1668</v>
       </c>
       <c r="H261">
-        <v>10.7904</v>
+        <v>10.8744</v>
       </c>
       <c r="I261">
-        <v>19.4985</v>
+        <v>19.538499999999999</v>
       </c>
       <c r="J261" s="11">
         <v>2.125</v>
@@ -55218,10 +54915,10 @@
         <v>43707</v>
       </c>
       <c r="B262" s="11">
-        <v>587.34389999999996</v>
+        <v>584.52110000000005</v>
       </c>
       <c r="C262" s="11">
-        <v>49300.746500000001</v>
+        <v>47486.824699999997</v>
       </c>
       <c r="D262" s="11">
         <v>42211.862639999999</v>
@@ -55233,16 +54930,48 @@
         <v>1.5</v>
       </c>
       <c r="G262">
-        <v>13.984500000000001</v>
+        <v>13.984299999999999</v>
       </c>
       <c r="H262">
-        <v>9.9929000000000006</v>
+        <v>10.0707</v>
       </c>
       <c r="I262">
-        <v>19.159700000000001</v>
+        <v>19.2363</v>
       </c>
       <c r="J262" s="11">
         <v>2.125</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A263" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B263">
+        <v>589.7056</v>
+      </c>
+      <c r="C263">
+        <v>48332.088600000003</v>
+      </c>
+      <c r="D263">
+        <v>42951.804759999999</v>
+      </c>
+      <c r="E263">
+        <v>2388.7190000000001</v>
+      </c>
+      <c r="F263">
+        <v>1.5</v>
+      </c>
+      <c r="G263">
+        <v>13.979699999999999</v>
+      </c>
+      <c r="H263">
+        <v>10.110900000000001</v>
+      </c>
+      <c r="I263">
+        <v>19.602499999999999</v>
+      </c>
+      <c r="J263">
+        <v>1.875</v>
       </c>
     </row>
   </sheetData>

--- a/strategy/全球购策略/data/global strategy data.xlsx
+++ b/strategy/全球购策略/data/global strategy data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19440" windowHeight="8055" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19440" windowHeight="8055" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ForThomas" sheetId="16" state="hidden" r:id="rId1"/>
@@ -433,7 +433,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>curr=usd</stp>
-        <stp>cols=2;rows=251</stp>
+        <stp>cols=2;rows=252</stp>
         <tr r="A4" s="1"/>
       </tp>
       <tp t="s">
@@ -467,7 +467,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>fx=cny</stp>
-        <stp>cols=1;rows=251</stp>
+        <stp>cols=1;rows=252</stp>
         <tr r="F4" s="1"/>
       </tp>
       <tp>
@@ -490,7 +490,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>fx=cny</stp>
-        <stp>cols=1;rows=251</stp>
+        <stp>cols=1;rows=252</stp>
         <tr r="G4" s="1"/>
       </tp>
       <tp>
@@ -513,7 +513,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>fx=cny</stp>
-        <stp>cols=1;rows=251</stp>
+        <stp>cols=1;rows=252</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp t="s">
@@ -554,7 +554,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp/>
-        <stp>cols=1;rows=251</stp>
+        <stp>cols=1;rows=252</stp>
         <tr r="J4" s="1"/>
       </tp>
       <tp>
@@ -577,7 +577,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>fx=cny</stp>
-        <stp>cols=1;rows=251</stp>
+        <stp>cols=1;rows=252</stp>
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
@@ -609,7 +609,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>fx=cny</stp>
-        <stp>cols=1;rows=251</stp>
+        <stp>cols=1;rows=252</stp>
         <tr r="E4" s="1"/>
       </tp>
       <tp>
@@ -632,7 +632,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>fx=cny</stp>
-        <stp>cols=1;rows=251</stp>
+        <stp>cols=1;rows=252</stp>
         <tr r="H4" s="1"/>
       </tp>
       <tp>
@@ -655,7 +655,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>fx=cny</stp>
-        <stp>cols=1;rows=251</stp>
+        <stp>cols=1;rows=252</stp>
         <tr r="I4" s="1"/>
       </tp>
     </main>
@@ -3244,11 +3244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="387523712"/>
-        <c:axId val="387525248"/>
+        <c:axId val="157796224"/>
+        <c:axId val="157797760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="387523712"/>
+        <c:axId val="157796224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3258,7 +3258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="387525248"/>
+        <c:crossAx val="157797760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3267,7 +3267,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="387525248"/>
+        <c:axId val="157797760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3277,7 +3277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="387523712"/>
+        <c:crossAx val="157796224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
@@ -4195,11 +4195,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="387558016"/>
-        <c:axId val="387559808"/>
+        <c:axId val="157810048"/>
+        <c:axId val="157824128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="387558016"/>
+        <c:axId val="157810048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4209,7 +4209,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="387559808"/>
+        <c:crossAx val="157824128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4218,7 +4218,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="387559808"/>
+        <c:axId val="157824128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4228,7 +4228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="387558016"/>
+        <c:crossAx val="157810048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5155,8 +5155,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387472768"/>
-        <c:axId val="387471232"/>
+        <c:axId val="157684096"/>
+        <c:axId val="157874816"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6833,11 +6833,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="387578496"/>
-        <c:axId val="387469696"/>
+        <c:axId val="157859200"/>
+        <c:axId val="157873280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="387578496"/>
+        <c:axId val="157859200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6847,7 +6847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="387469696"/>
+        <c:crossAx val="157873280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6856,7 +6856,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="387469696"/>
+        <c:axId val="157873280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6866,13 +6866,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="387578496"/>
+        <c:crossAx val="157859200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387471232"/>
+        <c:axId val="157874816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6882,13 +6882,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="387472768"/>
+        <c:crossAx val="157684096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="387472768"/>
+        <c:axId val="157684096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6898,7 +6898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="387471232"/>
+        <c:crossAx val="157874816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7829,11 +7829,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="387485056"/>
-        <c:axId val="387507328"/>
+        <c:axId val="157716864"/>
+        <c:axId val="157718400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="387485056"/>
+        <c:axId val="157716864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7843,7 +7843,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="387507328"/>
+        <c:crossAx val="157718400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7852,7 +7852,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="387507328"/>
+        <c:axId val="157718400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7862,7 +7862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="387485056"/>
+        <c:crossAx val="157716864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8763,11 +8763,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="389288704"/>
-        <c:axId val="389290240"/>
+        <c:axId val="157734400"/>
+        <c:axId val="157735936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="389288704"/>
+        <c:axId val="157734400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8777,7 +8777,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="389290240"/>
+        <c:crossAx val="157735936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -8786,7 +8786,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="389290240"/>
+        <c:axId val="157735936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8796,7 +8796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="389288704"/>
+        <c:crossAx val="157734400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9712,11 +9712,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="389318528"/>
-        <c:axId val="389320064"/>
+        <c:axId val="175127168"/>
+        <c:axId val="175128960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="389318528"/>
+        <c:axId val="175127168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9726,7 +9726,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="389320064"/>
+        <c:crossAx val="175128960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -9735,7 +9735,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="389320064"/>
+        <c:axId val="175128960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9745,7 +9745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="389318528"/>
+        <c:crossAx val="175127168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11524,11 +11524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="389350144"/>
-        <c:axId val="389351680"/>
+        <c:axId val="175158784"/>
+        <c:axId val="175160320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="389350144"/>
+        <c:axId val="175158784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11538,7 +11538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="389351680"/>
+        <c:crossAx val="175160320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -11547,7 +11547,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="389351680"/>
+        <c:axId val="175160320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -11558,7 +11558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="389350144"/>
+        <c:crossAx val="175158784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -30428,12 +30428,12 @@
   </sheetPr>
   <dimension ref="A1:S340"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="F221" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B210" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L4741" sqref="L4741"/>
       <selection pane="topRight" activeCell="L4741" sqref="L4741"/>
       <selection pane="bottomLeft" activeCell="L4741" sqref="L4741"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8:J254"/>
+      <selection pane="bottomRight" activeCell="Q255" sqref="Q255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30578,42 +30578,42 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
-        <f>_xll.BDH(B$2,B$3,$A$1,"","Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","curr=usd","cols=2;rows=251")</f>
+        <f>_xll.BDH(B$2,B$3,$A$1,"","Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","curr=usd","cols=2;rows=252")</f>
         <v>36160</v>
       </c>
       <c r="B4" s="11">
         <v>138.5087</v>
       </c>
       <c r="C4" s="11">
-        <f>_xll.BDH(C$2,C$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=251")</f>
+        <f>_xll.BDH(C$2,C$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=252")</f>
         <v>10739.890100000001</v>
       </c>
       <c r="D4" s="11">
-        <f>_xll.BDH(D$2,D$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=251")</f>
+        <f>_xll.BDH(D$2,D$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=252")</f>
         <v>13825.812669999999</v>
       </c>
       <c r="E4" s="11">
-        <f>_xll.BDH(E$2,E$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=251")</f>
+        <f>_xll.BDH(E$2,E$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=252")</f>
         <v>983.5</v>
       </c>
       <c r="F4" s="11">
-        <f>_xll.BDH(F$2,F$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=251")</f>
+        <f>_xll.BDH(F$2,F$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=252")</f>
         <v>3.7800000000000002</v>
       </c>
       <c r="G4" s="11">
-        <f>_xll.BDH(G$2,G$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=251")</f>
+        <f>_xll.BDH(G$2,G$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=252")</f>
         <v>44.5062</v>
       </c>
       <c r="H4" s="11">
-        <f>_xll.BDH(H$2,H$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=251")</f>
+        <f>_xll.BDH(H$2,H$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=252")</f>
         <v>12.229699999999999</v>
       </c>
       <c r="I4" s="11">
-        <f>_xll.BDH(I$2,I$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=251")</f>
+        <f>_xll.BDH(I$2,I$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=252")</f>
         <v>28.1556</v>
       </c>
       <c r="J4" s="11">
-        <f>_xll.BDH(J$2,J$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","","cols=1;rows=251")</f>
+        <f>_xll.BDH(J$2,J$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","","cols=1;rows=252")</f>
         <v>4.75</v>
       </c>
       <c r="K4" s="11" t="s">
@@ -42339,7 +42339,7 @@
         <v>22.1326</v>
       </c>
       <c r="H201" s="11">
-        <v>11.7113</v>
+        <v>11.728400000000001</v>
       </c>
       <c r="I201" s="11">
         <v>18.818999999999999</v>
@@ -42399,7 +42399,7 @@
         <v>20.367899999999999</v>
       </c>
       <c r="H202" s="11">
-        <v>11.9232</v>
+        <v>11.940899999999999</v>
       </c>
       <c r="I202" s="11">
         <v>18.511199999999999</v>
@@ -42459,7 +42459,7 @@
         <v>16.934200000000001</v>
       </c>
       <c r="H203" s="11">
-        <v>11.188599999999999</v>
+        <v>11.2052</v>
       </c>
       <c r="I203" s="11">
         <v>18.8428</v>
@@ -42519,7 +42519,7 @@
         <v>14.8317</v>
       </c>
       <c r="H204" s="11">
-        <v>9.8401999999999994</v>
+        <v>9.8548000000000009</v>
       </c>
       <c r="I204" s="11">
         <v>17.6479</v>
@@ -42579,7 +42579,7 @@
         <v>14.8428</v>
       </c>
       <c r="H205" s="11">
-        <v>9.7431999999999999</v>
+        <v>9.7571999999999992</v>
       </c>
       <c r="I205" s="11">
         <v>17.380800000000001</v>
@@ -42624,7 +42624,7 @@
         <v>710.62429999999995</v>
       </c>
       <c r="C206" s="11">
-        <v>32429.348099999999</v>
+        <v>32429.3482</v>
       </c>
       <c r="D206" s="11">
         <v>24455.96588</v>
@@ -42639,7 +42639,7 @@
         <v>16.410900000000002</v>
       </c>
       <c r="H206" s="11">
-        <v>10.5822</v>
+        <v>10.5974</v>
       </c>
       <c r="I206" s="11">
         <v>18.7697</v>
@@ -42653,7 +42653,7 @@
       </c>
       <c r="L206" s="19">
         <f t="shared" si="8"/>
-        <v>8.0692531292417824E-2</v>
+        <v>8.0692534624869916E-2</v>
       </c>
       <c r="M206" s="19">
         <f t="shared" si="8"/>
@@ -42684,7 +42684,7 @@
         <v>714.82910000000004</v>
       </c>
       <c r="C207" s="11">
-        <v>31937.1865</v>
+        <v>31937.186600000001</v>
       </c>
       <c r="D207" s="11">
         <v>24840.080620000001</v>
@@ -42699,7 +42699,7 @@
         <v>16.634699999999999</v>
       </c>
       <c r="H207" s="11">
-        <v>10.4411</v>
+        <v>10.4505</v>
       </c>
       <c r="I207" s="11">
         <v>18.755400000000002</v>
@@ -42713,7 +42713,7 @@
       </c>
       <c r="L207" s="19">
         <f t="shared" si="8"/>
-        <v>-1.5176425948568495E-2</v>
+        <v>-1.5176425901770041E-2</v>
       </c>
       <c r="M207" s="19">
         <f t="shared" si="8"/>
@@ -42744,7 +42744,7 @@
         <v>724.1703</v>
       </c>
       <c r="C208" s="11">
-        <v>32281.552299999999</v>
+        <v>32281.5524</v>
       </c>
       <c r="D208" s="11">
         <v>24792.63</v>
@@ -42759,7 +42759,7 @@
         <v>17.973400000000002</v>
       </c>
       <c r="H208" s="11">
-        <v>10.6944</v>
+        <v>10.663499999999999</v>
       </c>
       <c r="I208" s="11">
         <v>18.780200000000001</v>
@@ -42773,7 +42773,7 @@
       </c>
       <c r="L208" s="19">
         <f t="shared" si="8"/>
-        <v>1.0782596644823395E-2</v>
+        <v>1.0782596611061512E-2</v>
       </c>
       <c r="M208" s="19">
         <f t="shared" si="8"/>
@@ -42819,7 +42819,7 @@
         <v>13.9251</v>
       </c>
       <c r="H209" s="11">
-        <v>9.6056000000000008</v>
+        <v>9.5777000000000001</v>
       </c>
       <c r="I209" s="11">
         <v>17.815999999999999</v>
@@ -42833,7 +42833,7 @@
       </c>
       <c r="L209" s="19">
         <f t="shared" si="8"/>
-        <v>-9.3804355250909022E-2</v>
+        <v>-9.3804358058071635E-2</v>
       </c>
       <c r="M209" s="19">
         <f t="shared" si="8"/>
@@ -42852,7 +42852,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="Q209" s="11">
-        <f t="shared" ref="Q209:Q248" ca="1" si="9">IF(P209&gt;0,1,IF(P209&lt;0,-1,0))</f>
+        <f t="shared" ref="Q209:Q255" ca="1" si="9">IF(P209&gt;0,1,IF(P209&lt;0,-1,0))</f>
         <v>1</v>
       </c>
     </row>
@@ -42864,7 +42864,7 @@
         <v>544.48099999999999</v>
       </c>
       <c r="C210" s="11">
-        <v>28358.029600000002</v>
+        <v>28358.029699999999</v>
       </c>
       <c r="D210" s="11">
         <v>23771.751240000001</v>
@@ -42879,7 +42879,7 @@
         <v>13.711500000000001</v>
       </c>
       <c r="H210" s="11">
-        <v>9.3550000000000004</v>
+        <v>9.3277999999999999</v>
       </c>
       <c r="I210" s="11">
         <v>17.782</v>
@@ -42893,7 +42893,7 @@
       </c>
       <c r="L210" s="19">
         <f t="shared" si="8"/>
-        <v>-3.0607465652687238E-2</v>
+        <v>-3.0607462234281457E-2</v>
       </c>
       <c r="M210" s="19">
         <f t="shared" si="8"/>
@@ -42939,7 +42939,7 @@
         <v>16.144200000000001</v>
       </c>
       <c r="H211" s="11">
-        <v>10.406700000000001</v>
+        <v>10.3697</v>
       </c>
       <c r="I211" s="11">
         <v>19.447600000000001</v>
@@ -42953,7 +42953,7 @@
       </c>
       <c r="L211" s="19">
         <f t="shared" si="8"/>
-        <v>7.7765681576127399E-2</v>
+        <v>7.7765677775561315E-2</v>
       </c>
       <c r="M211" s="19">
         <f t="shared" si="8"/>
@@ -42999,7 +42999,7 @@
         <v>15.7674</v>
       </c>
       <c r="H212" s="11">
-        <v>10.552300000000001</v>
+        <v>10.5146</v>
       </c>
       <c r="I212" s="11">
         <v>19.4453</v>
@@ -43059,7 +43059,7 @@
         <v>15.6988</v>
       </c>
       <c r="H213" s="11">
-        <v>10.4412</v>
+        <v>10.403700000000001</v>
       </c>
       <c r="I213" s="11">
         <v>19.712900000000001</v>
@@ -43119,7 +43119,7 @@
         <v>16.6004</v>
       </c>
       <c r="H214" s="11">
-        <v>11.3355</v>
+        <v>11.3238</v>
       </c>
       <c r="I214" s="11">
         <v>19.894300000000001</v>
@@ -43164,7 +43164,7 @@
         <v>606.83270000000005</v>
       </c>
       <c r="C215" s="11">
-        <v>33903.673600000002</v>
+        <v>33903.673699999999</v>
       </c>
       <c r="D215" s="11">
         <v>27315.40899</v>
@@ -43179,7 +43179,7 @@
         <v>16.908799999999999</v>
       </c>
       <c r="H215" s="11">
-        <v>11.9335</v>
+        <v>11.921200000000001</v>
       </c>
       <c r="I215" s="11">
         <v>20.543500000000002</v>
@@ -43193,7 +43193,7 @@
       </c>
       <c r="L215" s="19">
         <f t="shared" si="8"/>
-        <v>5.0928212979769683E-2</v>
+        <v>5.092821607951703E-2</v>
       </c>
       <c r="M215" s="19">
         <f t="shared" si="8"/>
@@ -43239,7 +43239,7 @@
         <v>17.533899999999999</v>
       </c>
       <c r="H216" s="11">
-        <v>12.559900000000001</v>
+        <v>12.5235</v>
       </c>
       <c r="I216" s="11">
         <v>20.491</v>
@@ -43253,7 +43253,7 @@
       </c>
       <c r="L216" s="19">
         <f t="shared" si="8"/>
-        <v>5.94265660934159E-2</v>
+        <v>5.9426562968602381E-2</v>
       </c>
       <c r="M216" s="19">
         <f t="shared" si="8"/>
@@ -43299,7 +43299,7 @@
         <v>16.6372</v>
       </c>
       <c r="H217" s="11">
-        <v>13.136200000000001</v>
+        <v>13.0807</v>
       </c>
       <c r="I217" s="11">
         <v>20.454699999999999</v>
@@ -43359,7 +43359,7 @@
         <v>17.179200000000002</v>
       </c>
       <c r="H218" s="11">
-        <v>12.925699999999999</v>
+        <v>12.8771</v>
       </c>
       <c r="I218" s="11">
         <v>20.0243</v>
@@ -43419,7 +43419,7 @@
         <v>17.997599999999998</v>
       </c>
       <c r="H219" s="11">
-        <v>12.5869</v>
+        <v>12.535299999999999</v>
       </c>
       <c r="I219" s="11">
         <v>20.6706</v>
@@ -43479,7 +43479,7 @@
         <v>17.0627</v>
       </c>
       <c r="H220" s="11">
-        <v>12.251099999999999</v>
+        <v>12.240600000000001</v>
       </c>
       <c r="I220" s="11">
         <v>20.544699999999999</v>
@@ -43539,7 +43539,7 @@
         <v>17.2332</v>
       </c>
       <c r="H221" s="11">
-        <v>13.011699999999999</v>
+        <v>13.000999999999999</v>
       </c>
       <c r="I221" s="11">
         <v>20.876200000000001</v>
@@ -43599,7 +43599,7 @@
         <v>17.650099999999998</v>
       </c>
       <c r="H222" s="11">
-        <v>13.2265</v>
+        <v>13.2156</v>
       </c>
       <c r="I222" s="11">
         <v>21.620799999999999</v>
@@ -43659,7 +43659,7 @@
         <v>17.010000000000002</v>
       </c>
       <c r="H223" s="11">
-        <v>13.2685</v>
+        <v>13.2189</v>
       </c>
       <c r="I223" s="11">
         <v>21.0124</v>
@@ -43704,7 +43704,7 @@
         <v>620.36400000000003</v>
       </c>
       <c r="C224" s="11">
-        <v>40087.219700000001</v>
+        <v>40087.219799999999</v>
       </c>
       <c r="D224" s="11">
         <v>31604.998189999998</v>
@@ -43719,7 +43719,7 @@
         <v>16.7532</v>
       </c>
       <c r="H224" s="11">
-        <v>13.537699999999999</v>
+        <v>13.5082</v>
       </c>
       <c r="I224" s="11">
         <v>21.097300000000001</v>
@@ -43733,7 +43733,7 @@
       </c>
       <c r="L224" s="19">
         <f t="shared" si="8"/>
-        <v>2.2707022714117508E-2</v>
+        <v>2.2707025265322311E-2</v>
       </c>
       <c r="M224" s="19">
         <f t="shared" si="8"/>
@@ -43779,7 +43779,7 @@
         <v>16.5517</v>
       </c>
       <c r="H225" s="11">
-        <v>13.95</v>
+        <v>13.9199</v>
       </c>
       <c r="I225" s="11">
         <v>21.308</v>
@@ -43793,7 +43793,7 @@
       </c>
       <c r="L225" s="19">
         <f t="shared" si="8"/>
-        <v>3.4121732817504302E-2</v>
+        <v>3.4121730237825165E-2</v>
       </c>
       <c r="M225" s="19">
         <f t="shared" si="8"/>
@@ -43824,7 +43824,7 @@
         <v>644.01949999999999</v>
       </c>
       <c r="C226" s="11">
-        <v>41643.74</v>
+        <v>41643.744899999998</v>
       </c>
       <c r="D226" s="11">
         <v>31649.573240000002</v>
@@ -43839,7 +43839,7 @@
         <v>16.624199999999998</v>
       </c>
       <c r="H226" s="11">
-        <v>12.9353</v>
+        <v>12.8635</v>
       </c>
       <c r="I226" s="11">
         <v>20.973099999999999</v>
@@ -43853,7 +43853,7 @@
       </c>
       <c r="L226" s="19">
         <f t="shared" si="8"/>
-        <v>4.5513111496717773E-3</v>
+        <v>4.551429349944458E-3</v>
       </c>
       <c r="M226" s="19">
         <f t="shared" si="8"/>
@@ -43884,7 +43884,7 @@
         <v>671.64009999999996</v>
       </c>
       <c r="C227" s="11">
-        <v>44118.721799999999</v>
+        <v>44118.726999999999</v>
       </c>
       <c r="D227" s="11">
         <v>32106.05126</v>
@@ -43899,7 +43899,7 @@
         <v>17.153700000000001</v>
       </c>
       <c r="H227" s="11">
-        <v>13.703200000000001</v>
+        <v>13.6272</v>
       </c>
       <c r="I227" s="11">
         <v>21.119199999999999</v>
@@ -43913,7 +43913,7 @@
       </c>
       <c r="L227" s="19">
         <f t="shared" si="8"/>
-        <v>5.943226520960887E-2</v>
+        <v>5.9432265420490626E-2</v>
       </c>
       <c r="M227" s="19">
         <f t="shared" si="8"/>
@@ -43944,7 +43944,7 @@
         <v>703.84760000000006</v>
       </c>
       <c r="C228" s="11">
-        <v>44509.861100000002</v>
+        <v>44509.866399999999</v>
       </c>
       <c r="D228" s="11">
         <v>31587.515609999999</v>
@@ -43959,7 +43959,7 @@
         <v>17.6995</v>
       </c>
       <c r="H228" s="11">
-        <v>14.0181</v>
+        <v>13.950200000000001</v>
       </c>
       <c r="I228" s="11">
         <v>21.068100000000001</v>
@@ -43973,7 +43973,7 @@
       </c>
       <c r="L228" s="19">
         <f t="shared" si="8"/>
-        <v>8.8656081600260173E-3</v>
+        <v>8.8656093817032211E-3</v>
       </c>
       <c r="M228" s="19">
         <f t="shared" si="8"/>
@@ -44004,7 +44004,7 @@
         <v>697.8827</v>
       </c>
       <c r="C229" s="11">
-        <v>44332.310400000002</v>
+        <v>44332.315799999997</v>
       </c>
       <c r="D229" s="11">
         <v>32431.192149999999</v>
@@ -44019,7 +44019,7 @@
         <v>16.810200000000002</v>
       </c>
       <c r="H229" s="11">
-        <v>12.9475</v>
+        <v>12.9041</v>
       </c>
       <c r="I229" s="11">
         <v>21.345700000000001</v>
@@ -44033,7 +44033,7 @@
       </c>
       <c r="L229" s="19">
         <f t="shared" si="8"/>
-        <v>-3.9890194130486334E-3</v>
+        <v>-3.9890166913644221E-3</v>
       </c>
       <c r="M229" s="19">
         <f t="shared" si="8"/>
@@ -44064,7 +44064,7 @@
         <v>707.81970000000001</v>
       </c>
       <c r="C230" s="11">
-        <v>45519.3338</v>
+        <v>45519.3393</v>
       </c>
       <c r="D230" s="11">
         <v>33156.956259999999</v>
@@ -44079,7 +44079,7 @@
         <v>17.127400000000002</v>
       </c>
       <c r="H230" s="11">
-        <v>13.274900000000001</v>
+        <v>13.2278</v>
       </c>
       <c r="I230" s="11">
         <v>21.7638</v>
@@ -44093,7 +44093,7 @@
       </c>
       <c r="L230" s="19">
         <f t="shared" si="8"/>
-        <v>2.6775581721091513E-2</v>
+        <v>2.6775580715321157E-2</v>
       </c>
       <c r="M230" s="19">
         <f t="shared" si="8"/>
@@ -44124,7 +44124,7 @@
         <v>694.41430000000003</v>
       </c>
       <c r="C231" s="11">
-        <v>46844.657700000003</v>
+        <v>46844.663399999998</v>
       </c>
       <c r="D231" s="11">
         <v>34052.196739999999</v>
@@ -44139,7 +44139,7 @@
         <v>16.852599999999999</v>
       </c>
       <c r="H231" s="11">
-        <v>13.4598</v>
+        <v>13.4087</v>
       </c>
       <c r="I231" s="11">
         <v>22.3094</v>
@@ -44153,7 +44153,7 @@
       </c>
       <c r="L231" s="19">
         <f t="shared" si="8"/>
-        <v>2.9115626028779928E-2</v>
+        <v>2.9115626904540726E-2</v>
       </c>
       <c r="M231" s="19">
         <f t="shared" si="8"/>
@@ -44184,7 +44184,7 @@
         <v>702.78740000000005</v>
       </c>
       <c r="C232" s="11">
-        <v>47316.6754</v>
+        <v>47316.681199999999</v>
       </c>
       <c r="D232" s="11">
         <v>33917.865489999996</v>
@@ -44199,7 +44199,7 @@
         <v>16.3626</v>
       </c>
       <c r="H232" s="11">
-        <v>12.3904</v>
+        <v>13.495900000000001</v>
       </c>
       <c r="I232" s="11">
         <v>21.811699999999998</v>
@@ -44213,7 +44213,7 @@
       </c>
       <c r="L232" s="19">
         <f t="shared" si="8"/>
-        <v>1.0076233303333515E-2</v>
+        <v>1.0076234211984891E-2</v>
       </c>
       <c r="M232" s="19">
         <f t="shared" si="8"/>
@@ -44244,7 +44244,7 @@
         <v>765.59950000000003</v>
       </c>
       <c r="C233" s="11">
-        <v>50195.9179</v>
+        <v>50195.923999999999</v>
       </c>
       <c r="D233" s="11">
         <v>34650.63063</v>
@@ -44259,7 +44259,7 @@
         <v>17.238700000000001</v>
       </c>
       <c r="H233" s="11">
-        <v>13.6196</v>
+        <v>14.648400000000001</v>
       </c>
       <c r="I233" s="11">
         <v>22.975300000000001</v>
@@ -44273,7 +44273,7 @@
       </c>
       <c r="L233" s="19">
         <f t="shared" si="8"/>
-        <v>6.0850481900087239E-2</v>
+        <v>6.0850480781395211E-2</v>
       </c>
       <c r="M233" s="19">
         <f t="shared" si="8"/>
@@ -44304,7 +44304,7 @@
         <v>711.95249999999999</v>
       </c>
       <c r="C234" s="11">
-        <v>47484.452299999997</v>
+        <v>47484.458100000003</v>
       </c>
       <c r="D234" s="11">
         <v>33605.517789999998</v>
@@ -44319,7 +44319,7 @@
         <v>16.4452</v>
       </c>
       <c r="H234" s="11">
-        <v>12.762599999999999</v>
+        <v>13.775700000000001</v>
       </c>
       <c r="I234" s="11">
         <v>21.9878</v>
@@ -44333,7 +44333,7 @@
       </c>
       <c r="L234" s="19">
         <f t="shared" si="8"/>
-        <v>-5.4017651503091679E-2</v>
+        <v>-5.4017650915241577E-2</v>
       </c>
       <c r="M234" s="19">
         <f t="shared" si="8"/>
@@ -44364,7 +44364,7 @@
         <v>696.91989999999998</v>
       </c>
       <c r="C235" s="11">
-        <v>46046.388200000001</v>
+        <v>46046.393799999998</v>
       </c>
       <c r="D235" s="11">
         <v>32609.203160000001</v>
@@ -44379,7 +44379,7 @@
         <v>15.5298</v>
       </c>
       <c r="H235" s="11">
-        <v>11.948700000000001</v>
+        <v>12.7903</v>
       </c>
       <c r="I235" s="11">
         <v>20.323599999999999</v>
@@ -44393,7 +44393,7 @@
       </c>
       <c r="L235" s="19">
         <f t="shared" si="8"/>
-        <v>-3.0284946552916137E-2</v>
+        <v>-3.0284947065659096E-2</v>
       </c>
       <c r="M235" s="19">
         <f t="shared" si="8"/>
@@ -44424,7 +44424,7 @@
         <v>672.73289999999997</v>
       </c>
       <c r="C236" s="11">
-        <v>47537.6829</v>
+        <v>47537.688699999999</v>
       </c>
       <c r="D236" s="11">
         <v>32959.186269999998</v>
@@ -44439,7 +44439,7 @@
         <v>15.1182</v>
       </c>
       <c r="H236" s="11">
-        <v>12.239800000000001</v>
+        <v>13.0844</v>
       </c>
       <c r="I236" s="11">
         <v>20.278099999999998</v>
@@ -44453,7 +44453,7 @@
       </c>
       <c r="L236" s="19">
         <f t="shared" si="8"/>
-        <v>3.238678989376198E-2</v>
+        <v>3.2386790298440271E-2</v>
       </c>
       <c r="M236" s="19">
         <f t="shared" si="8"/>
@@ -44484,7 +44484,7 @@
         <v>670.02790000000005</v>
       </c>
       <c r="C237" s="11">
-        <v>47829.535400000001</v>
+        <v>47829.5412</v>
       </c>
       <c r="D237" s="11">
         <v>34091.148240000002</v>
@@ -44499,7 +44499,7 @@
         <v>15.151299999999999</v>
       </c>
       <c r="H237" s="11">
-        <v>12.083600000000001</v>
+        <v>12.9841</v>
       </c>
       <c r="I237" s="11">
         <v>20.5822</v>
@@ -44513,7 +44513,7 @@
       </c>
       <c r="L237" s="19">
         <f t="shared" si="8"/>
-        <v>6.1393926290842504E-3</v>
+        <v>6.1393918800263236E-3</v>
       </c>
       <c r="M237" s="19">
         <f t="shared" si="8"/>
@@ -44544,7 +44544,7 @@
         <v>601.21569999999997</v>
       </c>
       <c r="C238" s="11">
-        <v>47175.075400000002</v>
+        <v>47175.081200000001</v>
       </c>
       <c r="D238" s="11">
         <v>35443.362840000002</v>
@@ -44559,7 +44559,7 @@
         <v>13.472</v>
       </c>
       <c r="H238" s="11">
-        <v>10.9018</v>
+        <v>11.716100000000001</v>
       </c>
       <c r="I238" s="11">
         <v>19.763100000000001</v>
@@ -44573,7 +44573,7 @@
       </c>
       <c r="L238" s="19">
         <f t="shared" si="8"/>
-        <v>-1.3683177027055127E-2</v>
+        <v>-1.3683175367778744E-2</v>
       </c>
       <c r="M238" s="19">
         <f t="shared" si="8"/>
@@ -44604,7 +44604,7 @@
         <v>595.41759999999999</v>
       </c>
       <c r="C239" s="11">
-        <v>48347.516199999998</v>
+        <v>48347.522100000002</v>
       </c>
       <c r="D239" s="11">
         <v>37863.492109999999</v>
@@ -44619,7 +44619,7 @@
         <v>13.581</v>
       </c>
       <c r="H239" s="11">
-        <v>10.761699999999999</v>
+        <v>11.5718</v>
       </c>
       <c r="I239" s="11">
         <v>20.415299999999998</v>
@@ -44633,7 +44633,7 @@
       </c>
       <c r="L239" s="19">
         <f t="shared" si="8"/>
-        <v>2.4852971406167601E-2</v>
+        <v>2.4852970470350844E-2</v>
       </c>
       <c r="M239" s="19">
         <f t="shared" si="8"/>
@@ -44664,7 +44664,7 @@
         <v>563.54819999999995</v>
       </c>
       <c r="C240" s="11">
-        <v>47445.849800000004</v>
+        <v>47445.855499999998</v>
       </c>
       <c r="D240" s="11">
         <v>39191.221960000003</v>
@@ -44679,7 +44679,7 @@
         <v>12.6998</v>
       </c>
       <c r="H240" s="11">
-        <v>10.499499999999999</v>
+        <v>11.2889</v>
       </c>
       <c r="I240" s="11">
         <v>20.9497</v>
@@ -44693,7 +44693,7 @@
       </c>
       <c r="L240" s="19">
         <f t="shared" si="8"/>
-        <v>-1.8649694355963531E-2</v>
+        <v>-1.8649696216799572E-2</v>
       </c>
       <c r="M240" s="19">
         <f t="shared" si="8"/>
@@ -44724,7 +44724,7 @@
         <v>581.63699999999994</v>
       </c>
       <c r="C241" s="11">
-        <v>47824.032800000001</v>
+        <v>47824.038699999997</v>
       </c>
       <c r="D241" s="11">
         <v>39589.508320000001</v>
@@ -44739,7 +44739,7 @@
         <v>13.0345</v>
       </c>
       <c r="H241" s="11">
-        <v>10.5497</v>
+        <v>11.482699999999999</v>
       </c>
       <c r="I241" s="11">
         <v>19.274799999999999</v>
@@ -44753,7 +44753,7 @@
       </c>
       <c r="L241" s="19">
         <f t="shared" si="8"/>
-        <v>7.9708341529167726E-3</v>
+        <v>7.9708374106564062E-3</v>
       </c>
       <c r="M241" s="19">
         <f t="shared" si="8"/>
@@ -44784,7 +44784,7 @@
         <v>528.43830000000003</v>
       </c>
       <c r="C242" s="11">
-        <v>43634.350599999998</v>
+        <v>43634.355900000002</v>
       </c>
       <c r="D242" s="11">
         <v>37456.488340000004</v>
@@ -44799,7 +44799,7 @@
         <v>12.0412</v>
       </c>
       <c r="H242" s="11">
-        <v>9.5032999999999994</v>
+        <v>10.311400000000001</v>
       </c>
       <c r="I242" s="11">
         <v>18.540500000000002</v>
@@ -44813,7 +44813,7 @@
       </c>
       <c r="L242" s="19">
         <f t="shared" si="8"/>
-        <v>-8.7606208734450464E-2</v>
+        <v>-8.7606210472558788E-2</v>
       </c>
       <c r="M242" s="19">
         <f t="shared" si="8"/>
@@ -44844,7 +44844,7 @@
         <v>526.79880000000003</v>
       </c>
       <c r="C243" s="11">
-        <v>46344.037300000004</v>
+        <v>46344.042999999998</v>
       </c>
       <c r="D243" s="11">
         <v>38128.282579999999</v>
@@ -44856,13 +44856,13 @@
         <v>1.5</v>
       </c>
       <c r="G243" s="11">
-        <v>12.022500000000001</v>
+        <v>12.261799999999999</v>
       </c>
       <c r="H243" s="11">
-        <v>10.0825</v>
+        <v>11.076700000000001</v>
       </c>
       <c r="I243" s="11">
-        <v>18.8566</v>
+        <v>18.8355</v>
       </c>
       <c r="J243" s="11">
         <v>2.125</v>
@@ -44873,7 +44873,7 @@
       </c>
       <c r="L243" s="19">
         <f t="shared" si="8"/>
-        <v>6.2099851670532447E-2</v>
+        <v>6.2099853294729002E-2</v>
       </c>
       <c r="M243" s="19">
         <f t="shared" si="8"/>
@@ -44904,7 +44904,7 @@
         <v>513.63480000000004</v>
       </c>
       <c r="C244" s="11">
-        <v>44628.047599999998</v>
+        <v>44628.053</v>
       </c>
       <c r="D244" s="11">
         <v>34283.957269999999</v>
@@ -44916,13 +44916,13 @@
         <v>1.5</v>
       </c>
       <c r="G244" s="11">
-        <v>12.332800000000001</v>
+        <v>12.0341</v>
       </c>
       <c r="H244" s="11">
-        <v>10.0899</v>
+        <v>10.9686</v>
       </c>
       <c r="I244" s="11">
-        <v>16.5303</v>
+        <v>16.528700000000001</v>
       </c>
       <c r="J244" s="11">
         <v>2.375</v>
@@ -44933,7 +44933,7 @@
       </c>
       <c r="L244" s="19">
         <f t="shared" si="8"/>
-        <v>-3.702719486633943E-2</v>
+        <v>-3.7027196785571759E-2</v>
       </c>
       <c r="M244" s="19">
         <f t="shared" si="8"/>
@@ -44964,7 +44964,7 @@
         <v>546.44060000000002</v>
       </c>
       <c r="C245" s="11">
-        <v>46923.5337</v>
+        <v>46923.539400000001</v>
       </c>
       <c r="D245" s="11">
         <v>36072.474450000002</v>
@@ -44976,13 +44976,13 @@
         <v>1.5</v>
       </c>
       <c r="G245" s="11">
-        <v>12.7805</v>
+        <v>12.4848</v>
       </c>
       <c r="H245" s="11">
-        <v>10.9084</v>
+        <v>11.860900000000001</v>
       </c>
       <c r="I245" s="11">
-        <v>17.859300000000001</v>
+        <v>17.857500000000002</v>
       </c>
       <c r="J245" s="11">
         <v>2.375</v>
@@ -44993,7 +44993,7 @@
       </c>
       <c r="L245" s="19">
         <f t="shared" si="8"/>
-        <v>5.1435951681650494E-2</v>
+        <v>5.143595218012309E-2</v>
       </c>
       <c r="M245" s="19">
         <f t="shared" si="8"/>
@@ -45024,7 +45024,7 @@
         <v>622.41049999999996</v>
       </c>
       <c r="C246" s="11">
-        <v>48127.268199999999</v>
+        <v>48127.273999999998</v>
       </c>
       <c r="D246" s="11">
         <v>37193.47711</v>
@@ -45036,13 +45036,13 @@
         <v>1.5</v>
       </c>
       <c r="G246" s="11">
-        <v>14.537599999999999</v>
+        <v>14.241400000000001</v>
       </c>
       <c r="H246" s="11">
-        <v>11.178100000000001</v>
+        <v>12.1854</v>
       </c>
       <c r="I246" s="11">
-        <v>18.404800000000002</v>
+        <v>18.394500000000001</v>
       </c>
       <c r="J246" s="11">
         <v>2.375</v>
@@ -45053,7 +45053,7 @@
       </c>
       <c r="L246" s="19">
         <f t="shared" si="8"/>
-        <v>2.5653108474223751E-2</v>
+        <v>2.5653107489159277E-2</v>
       </c>
       <c r="M246" s="19">
         <f t="shared" si="8"/>
@@ -45084,7 +45084,7 @@
         <v>652.37009999999998</v>
       </c>
       <c r="C247" s="11">
-        <v>49027.340900000003</v>
+        <v>49027.346899999997</v>
       </c>
       <c r="D247" s="11">
         <v>38020.421970000003</v>
@@ -45096,13 +45096,13 @@
         <v>1.5</v>
       </c>
       <c r="G247" s="11">
-        <v>14.913399999999999</v>
+        <v>14.6553</v>
       </c>
       <c r="H247" s="11">
-        <v>11.4781</v>
+        <v>12.557499999999999</v>
       </c>
       <c r="I247" s="11">
-        <v>18.676100000000002</v>
+        <v>18.6477</v>
       </c>
       <c r="J247" s="11">
         <v>2.375</v>
@@ -45113,7 +45113,7 @@
       </c>
       <c r="L247" s="19">
         <f t="shared" si="8"/>
-        <v>1.870192790207037E-2</v>
+        <v>1.870192980387797E-2</v>
       </c>
       <c r="M247" s="19">
         <f t="shared" si="8"/>
@@ -45144,7 +45144,7 @@
         <v>647.74739999999997</v>
       </c>
       <c r="C248" s="11">
-        <v>50329.855100000001</v>
+        <v>50329.861199999999</v>
       </c>
       <c r="D248" s="11">
         <v>39693.631589999997</v>
@@ -45156,13 +45156,13 @@
         <v>1.5</v>
       </c>
       <c r="G248" s="11">
-        <v>14.866</v>
+        <v>14.6144</v>
       </c>
       <c r="H248" s="11">
-        <v>11.734</v>
+        <v>12.8436</v>
       </c>
       <c r="I248" s="11">
-        <v>19.39</v>
+        <v>19.360600000000002</v>
       </c>
       <c r="J248" s="11">
         <v>2.375</v>
@@ -45173,7 +45173,7 @@
       </c>
       <c r="L248" s="19">
         <f t="shared" si="8"/>
-        <v>2.656709860436246E-2</v>
+        <v>2.656709739274099E-2</v>
       </c>
       <c r="M248" s="19">
         <f t="shared" si="8"/>
@@ -45204,7 +45204,7 @@
         <v>596.62189999999998</v>
       </c>
       <c r="C249" s="11">
-        <v>47291.406000000003</v>
+        <v>47291.411699999997</v>
       </c>
       <c r="D249" s="11">
         <v>38111.111279999997</v>
@@ -45216,37 +45216,45 @@
         <v>1.5</v>
       </c>
       <c r="G249" s="11">
-        <v>14.0078</v>
+        <v>13.767099999999999</v>
       </c>
       <c r="H249" s="11">
-        <v>10.628500000000001</v>
+        <v>11.6494</v>
       </c>
       <c r="I249" s="11">
-        <v>18.170400000000001</v>
+        <v>18.142800000000001</v>
       </c>
       <c r="J249" s="11">
         <v>2.375</v>
       </c>
       <c r="K249" s="19">
-        <f t="shared" ref="K249:K254" si="10">B249/B248-1</f>
+        <f t="shared" ref="K249:K255" si="10">B249/B248-1</f>
         <v>-7.8928143903009063E-2</v>
       </c>
       <c r="L249" s="19">
-        <f t="shared" ref="L249:L254" si="11">C249/C248-1</f>
-        <v>-6.0370710266559047E-2</v>
+        <f t="shared" ref="L249:L255" si="11">C249/C248-1</f>
+        <v>-6.0370710897172164E-2</v>
       </c>
       <c r="M249" s="19">
-        <f t="shared" ref="M249:M254" si="12">D249/D248-1</f>
+        <f t="shared" ref="M249:M255" si="12">D249/D248-1</f>
         <v>-3.9868367962549556E-2</v>
       </c>
       <c r="N249" s="19">
-        <f t="shared" ref="N249:N254" si="13">E249/E248-1</f>
+        <f t="shared" ref="N249:N255" si="13">E249/E248-1</f>
         <v>2.3501529512415908E-2</v>
       </c>
       <c r="O249" s="19">
         <f t="array" ref="O249">(1+F248*0.01)^(1/12)-1</f>
         <v>1.2414877164492744E-3</v>
       </c>
+      <c r="P249" s="20">
+        <f ca="1">J249-AVERAGE(J248:OFFSET(J248,-$P$3+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q249" s="11">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="250" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A250" s="14">
@@ -45256,7 +45264,7 @@
         <v>622.32270000000005</v>
       </c>
       <c r="C250" s="11">
-        <v>50367.894999999997</v>
+        <v>50367.9012</v>
       </c>
       <c r="D250" s="11">
         <v>40570.771099999998</v>
@@ -45268,13 +45276,13 @@
         <v>1.5</v>
       </c>
       <c r="G250" s="11">
-        <v>14.363300000000001</v>
+        <v>14.1629</v>
       </c>
       <c r="H250" s="11">
-        <v>11.198</v>
+        <v>12.1609</v>
       </c>
       <c r="I250" s="11">
-        <v>19.333300000000001</v>
+        <v>19.2959</v>
       </c>
       <c r="J250" s="11">
         <v>2.375</v>
@@ -45285,7 +45293,7 @@
       </c>
       <c r="L250" s="19">
         <f t="shared" si="11"/>
-        <v>6.5053870464329089E-2</v>
+        <v>6.5053873196176948E-2</v>
       </c>
       <c r="M250" s="19">
         <f t="shared" si="12"/>
@@ -45299,6 +45307,14 @@
         <f t="array" ref="O250">(1+F249*0.01)^(1/12)-1</f>
         <v>1.2414877164492744E-3</v>
       </c>
+      <c r="P250" s="20">
+        <f ca="1">J250-AVERAGE(J249:OFFSET(J249,-$P$3+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q250" s="11">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="251" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A251" s="14">
@@ -45308,7 +45324,7 @@
         <v>616.66120000000001</v>
       </c>
       <c r="C251" s="11">
-        <v>49227.229099999997</v>
+        <v>49227.235099999998</v>
       </c>
       <c r="D251" s="11">
         <v>41258.180910000003</v>
@@ -45320,13 +45336,13 @@
         <v>1.5</v>
       </c>
       <c r="G251" s="11">
-        <v>14.1906</v>
+        <v>14.0091</v>
       </c>
       <c r="H251" s="11">
-        <v>10.8979</v>
+        <v>11.9095</v>
       </c>
       <c r="I251" s="11">
-        <v>19.593</v>
+        <v>19.555099999999999</v>
       </c>
       <c r="J251" s="11">
         <v>2.125</v>
@@ -45337,7 +45353,7 @@
       </c>
       <c r="L251" s="19">
         <f t="shared" si="11"/>
-        <v>-2.2646685949452516E-2</v>
+        <v>-2.2646687132558241E-2</v>
       </c>
       <c r="M251" s="19">
         <f t="shared" si="12"/>
@@ -45351,6 +45367,14 @@
         <f t="array" ref="O251">(1+F250*0.01)^(1/12)-1</f>
         <v>1.2414877164492744E-3</v>
       </c>
+      <c r="P251" s="20">
+        <f ca="1">J251-AVERAGE(J250:OFFSET(J250,-$P$3+1,0))</f>
+        <v>-0.25</v>
+      </c>
+      <c r="Q251" s="11">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="252" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A252" s="14">
@@ -45360,7 +45384,7 @@
         <v>584.52110000000005</v>
       </c>
       <c r="C252" s="11">
-        <v>47486.824699999997</v>
+        <v>47486.830499999996</v>
       </c>
       <c r="D252" s="11">
         <v>42211.862639999999</v>
@@ -45372,13 +45396,13 @@
         <v>1.5</v>
       </c>
       <c r="G252" s="11">
-        <v>14.0078</v>
+        <v>13.860900000000001</v>
       </c>
       <c r="H252" s="11">
-        <v>10.0924</v>
+        <v>10.9954</v>
       </c>
       <c r="I252" s="11">
-        <v>19.290800000000001</v>
+        <v>19.250299999999999</v>
       </c>
       <c r="J252" s="11">
         <v>2.125</v>
@@ -45389,7 +45413,7 @@
       </c>
       <c r="L252" s="19">
         <f t="shared" si="11"/>
-        <v>-3.5354506678906272E-2</v>
+        <v>-3.5354506432558108E-2</v>
       </c>
       <c r="M252" s="19">
         <f t="shared" si="12"/>
@@ -45403,6 +45427,14 @@
         <f t="array" ref="O252">(1+F251*0.01)^(1/12)-1</f>
         <v>1.2414877164492744E-3</v>
       </c>
+      <c r="P252" s="20">
+        <f ca="1">J252-AVERAGE(J251:OFFSET(J251,-$P$3+1,0))</f>
+        <v>-0.16666666666666652</v>
+      </c>
+      <c r="Q252" s="11">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="253" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A253" s="14">
@@ -45412,7 +45444,7 @@
         <v>589.7056</v>
       </c>
       <c r="C253" s="11">
-        <v>48332.088600000003</v>
+        <v>48332.094499999999</v>
       </c>
       <c r="D253" s="11">
         <v>42951.804759999999</v>
@@ -45424,13 +45456,13 @@
         <v>1.5</v>
       </c>
       <c r="G253" s="11">
-        <v>14.0128</v>
+        <v>13.797800000000001</v>
       </c>
       <c r="H253" s="11">
-        <v>10.1571</v>
+        <v>11.0685</v>
       </c>
       <c r="I253" s="11">
-        <v>19.741399999999999</v>
+        <v>19.739100000000001</v>
       </c>
       <c r="J253" s="11">
         <v>1.875</v>
@@ -45441,7 +45473,7 @@
       </c>
       <c r="L253" s="19">
         <f t="shared" si="11"/>
-        <v>1.7799966734773243E-2</v>
+        <v>1.7799966666547817E-2</v>
       </c>
       <c r="M253" s="19">
         <f t="shared" si="12"/>
@@ -45455,6 +45487,14 @@
         <f t="array" ref="O253">(1+F252*0.01)^(1/12)-1</f>
         <v>1.2414877164492744E-3</v>
       </c>
+      <c r="P253" s="20">
+        <f ca="1">J253-AVERAGE(J252:OFFSET(J252,-$P$3+1,0))</f>
+        <v>-0.33333333333333348</v>
+      </c>
+      <c r="Q253" s="11">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="254" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A254" s="14">
@@ -45464,7 +45504,7 @@
         <v>603.84010000000001</v>
       </c>
       <c r="C254" s="11">
-        <v>49162.905500000001</v>
+        <v>49162.911500000002</v>
       </c>
       <c r="D254" s="11">
         <v>43208.678849999997</v>
@@ -45476,13 +45516,13 @@
         <v>1.5</v>
       </c>
       <c r="G254" s="11">
-        <v>14.122299999999999</v>
+        <v>13.9336</v>
       </c>
       <c r="H254" s="11">
-        <v>10.4742</v>
+        <v>11.401199999999999</v>
       </c>
       <c r="I254" s="11">
-        <v>20.150200000000002</v>
+        <v>20.151900000000001</v>
       </c>
       <c r="J254" s="11">
         <v>1.625</v>
@@ -45493,7 +45533,7 @@
       </c>
       <c r="L254" s="19">
         <f t="shared" si="11"/>
-        <v>1.7189757862026145E-2</v>
+        <v>1.7189757832655195E-2</v>
       </c>
       <c r="M254" s="19">
         <f t="shared" si="12"/>
@@ -45507,19 +45547,74 @@
         <f t="array" ref="O254">(1+F253*0.01)^(1/12)-1</f>
         <v>1.2414877164492744E-3</v>
       </c>
+      <c r="P254" s="20">
+        <f ca="1">J254-AVERAGE(J253:OFFSET(J253,-$P$3+1,0))</f>
+        <v>-0.41666666666666652</v>
+      </c>
+      <c r="Q254" s="11">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="255" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="14"/>
-      <c r="B255" s="11"/>
-      <c r="C255" s="11"/>
-      <c r="D255" s="11"/>
-      <c r="E255" s="11"/>
-      <c r="F255" s="11"/>
-      <c r="G255" s="11"/>
-      <c r="H255" s="11"/>
-      <c r="I255" s="11"/>
-      <c r="J255" s="11"/>
-      <c r="K255" s="11"/>
+      <c r="A255" s="14">
+        <v>43798</v>
+      </c>
+      <c r="B255" s="11">
+        <v>592.64940000000001</v>
+      </c>
+      <c r="C255" s="11">
+        <v>48209.248</v>
+      </c>
+      <c r="D255" s="11">
+        <v>44738.306859999997</v>
+      </c>
+      <c r="E255" s="11">
+        <v>2383.1559999999999</v>
+      </c>
+      <c r="F255" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G255" s="11">
+        <v>13.6646</v>
+      </c>
+      <c r="H255" s="11">
+        <v>11.1607</v>
+      </c>
+      <c r="I255" s="11">
+        <v>20.887699999999999</v>
+      </c>
+      <c r="J255" s="11">
+        <v>1.625</v>
+      </c>
+      <c r="K255" s="19">
+        <f t="shared" si="10"/>
+        <v>-1.8532555224470837E-2</v>
+      </c>
+      <c r="L255" s="19">
+        <f t="shared" si="11"/>
+        <v>-1.9398027311706367E-2</v>
+      </c>
+      <c r="M255" s="19">
+        <f t="shared" si="12"/>
+        <v>3.5400943762019299E-2</v>
+      </c>
+      <c r="N255" s="19">
+        <f t="shared" si="13"/>
+        <v>-3.0079327427912084E-3</v>
+      </c>
+      <c r="O255" s="19">
+        <f t="array" ref="O255">(1+F254*0.01)^(1/12)-1</f>
+        <v>1.2414877164492744E-3</v>
+      </c>
+      <c r="P255" s="20">
+        <f ca="1">J255-AVERAGE(J254:OFFSET(J254,-$P$3+1,0))</f>
+        <v>-0.25</v>
+      </c>
+      <c r="Q255" s="11">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="256" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A256" s="14"/>
@@ -46626,10 +46721,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J264"/>
+  <dimension ref="A1:J265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="J260" sqref="J260"/>
+    <sheetView topLeftCell="A231" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J261" sqref="J261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -47199,10 +47295,10 @@
       <c r="C18" s="11">
         <v>14395.545099999999</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="11">
         <v>15077.66502</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="11">
         <v>969.96</v>
       </c>
       <c r="F18">
@@ -47231,10 +47327,10 @@
       <c r="C19" s="11">
         <v>13170.380499999999</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="11">
         <v>14719.67006</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="11">
         <v>960.91</v>
       </c>
       <c r="F19">
@@ -47263,10 +47359,10 @@
       <c r="C20" s="11">
         <v>14685.610199999999</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="11">
         <v>15537.323420000001</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="11">
         <v>958.9</v>
       </c>
       <c r="F20">
@@ -47295,10 +47391,10 @@
       <c r="C21" s="11">
         <v>14301.646699999999</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="11">
         <v>15049.81141</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="11">
         <v>958.09</v>
       </c>
       <c r="F21">
@@ -47327,10 +47423,10 @@
       <c r="C22" s="11">
         <v>14680.7611</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="11">
         <v>14974.632519999999</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="11">
         <v>958.23</v>
       </c>
       <c r="F22">
@@ -47359,10 +47455,10 @@
       <c r="C23" s="11">
         <v>13878.458000000001</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="11">
         <v>14565.525820000001</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="11">
         <v>965.57</v>
       </c>
       <c r="F23">
@@ -47391,10 +47487,10 @@
       <c r="C24" s="11">
         <v>14518.0771</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="11">
         <v>15487.2423</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="11">
         <v>966.62</v>
       </c>
       <c r="F24">
@@ -47423,10 +47519,10 @@
       <c r="C25" s="11">
         <v>16908.124500000002</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="11">
         <v>15804.17173</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="11">
         <v>964.78</v>
       </c>
       <c r="F25">
@@ -47455,10 +47551,10 @@
       <c r="C26" s="11">
         <v>18653.338599999999</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="11">
         <v>16736.189579999998</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="11">
         <v>958.37</v>
       </c>
       <c r="F26">
@@ -47487,10 +47583,10 @@
       <c r="C27" s="11">
         <v>17053.635999999999</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="11">
         <v>15891.867850000001</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="11">
         <v>960.87</v>
       </c>
       <c r="F27">
@@ -47519,10 +47615,10 @@
       <c r="C28" s="11">
         <v>18847.315600000002</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="11">
         <v>15592.73482</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="11">
         <v>975.32</v>
       </c>
       <c r="F28">
@@ -47551,10 +47647,10 @@
       <c r="C29" s="11">
         <v>19197.007099999999</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="11">
         <v>17118.364710000002</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="11">
         <v>994.69</v>
       </c>
       <c r="F29">
@@ -47583,10 +47679,10 @@
       <c r="C30" s="11">
         <v>17156.418799999999</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="11">
         <v>16605.745169999998</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="11">
         <v>991.54</v>
       </c>
       <c r="F30">
@@ -47615,10 +47711,10 @@
       <c r="C31" s="11">
         <v>16309.0656</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="11">
         <v>16259.936400000001</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="11">
         <v>993.06</v>
       </c>
       <c r="F31">
@@ -47647,10 +47743,10 @@
       <c r="C32" s="11">
         <v>17938.216</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="11">
         <v>16662.60931</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="11">
         <v>1009.8</v>
       </c>
       <c r="F32">
@@ -47679,10 +47775,10 @@
       <c r="C33" s="11">
         <v>18693.8377</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="11">
         <v>16404.083989999999</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="11">
         <v>1020.2</v>
       </c>
       <c r="F33">
@@ -47711,10 +47807,10 @@
       <c r="C34" s="11">
         <v>19052.649099999999</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="11">
         <v>17421.750759999999</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="11">
         <v>1035.18</v>
       </c>
       <c r="F34">
@@ -47743,10 +47839,10 @@
       <c r="C35" s="11">
         <v>17462.735100000002</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="11">
         <v>16504.390289999999</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="11">
         <v>1036</v>
       </c>
       <c r="F35">
@@ -47775,10 +47871,10 @@
       <c r="C36" s="11">
         <v>16631.6764</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="11">
         <v>16430.05114</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="11">
         <v>1046.0999999999999</v>
       </c>
       <c r="F36">
@@ -47807,10 +47903,10 @@
       <c r="C37" s="11">
         <v>15644.927100000001</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="11">
         <v>15135.07912</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="11">
         <v>1067.54</v>
       </c>
       <c r="F37">
@@ -47839,10 +47935,10 @@
       <c r="C38" s="11">
         <v>16891.966100000001</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="11">
         <v>15208.60505</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="11">
         <v>1087.9100000000001</v>
       </c>
       <c r="F38">
@@ -47871,10 +47967,10 @@
       <c r="C39" s="11">
         <v>18022.436900000001</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="11">
         <v>15749.52399</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="11">
         <v>1096.76</v>
       </c>
       <c r="F39">
@@ -47903,10 +47999,10 @@
       <c r="C40" s="11">
         <v>16550.129199999999</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="11">
         <v>14313.80157</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="11">
         <v>1110.02</v>
       </c>
       <c r="F40">
@@ -47935,10 +48031,10 @@
       <c r="C41" s="11">
         <v>14391.264999999999</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="11">
         <v>13406.04142</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="11">
         <v>1113.58</v>
       </c>
       <c r="F41">
@@ -47967,10 +48063,10 @@
       <c r="C42" s="11">
         <v>15141.239100000001</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="11">
         <v>14447.30774</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="11">
         <v>1099.74</v>
       </c>
       <c r="F42">
@@ -47999,10 +48095,10 @@
       <c r="C43" s="11">
         <v>14960.8107</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="11">
         <v>14543.400820000001</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="11">
         <v>1103.17</v>
       </c>
       <c r="F43">
@@ -48031,10 +48127,10 @@
       <c r="C44" s="11">
         <v>14814.7273</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="11">
         <v>14188.920620000001</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="11">
         <v>1109.0899999999999</v>
       </c>
       <c r="F44">
@@ -48063,10 +48159,10 @@
       <c r="C45" s="11">
         <v>13992.244699999999</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="11">
         <v>14049.752259999999</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="11">
         <v>1136.76</v>
       </c>
       <c r="F45">
@@ -48095,10 +48191,10 @@
       <c r="C46" s="11">
         <v>12679.075699999999</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="11">
         <v>13170.0543</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="11">
         <v>1151.82</v>
       </c>
       <c r="F46">
@@ -48127,10 +48223,10 @@
       <c r="C47" s="11">
         <v>11396.156199999999</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="11">
         <v>12106.392589999999</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="11">
         <v>1170.0999999999999</v>
       </c>
       <c r="F47">
@@ -48159,10 +48255,10 @@
       <c r="C48" s="11">
         <v>11555.4889</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="11">
         <v>12337.249100000001</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="11">
         <v>1202.51</v>
       </c>
       <c r="F48">
@@ -48191,10 +48287,10 @@
       <c r="C49" s="11">
         <v>12966.9823</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="11">
         <v>13284.55653</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="11">
         <v>1172.74</v>
       </c>
       <c r="F49">
@@ -48223,10 +48319,10 @@
       <c r="C50" s="11">
         <v>13104.1505</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="11">
         <v>13399.47969</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="11">
         <v>1161.32</v>
       </c>
       <c r="F50">
@@ -48255,10 +48351,10 @@
       <c r="C51" s="11">
         <v>12330.738799999999</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="11">
         <v>13204.09864</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="11">
         <v>1169.1400000000001</v>
       </c>
       <c r="F51">
@@ -48287,10 +48383,10 @@
       <c r="C52" s="11">
         <v>12053.3174</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="11">
         <v>12949.29603</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="11">
         <v>1179.67</v>
       </c>
       <c r="F52">
@@ -48319,10 +48415,10 @@
       <c r="C53" s="11">
         <v>12811.685799999999</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="11">
         <v>13437.771199999999</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="11">
         <v>1151.29</v>
       </c>
       <c r="F53">
@@ -48351,10 +48447,10 @@
       <c r="C54" s="11">
         <v>13392.597</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="11">
         <v>12622.91561</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="11">
         <v>1179.93</v>
       </c>
       <c r="F54">
@@ -48383,10 +48479,10 @@
       <c r="C55" s="11">
         <v>13220.1877</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="11">
         <v>12528.709129999999</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="11">
         <v>1186.54</v>
       </c>
       <c r="F55">
@@ -48415,10 +48511,10 @@
       <c r="C56" s="11">
         <v>12398.1531</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="11">
         <v>11637.130810000001</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="11">
         <v>1203.29</v>
       </c>
       <c r="F56">
@@ -48447,10 +48543,10 @@
       <c r="C57" s="11">
         <v>12012.2435</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="11">
         <v>10729.320750000001</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="11">
         <v>1231.8</v>
       </c>
       <c r="F57">
@@ -48479,10 +48575,10 @@
       <c r="C58" s="11">
         <v>11837.953799999999</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="11">
         <v>10800.023859999999</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="11">
         <v>1258.43</v>
       </c>
       <c r="F58">
@@ -48511,10 +48607,10 @@
       <c r="C59" s="11">
         <v>10721.5074</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="11">
         <v>9626.7477999999992</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="11">
         <v>1292.3599999999999</v>
       </c>
       <c r="F59">
@@ -48543,10 +48639,10 @@
       <c r="C60" s="11">
         <v>11168.677900000001</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="11">
         <v>10474.059929999999</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="11">
         <v>1278.06</v>
       </c>
       <c r="F60">
@@ -48575,10 +48671,10 @@
       <c r="C61" s="11">
         <v>11941.5105</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="11">
         <v>11090.55406</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="11">
         <v>1265.4000000000001</v>
       </c>
       <c r="F61">
@@ -48607,10 +48703,10 @@
       <c r="C62" s="11">
         <v>11058.515299999999</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="11">
         <v>10438.75375</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="11">
         <v>1298.28</v>
       </c>
       <c r="F62">
@@ -48639,10 +48735,10 @@
       <c r="C63" s="11">
         <v>10982.3974</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="11">
         <v>10165.17541</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="11">
         <v>1294.33</v>
       </c>
       <c r="F63">
@@ -48671,10 +48767,10 @@
       <c r="C64" s="11">
         <v>10824.4107</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="11">
         <v>10013.382799999999</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="11">
         <v>1316.6</v>
       </c>
       <c r="F64">
@@ -48703,10 +48799,10 @@
       <c r="C65" s="11">
         <v>10375.7158</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="11">
         <v>10110.479890000001</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="11">
         <v>1311.12</v>
       </c>
       <c r="F65">
@@ -48735,10 +48831,10 @@
       <c r="C66" s="11">
         <v>10549.579599999999</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="11">
         <v>10942.75684</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="11">
         <v>1317.22</v>
       </c>
       <c r="F66">
@@ -48767,10 +48863,10 @@
       <c r="C67" s="11">
         <v>11564.125099999999</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="11">
         <v>11519.021199999999</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="11">
         <v>1355.21</v>
       </c>
       <c r="F67">
@@ -48799,10 +48895,10 @@
       <c r="C68" s="11">
         <v>11678.638199999999</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="11">
         <v>11666.95414</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="11">
         <v>1346.91</v>
       </c>
       <c r="F68">
@@ -48831,10 +48927,10 @@
       <c r="C69" s="11">
         <v>12360.647199999999</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="11">
         <v>11872.371429999999</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="11">
         <v>1287.75</v>
       </c>
       <c r="F69">
@@ -48863,10 +48959,10 @@
       <c r="C70" s="11">
         <v>13427.8899</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="11">
         <v>12103.61988</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="11">
         <v>1295.3900000000001</v>
       </c>
       <c r="F70">
@@ -48895,10 +48991,10 @@
       <c r="C71" s="11">
         <v>13962.7927</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="11">
         <v>11974.940119999999</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="11">
         <v>1334.45</v>
       </c>
       <c r="F71">
@@ -48927,10 +49023,10 @@
       <c r="C72" s="11">
         <v>15119.7942</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="11">
         <v>12651.743189999999</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="11">
         <v>1314.09</v>
       </c>
       <c r="F72">
@@ -48959,10 +49055,10 @@
       <c r="C73" s="11">
         <v>15343.119699999999</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="11">
         <v>12763.68028</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="11">
         <v>1315.73</v>
       </c>
       <c r="F73">
@@ -48991,10 +49087,10 @@
       <c r="C74" s="11">
         <v>15684.474899999999</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="11">
         <v>13432.57922</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="11">
         <v>1327.38</v>
       </c>
       <c r="F74">
@@ -49023,10 +49119,10 @@
       <c r="C75" s="11">
         <v>16547.808300000001</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="11">
         <v>13679.29911</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="11">
         <v>1338.69</v>
       </c>
       <c r="F75">
@@ -49055,10 +49151,10 @@
       <c r="C76" s="11">
         <v>17302.360799999999</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="11">
         <v>13869.60133</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="11">
         <v>1355.28</v>
       </c>
       <c r="F76">
@@ -49087,10 +49183,10 @@
       <c r="C77" s="11">
         <v>15873.021500000001</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="11">
         <v>13660.52634</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="11">
         <v>1368</v>
       </c>
       <c r="F77">
@@ -49119,10 +49215,10 @@
       <c r="C78" s="11">
         <v>14970.9998</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="11">
         <v>13446.24</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="11">
         <v>1324</v>
       </c>
       <c r="F78">
@@ -49151,10 +49247,10 @@
       <c r="C79" s="11">
         <v>15446.4908</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="11">
         <v>13630.43203</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="11">
         <v>1319.45</v>
       </c>
       <c r="F79">
@@ -49183,10 +49279,10 @@
       <c r="C80" s="11">
         <v>15566.672500000001</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="11">
         <v>13894.803389999999</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="11">
         <v>1324.75</v>
       </c>
       <c r="F80">
@@ -49215,10 +49311,10 @@
       <c r="C81" s="11">
         <v>15509.6849</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="11">
         <v>13435.73957</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="11">
         <v>1337.36</v>
       </c>
       <c r="F81">
@@ -49247,10 +49343,10 @@
       <c r="C82" s="11">
         <v>16348.7729</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="11">
         <v>13489.27144</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="11">
         <v>1365.02</v>
       </c>
       <c r="F82">
@@ -49279,10 +49375,10 @@
       <c r="C83" s="11">
         <v>16778.643599999999</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="11">
         <v>13635.36822</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="11">
         <v>1368.53</v>
       </c>
       <c r="F83">
@@ -49311,10 +49407,10 @@
       <c r="C84" s="11">
         <v>16730.9228</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="11">
         <v>13843.84671</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="11">
         <v>1379.38</v>
       </c>
       <c r="F84">
@@ -49343,10 +49439,10 @@
       <c r="C85" s="11">
         <v>18111.354899999998</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="11">
         <v>14403.816419999999</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="11">
         <v>1360.85</v>
       </c>
       <c r="F85">
@@ -49375,10 +49471,10 @@
       <c r="C86" s="11">
         <v>18350.3253</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="11">
         <v>14893.95902</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="11">
         <v>1374.34</v>
       </c>
       <c r="F86">
@@ -49407,10 +49503,10 @@
       <c r="C87" s="11">
         <v>17633.647400000002</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="11">
         <v>14530.743060000001</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="11">
         <v>1384.37</v>
       </c>
       <c r="F87">
@@ -49439,10 +49535,10 @@
       <c r="C88" s="11">
         <v>18246.7111</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="11">
         <v>14836.71047</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="11">
         <v>1373.07</v>
       </c>
       <c r="F88">
@@ -49471,10 +49567,10 @@
       <c r="C89" s="11">
         <v>17505.643800000002</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="11">
         <v>14573.80517</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="11">
         <v>1368.6</v>
       </c>
       <c r="F89">
@@ -49503,10 +49599,10 @@
       <c r="C90" s="11">
         <v>18043.569500000001</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="11">
         <v>14297.39824</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="11">
         <v>1392.66</v>
       </c>
       <c r="F90">
@@ -49535,10 +49631,10 @@
       <c r="C91" s="11">
         <v>18249.7706</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="11">
         <v>14752.861849999999</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="11">
         <v>1409.67</v>
       </c>
       <c r="F91">
@@ -49567,10 +49663,10 @@
       <c r="C92" s="11">
         <v>18715.897400000002</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="11">
         <v>14773.26641</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="11">
         <v>1418.31</v>
       </c>
       <c r="F92">
@@ -49599,10 +49695,10 @@
       <c r="C93" s="11">
         <v>19201.7755</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="11">
         <v>15006.44846</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="11">
         <v>1399.08</v>
       </c>
       <c r="F93">
@@ -49631,10 +49727,10 @@
       <c r="C94" s="11">
         <v>19323.210599999999</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="11">
         <v>14858.8887</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="11">
         <v>1421.3</v>
       </c>
       <c r="F94">
@@ -49663,10 +49759,10 @@
       <c r="C95" s="11">
         <v>20091.507099999999</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="11">
         <v>14964.810729999999</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="11">
         <v>1402.44</v>
       </c>
       <c r="F95">
@@ -49695,10 +49791,10 @@
       <c r="C96" s="11">
         <v>18747.928</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="11">
         <v>14701.695589999999</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="11">
         <v>1391.47</v>
       </c>
       <c r="F96">
@@ -49727,10 +49823,10 @@
       <c r="C97" s="11">
         <v>19532.5206</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="11">
         <v>15250.00963</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="11">
         <v>1398.22</v>
       </c>
       <c r="F97">
@@ -49759,10 +49855,10 @@
       <c r="C98" s="11">
         <v>19445.0461</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="11">
         <v>15236.061460000001</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="11">
         <v>1412.71</v>
       </c>
       <c r="F98">
@@ -49791,10 +49887,10 @@
       <c r="C99" s="11">
         <v>20561.099399999999</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="11">
         <v>15622.808429999999</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="11">
         <v>1408.5</v>
       </c>
       <c r="F99">
@@ -49823,10 +49919,10 @@
       <c r="C100" s="11">
         <v>20720.1751</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="11">
         <v>15623.62016</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="11">
         <v>1410.55</v>
       </c>
       <c r="F100">
@@ -49855,10 +49951,10 @@
       <c r="C101" s="11">
         <v>20662.027999999998</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="11">
         <v>15772.83885</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="11">
         <v>1395.33</v>
       </c>
       <c r="F101">
@@ -49887,10 +49983,10 @@
       <c r="C102" s="11">
         <v>21805.332600000002</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="11">
         <v>15978.257100000001</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="11">
         <v>1389.58</v>
       </c>
       <c r="F102">
@@ -49919,10 +50015,10 @@
       <c r="C103" s="11">
         <v>21039.524099999999</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="11">
         <v>15525.159159999999</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="11">
         <v>1390.04</v>
       </c>
       <c r="F103">
@@ -49951,10 +50047,10 @@
       <c r="C104" s="11">
         <v>21461.537</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="11">
         <v>15501.219510000001</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="11">
         <v>1394.47</v>
       </c>
       <c r="F104">
@@ -49983,10 +50079,10 @@
       <c r="C105" s="11">
         <v>22312.049200000001</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="11">
         <v>15547.479149999999</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="11">
         <v>1411.74</v>
       </c>
       <c r="F105">
@@ -50015,10 +50111,10 @@
       <c r="C106" s="11">
         <v>22871.5857</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="11">
         <v>15884.842269999999</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="11">
         <v>1432.46</v>
       </c>
       <c r="F106">
@@ -50047,10 +50143,10 @@
       <c r="C107" s="11">
         <v>23021.608499999998</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="11">
         <v>16194.623540000001</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="11">
         <v>1445.76</v>
       </c>
       <c r="F107">
@@ -50079,10 +50175,10 @@
       <c r="C108" s="11">
         <v>24030.0707</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="11">
         <v>16669.237870000001</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="11">
         <v>1453.1</v>
       </c>
       <c r="F108">
@@ -50111,10 +50207,10 @@
       <c r="C109" s="11">
         <v>24803.2562</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="11">
         <v>16887.90956</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="11">
         <v>1468.28</v>
       </c>
       <c r="F109">
@@ -50143,10 +50239,10 @@
       <c r="C110" s="11">
         <v>26049.026099999999</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="11">
         <v>17062.939849999999</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="11">
         <v>1456.21</v>
       </c>
       <c r="F110">
@@ -50175,10 +50271,10 @@
       <c r="C111" s="11">
         <v>26032.004199999999</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="11">
         <v>17252.862959999999</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="11">
         <v>1453.89</v>
       </c>
       <c r="F111">
@@ -50207,10 +50303,10 @@
       <c r="C112" s="11">
         <v>25325.390500000001</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="11">
         <v>16841.656050000001</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="11">
         <v>1478</v>
       </c>
       <c r="F112">
@@ -50239,10 +50335,10 @@
       <c r="C113" s="11">
         <v>25597.0648</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="11">
         <v>16998.127120000001</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="11">
         <v>1477.28</v>
       </c>
       <c r="F113">
@@ -50271,10 +50367,10 @@
       <c r="C114" s="11">
         <v>26227.161</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="11">
         <v>17712.005669999999</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="11">
         <v>1484.89</v>
       </c>
       <c r="F114">
@@ -50303,10 +50399,10 @@
       <c r="C115" s="11">
         <v>26731.8478</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="11">
         <v>18193.58425</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="11">
         <v>1471.56</v>
       </c>
       <c r="F115">
@@ -50335,10 +50431,10 @@
       <c r="C116" s="11">
         <v>28058.037</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="11">
         <v>17801.54206</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="11">
         <v>1470.92</v>
       </c>
       <c r="F116">
@@ -50367,10 +50463,10 @@
       <c r="C117" s="11">
         <v>29696.753400000001</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="11">
         <v>17157.165300000001</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="11">
         <v>1495.31</v>
       </c>
       <c r="F117">
@@ -50399,10 +50495,10 @@
       <c r="C118" s="11">
         <v>30799.8279</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="11">
         <v>17351.342130000001</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="11">
         <v>1518.75</v>
       </c>
       <c r="F118">
@@ -50431,10 +50527,10 @@
       <c r="C119" s="11">
         <v>34991.289700000001</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="11">
         <v>17907.45289</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="11">
         <v>1526.94</v>
       </c>
       <c r="F119">
@@ -50463,10 +50559,10 @@
       <c r="C120" s="11">
         <v>40293.864800000003</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="11">
         <v>18090.26542</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="11">
         <v>1538.95</v>
       </c>
       <c r="F120">
@@ -50495,10 +50591,10 @@
       <c r="C121" s="11">
         <v>36373.029000000002</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="11">
         <v>17156.316299999999</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="11">
         <v>1586.18</v>
       </c>
       <c r="F121">
@@ -50527,10 +50623,10 @@
       <c r="C122" s="11">
         <v>34826.614800000003</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="11">
         <v>16828.805530000001</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="11">
         <v>1587.45</v>
       </c>
       <c r="F122">
@@ -50559,10 +50655,10 @@
       <c r="C123" s="11">
         <v>28915.394899999999</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="11">
         <v>15569.431399999999</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="11">
         <v>1627.75</v>
       </c>
       <c r="F123">
@@ -50591,10 +50687,10 @@
       <c r="C124" s="11">
         <v>29770.687699999999</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="11">
         <v>14916.19346</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="11">
         <v>1646.3</v>
       </c>
       <c r="F124">
@@ -50623,10 +50719,10 @@
       <c r="C125" s="11">
         <v>27701.7958</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="11">
         <v>14643.98702</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="11">
         <v>1657.72</v>
       </c>
       <c r="F125">
@@ -50655,10 +50751,10 @@
       <c r="C126" s="11">
         <v>31142.077499999999</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="11">
         <v>15303.540360000001</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="11">
         <v>1629.23</v>
       </c>
       <c r="F126">
@@ -50687,10 +50783,10 @@
       <c r="C127" s="11">
         <v>29642.392400000001</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="11">
         <v>15401.48561</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="11">
         <v>1610.21</v>
       </c>
       <c r="F127">
@@ -50719,10 +50815,10 @@
       <c r="C128" s="11">
         <v>26493.856299999999</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="11">
         <v>13924.311680000001</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="11">
         <v>1622.86</v>
       </c>
       <c r="F128">
@@ -50751,10 +50847,10 @@
       <c r="C129" s="11">
         <v>27143.491399999999</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="11">
         <v>13760.92973</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="11">
         <v>1629.72</v>
       </c>
       <c r="F129">
@@ -50783,10 +50879,10 @@
       <c r="C130" s="11">
         <v>25475.321800000002</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="11">
         <v>13973.26311</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="11">
         <v>1650.08</v>
       </c>
       <c r="F130">
@@ -50815,10 +50911,10 @@
       <c r="C131" s="11">
         <v>21847.3956</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="11">
         <v>12743.404549999999</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="11">
         <v>1660.18</v>
       </c>
       <c r="F131">
@@ -50847,10 +50943,10 @@
       <c r="C132" s="11">
         <v>16965.3685</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="11">
         <v>10593.11335</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="11">
         <v>1658.35</v>
       </c>
       <c r="F132">
@@ -50879,10 +50975,10 @@
       <c r="C133" s="11">
         <v>17006.002400000001</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="11">
         <v>9839.3313099999996</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="11">
         <v>1746.36</v>
       </c>
       <c r="F133">
@@ -50911,10 +51007,10 @@
       <c r="C134" s="11">
         <v>17575.538400000001</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="11">
         <v>9917.2876899999992</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="11">
         <v>1805.52</v>
       </c>
       <c r="F134">
@@ -50943,10 +51039,10 @@
       <c r="C135" s="11">
         <v>16260.514499999999</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="11">
         <v>9109.3367099999996</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="11">
         <v>1752.87</v>
       </c>
       <c r="F135">
@@ -50975,10 +51071,10 @@
       <c r="C136" s="11">
         <v>15674.2435</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="11">
         <v>8131.4278299999996</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="11">
         <v>1743.65</v>
       </c>
       <c r="F136">
@@ -51007,10 +51103,10 @@
       <c r="C137" s="11">
         <v>16680.552</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="11">
         <v>8835.6876300000004</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="11">
         <v>1781.64</v>
       </c>
       <c r="F137">
@@ -51039,10 +51135,10 @@
       <c r="C138" s="11">
         <v>19072.249199999998</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="11">
         <v>9666.34879</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="11">
         <v>1749.14</v>
       </c>
       <c r="F138">
@@ -51071,10 +51167,10 @@
       <c r="C139" s="11">
         <v>22587.231500000002</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="11">
         <v>10217.4751</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="11">
         <v>1731.49</v>
       </c>
       <c r="F139">
@@ -51103,10 +51199,10 @@
       <c r="C140" s="11">
         <v>22955.575400000002</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="11">
         <v>10238.80946</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="11">
         <v>1727.82</v>
       </c>
       <c r="F140">
@@ -51135,10 +51231,10 @@
       <c r="C141" s="11">
         <v>25701.962200000002</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="11">
         <v>11015.46315</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="11">
         <v>1735.05</v>
       </c>
       <c r="F141">
@@ -51167,10 +51263,10 @@
       <c r="C142" s="11">
         <v>24680.662</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="11">
         <v>11410.653910000001</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="11">
         <v>1750.5</v>
       </c>
       <c r="F142">
@@ -51199,10 +51295,10 @@
       <c r="C143" s="11">
         <v>26330.365399999999</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="11">
         <v>11829.022220000001</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="11">
         <v>1764.12</v>
       </c>
       <c r="F143">
@@ -51231,10 +51327,10 @@
       <c r="C144" s="11">
         <v>27348.471600000001</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="11">
         <v>11611.324430000001</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="11">
         <v>1763.26</v>
       </c>
       <c r="F144">
@@ -51263,10 +51359,10 @@
       <c r="C145" s="11">
         <v>27484.183199999999</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="11">
         <v>12307.07663</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="11">
         <v>1787.81</v>
       </c>
       <c r="F145">
@@ -51295,10 +51391,10 @@
       <c r="C146" s="11">
         <v>27541.166099999999</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="11">
         <v>12544.796249999999</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="11">
         <v>1741.11</v>
       </c>
       <c r="F146">
@@ -51327,10 +51423,10 @@
       <c r="C147" s="11">
         <v>25298.993999999999</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="11">
         <v>12092.99352</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="11">
         <v>1768.63</v>
       </c>
       <c r="F147">
@@ -51359,10 +51455,10 @@
       <c r="C148" s="11">
         <v>25921.641800000001</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="11">
         <v>12466.11902</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="11">
         <v>1775.62</v>
       </c>
       <c r="F148">
@@ -51391,10 +51487,10 @@
       <c r="C149" s="11">
         <v>26769.436300000001</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="11">
         <v>13219.380719999999</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="11">
         <v>1760.58</v>
       </c>
       <c r="F149">
@@ -51423,10 +51519,10 @@
       <c r="C150" s="11">
         <v>26670.1342</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="11">
         <v>13425.50966</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="11">
         <v>1779.03</v>
       </c>
       <c r="F150">
@@ -51455,10 +51551,10 @@
       <c r="C151" s="11">
         <v>25215.812600000001</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="11">
         <v>12364.516369999999</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="11">
         <v>1809.46</v>
       </c>
       <c r="F151">
@@ -51487,10 +51583,10 @@
       <c r="C152" s="11">
         <v>25593.5972</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="11">
         <v>11631.66072</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="11">
         <v>1843.06</v>
       </c>
       <c r="F152">
@@ -51519,10 +51615,10 @@
       <c r="C153" s="11">
         <v>26779.425999999999</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="11">
         <v>12434.834999999999</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="11">
         <v>1855.63</v>
       </c>
       <c r="F153">
@@ -51551,10 +51647,10 @@
       <c r="C154" s="11">
         <v>26310.030299999999</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="11">
         <v>11935.74178</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="11">
         <v>1892.89</v>
       </c>
       <c r="F154">
@@ -51583,10 +51679,10 @@
       <c r="C155" s="11">
         <v>28348.281500000001</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="11">
         <v>12770.8755</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="11">
         <v>1893.29</v>
       </c>
       <c r="F155">
@@ -51615,10 +51711,10 @@
       <c r="C156" s="11">
         <v>29253.316500000001</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="11">
         <v>13223.15007</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="11">
         <v>1890.3</v>
       </c>
       <c r="F156">
@@ -51647,10 +51743,10 @@
       <c r="C157" s="11">
         <v>29117.361499999999</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="11">
         <v>13212.92728</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="11">
         <v>1877.09</v>
       </c>
       <c r="F157">
@@ -51679,10 +51775,10 @@
       <c r="C158" s="11">
         <v>28792.604599999999</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="11">
         <v>13932.53681</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="11">
         <v>1843.32</v>
       </c>
       <c r="F158">
@@ -51711,10 +51807,10 @@
       <c r="C159" s="11">
         <v>29251.226500000001</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="11">
         <v>14274.218000000001</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="11">
         <v>1842.86</v>
       </c>
       <c r="F159">
@@ -51743,10 +51839,10 @@
       <c r="C160" s="11">
         <v>29033.878499999999</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="11">
         <v>14710.85518</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="11">
         <v>1841.49</v>
       </c>
       <c r="F160">
@@ -51775,10 +51871,10 @@
       <c r="C161" s="11">
         <v>29299.429700000001</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="11">
         <v>14665.19678</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="11">
         <v>1840.37</v>
       </c>
       <c r="F161">
@@ -51807,10 +51903,10 @@
       <c r="C162" s="11">
         <v>29364.919900000001</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="11">
         <v>14966.68816</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="11">
         <v>1861.6</v>
       </c>
       <c r="F162">
@@ -51839,10 +51935,10 @@
       <c r="C163" s="11">
         <v>29465.223699999999</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="11">
         <v>14770.145109999999</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="11">
         <v>1890.67</v>
       </c>
       <c r="F163">
@@ -51871,10 +51967,10 @@
       <c r="C164" s="11">
         <v>27984.705900000001</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="11">
         <v>14489.86607</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="11">
         <v>1884.28</v>
       </c>
       <c r="F164">
@@ -51903,10 +51999,10 @@
       <c r="C165" s="11">
         <v>27875.191999999999</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="11">
         <v>14136.386570000001</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="11">
         <v>1918.62</v>
       </c>
       <c r="F165">
@@ -51935,10 +52031,10 @@
       <c r="C166" s="11">
         <v>25371.000700000001</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="11">
         <v>13246.118200000001</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="11">
         <v>1971.91</v>
       </c>
       <c r="F166">
@@ -51967,10 +52063,10 @@
       <c r="C167" s="11">
         <v>21882.177599999999</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="11">
         <v>12324.23257</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="11">
         <v>2006.35</v>
       </c>
       <c r="F167">
@@ -51999,10 +52095,10 @@
       <c r="C168" s="11">
         <v>24679.033899999999</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="11">
         <v>13620.840690000001</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="11">
         <v>1989.99</v>
       </c>
       <c r="F168">
@@ -52031,10 +52127,10 @@
       <c r="C169" s="11">
         <v>22467.618399999999</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="11">
         <v>13633.07444</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="11">
         <v>2004.84</v>
       </c>
       <c r="F169">
@@ -52063,10 +52159,10 @@
       <c r="C170" s="11">
         <v>22763.724600000001</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="11">
         <v>13600.67432</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="11">
         <v>2024.21</v>
       </c>
       <c r="F170">
@@ -52095,10 +52191,10 @@
       <c r="C171" s="11">
         <v>25251.725699999999</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="11">
         <v>14231.824919999999</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="11">
         <v>2032.77</v>
       </c>
       <c r="F171">
@@ -52127,10 +52223,10 @@
       <c r="C172" s="11">
         <v>26788.786199999999</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="11">
         <v>14813.1122</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="11">
         <v>2018.29</v>
       </c>
       <c r="F172">
@@ -52159,10 +52255,10 @@
       <c r="C173" s="11">
         <v>25472.6564</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="11">
         <v>15309.81806</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="11">
         <v>1998.04</v>
       </c>
       <c r="F173">
@@ -52191,10 +52287,10 @@
       <c r="C174" s="11">
         <v>26105.932799999999</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="11">
         <v>15170.04531</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="11">
         <v>2027.1</v>
       </c>
       <c r="F174">
@@ -52223,10 +52319,10 @@
       <c r="C175" s="11">
         <v>23630.7932</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="11">
         <v>14460.5844</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="11">
         <v>2061.85</v>
       </c>
       <c r="F175">
@@ -52255,10 +52351,10 @@
       <c r="C176" s="11">
         <v>24883.7261</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="11">
         <v>15022.12183</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="11">
         <v>2054.6799999999998</v>
       </c>
       <c r="F176">
@@ -52287,10 +52383,10 @@
       <c r="C177" s="11">
         <v>25382.647199999999</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="11">
         <v>15249.213739999999</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="11">
         <v>2075.36</v>
       </c>
       <c r="F177">
@@ -52319,10 +52415,10 @@
       <c r="C178" s="11">
         <v>24992.8959</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="11">
         <v>15560.329760000001</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="11">
         <v>2072.69</v>
       </c>
       <c r="F178">
@@ -52351,10 +52447,10 @@
       <c r="C179" s="11">
         <v>26600.268100000001</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="11">
         <v>15802.06119</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="11">
         <v>2066.35</v>
       </c>
       <c r="F179">
@@ -52383,10 +52479,10 @@
       <c r="C180" s="11">
         <v>27466.132900000001</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="11">
         <v>15390.353370000001</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="11">
         <v>2062.85</v>
       </c>
       <c r="F180">
@@ -52415,10 +52511,10 @@
       <c r="C181" s="11">
         <v>27936.144</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="11">
         <v>15453.54859</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="11">
         <v>2073.58</v>
       </c>
       <c r="F181">
@@ -52447,10 +52543,10 @@
       <c r="C182" s="11">
         <v>28771.241600000001</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="11">
         <v>15615.1834</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="11">
         <v>2064.56</v>
       </c>
       <c r="F182">
@@ -52479,10 +52575,10 @@
       <c r="C183" s="11">
         <v>30036.704699999998</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="11">
         <v>16382.10446</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="11">
         <v>2047.89</v>
       </c>
       <c r="F183">
@@ -52511,10 +52607,10 @@
       <c r="C184" s="11">
         <v>29167.889899999998</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="11">
         <v>16614.11118</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="11">
         <v>2058.71</v>
       </c>
       <c r="F184">
@@ -52543,10 +52639,10 @@
       <c r="C185" s="11">
         <v>28282.574700000001</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="11">
         <v>17213.921719999998</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="11">
         <v>2060.73</v>
       </c>
       <c r="F185">
@@ -52575,10 +52671,10 @@
       <c r="C186" s="11">
         <v>28636.415400000002</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="11">
         <v>17406.384300000002</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="11">
         <v>2079.0500000000002</v>
       </c>
       <c r="F186">
@@ -52607,10 +52703,10 @@
       <c r="C187" s="11">
         <v>28238.5075</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="11">
         <v>17725.392370000001</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="11">
         <v>2043.55</v>
       </c>
       <c r="F187">
@@ -52639,10 +52735,10 @@
       <c r="C188" s="11">
         <v>26658.693299999999</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="11">
         <v>17496.21082</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="11">
         <v>2021.06</v>
       </c>
       <c r="F188">
@@ -52671,10 +52767,10 @@
       <c r="C189" s="11">
         <v>28009.4686</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="11">
         <v>18360.46831</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="11">
         <v>2018.86</v>
       </c>
       <c r="F189">
@@ -52703,10 +52799,10 @@
       <c r="C190" s="11">
         <v>27846.922999999999</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="11">
         <v>17801.380720000001</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="11">
         <v>2009.05</v>
       </c>
       <c r="F190">
@@ -52735,10 +52831,10 @@
       <c r="C191" s="11">
         <v>29436.181499999999</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="11">
         <v>18365.30185</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="11">
         <v>2023.1</v>
       </c>
       <c r="F191">
@@ -52767,10 +52863,10 @@
       <c r="C192" s="11">
         <v>29811.917099999999</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="11">
         <v>19127.286169999999</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="11">
         <v>2032.86</v>
       </c>
       <c r="F192">
@@ -52799,10 +52895,10 @@
       <c r="C193" s="11">
         <v>30689.147099999998</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="11">
         <v>19703.055960000002</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="11">
         <v>2026.21</v>
       </c>
       <c r="F193">
@@ -52831,10 +52927,10 @@
       <c r="C194" s="11">
         <v>29750.077700000002</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="11">
         <v>20067.27692</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="11">
         <v>2007.83</v>
       </c>
       <c r="F194">
@@ -52863,10 +52959,10 @@
       <c r="C195" s="11">
         <v>28128.5229</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="11">
         <v>19392.31538</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="11">
         <v>2035.07</v>
       </c>
       <c r="F195">
@@ -52895,10 +52991,10 @@
       <c r="C196" s="11">
         <v>29589.891800000001</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="11">
         <v>20572.328000000001</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="11">
         <v>2040.61</v>
       </c>
       <c r="F196">
@@ -52927,10 +53023,10 @@
       <c r="C197" s="11">
         <v>29164.547600000002</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="11">
         <v>20990.608939999998</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="11">
         <v>2034.78</v>
       </c>
       <c r="F197">
@@ -52959,10 +53055,10 @@
       <c r="C198" s="11">
         <v>29372.887299999999</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="11">
         <v>21285.179370000002</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="11">
         <v>2046.01</v>
       </c>
       <c r="F198">
@@ -52991,10 +53087,10 @@
       <c r="C199" s="11">
         <v>30912.1407</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="11">
         <v>21742.06769</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="11">
         <v>2065.2800000000002</v>
       </c>
       <c r="F199">
@@ -53023,10 +53119,10 @@
       <c r="C200" s="11">
         <v>31114.093199999999</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="11">
         <v>22038.435160000001</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="11">
         <v>2062.34</v>
       </c>
       <c r="F200">
@@ -53055,10 +53151,10 @@
       <c r="C201" s="11">
         <v>33227.971100000002</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="11">
         <v>21631.497609999999</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="11">
         <v>2058.98</v>
       </c>
       <c r="F201">
@@ -53087,10 +53183,10 @@
       <c r="C202" s="11">
         <v>33108.616199999997</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="11">
         <v>22374.479609999999</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="11">
         <v>2080.6999999999998</v>
       </c>
       <c r="F202">
@@ -53119,10 +53215,10 @@
       <c r="C203" s="11">
         <v>30742.682100000002</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="11">
         <v>22049.948950000002</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="11">
         <v>2069.31</v>
       </c>
       <c r="F203">
@@ -53151,10 +53247,10 @@
       <c r="C204" s="11">
         <v>32139.512699999999</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="11">
         <v>22501.666850000001</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="11">
         <v>2089.4699999999998</v>
       </c>
       <c r="F204">
@@ -53183,10 +53279,10 @@
       <c r="C205" s="11">
         <v>32301.504199999999</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="11">
         <v>23212.2618</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="11">
         <v>2106.3200000000002</v>
       </c>
       <c r="F205">
@@ -53215,10 +53311,10 @@
       <c r="C206" s="11">
         <v>32132.447100000001</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="11">
         <v>23398.421859999999</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="11">
         <v>2109.3200000000002</v>
       </c>
       <c r="F206">
@@ -53247,10 +53343,10 @@
       <c r="C207" s="11">
         <v>33609.071799999998</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="11">
         <v>22861.987580000001</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="11">
         <v>2163.88</v>
       </c>
       <c r="F207">
@@ -53279,10 +53375,10 @@
       <c r="C208" s="11">
         <v>34134.6204</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="11">
         <v>24242.066760000002</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="11">
         <v>2130.46</v>
       </c>
       <c r="F208">
@@ -53311,10 +53407,10 @@
       <c r="C209" s="11">
         <v>34028.8917</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="11">
         <v>23598.38191</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="11">
         <v>2143.9</v>
       </c>
       <c r="F209">
@@ -53343,10 +53439,10 @@
       <c r="C210" s="11">
         <v>38460.42</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="11">
         <v>23818.267639999998</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="11">
         <v>2132.62</v>
       </c>
       <c r="F210">
@@ -53375,10 +53471,10 @@
       <c r="C211" s="11">
         <v>37569.309699999998</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="11">
         <v>24094.186559999998</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="11">
         <v>2128.7800000000002</v>
       </c>
       <c r="F211">
@@ -53388,7 +53484,7 @@
         <v>22.1326</v>
       </c>
       <c r="H211" s="11">
-        <v>11.7113</v>
+        <v>11.728400000000001</v>
       </c>
       <c r="I211" s="11">
         <v>18.818999999999999</v>
@@ -53407,10 +53503,10 @@
       <c r="C212" s="11">
         <v>36476.170299999998</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="11">
         <v>23652.54622</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="11">
         <v>2109.9899999999998</v>
       </c>
       <c r="F212">
@@ -53420,7 +53516,7 @@
         <v>20.367899999999999</v>
       </c>
       <c r="H212" s="11">
-        <v>11.9232</v>
+        <v>11.940899999999999</v>
       </c>
       <c r="I212" s="11">
         <v>18.511199999999999</v>
@@ -53439,10 +53535,10 @@
       <c r="C213" s="11">
         <v>34307.783499999998</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="11">
         <v>24187.853459999998</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="11">
         <v>2127.58</v>
       </c>
       <c r="F213">
@@ -53452,7 +53548,7 @@
         <v>16.934200000000001</v>
       </c>
       <c r="H213" s="11">
-        <v>11.188599999999999</v>
+        <v>11.2052</v>
       </c>
       <c r="I213" s="11">
         <v>18.8428</v>
@@ -53471,10 +53567,10 @@
       <c r="C214" s="11">
         <v>31108.930400000001</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="11">
         <v>23365.8351</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="11">
         <v>2128.5100000000002</v>
       </c>
       <c r="F214">
@@ -53484,7 +53580,7 @@
         <v>14.8317</v>
       </c>
       <c r="H214" s="11">
-        <v>9.8401999999999994</v>
+        <v>9.8548000000000009</v>
       </c>
       <c r="I214" s="11">
         <v>17.6479</v>
@@ -53503,10 +53599,10 @@
       <c r="C215" s="11">
         <v>30007.932100000002</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="11">
         <v>22698.790199999999</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="11">
         <v>2147.19</v>
       </c>
       <c r="F215">
@@ -53516,7 +53612,7 @@
         <v>14.8428</v>
       </c>
       <c r="H215" s="11">
-        <v>9.7431999999999999</v>
+        <v>9.7571999999999992</v>
       </c>
       <c r="I215" s="11">
         <v>17.380800000000001</v>
@@ -53533,12 +53629,12 @@
         <v>710.62429999999995</v>
       </c>
       <c r="C216" s="11">
-        <v>32429.348099999999</v>
-      </c>
-      <c r="D216">
+        <v>32429.3482</v>
+      </c>
+      <c r="D216" s="11">
         <v>24455.96588</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="11">
         <v>2139.33</v>
       </c>
       <c r="F216">
@@ -53548,7 +53644,7 @@
         <v>16.410900000000002</v>
       </c>
       <c r="H216" s="11">
-        <v>10.5822</v>
+        <v>10.5974</v>
       </c>
       <c r="I216" s="11">
         <v>18.7697</v>
@@ -53565,12 +53661,12 @@
         <v>714.82910000000004</v>
       </c>
       <c r="C217" s="11">
-        <v>31937.1865</v>
-      </c>
-      <c r="D217">
+        <v>31937.186600000001</v>
+      </c>
+      <c r="D217" s="11">
         <v>24840.080620000001</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="11">
         <v>2130.58</v>
       </c>
       <c r="F217">
@@ -53580,7 +53676,7 @@
         <v>16.634699999999999</v>
       </c>
       <c r="H217" s="11">
-        <v>10.4411</v>
+        <v>10.4505</v>
       </c>
       <c r="I217" s="11">
         <v>18.755400000000002</v>
@@ -53597,12 +53693,12 @@
         <v>724.1703</v>
       </c>
       <c r="C218" s="11">
-        <v>32281.552299999999</v>
-      </c>
-      <c r="D218">
+        <v>32281.5524</v>
+      </c>
+      <c r="D218" s="11">
         <v>24792.63</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="11">
         <v>2127.09</v>
       </c>
       <c r="F218">
@@ -53612,7 +53708,7 @@
         <v>17.973400000000002</v>
       </c>
       <c r="H218" s="11">
-        <v>10.6944</v>
+        <v>10.663499999999999</v>
       </c>
       <c r="I218" s="11">
         <v>18.780200000000001</v>
@@ -53631,10 +53727,10 @@
       <c r="C219" s="11">
         <v>29253.402099999999</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="11">
         <v>23876.86824</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="11">
         <v>2172.39</v>
       </c>
       <c r="F219">
@@ -53644,7 +53740,7 @@
         <v>13.9251</v>
       </c>
       <c r="H219" s="11">
-        <v>9.6056000000000008</v>
+        <v>9.5777000000000001</v>
       </c>
       <c r="I219" s="11">
         <v>17.815999999999999</v>
@@ -53661,12 +53757,12 @@
         <v>544.48099999999999</v>
       </c>
       <c r="C220" s="11">
-        <v>28358.029600000002</v>
-      </c>
-      <c r="D220">
+        <v>28358.029699999999</v>
+      </c>
+      <c r="D220" s="11">
         <v>23771.751240000001</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="11">
         <v>2191.75</v>
       </c>
       <c r="F220">
@@ -53676,7 +53772,7 @@
         <v>13.711500000000001</v>
       </c>
       <c r="H220" s="11">
-        <v>9.3550000000000004</v>
+        <v>9.3277999999999999</v>
       </c>
       <c r="I220" s="11">
         <v>17.782</v>
@@ -53695,10 +53791,10 @@
       <c r="C221" s="11">
         <v>30563.311099999999</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="11">
         <v>24992.016899999999</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="11">
         <v>2195.2199999999998</v>
       </c>
       <c r="F221">
@@ -53708,7 +53804,7 @@
         <v>16.144200000000001</v>
       </c>
       <c r="H221" s="11">
-        <v>10.406700000000001</v>
+        <v>10.3697</v>
       </c>
       <c r="I221" s="11">
         <v>19.447600000000001</v>
@@ -53727,10 +53823,10 @@
       <c r="C222" s="11">
         <v>31107.169000000002</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="11">
         <v>25172.14243</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="11">
         <v>2192.91</v>
       </c>
       <c r="F222">
@@ -53740,7 +53836,7 @@
         <v>15.7674</v>
       </c>
       <c r="H222" s="11">
-        <v>10.552300000000001</v>
+        <v>10.5146</v>
       </c>
       <c r="I222" s="11">
         <v>19.4453</v>
@@ -53759,10 +53855,10 @@
       <c r="C223" s="11">
         <v>31417.268499999998</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="11">
         <v>26050.435310000001</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="11">
         <v>2192.85</v>
       </c>
       <c r="F223">
@@ -53772,7 +53868,7 @@
         <v>15.6988</v>
       </c>
       <c r="H223" s="11">
-        <v>10.4412</v>
+        <v>10.403700000000001</v>
       </c>
       <c r="I223" s="11">
         <v>19.712900000000001</v>
@@ -53791,10 +53887,10 @@
       <c r="C224" s="11">
         <v>32260.694100000001</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="11">
         <v>26407.247090000001</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="11">
         <v>2241.2600000000002</v>
       </c>
       <c r="F224">
@@ -53804,7 +53900,7 @@
         <v>16.6004</v>
       </c>
       <c r="H224" s="11">
-        <v>11.3355</v>
+        <v>11.3238</v>
       </c>
       <c r="I224" s="11">
         <v>19.894300000000001</v>
@@ -53821,12 +53917,12 @@
         <v>606.83270000000005</v>
       </c>
       <c r="C225" s="11">
-        <v>33903.673600000002</v>
-      </c>
-      <c r="D225">
+        <v>33903.673699999999</v>
+      </c>
+      <c r="D225" s="11">
         <v>27315.40899</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="11">
         <v>2250.34</v>
       </c>
       <c r="F225">
@@ -53836,7 +53932,7 @@
         <v>16.908799999999999</v>
       </c>
       <c r="H225" s="11">
-        <v>11.9335</v>
+        <v>11.921200000000001</v>
       </c>
       <c r="I225" s="11">
         <v>20.543500000000002</v>
@@ -53855,10 +53951,10 @@
       <c r="C226" s="11">
         <v>35918.452499999999</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="11">
         <v>27531.77778</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="11">
         <v>2237.9699999999998</v>
       </c>
       <c r="F226">
@@ -53868,7 +53964,7 @@
         <v>17.533899999999999</v>
       </c>
       <c r="H226" s="11">
-        <v>12.559900000000001</v>
+        <v>12.5235</v>
       </c>
       <c r="I226" s="11">
         <v>20.491</v>
@@ -53887,10 +53983,10 @@
       <c r="C227" s="11">
         <v>36491.226199999997</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="11">
         <v>27472.222280000002</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="11">
         <v>2235.0100000000002</v>
       </c>
       <c r="F227">
@@ -53900,7 +53996,7 @@
         <v>16.6372</v>
       </c>
       <c r="H227" s="11">
-        <v>13.136200000000001</v>
+        <v>13.0807</v>
       </c>
       <c r="I227" s="11">
         <v>20.454699999999999</v>
@@ -53919,10 +54015,10 @@
       <c r="C228" s="11">
         <v>36533.000999999997</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="11">
         <v>27387.84318</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="11">
         <v>2210.41</v>
       </c>
       <c r="F228">
@@ -53932,7 +54028,7 @@
         <v>17.179200000000002</v>
       </c>
       <c r="H228" s="11">
-        <v>12.925699999999999</v>
+        <v>12.8771</v>
       </c>
       <c r="I228" s="11">
         <v>20.0243</v>
@@ -53951,10 +54047,10 @@
       <c r="C229" s="11">
         <v>37031.973400000003</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="11">
         <v>28935.0128</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="11">
         <v>2151.4299999999998</v>
       </c>
       <c r="F229">
@@ -53964,7 +54060,7 @@
         <v>17.997599999999998</v>
       </c>
       <c r="H229" s="11">
-        <v>12.5869</v>
+        <v>12.535299999999999</v>
       </c>
       <c r="I229" s="11">
         <v>20.6706</v>
@@ -53983,10 +54079,10 @@
       <c r="C230" s="11">
         <v>35990.979700000004</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="11">
         <v>29692.6168</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="11">
         <v>2149.16</v>
       </c>
       <c r="F230">
@@ -53996,7 +54092,7 @@
         <v>17.0627</v>
       </c>
       <c r="H230" s="11">
-        <v>12.251099999999999</v>
+        <v>12.240600000000001</v>
       </c>
       <c r="I230" s="11">
         <v>20.544699999999999</v>
@@ -54015,10 +54111,10 @@
       <c r="C231" s="11">
         <v>37998.572</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="11">
         <v>29930.96761</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="11">
         <v>2154.02</v>
       </c>
       <c r="F231">
@@ -54028,7 +54124,7 @@
         <v>17.2332</v>
       </c>
       <c r="H231" s="11">
-        <v>13.011699999999999</v>
+        <v>13.000999999999999</v>
       </c>
       <c r="I231" s="11">
         <v>20.876200000000001</v>
@@ -54047,10 +54143,10 @@
       <c r="C232" s="11">
         <v>38494.382799999999</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="11">
         <v>31097.71297</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="11">
         <v>2164.65</v>
       </c>
       <c r="F232">
@@ -54060,7 +54156,7 @@
         <v>17.650099999999998</v>
       </c>
       <c r="H232" s="11">
-        <v>13.2265</v>
+        <v>13.2156</v>
       </c>
       <c r="I232" s="11">
         <v>21.620799999999999</v>
@@ -54079,10 +54175,10 @@
       <c r="C233" s="11">
         <v>39197.168700000002</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="11">
         <v>31211.9931</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="11">
         <v>2163.66</v>
       </c>
       <c r="F233">
@@ -54092,7 +54188,7 @@
         <v>17.010000000000002</v>
       </c>
       <c r="H233" s="11">
-        <v>13.2685</v>
+        <v>13.2189</v>
       </c>
       <c r="I233" s="11">
         <v>21.0124</v>
@@ -54109,12 +54205,12 @@
         <v>620.36400000000003</v>
       </c>
       <c r="C234" s="11">
-        <v>40087.219700000001</v>
-      </c>
-      <c r="D234">
+        <v>40087.219799999999</v>
+      </c>
+      <c r="D234" s="11">
         <v>31604.998189999998</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="11">
         <v>2178.69</v>
       </c>
       <c r="F234">
@@ -54124,7 +54220,7 @@
         <v>16.7532</v>
       </c>
       <c r="H234" s="11">
-        <v>13.537699999999999</v>
+        <v>13.5082</v>
       </c>
       <c r="I234" s="11">
         <v>21.097300000000001</v>
@@ -54143,10 +54239,10 @@
       <c r="C235" s="11">
         <v>41455.0651</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="11">
         <v>31698.735189999999</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="11">
         <v>2192.91</v>
       </c>
       <c r="F235">
@@ -54156,7 +54252,7 @@
         <v>16.5517</v>
       </c>
       <c r="H235" s="11">
-        <v>13.95</v>
+        <v>13.9199</v>
       </c>
       <c r="I235" s="11">
         <v>21.308</v>
@@ -54173,12 +54269,12 @@
         <v>644.01949999999999</v>
       </c>
       <c r="C236" s="11">
-        <v>41643.74</v>
-      </c>
-      <c r="D236">
+        <v>41643.744899999998</v>
+      </c>
+      <c r="D236" s="11">
         <v>31649.573240000002</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="11">
         <v>2189.36</v>
       </c>
       <c r="F236">
@@ -54188,7 +54284,7 @@
         <v>16.624199999999998</v>
       </c>
       <c r="H236" s="11">
-        <v>12.9353</v>
+        <v>12.8635</v>
       </c>
       <c r="I236" s="11">
         <v>20.973099999999999</v>
@@ -54205,12 +54301,12 @@
         <v>671.64009999999996</v>
       </c>
       <c r="C237" s="11">
-        <v>44118.721799999999</v>
-      </c>
-      <c r="D237">
+        <v>44118.726999999999</v>
+      </c>
+      <c r="D237" s="11">
         <v>32106.05126</v>
       </c>
-      <c r="E237">
+      <c r="E237" s="11">
         <v>2193.0100000000002</v>
       </c>
       <c r="F237">
@@ -54220,7 +54316,7 @@
         <v>17.153700000000001</v>
       </c>
       <c r="H237" s="11">
-        <v>13.703200000000001</v>
+        <v>13.6272</v>
       </c>
       <c r="I237" s="11">
         <v>21.119199999999999</v>
@@ -54237,12 +54333,12 @@
         <v>703.84760000000006</v>
       </c>
       <c r="C238" s="11">
-        <v>44509.861100000002</v>
-      </c>
-      <c r="D238">
+        <v>44509.866399999999</v>
+      </c>
+      <c r="D238" s="11">
         <v>31587.515609999999</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="11">
         <v>2216.75</v>
       </c>
       <c r="F238">
@@ -54252,7 +54348,7 @@
         <v>17.6995</v>
       </c>
       <c r="H238" s="11">
-        <v>14.0181</v>
+        <v>13.950200000000001</v>
       </c>
       <c r="I238" s="11">
         <v>21.068100000000001</v>
@@ -54269,12 +54365,12 @@
         <v>697.8827</v>
       </c>
       <c r="C239" s="11">
-        <v>44332.310400000002</v>
-      </c>
-      <c r="D239">
+        <v>44332.315799999997</v>
+      </c>
+      <c r="D239" s="11">
         <v>32431.192149999999</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="11">
         <v>2197.7460000000001</v>
       </c>
       <c r="F239">
@@ -54284,7 +54380,7 @@
         <v>16.810200000000002</v>
       </c>
       <c r="H239" s="11">
-        <v>12.9475</v>
+        <v>12.9041</v>
       </c>
       <c r="I239" s="11">
         <v>21.345700000000001</v>
@@ -54301,12 +54397,12 @@
         <v>707.81970000000001</v>
       </c>
       <c r="C240" s="11">
-        <v>45519.3338</v>
-      </c>
-      <c r="D240">
+        <v>45519.3393</v>
+      </c>
+      <c r="D240" s="11">
         <v>33156.956259999999</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="11">
         <v>2195.087</v>
       </c>
       <c r="F240">
@@ -54316,7 +54412,7 @@
         <v>17.127400000000002</v>
       </c>
       <c r="H240" s="11">
-        <v>13.274900000000001</v>
+        <v>13.2278</v>
       </c>
       <c r="I240" s="11">
         <v>21.7638</v>
@@ -54333,12 +54429,12 @@
         <v>694.41430000000003</v>
       </c>
       <c r="C241" s="11">
-        <v>46844.657700000003</v>
-      </c>
-      <c r="D241">
+        <v>46844.663399999998</v>
+      </c>
+      <c r="D241" s="11">
         <v>34052.196739999999</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="11">
         <v>2192.0700000000002</v>
       </c>
       <c r="F241">
@@ -54348,7 +54444,7 @@
         <v>16.852599999999999</v>
       </c>
       <c r="H241" s="11">
-        <v>13.4598</v>
+        <v>13.4087</v>
       </c>
       <c r="I241" s="11">
         <v>22.3094</v>
@@ -54365,12 +54461,12 @@
         <v>702.78740000000005</v>
       </c>
       <c r="C242" s="11">
-        <v>47316.6754</v>
-      </c>
-      <c r="D242">
+        <v>47316.681199999999</v>
+      </c>
+      <c r="D242" s="11">
         <v>33917.865489999996</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="11">
         <v>2198.8449999999998</v>
       </c>
       <c r="F242">
@@ -54380,7 +54476,7 @@
         <v>16.3626</v>
       </c>
       <c r="H242" s="11">
-        <v>12.3904</v>
+        <v>13.495900000000001</v>
       </c>
       <c r="I242" s="11">
         <v>21.811699999999998</v>
@@ -54397,12 +54493,12 @@
         <v>765.59950000000003</v>
       </c>
       <c r="C243" s="11">
-        <v>50195.9179</v>
-      </c>
-      <c r="D243">
+        <v>50195.923999999999</v>
+      </c>
+      <c r="D243" s="11">
         <v>34650.63063</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="11">
         <v>2168.9650000000001</v>
       </c>
       <c r="F243">
@@ -54412,7 +54508,7 @@
         <v>17.238700000000001</v>
       </c>
       <c r="H243" s="11">
-        <v>13.6196</v>
+        <v>14.648400000000001</v>
       </c>
       <c r="I243" s="11">
         <v>22.975300000000001</v>
@@ -54429,12 +54525,12 @@
         <v>711.95249999999999</v>
       </c>
       <c r="C244" s="11">
-        <v>47484.452299999997</v>
-      </c>
-      <c r="D244">
+        <v>47484.458100000003</v>
+      </c>
+      <c r="D244" s="11">
         <v>33605.517789999998</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="11">
         <v>2152.627</v>
       </c>
       <c r="F244">
@@ -54444,7 +54540,7 @@
         <v>16.4452</v>
       </c>
       <c r="H244" s="11">
-        <v>12.762599999999999</v>
+        <v>13.775700000000001</v>
       </c>
       <c r="I244" s="11">
         <v>21.9878</v>
@@ -54461,12 +54557,12 @@
         <v>696.91989999999998</v>
       </c>
       <c r="C245" s="11">
-        <v>46046.388200000001</v>
-      </c>
-      <c r="D245">
+        <v>46046.393799999998</v>
+      </c>
+      <c r="D245" s="11">
         <v>32609.203160000001</v>
       </c>
-      <c r="E245">
+      <c r="E245" s="11">
         <v>2172.9290000000001</v>
       </c>
       <c r="F245">
@@ -54476,7 +54572,7 @@
         <v>15.5298</v>
       </c>
       <c r="H245" s="11">
-        <v>11.948700000000001</v>
+        <v>12.7903</v>
       </c>
       <c r="I245" s="11">
         <v>20.323599999999999</v>
@@ -54493,12 +54589,12 @@
         <v>672.73289999999997</v>
       </c>
       <c r="C246" s="11">
-        <v>47537.6829</v>
-      </c>
-      <c r="D246">
+        <v>47537.688699999999</v>
+      </c>
+      <c r="D246" s="11">
         <v>32959.186269999998</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="11">
         <v>2155.3330000000001</v>
       </c>
       <c r="F246">
@@ -54508,7 +54604,7 @@
         <v>15.1182</v>
       </c>
       <c r="H246" s="11">
-        <v>12.239800000000001</v>
+        <v>13.0844</v>
       </c>
       <c r="I246" s="11">
         <v>20.278099999999998</v>
@@ -54525,12 +54621,12 @@
         <v>670.02790000000005</v>
       </c>
       <c r="C247" s="11">
-        <v>47829.535400000001</v>
-      </c>
-      <c r="D247">
+        <v>47829.5412</v>
+      </c>
+      <c r="D247" s="11">
         <v>34091.148240000002</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="11">
         <v>2174.6836499999999</v>
       </c>
       <c r="F247">
@@ -54540,7 +54636,7 @@
         <v>15.151299999999999</v>
       </c>
       <c r="H247" s="11">
-        <v>12.083600000000001</v>
+        <v>12.9841</v>
       </c>
       <c r="I247" s="11">
         <v>20.5822</v>
@@ -54557,12 +54653,12 @@
         <v>601.21569999999997</v>
       </c>
       <c r="C248" s="11">
-        <v>47175.075400000002</v>
-      </c>
-      <c r="D248">
+        <v>47175.081200000001</v>
+      </c>
+      <c r="D248" s="11">
         <v>35443.362840000002</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="11">
         <v>2175.127</v>
       </c>
       <c r="F248">
@@ -54572,7 +54668,7 @@
         <v>13.472</v>
       </c>
       <c r="H248" s="11">
-        <v>10.9018</v>
+        <v>11.716100000000001</v>
       </c>
       <c r="I248" s="11">
         <v>19.763100000000001</v>
@@ -54589,12 +54685,12 @@
         <v>595.41759999999999</v>
       </c>
       <c r="C249" s="11">
-        <v>48347.516199999998</v>
-      </c>
-      <c r="D249">
+        <v>48347.522100000002</v>
+      </c>
+      <c r="D249" s="11">
         <v>37863.492109999999</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="11">
         <v>2166.0300000000002</v>
       </c>
       <c r="F249">
@@ -54604,7 +54700,7 @@
         <v>13.581</v>
       </c>
       <c r="H249" s="11">
-        <v>10.761699999999999</v>
+        <v>11.5718</v>
       </c>
       <c r="I249" s="11">
         <v>20.415299999999998</v>
@@ -54621,12 +54717,12 @@
         <v>563.54819999999995</v>
       </c>
       <c r="C250" s="11">
-        <v>47445.849800000004</v>
-      </c>
-      <c r="D250">
+        <v>47445.855499999998</v>
+      </c>
+      <c r="D250" s="11">
         <v>39191.221960000003</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="11">
         <v>2182.5970000000002</v>
       </c>
       <c r="F250">
@@ -54636,7 +54732,7 @@
         <v>12.6998</v>
       </c>
       <c r="H250" s="11">
-        <v>10.499499999999999</v>
+        <v>11.2889</v>
       </c>
       <c r="I250" s="11">
         <v>20.9497</v>
@@ -54653,12 +54749,12 @@
         <v>581.63699999999994</v>
       </c>
       <c r="C251" s="11">
-        <v>47824.032800000001</v>
-      </c>
-      <c r="D251">
+        <v>47824.038699999997</v>
+      </c>
+      <c r="D251" s="11">
         <v>39589.508320000001</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="11">
         <v>2162.2199999999998</v>
       </c>
       <c r="F251">
@@ -54668,7 +54764,7 @@
         <v>13.0345</v>
       </c>
       <c r="H251" s="11">
-        <v>10.5497</v>
+        <v>11.482699999999999</v>
       </c>
       <c r="I251" s="11">
         <v>19.274799999999999</v>
@@ -54685,12 +54781,12 @@
         <v>528.43830000000003</v>
       </c>
       <c r="C252" s="11">
-        <v>43634.350599999998</v>
-      </c>
-      <c r="D252">
+        <v>43634.355900000002</v>
+      </c>
+      <c r="D252" s="11">
         <v>37456.488340000004</v>
       </c>
-      <c r="E252">
+      <c r="E252" s="11">
         <v>2151.8919999999998</v>
       </c>
       <c r="F252">
@@ -54700,7 +54796,7 @@
         <v>12.0412</v>
       </c>
       <c r="H252" s="11">
-        <v>9.5032999999999994</v>
+        <v>10.311400000000001</v>
       </c>
       <c r="I252" s="11">
         <v>18.540500000000002</v>
@@ -54717,25 +54813,25 @@
         <v>526.79880000000003</v>
       </c>
       <c r="C253" s="11">
-        <v>46344.037300000004</v>
-      </c>
-      <c r="D253">
+        <v>46344.042999999998</v>
+      </c>
+      <c r="D253" s="11">
         <v>38128.282579999999</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="11">
         <v>2170.9929999999999</v>
       </c>
       <c r="F253">
         <v>1.5</v>
       </c>
       <c r="G253" s="11">
-        <v>12.022500000000001</v>
+        <v>12.261799999999999</v>
       </c>
       <c r="H253" s="11">
-        <v>10.0825</v>
+        <v>11.076700000000001</v>
       </c>
       <c r="I253" s="11">
-        <v>18.8566</v>
+        <v>18.8355</v>
       </c>
       <c r="J253" s="11">
         <v>2.125</v>
@@ -54749,25 +54845,25 @@
         <v>513.63480000000004</v>
       </c>
       <c r="C254" s="11">
-        <v>44628.047599999998</v>
-      </c>
-      <c r="D254">
+        <v>44628.053</v>
+      </c>
+      <c r="D254" s="11">
         <v>34283.957269999999</v>
       </c>
-      <c r="E254">
+      <c r="E254" s="11">
         <v>2217.6999999999998</v>
       </c>
       <c r="F254">
         <v>1.5</v>
       </c>
       <c r="G254" s="11">
-        <v>12.332800000000001</v>
+        <v>12.0341</v>
       </c>
       <c r="H254" s="11">
-        <v>10.0899</v>
+        <v>10.9686</v>
       </c>
       <c r="I254" s="11">
-        <v>16.5303</v>
+        <v>16.528700000000001</v>
       </c>
       <c r="J254" s="11">
         <v>2.375</v>
@@ -54781,25 +54877,25 @@
         <v>546.44060000000002</v>
       </c>
       <c r="C255" s="11">
-        <v>46923.5337</v>
-      </c>
-      <c r="D255">
+        <v>46923.539400000001</v>
+      </c>
+      <c r="D255" s="11">
         <v>36072.474450000002</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="11">
         <v>2228.1350000000002</v>
       </c>
       <c r="F255">
         <v>1.5</v>
       </c>
       <c r="G255" s="11">
-        <v>12.7805</v>
+        <v>12.4848</v>
       </c>
       <c r="H255" s="11">
-        <v>10.9084</v>
+        <v>11.860900000000001</v>
       </c>
       <c r="I255" s="11">
-        <v>17.859300000000001</v>
+        <v>17.857500000000002</v>
       </c>
       <c r="J255" s="11">
         <v>2.375</v>
@@ -54813,25 +54909,25 @@
         <v>622.41049999999996</v>
       </c>
       <c r="C256" s="11">
-        <v>48127.268199999999</v>
-      </c>
-      <c r="D256">
+        <v>48127.273999999998</v>
+      </c>
+      <c r="D256" s="11">
         <v>37193.47711</v>
       </c>
-      <c r="E256">
+      <c r="E256" s="11">
         <v>2222.1</v>
       </c>
       <c r="F256">
         <v>1.5</v>
       </c>
       <c r="G256" s="11">
-        <v>14.537599999999999</v>
+        <v>14.241400000000001</v>
       </c>
       <c r="H256" s="11">
-        <v>11.178100000000001</v>
+        <v>12.1854</v>
       </c>
       <c r="I256" s="11">
-        <v>18.404800000000002</v>
+        <v>18.394500000000001</v>
       </c>
       <c r="J256" s="11">
         <v>2.375</v>
@@ -54845,25 +54941,25 @@
         <v>652.37009999999998</v>
       </c>
       <c r="C257" s="11">
-        <v>49027.340900000003</v>
-      </c>
-      <c r="D257">
+        <v>49027.346899999997</v>
+      </c>
+      <c r="D257" s="11">
         <v>38020.421970000003</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="11">
         <v>2264.5230000000001</v>
       </c>
       <c r="F257">
         <v>1.5</v>
       </c>
       <c r="G257" s="11">
-        <v>14.913399999999999</v>
+        <v>14.6553</v>
       </c>
       <c r="H257" s="11">
-        <v>11.4781</v>
+        <v>12.557499999999999</v>
       </c>
       <c r="I257" s="11">
-        <v>18.676100000000002</v>
+        <v>18.6477</v>
       </c>
       <c r="J257" s="11">
         <v>2.375</v>
@@ -54877,25 +54973,25 @@
         <v>647.74739999999997</v>
       </c>
       <c r="C258" s="11">
-        <v>50329.855100000001</v>
-      </c>
-      <c r="D258">
+        <v>50329.861199999999</v>
+      </c>
+      <c r="D258" s="11">
         <v>39693.631589999997</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="11">
         <v>2258.2359999999999</v>
       </c>
       <c r="F258">
         <v>1.5</v>
       </c>
       <c r="G258" s="11">
-        <v>14.866</v>
+        <v>14.6144</v>
       </c>
       <c r="H258" s="11">
-        <v>11.734</v>
+        <v>12.8436</v>
       </c>
       <c r="I258" s="11">
-        <v>19.39</v>
+        <v>19.360600000000002</v>
       </c>
       <c r="J258" s="11">
         <v>2.375</v>
@@ -54909,25 +55005,25 @@
         <v>596.62189999999998</v>
       </c>
       <c r="C259" s="11">
-        <v>47291.406000000003</v>
-      </c>
-      <c r="D259">
+        <v>47291.411699999997</v>
+      </c>
+      <c r="D259" s="11">
         <v>38111.111279999997</v>
       </c>
-      <c r="E259">
+      <c r="E259" s="11">
         <v>2311.308</v>
       </c>
       <c r="F259">
         <v>1.5</v>
       </c>
       <c r="G259" s="11">
-        <v>14.0078</v>
+        <v>13.767099999999999</v>
       </c>
       <c r="H259" s="11">
-        <v>10.628500000000001</v>
+        <v>11.6494</v>
       </c>
       <c r="I259" s="11">
-        <v>18.170400000000001</v>
+        <v>18.142800000000001</v>
       </c>
       <c r="J259" s="11">
         <v>2.375</v>
@@ -54941,7 +55037,7 @@
         <v>622.32270000000005</v>
       </c>
       <c r="C260" s="11">
-        <v>50367.894999999997</v>
+        <v>50367.9012</v>
       </c>
       <c r="D260" s="11">
         <v>40570.771099999998</v>
@@ -54953,13 +55049,13 @@
         <v>1.5</v>
       </c>
       <c r="G260" s="11">
-        <v>14.363300000000001</v>
+        <v>14.1629</v>
       </c>
       <c r="H260" s="11">
-        <v>11.198</v>
+        <v>12.1609</v>
       </c>
       <c r="I260" s="11">
-        <v>19.333300000000001</v>
+        <v>19.2959</v>
       </c>
       <c r="J260" s="11">
         <v>2.375</v>
@@ -54973,7 +55069,7 @@
         <v>616.66120000000001</v>
       </c>
       <c r="C261" s="11">
-        <v>49227.229099999997</v>
+        <v>49227.235099999998</v>
       </c>
       <c r="D261" s="11">
         <v>41258.180910000003</v>
@@ -54985,13 +55081,13 @@
         <v>1.5</v>
       </c>
       <c r="G261" s="11">
-        <v>14.1906</v>
+        <v>14.0091</v>
       </c>
       <c r="H261" s="11">
-        <v>10.8979</v>
+        <v>11.9095</v>
       </c>
       <c r="I261" s="11">
-        <v>19.593</v>
+        <v>19.555099999999999</v>
       </c>
       <c r="J261" s="11">
         <v>2.125</v>
@@ -55005,7 +55101,7 @@
         <v>584.52110000000005</v>
       </c>
       <c r="C262" s="11">
-        <v>47486.824699999997</v>
+        <v>47486.830499999996</v>
       </c>
       <c r="D262" s="11">
         <v>42211.862639999999</v>
@@ -55017,13 +55113,13 @@
         <v>1.5</v>
       </c>
       <c r="G262" s="11">
-        <v>14.0078</v>
+        <v>13.860900000000001</v>
       </c>
       <c r="H262" s="11">
-        <v>10.0924</v>
+        <v>10.9954</v>
       </c>
       <c r="I262" s="11">
-        <v>19.290800000000001</v>
+        <v>19.250299999999999</v>
       </c>
       <c r="J262" s="11">
         <v>2.125</v>
@@ -55037,7 +55133,7 @@
         <v>589.7056</v>
       </c>
       <c r="C263" s="11">
-        <v>48332.088600000003</v>
+        <v>48332.094499999999</v>
       </c>
       <c r="D263" s="11">
         <v>42951.804759999999</v>
@@ -55049,13 +55145,13 @@
         <v>1.5</v>
       </c>
       <c r="G263" s="11">
-        <v>14.0128</v>
+        <v>13.797800000000001</v>
       </c>
       <c r="H263" s="11">
-        <v>10.1571</v>
+        <v>11.0685</v>
       </c>
       <c r="I263" s="11">
-        <v>19.741399999999999</v>
+        <v>19.739100000000001</v>
       </c>
       <c r="J263" s="11">
         <v>1.875</v>
@@ -55069,7 +55165,7 @@
         <v>603.84010000000001</v>
       </c>
       <c r="C264" s="11">
-        <v>49162.905500000001</v>
+        <v>49162.911500000002</v>
       </c>
       <c r="D264" s="11">
         <v>43208.678849999997</v>
@@ -55081,15 +55177,47 @@
         <v>1.5</v>
       </c>
       <c r="G264" s="11">
-        <v>14.122299999999999</v>
+        <v>13.9336</v>
       </c>
       <c r="H264" s="11">
-        <v>10.4742</v>
+        <v>11.401199999999999</v>
       </c>
       <c r="I264" s="11">
-        <v>20.150200000000002</v>
+        <v>20.151900000000001</v>
       </c>
       <c r="J264" s="11">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A265" s="14">
+        <v>43799</v>
+      </c>
+      <c r="B265" s="11">
+        <v>592.64940000000001</v>
+      </c>
+      <c r="C265" s="11">
+        <v>48209.248</v>
+      </c>
+      <c r="D265" s="11">
+        <v>44738.306859999997</v>
+      </c>
+      <c r="E265" s="11">
+        <v>2383.1559999999999</v>
+      </c>
+      <c r="F265" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G265" s="11">
+        <v>13.6646</v>
+      </c>
+      <c r="H265" s="11">
+        <v>11.1607</v>
+      </c>
+      <c r="I265" s="11">
+        <v>20.887699999999999</v>
+      </c>
+      <c r="J265" s="11">
         <v>1.625</v>
       </c>
     </row>
@@ -55100,12 +55228,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092D009767D8655449CF3F619221E6FC9" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a9cc7619d051142a9736d131249ee2bd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="711b5f35d88f7f6ebfe284b0f73f4393">
     <xsd:element name="properties">
@@ -55219,16 +55356,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD70034E-2A52-426E-92C4-520D5226A98D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340ECE23-F605-459D-B71A-70F1326DFCAC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -55243,7 +55379,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47837732-E462-4DB6-B7D8-8CC8127F8D3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55257,12 +55393,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD70034E-2A52-426E-92C4-520D5226A98D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/strategy/全球购策略/data/global strategy data.xlsx
+++ b/strategy/全球购策略/data/global strategy data.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hfm-pubshare\HFM各部门共享\Harvest嘉实全体员工\策略孵化组\多重风管分组审核\zhangyang\江苏银行全球购策略\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19440" windowHeight="8055" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19440" windowHeight="8055" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ForThomas" sheetId="16" state="hidden" r:id="rId1"/>
     <sheet name="数据" sheetId="1" r:id="rId2"/>
     <sheet name="data" sheetId="28" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>robertchen</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
     <author>robertchen</author>
   </authors>
   <commentList>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -433,7 +438,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>curr=usd</stp>
-        <stp>cols=2;rows=252</stp>
+        <stp>cols=2;rows=255</stp>
         <tr r="A4" s="1"/>
       </tp>
       <tp t="s">
@@ -467,7 +472,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>fx=cny</stp>
-        <stp>cols=1;rows=252</stp>
+        <stp>cols=1;rows=255</stp>
         <tr r="F4" s="1"/>
       </tp>
       <tp>
@@ -490,7 +495,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>fx=cny</stp>
-        <stp>cols=1;rows=252</stp>
+        <stp>cols=1;rows=255</stp>
         <tr r="G4" s="1"/>
       </tp>
       <tp>
@@ -513,7 +518,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>fx=cny</stp>
-        <stp>cols=1;rows=252</stp>
+        <stp>cols=1;rows=255</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp t="s">
@@ -554,7 +559,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp/>
-        <stp>cols=1;rows=252</stp>
+        <stp>cols=1;rows=255</stp>
         <tr r="J4" s="1"/>
       </tp>
       <tp>
@@ -577,7 +582,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>fx=cny</stp>
-        <stp>cols=1;rows=252</stp>
+        <stp>cols=1;rows=255</stp>
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
@@ -609,7 +614,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>fx=cny</stp>
-        <stp>cols=1;rows=252</stp>
+        <stp>cols=1;rows=255</stp>
         <tr r="E4" s="1"/>
       </tp>
       <tp>
@@ -632,7 +637,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>fx=cny</stp>
-        <stp>cols=1;rows=252</stp>
+        <stp>cols=1;rows=255</stp>
         <tr r="H4" s="1"/>
       </tp>
       <tp>
@@ -655,7 +660,7 @@
         <stp>Fill=P</stp>
         <stp>UseDPDF=Y</stp>
         <stp>fx=cny</stp>
-        <stp>cols=1;rows=252</stp>
+        <stp>cols=1;rows=255</stp>
         <tr r="I4" s="1"/>
       </tp>
     </main>
@@ -3242,13 +3247,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="157796224"/>
-        <c:axId val="157797760"/>
+        <c:axId val="706972760"/>
+        <c:axId val="706975896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="157796224"/>
+        <c:axId val="706972760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3258,7 +3262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157797760"/>
+        <c:crossAx val="706975896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3267,7 +3271,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="157797760"/>
+        <c:axId val="706975896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3277,7 +3281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157796224"/>
+        <c:crossAx val="706972760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
@@ -4193,13 +4197,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="157810048"/>
-        <c:axId val="157824128"/>
+        <c:axId val="706980208"/>
+        <c:axId val="706974328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="157810048"/>
+        <c:axId val="706980208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4209,7 +4212,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="157824128"/>
+        <c:crossAx val="706974328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4218,7 +4221,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="157824128"/>
+        <c:axId val="706974328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4228,7 +4231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157810048"/>
+        <c:crossAx val="706980208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5155,8 +5158,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157684096"/>
-        <c:axId val="157874816"/>
+        <c:axId val="706970016"/>
+        <c:axId val="706980600"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6833,11 +6836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="157859200"/>
-        <c:axId val="157873280"/>
+        <c:axId val="706975112"/>
+        <c:axId val="706971584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="157859200"/>
+        <c:axId val="706975112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6847,7 +6850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157873280"/>
+        <c:crossAx val="706971584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6856,7 +6859,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="157873280"/>
+        <c:axId val="706971584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6866,13 +6869,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157859200"/>
+        <c:crossAx val="706975112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157874816"/>
+        <c:axId val="706980600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6882,13 +6885,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157684096"/>
+        <c:crossAx val="706970016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="157684096"/>
+        <c:axId val="706970016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6898,7 +6901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="157874816"/>
+        <c:crossAx val="706980600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7827,13 +7830,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="157716864"/>
-        <c:axId val="157718400"/>
+        <c:axId val="706979424"/>
+        <c:axId val="706970408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="157716864"/>
+        <c:axId val="706979424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7843,7 +7845,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="157718400"/>
+        <c:crossAx val="706970408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7852,7 +7854,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="157718400"/>
+        <c:axId val="706970408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7862,7 +7864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157716864"/>
+        <c:crossAx val="706979424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8761,13 +8763,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="157734400"/>
-        <c:axId val="157735936"/>
+        <c:axId val="706970800"/>
+        <c:axId val="706978640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="157734400"/>
+        <c:axId val="706970800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8777,7 +8778,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="157735936"/>
+        <c:crossAx val="706978640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -8786,7 +8787,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="157735936"/>
+        <c:axId val="706978640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8796,7 +8797,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157734400"/>
+        <c:crossAx val="706970800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9710,13 +9711,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="175127168"/>
-        <c:axId val="175128960"/>
+        <c:axId val="706977072"/>
+        <c:axId val="706971192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="175127168"/>
+        <c:axId val="706977072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9726,7 +9726,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="175128960"/>
+        <c:crossAx val="706971192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -9735,7 +9735,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="175128960"/>
+        <c:axId val="706971192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9745,7 +9745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175127168"/>
+        <c:crossAx val="706977072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11522,13 +11522,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="175158784"/>
-        <c:axId val="175160320"/>
+        <c:axId val="706976288"/>
+        <c:axId val="706976680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="175158784"/>
+        <c:axId val="706976288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11538,7 +11537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175160320"/>
+        <c:crossAx val="706976680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -11547,7 +11546,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="175160320"/>
+        <c:axId val="706976680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -11558,7 +11557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175158784"/>
+        <c:crossAx val="706976288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -11796,7 +11795,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11838,7 +11837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11873,7 +11872,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -30428,12 +30427,12 @@
   </sheetPr>
   <dimension ref="A1:S340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B210" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="E235" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L4741" sqref="L4741"/>
       <selection pane="topRight" activeCell="L4741" sqref="L4741"/>
       <selection pane="bottomLeft" activeCell="L4741" sqref="L4741"/>
-      <selection pane="bottomRight" activeCell="Q255" sqref="Q255"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17:I258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30578,42 +30577,42 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
-        <f>_xll.BDH(B$2,B$3,$A$1,"","Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","curr=usd","cols=2;rows=252")</f>
+        <f>_xll.BDH(B$2,B$3,$A$1,"","Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","curr=usd","cols=2;rows=255")</f>
         <v>36160</v>
       </c>
       <c r="B4" s="11">
         <v>138.5087</v>
       </c>
       <c r="C4" s="11">
-        <f>_xll.BDH(C$2,C$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=252")</f>
+        <f>_xll.BDH(C$2,C$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=255")</f>
         <v>10739.890100000001</v>
       </c>
       <c r="D4" s="11">
-        <f>_xll.BDH(D$2,D$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=252")</f>
+        <f>_xll.BDH(D$2,D$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=255")</f>
         <v>13825.812669999999</v>
       </c>
       <c r="E4" s="11">
-        <f>_xll.BDH(E$2,E$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=252")</f>
+        <f>_xll.BDH(E$2,E$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=255")</f>
         <v>983.5</v>
       </c>
       <c r="F4" s="11">
-        <f>_xll.BDH(F$2,F$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=252")</f>
+        <f>_xll.BDH(F$2,F$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=255")</f>
         <v>3.7800000000000002</v>
       </c>
       <c r="G4" s="11">
-        <f>_xll.BDH(G$2,G$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=252")</f>
+        <f>_xll.BDH(G$2,G$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=255")</f>
         <v>44.5062</v>
       </c>
       <c r="H4" s="11">
-        <f>_xll.BDH(H$2,H$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=252")</f>
+        <f>_xll.BDH(H$2,H$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=255")</f>
         <v>12.229699999999999</v>
       </c>
       <c r="I4" s="11">
-        <f>_xll.BDH(I$2,I$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=252")</f>
+        <f>_xll.BDH(I$2,I$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=255")</f>
         <v>28.1556</v>
       </c>
       <c r="J4" s="11">
-        <f>_xll.BDH(J$2,J$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","","cols=1;rows=252")</f>
+        <f>_xll.BDH(J$2,J$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","","cols=1;rows=255")</f>
         <v>4.75</v>
       </c>
       <c r="K4" s="11" t="s">
@@ -44199,10 +44198,10 @@
         <v>16.3626</v>
       </c>
       <c r="H232" s="11">
-        <v>13.495900000000001</v>
+        <v>12.3942</v>
       </c>
       <c r="I232" s="11">
-        <v>21.811699999999998</v>
+        <v>21.817399999999999</v>
       </c>
       <c r="J232" s="11">
         <v>1.375</v>
@@ -44259,10 +44258,10 @@
         <v>17.238700000000001</v>
       </c>
       <c r="H233" s="11">
-        <v>14.648400000000001</v>
+        <v>13.623799999999999</v>
       </c>
       <c r="I233" s="11">
-        <v>22.975300000000001</v>
+        <v>22.8781</v>
       </c>
       <c r="J233" s="11">
         <v>1.375</v>
@@ -44319,10 +44318,10 @@
         <v>16.4452</v>
       </c>
       <c r="H234" s="11">
-        <v>13.775700000000001</v>
+        <v>12.7652</v>
       </c>
       <c r="I234" s="11">
-        <v>21.9878</v>
+        <v>21.9071</v>
       </c>
       <c r="J234" s="11">
         <v>1.375</v>
@@ -44379,10 +44378,10 @@
         <v>15.5298</v>
       </c>
       <c r="H235" s="11">
-        <v>12.7903</v>
+        <v>11.956200000000001</v>
       </c>
       <c r="I235" s="11">
-        <v>20.323599999999999</v>
+        <v>20.305599999999998</v>
       </c>
       <c r="J235" s="11">
         <v>1.625</v>
@@ -44439,10 +44438,10 @@
         <v>15.1182</v>
       </c>
       <c r="H236" s="11">
-        <v>13.0844</v>
+        <v>12.2403</v>
       </c>
       <c r="I236" s="11">
-        <v>20.278099999999998</v>
+        <v>20.2607</v>
       </c>
       <c r="J236" s="11">
         <v>1.625</v>
@@ -44499,10 +44498,10 @@
         <v>15.151299999999999</v>
       </c>
       <c r="H237" s="11">
-        <v>12.9841</v>
+        <v>12.1053</v>
       </c>
       <c r="I237" s="11">
-        <v>20.5822</v>
+        <v>20.564499999999999</v>
       </c>
       <c r="J237" s="11">
         <v>1.625</v>
@@ -44559,10 +44558,10 @@
         <v>13.472</v>
       </c>
       <c r="H238" s="11">
-        <v>11.716100000000001</v>
+        <v>10.9581</v>
       </c>
       <c r="I238" s="11">
-        <v>19.763100000000001</v>
+        <v>19.8249</v>
       </c>
       <c r="J238" s="11">
         <v>1.875</v>
@@ -44619,10 +44618,10 @@
         <v>13.581</v>
       </c>
       <c r="H239" s="11">
-        <v>11.5718</v>
+        <v>10.8172</v>
       </c>
       <c r="I239" s="11">
-        <v>20.415299999999998</v>
+        <v>20.481400000000001</v>
       </c>
       <c r="J239" s="11">
         <v>1.875</v>
@@ -44679,10 +44678,10 @@
         <v>12.6998</v>
       </c>
       <c r="H240" s="11">
-        <v>11.2889</v>
+        <v>10.554399999999999</v>
       </c>
       <c r="I240" s="11">
-        <v>20.9497</v>
+        <v>21.019500000000001</v>
       </c>
       <c r="J240" s="11">
         <v>1.875</v>
@@ -44739,10 +44738,10 @@
         <v>13.0345</v>
       </c>
       <c r="H241" s="11">
-        <v>11.482699999999999</v>
+        <v>10.6067</v>
       </c>
       <c r="I241" s="11">
-        <v>19.274799999999999</v>
+        <v>19.975300000000001</v>
       </c>
       <c r="J241" s="11">
         <v>2.125</v>
@@ -44799,10 +44798,10 @@
         <v>12.0412</v>
       </c>
       <c r="H242" s="11">
-        <v>10.311400000000001</v>
+        <v>9.5345999999999993</v>
       </c>
       <c r="I242" s="11">
-        <v>18.540500000000002</v>
+        <v>18.590900000000001</v>
       </c>
       <c r="J242" s="11">
         <v>2.125</v>
@@ -44859,10 +44858,10 @@
         <v>12.261799999999999</v>
       </c>
       <c r="H243" s="11">
-        <v>11.076700000000001</v>
+        <v>10.1175</v>
       </c>
       <c r="I243" s="11">
-        <v>18.8355</v>
+        <v>18.8611</v>
       </c>
       <c r="J243" s="11">
         <v>2.125</v>
@@ -44916,13 +44915,13 @@
         <v>1.5</v>
       </c>
       <c r="G244" s="11">
-        <v>12.0341</v>
+        <v>12.3338</v>
       </c>
       <c r="H244" s="11">
-        <v>10.9686</v>
+        <v>10.1205</v>
       </c>
       <c r="I244" s="11">
-        <v>16.528700000000001</v>
+        <v>16.616099999999999</v>
       </c>
       <c r="J244" s="11">
         <v>2.375</v>
@@ -44976,13 +44975,13 @@
         <v>1.5</v>
       </c>
       <c r="G245" s="11">
-        <v>12.4848</v>
+        <v>12.780100000000001</v>
       </c>
       <c r="H245" s="11">
-        <v>11.860900000000001</v>
+        <v>10.941599999999999</v>
       </c>
       <c r="I245" s="11">
-        <v>17.857500000000002</v>
+        <v>17.952200000000001</v>
       </c>
       <c r="J245" s="11">
         <v>2.375</v>
@@ -45036,13 +45035,13 @@
         <v>1.5</v>
       </c>
       <c r="G246" s="11">
-        <v>14.241400000000001</v>
+        <v>14.5372</v>
       </c>
       <c r="H246" s="11">
-        <v>12.1854</v>
+        <v>11.1812</v>
       </c>
       <c r="I246" s="11">
-        <v>18.394500000000001</v>
+        <v>18.5002</v>
       </c>
       <c r="J246" s="11">
         <v>2.375</v>
@@ -45096,13 +45095,13 @@
         <v>1.5</v>
       </c>
       <c r="G247" s="11">
-        <v>14.6553</v>
+        <v>14.913</v>
       </c>
       <c r="H247" s="11">
-        <v>12.557499999999999</v>
+        <v>11.481299999999999</v>
       </c>
       <c r="I247" s="11">
-        <v>18.6477</v>
+        <v>18.6907</v>
       </c>
       <c r="J247" s="11">
         <v>2.375</v>
@@ -45156,13 +45155,13 @@
         <v>1.5</v>
       </c>
       <c r="G248" s="11">
-        <v>14.6144</v>
+        <v>14.865600000000001</v>
       </c>
       <c r="H248" s="11">
-        <v>12.8436</v>
+        <v>11.737299999999999</v>
       </c>
       <c r="I248" s="11">
-        <v>19.360600000000002</v>
+        <v>19.4071</v>
       </c>
       <c r="J248" s="11">
         <v>2.375</v>
@@ -45216,13 +45215,13 @@
         <v>1.5</v>
       </c>
       <c r="G249" s="11">
-        <v>13.767099999999999</v>
+        <v>14.0075</v>
       </c>
       <c r="H249" s="11">
-        <v>11.6494</v>
+        <v>10.631499999999999</v>
       </c>
       <c r="I249" s="11">
-        <v>18.142800000000001</v>
+        <v>18.186</v>
       </c>
       <c r="J249" s="11">
         <v>2.375</v>
@@ -45276,13 +45275,13 @@
         <v>1.5</v>
       </c>
       <c r="G250" s="11">
-        <v>14.1629</v>
+        <v>14.3582</v>
       </c>
       <c r="H250" s="11">
-        <v>12.1609</v>
+        <v>11.198</v>
       </c>
       <c r="I250" s="11">
-        <v>19.2959</v>
+        <v>19.280200000000001</v>
       </c>
       <c r="J250" s="11">
         <v>2.375</v>
@@ -45336,13 +45335,13 @@
         <v>1.5</v>
       </c>
       <c r="G251" s="11">
-        <v>14.0091</v>
+        <v>14.185499999999999</v>
       </c>
       <c r="H251" s="11">
-        <v>11.9095</v>
+        <v>10.8979</v>
       </c>
       <c r="I251" s="11">
-        <v>19.555099999999999</v>
+        <v>19.5382</v>
       </c>
       <c r="J251" s="11">
         <v>2.125</v>
@@ -45396,13 +45395,13 @@
         <v>1.5</v>
       </c>
       <c r="G252" s="11">
-        <v>13.860900000000001</v>
+        <v>14.002800000000001</v>
       </c>
       <c r="H252" s="11">
-        <v>10.9954</v>
+        <v>10.092499999999999</v>
       </c>
       <c r="I252" s="11">
-        <v>19.250299999999999</v>
+        <v>19.234200000000001</v>
       </c>
       <c r="J252" s="11">
         <v>2.125</v>
@@ -45456,13 +45455,13 @@
         <v>1.5</v>
       </c>
       <c r="G253" s="11">
-        <v>13.797800000000001</v>
+        <v>14.0075</v>
       </c>
       <c r="H253" s="11">
-        <v>11.0685</v>
+        <v>10.1968</v>
       </c>
       <c r="I253" s="11">
-        <v>19.739100000000001</v>
+        <v>19.721399999999999</v>
       </c>
       <c r="J253" s="11">
         <v>1.875</v>
@@ -45516,13 +45515,13 @@
         <v>1.5</v>
       </c>
       <c r="G254" s="11">
-        <v>13.9336</v>
+        <v>14.116899999999999</v>
       </c>
       <c r="H254" s="11">
-        <v>11.401199999999999</v>
+        <v>10.515000000000001</v>
       </c>
       <c r="I254" s="11">
-        <v>20.151900000000001</v>
+        <v>20.1326</v>
       </c>
       <c r="J254" s="11">
         <v>1.625</v>
@@ -45576,13 +45575,13 @@
         <v>1.5</v>
       </c>
       <c r="G255" s="11">
-        <v>13.6646</v>
+        <v>13.832800000000001</v>
       </c>
       <c r="H255" s="11">
-        <v>11.1607</v>
+        <v>10.296099999999999</v>
       </c>
       <c r="I255" s="11">
-        <v>20.887699999999999</v>
+        <v>20.916799999999999</v>
       </c>
       <c r="J255" s="11">
         <v>1.625</v>
@@ -45617,42 +45616,102 @@
       </c>
     </row>
     <row r="256" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="14"/>
-      <c r="B256" s="11"/>
-      <c r="C256" s="11"/>
-      <c r="D256" s="11"/>
-      <c r="E256" s="11"/>
-      <c r="F256" s="11"/>
-      <c r="G256" s="11"/>
-      <c r="H256" s="11"/>
-      <c r="I256" s="11"/>
-      <c r="J256" s="11"/>
+      <c r="A256" s="14">
+        <v>43830</v>
+      </c>
+      <c r="B256" s="11">
+        <v>635.69970000000001</v>
+      </c>
+      <c r="C256" s="11">
+        <v>51340.409</v>
+      </c>
+      <c r="D256" s="11">
+        <v>45635.12934</v>
+      </c>
+      <c r="E256" s="11">
+        <v>2369.779</v>
+      </c>
+      <c r="F256" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G256" s="11">
+        <v>14.5448</v>
+      </c>
+      <c r="H256" s="11">
+        <v>11.736000000000001</v>
+      </c>
+      <c r="I256" s="11">
+        <v>21.256599999999999</v>
+      </c>
+      <c r="J256" s="11">
+        <v>1.625</v>
+      </c>
       <c r="K256" s="11"/>
     </row>
     <row r="257" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="14"/>
-      <c r="B257" s="11"/>
-      <c r="C257" s="11"/>
-      <c r="D257" s="11"/>
-      <c r="E257" s="11"/>
-      <c r="F257" s="11"/>
-      <c r="G257" s="11"/>
-      <c r="H257" s="11"/>
-      <c r="I257" s="11"/>
-      <c r="J257" s="11"/>
+      <c r="A257" s="14">
+        <v>43861</v>
+      </c>
+      <c r="B257" s="11">
+        <v>625.44470000000001</v>
+      </c>
+      <c r="C257" s="11">
+        <v>47705.566299999999</v>
+      </c>
+      <c r="D257" s="11">
+        <v>45273.305899999999</v>
+      </c>
+      <c r="E257" s="11">
+        <v>2427.692</v>
+      </c>
+      <c r="F257" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G257" s="11">
+        <v>14.2019</v>
+      </c>
+      <c r="H257" s="11">
+        <v>10.954499999999999</v>
+      </c>
+      <c r="I257" s="11">
+        <v>21.1995</v>
+      </c>
+      <c r="J257" s="11">
+        <v>1.625</v>
+      </c>
       <c r="K257" s="11"/>
     </row>
     <row r="258" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="14"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="11"/>
-      <c r="D258" s="11"/>
-      <c r="E258" s="11"/>
-      <c r="F258" s="11"/>
-      <c r="G258" s="11"/>
-      <c r="H258" s="11"/>
-      <c r="I258" s="11"/>
-      <c r="J258" s="11"/>
+      <c r="A258" s="14">
+        <v>43889</v>
+      </c>
+      <c r="B258" s="11">
+        <v>597.84209999999996</v>
+      </c>
+      <c r="C258" s="11">
+        <v>47902.331299999998</v>
+      </c>
+      <c r="D258" s="11">
+        <v>42034.617330000001</v>
+      </c>
+      <c r="E258" s="11">
+        <v>2492.0390000000002</v>
+      </c>
+      <c r="F258" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G258" s="11">
+        <v>13.863</v>
+      </c>
+      <c r="H258" s="11">
+        <v>10.878399999999999</v>
+      </c>
+      <c r="I258" s="11">
+        <v>19.415900000000001</v>
+      </c>
+      <c r="J258" s="11">
+        <v>1.625</v>
+      </c>
       <c r="K258" s="11"/>
     </row>
     <row r="259" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -46721,11 +46780,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J265"/>
+  <dimension ref="A1:J268"/>
   <sheetViews>
-    <sheetView topLeftCell="A231" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J261" sqref="J261"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J268" sqref="J268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -54476,10 +54535,10 @@
         <v>16.3626</v>
       </c>
       <c r="H242" s="11">
-        <v>13.495900000000001</v>
+        <v>12.3942</v>
       </c>
       <c r="I242" s="11">
-        <v>21.811699999999998</v>
+        <v>21.817399999999999</v>
       </c>
       <c r="J242" s="11">
         <v>1.375</v>
@@ -54508,10 +54567,10 @@
         <v>17.238700000000001</v>
       </c>
       <c r="H243" s="11">
-        <v>14.648400000000001</v>
+        <v>13.623799999999999</v>
       </c>
       <c r="I243" s="11">
-        <v>22.975300000000001</v>
+        <v>22.8781</v>
       </c>
       <c r="J243" s="11">
         <v>1.375</v>
@@ -54540,10 +54599,10 @@
         <v>16.4452</v>
       </c>
       <c r="H244" s="11">
-        <v>13.775700000000001</v>
+        <v>12.7652</v>
       </c>
       <c r="I244" s="11">
-        <v>21.9878</v>
+        <v>21.9071</v>
       </c>
       <c r="J244" s="11">
         <v>1.375</v>
@@ -54572,10 +54631,10 @@
         <v>15.5298</v>
       </c>
       <c r="H245" s="11">
-        <v>12.7903</v>
+        <v>11.956200000000001</v>
       </c>
       <c r="I245" s="11">
-        <v>20.323599999999999</v>
+        <v>20.305599999999998</v>
       </c>
       <c r="J245" s="11">
         <v>1.625</v>
@@ -54604,10 +54663,10 @@
         <v>15.1182</v>
       </c>
       <c r="H246" s="11">
-        <v>13.0844</v>
+        <v>12.2403</v>
       </c>
       <c r="I246" s="11">
-        <v>20.278099999999998</v>
+        <v>20.2607</v>
       </c>
       <c r="J246" s="11">
         <v>1.625</v>
@@ -54636,10 +54695,10 @@
         <v>15.151299999999999</v>
       </c>
       <c r="H247" s="11">
-        <v>12.9841</v>
+        <v>12.1053</v>
       </c>
       <c r="I247" s="11">
-        <v>20.5822</v>
+        <v>20.564499999999999</v>
       </c>
       <c r="J247" s="11">
         <v>1.625</v>
@@ -54668,10 +54727,10 @@
         <v>13.472</v>
       </c>
       <c r="H248" s="11">
-        <v>11.716100000000001</v>
+        <v>10.9581</v>
       </c>
       <c r="I248" s="11">
-        <v>19.763100000000001</v>
+        <v>19.8249</v>
       </c>
       <c r="J248" s="11">
         <v>1.875</v>
@@ -54700,10 +54759,10 @@
         <v>13.581</v>
       </c>
       <c r="H249" s="11">
-        <v>11.5718</v>
+        <v>10.8172</v>
       </c>
       <c r="I249" s="11">
-        <v>20.415299999999998</v>
+        <v>20.481400000000001</v>
       </c>
       <c r="J249" s="11">
         <v>1.875</v>
@@ -54732,10 +54791,10 @@
         <v>12.6998</v>
       </c>
       <c r="H250" s="11">
-        <v>11.2889</v>
+        <v>10.554399999999999</v>
       </c>
       <c r="I250" s="11">
-        <v>20.9497</v>
+        <v>21.019500000000001</v>
       </c>
       <c r="J250" s="11">
         <v>1.875</v>
@@ -54764,10 +54823,10 @@
         <v>13.0345</v>
       </c>
       <c r="H251" s="11">
-        <v>11.482699999999999</v>
+        <v>10.6067</v>
       </c>
       <c r="I251" s="11">
-        <v>19.274799999999999</v>
+        <v>19.975300000000001</v>
       </c>
       <c r="J251" s="11">
         <v>2.125</v>
@@ -54796,10 +54855,10 @@
         <v>12.0412</v>
       </c>
       <c r="H252" s="11">
-        <v>10.311400000000001</v>
+        <v>9.5345999999999993</v>
       </c>
       <c r="I252" s="11">
-        <v>18.540500000000002</v>
+        <v>18.590900000000001</v>
       </c>
       <c r="J252" s="11">
         <v>2.125</v>
@@ -54828,10 +54887,10 @@
         <v>12.261799999999999</v>
       </c>
       <c r="H253" s="11">
-        <v>11.076700000000001</v>
+        <v>10.1175</v>
       </c>
       <c r="I253" s="11">
-        <v>18.8355</v>
+        <v>18.8611</v>
       </c>
       <c r="J253" s="11">
         <v>2.125</v>
@@ -54857,13 +54916,13 @@
         <v>1.5</v>
       </c>
       <c r="G254" s="11">
-        <v>12.0341</v>
+        <v>12.3338</v>
       </c>
       <c r="H254" s="11">
-        <v>10.9686</v>
+        <v>10.1205</v>
       </c>
       <c r="I254" s="11">
-        <v>16.528700000000001</v>
+        <v>16.616099999999999</v>
       </c>
       <c r="J254" s="11">
         <v>2.375</v>
@@ -54889,13 +54948,13 @@
         <v>1.5</v>
       </c>
       <c r="G255" s="11">
-        <v>12.4848</v>
+        <v>12.780100000000001</v>
       </c>
       <c r="H255" s="11">
-        <v>11.860900000000001</v>
+        <v>10.941599999999999</v>
       </c>
       <c r="I255" s="11">
-        <v>17.857500000000002</v>
+        <v>17.952200000000001</v>
       </c>
       <c r="J255" s="11">
         <v>2.375</v>
@@ -54921,13 +54980,13 @@
         <v>1.5</v>
       </c>
       <c r="G256" s="11">
-        <v>14.241400000000001</v>
+        <v>14.5372</v>
       </c>
       <c r="H256" s="11">
-        <v>12.1854</v>
+        <v>11.1812</v>
       </c>
       <c r="I256" s="11">
-        <v>18.394500000000001</v>
+        <v>18.5002</v>
       </c>
       <c r="J256" s="11">
         <v>2.375</v>
@@ -54953,13 +55012,13 @@
         <v>1.5</v>
       </c>
       <c r="G257" s="11">
-        <v>14.6553</v>
+        <v>14.913</v>
       </c>
       <c r="H257" s="11">
-        <v>12.557499999999999</v>
+        <v>11.481299999999999</v>
       </c>
       <c r="I257" s="11">
-        <v>18.6477</v>
+        <v>18.6907</v>
       </c>
       <c r="J257" s="11">
         <v>2.375</v>
@@ -54985,13 +55044,13 @@
         <v>1.5</v>
       </c>
       <c r="G258" s="11">
-        <v>14.6144</v>
+        <v>14.865600000000001</v>
       </c>
       <c r="H258" s="11">
-        <v>12.8436</v>
+        <v>11.737299999999999</v>
       </c>
       <c r="I258" s="11">
-        <v>19.360600000000002</v>
+        <v>19.4071</v>
       </c>
       <c r="J258" s="11">
         <v>2.375</v>
@@ -55017,13 +55076,13 @@
         <v>1.5</v>
       </c>
       <c r="G259" s="11">
-        <v>13.767099999999999</v>
+        <v>14.0075</v>
       </c>
       <c r="H259" s="11">
-        <v>11.6494</v>
+        <v>10.631499999999999</v>
       </c>
       <c r="I259" s="11">
-        <v>18.142800000000001</v>
+        <v>18.186</v>
       </c>
       <c r="J259" s="11">
         <v>2.375</v>
@@ -55049,13 +55108,13 @@
         <v>1.5</v>
       </c>
       <c r="G260" s="11">
-        <v>14.1629</v>
+        <v>14.3582</v>
       </c>
       <c r="H260" s="11">
-        <v>12.1609</v>
+        <v>11.198</v>
       </c>
       <c r="I260" s="11">
-        <v>19.2959</v>
+        <v>19.280200000000001</v>
       </c>
       <c r="J260" s="11">
         <v>2.375</v>
@@ -55081,13 +55140,13 @@
         <v>1.5</v>
       </c>
       <c r="G261" s="11">
-        <v>14.0091</v>
+        <v>14.185499999999999</v>
       </c>
       <c r="H261" s="11">
-        <v>11.9095</v>
+        <v>10.8979</v>
       </c>
       <c r="I261" s="11">
-        <v>19.555099999999999</v>
+        <v>19.5382</v>
       </c>
       <c r="J261" s="11">
         <v>2.125</v>
@@ -55113,13 +55172,13 @@
         <v>1.5</v>
       </c>
       <c r="G262" s="11">
-        <v>13.860900000000001</v>
+        <v>14.002800000000001</v>
       </c>
       <c r="H262" s="11">
-        <v>10.9954</v>
+        <v>10.092499999999999</v>
       </c>
       <c r="I262" s="11">
-        <v>19.250299999999999</v>
+        <v>19.234200000000001</v>
       </c>
       <c r="J262" s="11">
         <v>2.125</v>
@@ -55145,13 +55204,13 @@
         <v>1.5</v>
       </c>
       <c r="G263" s="11">
-        <v>13.797800000000001</v>
+        <v>14.0075</v>
       </c>
       <c r="H263" s="11">
-        <v>11.0685</v>
+        <v>10.1968</v>
       </c>
       <c r="I263" s="11">
-        <v>19.739100000000001</v>
+        <v>19.721399999999999</v>
       </c>
       <c r="J263" s="11">
         <v>1.875</v>
@@ -55177,13 +55236,13 @@
         <v>1.5</v>
       </c>
       <c r="G264" s="11">
-        <v>13.9336</v>
+        <v>14.116899999999999</v>
       </c>
       <c r="H264" s="11">
-        <v>11.401199999999999</v>
+        <v>10.515000000000001</v>
       </c>
       <c r="I264" s="11">
-        <v>20.151900000000001</v>
+        <v>20.1326</v>
       </c>
       <c r="J264" s="11">
         <v>1.625</v>
@@ -55191,7 +55250,7 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A265" s="14">
-        <v>43799</v>
+        <v>43798</v>
       </c>
       <c r="B265" s="11">
         <v>592.64940000000001</v>
@@ -55209,15 +55268,111 @@
         <v>1.5</v>
       </c>
       <c r="G265" s="11">
-        <v>13.6646</v>
+        <v>13.832800000000001</v>
       </c>
       <c r="H265" s="11">
-        <v>11.1607</v>
+        <v>10.296099999999999</v>
       </c>
       <c r="I265" s="11">
-        <v>20.887699999999999</v>
+        <v>20.916799999999999</v>
       </c>
       <c r="J265" s="11">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A266" s="14">
+        <v>43830</v>
+      </c>
+      <c r="B266" s="11">
+        <v>635.69970000000001</v>
+      </c>
+      <c r="C266" s="11">
+        <v>51340.409</v>
+      </c>
+      <c r="D266" s="11">
+        <v>45635.12934</v>
+      </c>
+      <c r="E266" s="11">
+        <v>2369.779</v>
+      </c>
+      <c r="F266" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G266" s="11">
+        <v>14.5448</v>
+      </c>
+      <c r="H266" s="11">
+        <v>11.736000000000001</v>
+      </c>
+      <c r="I266" s="11">
+        <v>21.256599999999999</v>
+      </c>
+      <c r="J266" s="11">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A267" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B267">
+        <v>625.44470000000001</v>
+      </c>
+      <c r="C267">
+        <v>47705.566299999999</v>
+      </c>
+      <c r="D267">
+        <v>45273.305899999999</v>
+      </c>
+      <c r="E267">
+        <v>2427.692</v>
+      </c>
+      <c r="F267">
+        <v>1.5</v>
+      </c>
+      <c r="G267" s="11">
+        <v>14.2019</v>
+      </c>
+      <c r="H267" s="11">
+        <v>10.954499999999999</v>
+      </c>
+      <c r="I267" s="11">
+        <v>21.1995</v>
+      </c>
+      <c r="J267" s="11">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A268" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B268">
+        <v>597.84209999999996</v>
+      </c>
+      <c r="C268">
+        <v>47902.331299999998</v>
+      </c>
+      <c r="D268">
+        <v>42034.617330000001</v>
+      </c>
+      <c r="E268">
+        <v>2492.0390000000002</v>
+      </c>
+      <c r="F268">
+        <v>1.5</v>
+      </c>
+      <c r="G268" s="11">
+        <v>13.863</v>
+      </c>
+      <c r="H268" s="11">
+        <v>10.878399999999999</v>
+      </c>
+      <c r="I268" s="11">
+        <v>19.415900000000001</v>
+      </c>
+      <c r="J268" s="11">
         <v>1.625</v>
       </c>
     </row>
@@ -55228,21 +55383,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092D009767D8655449CF3F619221E6FC9" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a9cc7619d051142a9736d131249ee2bd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="711b5f35d88f7f6ebfe284b0f73f4393">
     <xsd:element name="properties">
@@ -55356,15 +55502,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD70034E-2A52-426E-92C4-520D5226A98D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340ECE23-F605-459D-B71A-70F1326DFCAC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -55379,7 +55526,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47837732-E462-4DB6-B7D8-8CC8127F8D3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55393,4 +55540,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD70034E-2A52-426E-92C4-520D5226A98D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/strategy/全球购策略/data/global strategy data.xlsx
+++ b/strategy/全球购策略/data/global strategy data.xlsx
@@ -322,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -351,6 +351,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal 2" xfId="2"/>
@@ -423,29 +426,34 @@
         <stp>[global strategy data.xlsx]数据!R1C6</stp>
         <tr r="F1" s="1"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>SHCOMP Index</stp>
-        <stp>TOT_RETURN_INDEX_GROSS_DVDS</stp>
-        <stp>1998/12/31</stp>
+        <stp>BDH|18076984304270401982</stp>
+        <tr r="I4" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C1</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=S</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>curr=usd</stp>
-        <stp>cols=2;rows=256</stp>
-        <tr r="A4" s="1"/>
+        <stp>BDH|10754058581706360021</stp>
+        <tr r="C4" s="1"/>
       </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>BDH|15173825180148269293</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>BDH|12980370467950411798</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
       <tp t="s">
         <v>S&amp;P 500 INDEX</v>
         <stp/>
@@ -456,76 +464,21 @@
         <tr r="I1" s="1"/>
       </tp>
     </main>
-    <main first="bloomberg.rtd">
+    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>CNDR1Y index</stp>
-        <stp>PX_LAST</stp>
-        <stp>1998/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C6</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>fx=cny</stp>
-        <stp>cols=1;rows=255</stp>
-        <tr r="F4" s="1"/>
+        <stp>BDH|2151032984485274668</stp>
+        <tr r="D4" s="1"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>SHCOMP Index</stp>
-        <stp>PE_Ratio</stp>
-        <stp>1998/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C7</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>fx=cny</stp>
-        <stp>cols=1;rows=255</stp>
-        <tr r="G4" s="1"/>
+        <stp>BDH|5225777032332844635</stp>
+        <tr r="H4" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>SPXT  Index</stp>
-        <stp>PX_LAST</stp>
-        <stp>1998/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C4</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>fx=cny</stp>
-        <stp>cols=1;rows=255</stp>
-        <tr r="D4" s="1"/>
-      </tp>
+    </main>
+    <main first="bloomberg.rtd">
       <tp t="s">
         <v>Federal Funds Target Rate Mid</v>
         <stp/>
@@ -535,6 +488,22 @@
         <stp>[global strategy data.xlsx]数据!R1C10</stp>
         <tr r="J1" s="1"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>BDH|5543018186384512837</stp>
+        <tr r="J4" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>BDH|3721131103793450064</stp>
+        <tr r="A4" s="1"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
       <tp t="s">
         <v>U.S. Treasury</v>
         <stp/>
@@ -544,52 +513,16 @@
         <stp>[global strategy data.xlsx]数据!R1C5</stp>
         <tr r="E1" s="1"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>FDTRMID Index</stp>
-        <stp>PX_LAST</stp>
-        <stp>1998/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C10</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp/>
-        <stp>cols=1;rows=255</stp>
-        <tr r="J4" s="1"/>
+        <stp>BDH|448719021013496575</stp>
+        <tr r="G4" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>HSI Index</stp>
-        <stp>TOT_RETURN_INDEX_GROSS_DVDS</stp>
-        <stp>1998/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C3</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>fx=cny</stp>
-        <stp>cols=1;rows=255</stp>
-        <tr r="C4" s="1"/>
-      </tp>
+    </main>
+    <main first="bloomberg.rtd">
       <tp t="s">
         <v>S&amp;P 500 Total Return</v>
         <stp/>
@@ -598,75 +531,6 @@
         <stp>name</stp>
         <stp>[global strategy data.xlsx]数据!R1C4</stp>
         <tr r="D1" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>LUATTRUU Index</stp>
-        <stp>PX_LAST</stp>
-        <stp>1998/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C5</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>fx=cny</stp>
-        <stp>cols=1;rows=255</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>HSI Index</stp>
-        <stp>PE_Ratio</stp>
-        <stp>1998/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C8</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>fx=cny</stp>
-        <stp>cols=1;rows=255</stp>
-        <tr r="H4" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>SPX Index</stp>
-        <stp>PE_Ratio</stp>
-        <stp>1998/12/31</stp>
-        <stp/>
-        <stp>[global strategy data.xlsx]数据!R4C9</stp>
-        <stp>Dir=V</stp>
-        <stp>Dts=H</stp>
-        <stp>Sort=A</stp>
-        <stp>Quote=C</stp>
-        <stp>QtTyp=Y</stp>
-        <stp>Days=W</stp>
-        <stp>Per=cm</stp>
-        <stp>DtFmt=D</stp>
-        <stp>Fill=P</stp>
-        <stp>UseDPDF=Y</stp>
-        <stp>fx=cny</stp>
-        <stp>cols=1;rows=255</stp>
-        <tr r="I4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -3253,11 +3117,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="550221872"/>
-        <c:axId val="550223440"/>
+        <c:axId val="553956376"/>
+        <c:axId val="553956768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550221872"/>
+        <c:axId val="553956376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3267,7 +3131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="550223440"/>
+        <c:crossAx val="553956768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3276,7 +3140,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550223440"/>
+        <c:axId val="553956768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3286,7 +3150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="550221872"/>
+        <c:crossAx val="553956376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
@@ -4203,11 +4067,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="550222264"/>
-        <c:axId val="550226184"/>
+        <c:axId val="553959512"/>
+        <c:axId val="553957944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550222264"/>
+        <c:axId val="553959512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4217,7 +4081,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="550226184"/>
+        <c:crossAx val="553957944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4226,7 +4090,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550226184"/>
+        <c:axId val="553957944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4236,7 +4100,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="550222264"/>
+        <c:crossAx val="553959512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5163,8 +5027,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="554441376"/>
-        <c:axId val="554438240"/>
+        <c:axId val="558614136"/>
+        <c:axId val="558610608"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6841,11 +6705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550226576"/>
-        <c:axId val="554440200"/>
+        <c:axId val="558608648"/>
+        <c:axId val="558611000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550226576"/>
+        <c:axId val="558608648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6855,7 +6719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554440200"/>
+        <c:crossAx val="558611000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6864,7 +6728,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="554440200"/>
+        <c:axId val="558611000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6874,13 +6738,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="550226576"/>
+        <c:crossAx val="558608648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554438240"/>
+        <c:axId val="558610608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6890,13 +6754,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554441376"/>
+        <c:crossAx val="558614136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="554441376"/>
+        <c:axId val="558614136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6906,7 +6770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="554438240"/>
+        <c:crossAx val="558610608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7836,11 +7700,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="554446080"/>
-        <c:axId val="554446472"/>
+        <c:axId val="558611392"/>
+        <c:axId val="558611784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="554446080"/>
+        <c:axId val="558611392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7850,7 +7714,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="554446472"/>
+        <c:crossAx val="558611784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7859,7 +7723,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="554446472"/>
+        <c:axId val="558611784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7869,7 +7733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554446080"/>
+        <c:crossAx val="558611392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8769,11 +8633,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="554437456"/>
-        <c:axId val="554437848"/>
+        <c:axId val="558616096"/>
+        <c:axId val="558612960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="554437456"/>
+        <c:axId val="558616096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8783,7 +8647,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="554437848"/>
+        <c:crossAx val="558612960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -8792,7 +8656,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="554437848"/>
+        <c:axId val="558612960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8802,7 +8666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554437456"/>
+        <c:crossAx val="558616096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9717,11 +9581,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="554440592"/>
-        <c:axId val="554442944"/>
+        <c:axId val="558614920"/>
+        <c:axId val="558609824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="554440592"/>
+        <c:axId val="558614920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9731,7 +9595,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="554442944"/>
+        <c:crossAx val="558609824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -9740,7 +9604,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="554442944"/>
+        <c:axId val="558609824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9750,7 +9614,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554440592"/>
+        <c:crossAx val="558614920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11528,11 +11392,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="554434320"/>
-        <c:axId val="554440984"/>
+        <c:axId val="558613744"/>
+        <c:axId val="558615704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="554434320"/>
+        <c:axId val="558613744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11542,7 +11406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554440984"/>
+        <c:crossAx val="558615704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -11551,7 +11415,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="554440984"/>
+        <c:axId val="558615704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -11562,7 +11426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554434320"/>
+        <c:crossAx val="558613744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -30432,9 +30296,9 @@
   </sheetPr>
   <dimension ref="A1:S340"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B258" sqref="B257:B258"/>
+    <sheetView topLeftCell="A236" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H260" sqref="H260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30579,42 +30443,42 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="23">
-        <f>_xll.BDH(B$2,B$3,$A$1,"","Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","curr=usd","cols=2;rows=256")</f>
+        <f>_xll.BDH(B$2,B$3,$A$1,"","Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","curr=usd","cols=2;rows=258")</f>
         <v>36160</v>
       </c>
       <c r="B4" s="11">
         <v>138.5087</v>
       </c>
       <c r="C4" s="11">
-        <f>_xll.BDH(C$2,C$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=255")</f>
+        <f>_xll.BDH(C$2,C$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=258")</f>
         <v>10739.890100000001</v>
       </c>
       <c r="D4" s="11">
-        <f>_xll.BDH(D$2,D$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=255")</f>
+        <f>_xll.BDH(D$2,D$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=258")</f>
         <v>13825.812669999999</v>
       </c>
       <c r="E4" s="11">
-        <f>_xll.BDH(E$2,E$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=255")</f>
+        <f>_xll.BDH(E$2,E$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=258")</f>
         <v>983.5</v>
       </c>
       <c r="F4" s="11">
-        <f>_xll.BDH(F$2,F$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=255")</f>
+        <f>_xll.BDH(F$2,F$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=258")</f>
         <v>3.7800000000000002</v>
       </c>
       <c r="G4" s="11">
-        <f>_xll.BDH(G$2,G$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=255")</f>
+        <f>_xll.BDH(G$2,G$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=258")</f>
         <v>44.5062</v>
       </c>
       <c r="H4" s="11">
-        <f>_xll.BDH(H$2,H$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=255")</f>
+        <f>_xll.BDH(H$2,H$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=258")</f>
         <v>12.229699999999999</v>
       </c>
       <c r="I4" s="11">
-        <f>_xll.BDH(I$2,I$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=255")</f>
+        <f>_xll.BDH(I$2,I$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","fx=cny","cols=1;rows=258")</f>
         <v>28.1556</v>
       </c>
       <c r="J4" s="11">
-        <f>_xll.BDH(J$2,J$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","","cols=1;rows=255")</f>
+        <f>_xll.BDH(J$2,J$3,$A$1,"","Dir=V","Dts=H","Sort=A","Quote=C","QtTyp=Y","Days=W","Per=cm","DtFmt=D","Fill=P","UseDPDF=Y","","cols=1;rows=258")</f>
         <v>4.75</v>
       </c>
       <c r="K4" s="11" t="s">
@@ -45097,13 +44961,13 @@
         <v>1.5</v>
       </c>
       <c r="G247" s="11">
-        <v>14.913</v>
+        <v>14.9025</v>
       </c>
       <c r="H247" s="11">
-        <v>11.481299999999999</v>
+        <v>11.445499999999999</v>
       </c>
       <c r="I247" s="11">
-        <v>18.6907</v>
+        <v>18.71</v>
       </c>
       <c r="J247" s="11">
         <v>2.375</v>
@@ -45157,13 +45021,13 @@
         <v>1.5</v>
       </c>
       <c r="G248" s="11">
-        <v>14.865600000000001</v>
+        <v>14.8657</v>
       </c>
       <c r="H248" s="11">
-        <v>11.737299999999999</v>
+        <v>11.700799999999999</v>
       </c>
       <c r="I248" s="11">
-        <v>19.4071</v>
+        <v>19.459199999999999</v>
       </c>
       <c r="J248" s="11">
         <v>2.375</v>
@@ -45217,13 +45081,13 @@
         <v>1.5</v>
       </c>
       <c r="G249" s="11">
-        <v>14.0075</v>
+        <v>14.0002</v>
       </c>
       <c r="H249" s="11">
-        <v>10.631499999999999</v>
+        <v>10.5992</v>
       </c>
       <c r="I249" s="11">
-        <v>18.186</v>
+        <v>18.244</v>
       </c>
       <c r="J249" s="11">
         <v>2.375</v>
@@ -45277,13 +45141,13 @@
         <v>1.5</v>
       </c>
       <c r="G250" s="11">
-        <v>14.3582</v>
+        <v>14.3568</v>
       </c>
       <c r="H250" s="11">
-        <v>11.198</v>
+        <v>11.167</v>
       </c>
       <c r="I250" s="11">
-        <v>19.280200000000001</v>
+        <v>19.373999999999999</v>
       </c>
       <c r="J250" s="11">
         <v>2.375</v>
@@ -45337,13 +45201,13 @@
         <v>1.5</v>
       </c>
       <c r="G251" s="11">
-        <v>14.185499999999999</v>
+        <v>14.183400000000001</v>
       </c>
       <c r="H251" s="11">
-        <v>10.8979</v>
+        <v>10.867800000000001</v>
       </c>
       <c r="I251" s="11">
-        <v>19.5382</v>
+        <v>19.632100000000001</v>
       </c>
       <c r="J251" s="11">
         <v>2.125</v>
@@ -45397,13 +45261,13 @@
         <v>1.5</v>
       </c>
       <c r="G252" s="11">
-        <v>14.002800000000001</v>
+        <v>14.0006</v>
       </c>
       <c r="H252" s="11">
-        <v>10.092499999999999</v>
+        <v>10.064500000000001</v>
       </c>
       <c r="I252" s="11">
-        <v>19.234200000000001</v>
+        <v>19.326799999999999</v>
       </c>
       <c r="J252" s="11">
         <v>2.125</v>
@@ -45457,13 +45321,13 @@
         <v>1.5</v>
       </c>
       <c r="G253" s="11">
-        <v>14.0075</v>
+        <v>14.0047</v>
       </c>
       <c r="H253" s="11">
-        <v>10.1968</v>
+        <v>10.1686</v>
       </c>
       <c r="I253" s="11">
-        <v>19.721399999999999</v>
+        <v>19.806699999999999</v>
       </c>
       <c r="J253" s="11">
         <v>1.875</v>
@@ -45517,13 +45381,13 @@
         <v>1.5</v>
       </c>
       <c r="G254" s="11">
-        <v>14.116899999999999</v>
+        <v>14.1143</v>
       </c>
       <c r="H254" s="11">
-        <v>10.515000000000001</v>
+        <v>10.486000000000001</v>
       </c>
       <c r="I254" s="11">
-        <v>20.1326</v>
+        <v>20.22</v>
       </c>
       <c r="J254" s="11">
         <v>1.625</v>
@@ -45577,13 +45441,13 @@
         <v>1.5</v>
       </c>
       <c r="G255" s="11">
-        <v>13.832800000000001</v>
+        <v>13.8302</v>
       </c>
       <c r="H255" s="11">
-        <v>10.296099999999999</v>
+        <v>10.2677</v>
       </c>
       <c r="I255" s="11">
-        <v>20.916799999999999</v>
+        <v>21.008600000000001</v>
       </c>
       <c r="J255" s="11">
         <v>1.625</v>
@@ -45637,13 +45501,13 @@
         <v>1.5</v>
       </c>
       <c r="G256" s="11">
-        <v>14.5448</v>
+        <v>14.3483</v>
       </c>
       <c r="H256" s="11">
-        <v>11.736000000000001</v>
+        <v>11.2493</v>
       </c>
       <c r="I256" s="11">
-        <v>21.256599999999999</v>
+        <v>21.2151</v>
       </c>
       <c r="J256" s="11">
         <v>1.625</v>
@@ -45670,13 +45534,13 @@
         <v>1.5</v>
       </c>
       <c r="G257" s="11">
-        <v>14.2019</v>
+        <v>14.0055</v>
       </c>
       <c r="H257" s="11">
-        <v>10.954499999999999</v>
+        <v>10.5002</v>
       </c>
       <c r="I257" s="11">
-        <v>21.1995</v>
+        <v>21.152999999999999</v>
       </c>
       <c r="J257" s="11">
         <v>1.625</v>
@@ -45691,7 +45555,7 @@
         <v>597.84209999999996</v>
       </c>
       <c r="C258" s="11">
-        <v>47902.331299999998</v>
+        <v>47770.436600000001</v>
       </c>
       <c r="D258" s="11">
         <v>42034.617330000001</v>
@@ -45703,13 +45567,13 @@
         <v>1.5</v>
       </c>
       <c r="G258" s="11">
-        <v>13.863</v>
+        <v>13.661200000000001</v>
       </c>
       <c r="H258" s="11">
-        <v>10.878399999999999</v>
+        <v>10.427300000000001</v>
       </c>
       <c r="I258" s="11">
-        <v>19.415900000000001</v>
+        <v>19.410299999999999</v>
       </c>
       <c r="J258" s="11">
         <v>1.625</v>
@@ -45717,55 +45581,135 @@
       <c r="K258" s="11"/>
     </row>
     <row r="259" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="14"/>
-      <c r="B259" s="11"/>
-      <c r="C259" s="11"/>
-      <c r="D259" s="11"/>
-      <c r="E259" s="11"/>
-      <c r="F259" s="11"/>
-      <c r="G259" s="11"/>
-      <c r="H259" s="11"/>
-      <c r="I259" s="11"/>
-      <c r="J259" s="11"/>
+      <c r="A259" s="14">
+        <v>43921</v>
+      </c>
+      <c r="B259" s="11">
+        <v>563.58699999999999</v>
+      </c>
+      <c r="C259" s="11">
+        <v>44015.582300000002</v>
+      </c>
+      <c r="D259" s="11">
+        <v>37318.055160000004</v>
+      </c>
+      <c r="E259" s="11">
+        <v>2564.1170000000002</v>
+      </c>
+      <c r="F259" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G259" s="11">
+        <v>14.138199999999999</v>
+      </c>
+      <c r="H259" s="11">
+        <v>10.2606</v>
+      </c>
+      <c r="I259" s="11">
+        <v>17.919699999999999</v>
+      </c>
+      <c r="J259" s="11">
+        <v>0.125</v>
+      </c>
       <c r="K259" s="11"/>
     </row>
     <row r="260" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="14"/>
-      <c r="B260" s="11"/>
-      <c r="C260" s="11"/>
-      <c r="D260" s="11"/>
-      <c r="E260" s="11"/>
-      <c r="F260" s="11"/>
-      <c r="G260" s="11"/>
-      <c r="H260" s="11"/>
-      <c r="I260" s="11"/>
-      <c r="J260" s="11"/>
+      <c r="A260" s="14">
+        <v>43951</v>
+      </c>
+      <c r="B260" s="11">
+        <v>587.72220000000004</v>
+      </c>
+      <c r="C260" s="11">
+        <v>45935.458500000001</v>
+      </c>
+      <c r="D260" s="11">
+        <v>41989.058239999998</v>
+      </c>
+      <c r="E260" s="11">
+        <v>2580.4250000000002</v>
+      </c>
+      <c r="F260" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G260" s="11">
+        <v>14.712300000000001</v>
+      </c>
+      <c r="H260" s="11">
+        <v>10.7128</v>
+      </c>
+      <c r="I260" s="11">
+        <v>20.186900000000001</v>
+      </c>
+      <c r="J260" s="11">
+        <v>0.125</v>
+      </c>
       <c r="K260" s="11"/>
     </row>
     <row r="261" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="14"/>
-      <c r="B261" s="11"/>
-      <c r="C261" s="11"/>
-      <c r="D261" s="11"/>
-      <c r="E261" s="11"/>
-      <c r="F261" s="11"/>
-      <c r="G261" s="11"/>
-      <c r="H261" s="11"/>
-      <c r="I261" s="11"/>
-      <c r="J261" s="11"/>
+      <c r="A261" s="14">
+        <v>43980</v>
+      </c>
+      <c r="B261" s="11">
+        <v>581.30359999999996</v>
+      </c>
+      <c r="C261" s="11">
+        <v>43392.582999999999</v>
+      </c>
+      <c r="D261" s="11">
+        <v>44444.766069999998</v>
+      </c>
+      <c r="E261" s="11">
+        <v>2573.8850000000002</v>
+      </c>
+      <c r="F261" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G261" s="11">
+        <v>14.5032</v>
+      </c>
+      <c r="H261" s="11">
+        <v>9.9844000000000008</v>
+      </c>
+      <c r="I261" s="11">
+        <v>21.180499999999999</v>
+      </c>
+      <c r="J261" s="11">
+        <v>0.125</v>
+      </c>
       <c r="K261" s="11"/>
     </row>
     <row r="262" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="14"/>
-      <c r="B262" s="11"/>
-      <c r="C262" s="11"/>
-      <c r="D262" s="11"/>
-      <c r="E262" s="11"/>
-      <c r="F262" s="11"/>
-      <c r="G262" s="11"/>
-      <c r="H262" s="11"/>
-      <c r="I262" s="11"/>
-      <c r="J262" s="11"/>
+      <c r="A262" s="24">
+        <v>44012</v>
+      </c>
+      <c r="B262" s="22">
+        <v>620.22230000000002</v>
+      </c>
+      <c r="C262" s="22">
+        <v>46140.421199999997</v>
+      </c>
+      <c r="D262" s="22">
+        <v>44877.089220000002</v>
+      </c>
+      <c r="E262" s="22">
+        <v>2576.299</v>
+      </c>
+      <c r="F262" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="G262" s="22">
+        <v>15.242599999999999</v>
+      </c>
+      <c r="H262" s="22">
+        <v>10.6584</v>
+      </c>
+      <c r="I262" s="22">
+        <v>21.8108</v>
+      </c>
+      <c r="J262" s="22">
+        <v>0.125</v>
+      </c>
       <c r="K262" s="11"/>
     </row>
     <row r="263" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -46782,11 +46726,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J270"/>
+  <dimension ref="A1:J272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15:I270"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I266" sqref="I266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -47268,13 +47212,13 @@
       <c r="F15" s="21">
         <v>3.7800000000000002</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="11">
         <v>34.694000000000003</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="11">
         <v>11.567500000000001</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="11">
         <v>29.203700000000001</v>
       </c>
       <c r="J15">
@@ -47300,13 +47244,13 @@
       <c r="F16" s="21">
         <v>3.7800000000000002</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="11">
         <v>33.368600000000001</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="11">
         <v>11.9964</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="11">
         <v>28.032800000000002</v>
       </c>
       <c r="J16">
@@ -47332,13 +47276,13 @@
       <c r="F17" s="21">
         <v>3.7800000000000002</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="11">
         <v>35.658299999999997</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="11">
         <v>13.2736</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="11">
         <v>28.453299999999999</v>
       </c>
       <c r="J17">
@@ -47364,13 +47308,13 @@
       <c r="F18" s="21">
         <v>3.7800000000000002</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="11">
         <v>34.933100000000003</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="11">
         <v>16.1952</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="11">
         <v>29.489899999999999</v>
       </c>
       <c r="J18" s="11">
@@ -47396,13 +47340,13 @@
       <c r="F19" s="21">
         <v>3.7800000000000002</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="11">
         <v>40.996400000000001</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="11">
         <v>14.7492</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="11">
         <v>28.799199999999999</v>
       </c>
       <c r="J19" s="11">
@@ -47428,13 +47372,13 @@
       <c r="F20" s="21">
         <v>2.25</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="11">
         <v>55.215899999999998</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="11">
         <v>15.8597</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="11">
         <v>29.828399999999998</v>
       </c>
       <c r="J20" s="11">
@@ -47460,13 +47404,13 @@
       <c r="F21" s="21">
         <v>2.25</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="11">
         <v>52.6858</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="11">
         <v>24.7074</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="11">
         <v>28.717099999999999</v>
       </c>
       <c r="J21" s="11">
@@ -47492,13 +47436,13 @@
       <c r="F22" s="21">
         <v>2.25</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="11">
         <v>53.827399999999997</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="11">
         <v>25.149100000000001</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="11">
         <v>28.487200000000001</v>
       </c>
       <c r="J22" s="11">
@@ -47524,13 +47468,13 @@
       <c r="F23" s="21">
         <v>2.25</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="11">
         <v>52.884700000000002</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="11">
         <v>23.747299999999999</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="11">
         <v>26.981100000000001</v>
       </c>
       <c r="J23" s="11">
@@ -47556,13 +47500,13 @@
       <c r="F24" s="21">
         <v>2.25</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="11">
         <v>50.879100000000001</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="11">
         <v>24.9025</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="11">
         <v>28.398</v>
       </c>
       <c r="J24" s="11">
@@ -47588,13 +47532,13 @@
       <c r="F25" s="21">
         <v>2.25</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="11">
         <v>48.691699999999997</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="11">
         <v>28.8888</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="11">
         <v>28.867999999999999</v>
       </c>
       <c r="J25" s="11">
@@ -47620,13 +47564,13 @@
       <c r="F26" s="21">
         <v>2.25</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="11">
         <v>38.290300000000002</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="11">
         <v>13.555300000000001</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="11">
         <v>29.286999999999999</v>
       </c>
       <c r="J26" s="11">
@@ -47649,16 +47593,16 @@
       <c r="E27" s="21">
         <v>960.87</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="11">
         <v>2.25</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="11">
         <v>43.0092</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="11">
         <v>12.4114</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="11">
         <v>27.856200000000001</v>
       </c>
       <c r="J27" s="11">
@@ -47681,16 +47625,16 @@
       <c r="E28" s="21">
         <v>975.32</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="11">
         <v>2.25</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="11">
         <v>48.040900000000001</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="11">
         <v>13.7188</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="11">
         <v>27.2789</v>
       </c>
       <c r="J28" s="11">
@@ -47713,16 +47657,16 @@
       <c r="E29" s="21">
         <v>994.69</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="11">
         <v>2.25</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="11">
         <v>50.768900000000002</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="11">
         <v>13.8866</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="11">
         <v>28.889199999999999</v>
       </c>
       <c r="J29" s="11">
@@ -47745,16 +47689,16 @@
       <c r="E30" s="21">
         <v>991.54</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="11">
         <v>2.25</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="11">
         <v>52.031199999999998</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="11">
         <v>12.391299999999999</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="11">
         <v>28.022400000000001</v>
       </c>
       <c r="J30" s="11">
@@ -47777,16 +47721,16 @@
       <c r="E31" s="21">
         <v>993.06</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="11">
         <v>2.25</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="11">
         <v>54.757800000000003</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="11">
         <v>12.1934</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="11">
         <v>27.323599999999999</v>
       </c>
       <c r="J31" s="11">
@@ -47809,16 +47753,16 @@
       <c r="E32" s="21">
         <v>1009.8</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="11">
         <v>2.25</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="11">
         <v>56.350499999999997</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="11">
         <v>13.087899999999999</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="11">
         <v>27.4099</v>
       </c>
       <c r="J32" s="11">
@@ -47841,16 +47785,16 @@
       <c r="E33" s="21">
         <v>1020.2</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="11">
         <v>2.25</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="11">
         <v>59.374600000000001</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="11">
         <v>13.6419</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="11">
         <v>26.987500000000001</v>
       </c>
       <c r="J33" s="11">
@@ -47873,16 +47817,16 @@
       <c r="E34" s="21">
         <v>1035.18</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="11">
         <v>2.25</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="11">
         <v>59.527200000000001</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="11">
         <v>13.9901</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="11">
         <v>28.296600000000002</v>
       </c>
       <c r="J34" s="11">
@@ -47905,16 +47849,16 @@
       <c r="E35" s="21">
         <v>1036</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="11">
         <v>2.25</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="11">
         <v>57.020699999999998</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="11">
         <v>12.831099999999999</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="11">
         <v>25.955400000000001</v>
       </c>
       <c r="J35" s="11">
@@ -47937,16 +47881,16 @@
       <c r="E36" s="21">
         <v>1046.0999999999999</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="11">
         <v>2.25</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="11">
         <v>58.691299999999998</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="11">
         <v>12.212300000000001</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="11">
         <v>25.835799999999999</v>
       </c>
       <c r="J36" s="11">
@@ -47969,16 +47913,16 @@
       <c r="E37" s="21">
         <v>1067.54</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="11">
         <v>2.25</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="11">
         <v>61.991900000000001</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="11">
         <v>11.465299999999999</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="11">
         <v>23.816299999999998</v>
       </c>
       <c r="J37" s="11">
@@ -48001,16 +47945,16 @@
       <c r="E38" s="21">
         <v>1087.9100000000001</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="11">
         <v>2.25</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="11">
         <v>45.5548</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="11">
         <v>12.1312</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="11">
         <v>24.1721</v>
       </c>
       <c r="J38" s="11">
@@ -48033,16 +47977,16 @@
       <c r="E39" s="21">
         <v>1096.76</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="11">
         <v>2.25</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="11">
         <v>45.381900000000002</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="11">
         <v>12.1312</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="11">
         <v>24.9422</v>
       </c>
       <c r="J39" s="11">
@@ -48065,16 +48009,16 @@
       <c r="E40" s="21">
         <v>1110.02</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="11">
         <v>2.25</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="11">
         <v>43.066000000000003</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="11">
         <v>12.1312</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="11">
         <v>22.671600000000002</v>
       </c>
       <c r="J40" s="11">
@@ -48097,16 +48041,16 @@
       <c r="E41" s="21">
         <v>1113.58</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="11">
         <v>2.25</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="11">
         <v>46.9544</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="11">
         <v>12.1312</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="11">
         <v>21.7423</v>
       </c>
       <c r="J41" s="11">
@@ -48129,16 +48073,16 @@
       <c r="E42" s="21">
         <v>1099.74</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="11">
         <v>2.25</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="11">
         <v>47.621000000000002</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="11">
         <v>12.1312</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="11">
         <v>23.6035</v>
       </c>
       <c r="J42" s="11">
@@ -48161,16 +48105,16 @@
       <c r="E43" s="21">
         <v>1103.17</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="11">
         <v>2.25</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="11">
         <v>50.55</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="11">
         <v>12.1312</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="11">
         <v>23.801100000000002</v>
       </c>
       <c r="J43" s="11">
@@ -48193,16 +48137,16 @@
       <c r="E44" s="21">
         <v>1109.0899999999999</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="11">
         <v>2.25</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="11">
         <v>51.061799999999998</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="11">
         <v>12.1312</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="11">
         <v>24.213999999999999</v>
       </c>
       <c r="J44" s="11">
@@ -48225,16 +48169,16 @@
       <c r="E45" s="21">
         <v>1136.76</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="11">
         <v>2.25</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="11">
         <v>44.338900000000002</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="11">
         <v>12.1312</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="11">
         <v>24.136700000000001</v>
       </c>
       <c r="J45" s="11">
@@ -48257,16 +48201,16 @@
       <c r="E46" s="21">
         <v>1151.82</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="11">
         <v>2.25</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="11">
         <v>42.460599999999999</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="11">
         <v>12.1312</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="11">
         <v>22.547799999999999</v>
       </c>
       <c r="J46" s="11">
@@ -48289,16 +48233,16 @@
       <c r="E47" s="21">
         <v>1170.0999999999999</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="11">
         <v>2.25</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="11">
         <v>41.019399999999997</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="11">
         <v>12.1312</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="11">
         <v>22.162299999999998</v>
       </c>
       <c r="J47" s="11">
@@ -48321,16 +48265,16 @@
       <c r="E48" s="21">
         <v>1202.51</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="11">
         <v>2.25</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G48" s="11">
         <v>39.391199999999998</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="11">
         <v>12.1312</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="11">
         <v>22.5654</v>
       </c>
       <c r="J48" s="11">
@@ -48353,16 +48297,16 @@
       <c r="E49" s="21">
         <v>1172.74</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="11">
         <v>2.25</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="11">
         <v>40.797199999999997</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="11">
         <v>12.1312</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="11">
         <v>24.461200000000002</v>
       </c>
       <c r="J49" s="11">
@@ -48385,16 +48329,16 @@
       <c r="E50" s="21">
         <v>1161.32</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="11">
         <v>2.25</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="11">
         <v>48.783299999999997</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="11">
         <v>18.972200000000001</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="11">
         <v>26.703299999999999</v>
       </c>
       <c r="J50" s="11">
@@ -48417,16 +48361,16 @@
       <c r="E51" s="21">
         <v>1169.1400000000001</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="11">
         <v>2.25</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="11">
         <v>43.611600000000003</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="11">
         <v>17.884499999999999</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="11">
         <v>26.417999999999999</v>
       </c>
       <c r="J51" s="11">
@@ -48449,16 +48393,16 @@
       <c r="E52" s="21">
         <v>1179.67</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="11">
         <v>1.98</v>
       </c>
-      <c r="G52" s="21">
+      <c r="G52" s="11">
         <v>44.502099999999999</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="11">
         <v>17.638400000000001</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="11">
         <v>25.8583</v>
       </c>
       <c r="J52" s="11">
@@ -48481,16 +48425,16 @@
       <c r="E53" s="21">
         <v>1151.29</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="11">
         <v>1.98</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="11">
         <v>46.286700000000003</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="11">
         <v>18.446999999999999</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="11">
         <v>27.379799999999999</v>
       </c>
       <c r="J53" s="11">
@@ -48513,16 +48457,16 @@
       <c r="E54" s="21">
         <v>1179.93</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="11">
         <v>1.98</v>
       </c>
-      <c r="G54" s="21">
+      <c r="G54" s="11">
         <v>48.549199999999999</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="11">
         <v>19.1708</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="11">
         <v>25.617699999999999</v>
       </c>
       <c r="J54" s="11">
@@ -48545,16 +48489,16 @@
       <c r="E55" s="21">
         <v>1186.54</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="11">
         <v>1.98</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G55" s="11">
         <v>43.479100000000003</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="11">
         <v>18.894400000000001</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="11">
         <v>25.3384</v>
       </c>
       <c r="J55" s="11">
@@ -48577,16 +48521,16 @@
       <c r="E56" s="21">
         <v>1203.29</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="11">
         <v>1.98</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G56" s="11">
         <v>58.8583</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="11">
         <v>18.09</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="11">
         <v>23.071000000000002</v>
       </c>
       <c r="J56" s="11">
@@ -48609,16 +48553,16 @@
       <c r="E57" s="21">
         <v>1231.8</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="11">
         <v>1.98</v>
       </c>
-      <c r="G57" s="21">
+      <c r="G57" s="11">
         <v>55.8703</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H57" s="11">
         <v>17.558399999999999</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I57" s="11">
         <v>20.944900000000001</v>
       </c>
       <c r="J57" s="11">
@@ -48641,16 +48585,16 @@
       <c r="E58" s="21">
         <v>1258.43</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="11">
         <v>1.98</v>
       </c>
-      <c r="G58" s="21">
+      <c r="G58" s="11">
         <v>55.890599999999999</v>
       </c>
-      <c r="H58" s="21">
+      <c r="H58" s="11">
         <v>17.261500000000002</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I58" s="11">
         <v>20.923000000000002</v>
       </c>
       <c r="J58" s="11">
@@ -48673,16 +48617,16 @@
       <c r="E59" s="21">
         <v>1292.3599999999999</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="11">
         <v>1.98</v>
       </c>
-      <c r="G59" s="21">
+      <c r="G59" s="11">
         <v>53.347900000000003</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H59" s="11">
         <v>15.6203</v>
       </c>
-      <c r="I59" s="21">
+      <c r="I59" s="11">
         <v>18.113499999999998</v>
       </c>
       <c r="J59" s="11">
@@ -48705,16 +48649,16 @@
       <c r="E60" s="21">
         <v>1278.06</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="11">
         <v>1.98</v>
       </c>
-      <c r="G60" s="21">
+      <c r="G60" s="11">
         <v>49.407200000000003</v>
       </c>
-      <c r="H60" s="21">
+      <c r="H60" s="11">
         <v>16.248000000000001</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I60" s="11">
         <v>19.607299999999999</v>
       </c>
       <c r="J60" s="11">
@@ -48737,16 +48681,16 @@
       <c r="E61" s="21">
         <v>1265.4000000000001</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="11">
         <v>1.98</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G61" s="11">
         <v>46.805300000000003</v>
       </c>
-      <c r="H61" s="21">
+      <c r="H61" s="11">
         <v>17.718299999999999</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I61" s="11">
         <v>20.6709</v>
       </c>
       <c r="J61" s="11">
@@ -48769,16 +48713,16 @@
       <c r="E62" s="21">
         <v>1298.28</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="11">
         <v>1.98</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G62" s="11">
         <v>42.518299999999996</v>
       </c>
-      <c r="H62" s="21">
+      <c r="H62" s="11">
         <v>14.497</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="11">
         <v>19.1252</v>
       </c>
       <c r="J62" s="11">
@@ -48801,16 +48745,16 @@
       <c r="E63" s="21">
         <v>1294.33</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="11">
         <v>1.98</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G63" s="11">
         <v>46.716999999999999</v>
       </c>
-      <c r="H63" s="21">
+      <c r="H63" s="11">
         <v>14.5282</v>
       </c>
-      <c r="I63" s="21">
+      <c r="I63" s="11">
         <v>18.5473</v>
       </c>
       <c r="J63" s="11">
@@ -48833,16 +48777,16 @@
       <c r="E64" s="21">
         <v>1316.6</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="11">
         <v>1.98</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G64" s="11">
         <v>47.0503</v>
       </c>
-      <c r="H64" s="21">
+      <c r="H64" s="11">
         <v>14.3264</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I64" s="11">
         <v>18.192799999999998</v>
       </c>
       <c r="J64" s="11">
@@ -48865,16 +48809,16 @@
       <c r="E65" s="21">
         <v>1311.12</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="11">
         <v>1.98</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G65" s="11">
         <v>40.862400000000001</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H65" s="11">
         <v>13.492599999999999</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I65" s="11">
         <v>17.985900000000001</v>
       </c>
       <c r="J65" s="11">
@@ -48897,16 +48841,16 @@
       <c r="E66" s="21">
         <v>1317.22</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="11">
         <v>1.98</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G66" s="11">
         <v>38.1648</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H66" s="11">
         <v>13.662100000000001</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I66" s="11">
         <v>19.323899999999998</v>
       </c>
       <c r="J66" s="11">
@@ -48929,16 +48873,16 @@
       <c r="E67" s="21">
         <v>1355.21</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F67" s="11">
         <v>1.98</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G67" s="11">
         <v>39.622100000000003</v>
       </c>
-      <c r="H67" s="21">
+      <c r="H67" s="11">
         <v>14.9678</v>
       </c>
-      <c r="I67" s="21">
+      <c r="I67" s="11">
         <v>20.271000000000001</v>
       </c>
       <c r="J67" s="11">
@@ -48961,16 +48905,16 @@
       <c r="E68" s="21">
         <v>1346.91</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="11">
         <v>1.98</v>
       </c>
-      <c r="G68" s="21">
+      <c r="G68" s="11">
         <v>37.718600000000002</v>
       </c>
-      <c r="H68" s="21">
+      <c r="H68" s="11">
         <v>14.850999999999999</v>
       </c>
-      <c r="I68" s="21">
+      <c r="I68" s="11">
         <v>20.158100000000001</v>
       </c>
       <c r="J68" s="11">
@@ -48993,16 +48937,16 @@
       <c r="E69" s="21">
         <v>1287.75</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F69" s="11">
         <v>1.98</v>
       </c>
-      <c r="G69" s="21">
+      <c r="G69" s="11">
         <v>37.3581</v>
       </c>
-      <c r="H69" s="21">
+      <c r="H69" s="11">
         <v>15.700900000000001</v>
       </c>
-      <c r="I69" s="21">
+      <c r="I69" s="11">
         <v>20.383199999999999</v>
       </c>
       <c r="J69" s="11">
@@ -49025,16 +48969,16 @@
       <c r="E70" s="21">
         <v>1295.3900000000001</v>
       </c>
-      <c r="F70" s="21">
+      <c r="F70" s="11">
         <v>1.98</v>
       </c>
-      <c r="G70" s="21">
+      <c r="G70" s="11">
         <v>35.832900000000002</v>
       </c>
-      <c r="H70" s="21">
+      <c r="H70" s="11">
         <v>16.923500000000001</v>
       </c>
-      <c r="I70" s="21">
+      <c r="I70" s="11">
         <v>20.6358</v>
       </c>
       <c r="J70" s="11">
@@ -49057,16 +49001,16 @@
       <c r="E71" s="21">
         <v>1334.45</v>
       </c>
-      <c r="F71" s="21">
+      <c r="F71" s="11">
         <v>1.98</v>
       </c>
-      <c r="G71" s="21">
+      <c r="G71" s="11">
         <v>32.502000000000002</v>
       </c>
-      <c r="H71" s="21">
+      <c r="H71" s="11">
         <v>17.384699999999999</v>
       </c>
-      <c r="I71" s="21">
+      <c r="I71" s="11">
         <v>19.712499999999999</v>
       </c>
       <c r="J71" s="11">
@@ -49089,16 +49033,16 @@
       <c r="E72" s="21">
         <v>1314.09</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F72" s="11">
         <v>1.98</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G72" s="11">
         <v>31.924499999999998</v>
       </c>
-      <c r="H72" s="21">
+      <c r="H72" s="11">
         <v>18.882400000000001</v>
       </c>
-      <c r="I72" s="21">
+      <c r="I72" s="11">
         <v>20.7163</v>
       </c>
       <c r="J72" s="11">
@@ -49121,16 +49065,16 @@
       <c r="E73" s="21">
         <v>1315.73</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="11">
         <v>1.98</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G73" s="11">
         <v>33.195099999999996</v>
       </c>
-      <c r="H73" s="21">
+      <c r="H73" s="11">
         <v>19.139299999999999</v>
       </c>
-      <c r="I73" s="21">
+      <c r="I73" s="11">
         <v>20.8004</v>
       </c>
       <c r="J73" s="11">
@@ -49153,16 +49097,16 @@
       <c r="E74" s="21">
         <v>1327.38</v>
       </c>
-      <c r="F74" s="21">
+      <c r="F74" s="11">
         <v>1.98</v>
       </c>
-      <c r="G74" s="21">
+      <c r="G74" s="11">
         <v>33.479100000000003</v>
       </c>
-      <c r="H74" s="21">
+      <c r="H74" s="11">
         <v>17.902899999999999</v>
       </c>
-      <c r="I74" s="21">
+      <c r="I74" s="11">
         <v>20.559799999999999</v>
       </c>
       <c r="J74" s="11">
@@ -49185,16 +49129,16 @@
       <c r="E75" s="21">
         <v>1338.69</v>
       </c>
-      <c r="F75" s="21">
+      <c r="F75" s="11">
         <v>1.98</v>
       </c>
-      <c r="G75" s="21">
+      <c r="G75" s="11">
         <v>35.498199999999997</v>
       </c>
-      <c r="H75" s="21">
+      <c r="H75" s="11">
         <v>18.838999999999999</v>
       </c>
-      <c r="I75" s="21">
+      <c r="I75" s="11">
         <v>20.7912</v>
       </c>
       <c r="J75" s="11">
@@ -49217,16 +49161,16 @@
       <c r="E76" s="21">
         <v>1355.28</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F76" s="11">
         <v>1.98</v>
       </c>
-      <c r="G76" s="21">
+      <c r="G76" s="11">
         <v>37.345500000000001</v>
       </c>
-      <c r="H76" s="21">
+      <c r="H76" s="11">
         <v>19.707699999999999</v>
       </c>
-      <c r="I76" s="21">
+      <c r="I76" s="11">
         <v>20.9695</v>
       </c>
       <c r="J76" s="11">
@@ -49249,16 +49193,16 @@
       <c r="E77" s="21">
         <v>1368</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="11">
         <v>1.98</v>
       </c>
-      <c r="G77" s="21">
+      <c r="G77" s="11">
         <v>36.099699999999999</v>
       </c>
-      <c r="H77" s="21">
+      <c r="H77" s="11">
         <v>17.979700000000001</v>
       </c>
-      <c r="I77" s="21">
+      <c r="I77" s="11">
         <v>19.610099999999999</v>
       </c>
       <c r="J77" s="11">
@@ -49281,16 +49225,16 @@
       <c r="E78" s="21">
         <v>1324</v>
       </c>
-      <c r="F78" s="21">
+      <c r="F78" s="11">
         <v>1.98</v>
       </c>
-      <c r="G78" s="21">
+      <c r="G78" s="11">
         <v>33.279299999999999</v>
       </c>
-      <c r="H78" s="21">
+      <c r="H78" s="11">
         <v>16.975200000000001</v>
       </c>
-      <c r="I78" s="21">
+      <c r="I78" s="11">
         <v>19.139700000000001</v>
       </c>
       <c r="J78" s="11">
@@ -49313,16 +49257,16 @@
       <c r="E79" s="21">
         <v>1319.45</v>
       </c>
-      <c r="F79" s="21">
+      <c r="F79" s="11">
         <v>1.98</v>
       </c>
-      <c r="G79" s="21">
+      <c r="G79" s="11">
         <v>31.634900000000002</v>
       </c>
-      <c r="H79" s="21">
+      <c r="H79" s="11">
         <v>17.374099999999999</v>
       </c>
-      <c r="I79" s="21">
+      <c r="I79" s="11">
         <v>19.246400000000001</v>
       </c>
       <c r="J79" s="11">
@@ -49345,16 +49289,16 @@
       <c r="E80" s="21">
         <v>1324.75</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F80" s="11">
         <v>1.98</v>
       </c>
-      <c r="G80" s="21">
+      <c r="G80" s="11">
         <v>24.824400000000001</v>
       </c>
-      <c r="H80" s="21">
+      <c r="H80" s="11">
         <v>14.311500000000001</v>
       </c>
-      <c r="I80" s="21">
+      <c r="I80" s="11">
         <v>18.854399999999998</v>
       </c>
       <c r="J80" s="11">
@@ -49377,16 +49321,16 @@
       <c r="E81" s="21">
         <v>1337.36</v>
       </c>
-      <c r="F81" s="21">
+      <c r="F81" s="11">
         <v>1.98</v>
       </c>
-      <c r="G81" s="21">
+      <c r="G81" s="11">
         <v>24.542200000000001</v>
       </c>
-      <c r="H81" s="21">
+      <c r="H81" s="11">
         <v>14.254799999999999</v>
       </c>
-      <c r="I81" s="21">
+      <c r="I81" s="11">
         <v>18.041799999999999</v>
       </c>
       <c r="J81" s="11">
@@ -49409,16 +49353,16 @@
       <c r="E82" s="21">
         <v>1365.02</v>
       </c>
-      <c r="F82" s="21">
+      <c r="F82" s="11">
         <v>1.98</v>
       </c>
-      <c r="G82" s="21">
+      <c r="G82" s="11">
         <v>23.696999999999999</v>
       </c>
-      <c r="H82" s="21">
+      <c r="H82" s="11">
         <v>14.9015</v>
       </c>
-      <c r="I82" s="21">
+      <c r="I82" s="11">
         <v>18.0548</v>
       </c>
       <c r="J82" s="11">
@@ -49441,16 +49385,16 @@
       <c r="E83" s="21">
         <v>1368.53</v>
       </c>
-      <c r="F83" s="21">
+      <c r="F83" s="11">
         <v>1.98</v>
       </c>
-      <c r="G83" s="21">
+      <c r="G83" s="11">
         <v>23.419699999999999</v>
       </c>
-      <c r="H83" s="21">
+      <c r="H83" s="11">
         <v>15.1708</v>
       </c>
-      <c r="I83" s="21">
+      <c r="I83" s="11">
         <v>17.836099999999998</v>
       </c>
       <c r="J83" s="11">
@@ -49473,16 +49417,16 @@
       <c r="E84" s="21">
         <v>1379.38</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F84" s="11">
         <v>2.25</v>
       </c>
-      <c r="G84" s="21">
+      <c r="G84" s="11">
         <v>22.008800000000001</v>
       </c>
-      <c r="H84" s="21">
+      <c r="H84" s="11">
         <v>15.112399999999999</v>
       </c>
-      <c r="I84" s="21">
+      <c r="I84" s="11">
         <v>17.8812</v>
       </c>
       <c r="J84" s="11">
@@ -49505,16 +49449,16 @@
       <c r="E85" s="21">
         <v>1360.85</v>
       </c>
-      <c r="F85" s="21">
+      <c r="F85" s="11">
         <v>2.25</v>
       </c>
-      <c r="G85" s="21">
+      <c r="G85" s="11">
         <v>22.3566</v>
       </c>
-      <c r="H85" s="21">
+      <c r="H85" s="11">
         <v>16.219799999999999</v>
       </c>
-      <c r="I85" s="21">
+      <c r="I85" s="11">
         <v>18.480399999999999</v>
       </c>
       <c r="J85" s="11">
@@ -49537,16 +49481,16 @@
       <c r="E86" s="21">
         <v>1374.34</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="11">
         <v>2.25</v>
       </c>
-      <c r="G86" s="21">
+      <c r="G86" s="11">
         <v>21.423200000000001</v>
       </c>
-      <c r="H86" s="21">
+      <c r="H86" s="11">
         <v>14.519399999999999</v>
       </c>
-      <c r="I86" s="21">
+      <c r="I86" s="11">
         <v>18.518000000000001</v>
       </c>
       <c r="J86" s="11">
@@ -49569,16 +49513,16 @@
       <c r="E87" s="21">
         <v>1384.37</v>
       </c>
-      <c r="F87" s="21">
+      <c r="F87" s="11">
         <v>2.25</v>
       </c>
-      <c r="G87" s="21">
+      <c r="G87" s="11">
         <v>20.103999999999999</v>
       </c>
-      <c r="H87" s="21">
+      <c r="H87" s="11">
         <v>14.005000000000001</v>
       </c>
-      <c r="I87" s="21">
+      <c r="I87" s="11">
         <v>18.002500000000001</v>
       </c>
       <c r="J87" s="11">
@@ -49601,16 +49545,16 @@
       <c r="E88" s="21">
         <v>1373.07</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F88" s="11">
         <v>2.25</v>
       </c>
-      <c r="G88" s="21">
+      <c r="G88" s="11">
         <v>22.021599999999999</v>
       </c>
-      <c r="H88" s="21">
+      <c r="H88" s="11">
         <v>14.4857</v>
       </c>
-      <c r="I88" s="21">
+      <c r="I88" s="11">
         <v>18.297499999999999</v>
       </c>
       <c r="J88" s="11">
@@ -49633,16 +49577,16 @@
       <c r="E89" s="21">
         <v>1368.6</v>
       </c>
-      <c r="F89" s="21">
+      <c r="F89" s="11">
         <v>2.25</v>
       </c>
-      <c r="G89" s="21">
+      <c r="G89" s="11">
         <v>19.276399999999999</v>
       </c>
-      <c r="H89" s="21">
+      <c r="H89" s="11">
         <v>13.565099999999999</v>
       </c>
-      <c r="I89" s="21">
+      <c r="I89" s="11">
         <v>17.635400000000001</v>
       </c>
       <c r="J89" s="11">
@@ -49665,16 +49609,16 @@
       <c r="E90" s="21">
         <v>1392.66</v>
       </c>
-      <c r="F90" s="21">
+      <c r="F90" s="11">
         <v>2.25</v>
       </c>
-      <c r="G90" s="21">
+      <c r="G90" s="11">
         <v>18.695599999999999</v>
       </c>
-      <c r="H90" s="21">
+      <c r="H90" s="11">
         <v>13.941700000000001</v>
       </c>
-      <c r="I90" s="21">
+      <c r="I90" s="11">
         <v>17.183199999999999</v>
       </c>
       <c r="J90" s="11">
@@ -49697,16 +49641,16 @@
       <c r="E91" s="21">
         <v>1409.67</v>
       </c>
-      <c r="F91" s="21">
+      <c r="F91" s="11">
         <v>2.25</v>
       </c>
-      <c r="G91" s="21">
+      <c r="G91" s="11">
         <v>17.232099999999999</v>
       </c>
-      <c r="H91" s="21">
+      <c r="H91" s="11">
         <v>13.9346</v>
       </c>
-      <c r="I91" s="21">
+      <c r="I91" s="11">
         <v>17.6873</v>
       </c>
       <c r="J91" s="11">
@@ -49729,16 +49673,16 @@
       <c r="E92" s="21">
         <v>1418.31</v>
       </c>
-      <c r="F92" s="21">
+      <c r="F92" s="11">
         <v>2.25</v>
       </c>
-      <c r="G92" s="21">
+      <c r="G92" s="11">
         <v>17.831299999999999</v>
       </c>
-      <c r="H92" s="21">
+      <c r="H92" s="11">
         <v>12.751300000000001</v>
       </c>
-      <c r="I92" s="21">
+      <c r="I92" s="11">
         <v>17.352599999999999</v>
       </c>
       <c r="J92" s="11">
@@ -49761,16 +49705,16 @@
       <c r="E93" s="21">
         <v>1399.08</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F93" s="11">
         <v>2.25</v>
       </c>
-      <c r="G93" s="21">
+      <c r="G93" s="11">
         <v>17.675899999999999</v>
       </c>
-      <c r="H93" s="21">
+      <c r="H93" s="11">
         <v>13.337</v>
       </c>
-      <c r="I93" s="21">
+      <c r="I93" s="11">
         <v>17.884</v>
       </c>
       <c r="J93" s="11">
@@ -49793,16 +49737,16 @@
       <c r="E94" s="21">
         <v>1421.3</v>
       </c>
-      <c r="F94" s="21">
+      <c r="F94" s="11">
         <v>2.25</v>
       </c>
-      <c r="G94" s="21">
+      <c r="G94" s="11">
         <v>18.844799999999999</v>
       </c>
-      <c r="H94" s="21">
+      <c r="H94" s="11">
         <v>13.3637</v>
       </c>
-      <c r="I94" s="21">
+      <c r="I94" s="11">
         <v>17.5701</v>
       </c>
       <c r="J94" s="11">
@@ -49825,16 +49769,16 @@
       <c r="E95" s="21">
         <v>1402.44</v>
       </c>
-      <c r="F95" s="21">
+      <c r="F95" s="11">
         <v>2.25</v>
       </c>
-      <c r="G95" s="21">
+      <c r="G95" s="11">
         <v>18.9008</v>
       </c>
-      <c r="H95" s="21">
+      <c r="H95" s="11">
         <v>13.840199999999999</v>
       </c>
-      <c r="I95" s="21">
+      <c r="I95" s="11">
         <v>17.406700000000001</v>
       </c>
       <c r="J95" s="11">
@@ -49857,16 +49801,16 @@
       <c r="E96" s="21">
         <v>1391.47</v>
       </c>
-      <c r="F96" s="21">
+      <c r="F96" s="11">
         <v>2.25</v>
       </c>
-      <c r="G96" s="21">
+      <c r="G96" s="11">
         <v>17.800699999999999</v>
       </c>
-      <c r="H96" s="21">
+      <c r="H96" s="11">
         <v>12.9139</v>
       </c>
-      <c r="I96" s="21">
+      <c r="I96" s="11">
         <v>16.853300000000001</v>
       </c>
       <c r="J96" s="11">
@@ -49889,16 +49833,16 @@
       <c r="E97" s="21">
         <v>1398.22</v>
       </c>
-      <c r="F97" s="21">
+      <c r="F97" s="11">
         <v>2.25</v>
       </c>
-      <c r="G97" s="21">
+      <c r="G97" s="11">
         <v>17.7029</v>
       </c>
-      <c r="H97" s="21">
+      <c r="H97" s="11">
         <v>13.425599999999999</v>
       </c>
-      <c r="I97" s="21">
+      <c r="I97" s="11">
         <v>17.425000000000001</v>
       </c>
       <c r="J97" s="11">
@@ -49921,16 +49865,16 @@
       <c r="E98" s="21">
         <v>1412.71</v>
       </c>
-      <c r="F98" s="21">
+      <c r="F98" s="11">
         <v>2.25</v>
       </c>
-      <c r="G98" s="21">
+      <c r="G98" s="11">
         <v>19.090599999999998</v>
       </c>
-      <c r="H98" s="21">
+      <c r="H98" s="11">
         <v>11.658300000000001</v>
       </c>
-      <c r="I98" s="21">
+      <c r="I98" s="11">
         <v>16.905899999999999</v>
       </c>
       <c r="J98" s="11">
@@ -49953,16 +49897,16 @@
       <c r="E99" s="21">
         <v>1408.5</v>
       </c>
-      <c r="F99" s="21">
+      <c r="F99" s="11">
         <v>2.25</v>
       </c>
-      <c r="G99" s="21">
+      <c r="G99" s="11">
         <v>20.2119</v>
       </c>
-      <c r="H99" s="21">
+      <c r="H99" s="11">
         <v>12.3537</v>
       </c>
-      <c r="I99" s="21">
+      <c r="I99" s="11">
         <v>17.237100000000002</v>
       </c>
       <c r="J99" s="11">
@@ -49985,16 +49929,16 @@
       <c r="E100" s="21">
         <v>1410.55</v>
       </c>
-      <c r="F100" s="21">
+      <c r="F100" s="11">
         <v>2.25</v>
       </c>
-      <c r="G100" s="21">
+      <c r="G100" s="11">
         <v>20.8614</v>
       </c>
-      <c r="H100" s="21">
+      <c r="H100" s="11">
         <v>12.4917</v>
       </c>
-      <c r="I100" s="21">
+      <c r="I100" s="11">
         <v>17.180499999999999</v>
       </c>
       <c r="J100" s="11">
@@ -50017,16 +49961,16 @@
       <c r="E101" s="21">
         <v>1395.33</v>
       </c>
-      <c r="F101" s="21">
+      <c r="F101" s="11">
         <v>2.25</v>
       </c>
-      <c r="G101" s="21">
+      <c r="G101" s="11">
         <v>20.968299999999999</v>
       </c>
-      <c r="H101" s="21">
+      <c r="H101" s="11">
         <v>12.2608</v>
       </c>
-      <c r="I101" s="21">
+      <c r="I101" s="11">
         <v>16.855399999999999</v>
       </c>
       <c r="J101" s="11">
@@ -50049,16 +49993,16 @@
       <c r="E102" s="21">
         <v>1389.58</v>
       </c>
-      <c r="F102" s="21">
+      <c r="F102" s="11">
         <v>2.25</v>
       </c>
-      <c r="G102" s="21">
+      <c r="G102" s="11">
         <v>23.0763</v>
       </c>
-      <c r="H102" s="21">
+      <c r="H102" s="11">
         <v>12.903499999999999</v>
       </c>
-      <c r="I102" s="21">
+      <c r="I102" s="11">
         <v>17.058700000000002</v>
       </c>
       <c r="J102" s="11">
@@ -50081,16 +50025,16 @@
       <c r="E103" s="21">
         <v>1390.04</v>
       </c>
-      <c r="F103" s="21">
+      <c r="F103" s="11">
         <v>2.25</v>
       </c>
-      <c r="G103" s="21">
+      <c r="G103" s="11">
         <v>25.6633</v>
       </c>
-      <c r="H103" s="21">
+      <c r="H103" s="11">
         <v>12.2956</v>
       </c>
-      <c r="I103" s="21">
+      <c r="I103" s="11">
         <v>16.445799999999998</v>
       </c>
       <c r="J103" s="11">
@@ -50113,16 +50057,16 @@
       <c r="E104" s="21">
         <v>1394.47</v>
       </c>
-      <c r="F104" s="21">
+      <c r="F104" s="11">
         <v>2.25</v>
       </c>
-      <c r="G104" s="21">
+      <c r="G104" s="11">
         <v>25.245000000000001</v>
       </c>
-      <c r="H104" s="21">
+      <c r="H104" s="11">
         <v>11.889699999999999</v>
       </c>
-      <c r="I104" s="21">
+      <c r="I104" s="11">
         <v>15.9392</v>
       </c>
       <c r="J104" s="11">
@@ -50145,16 +50089,16 @@
       <c r="E105" s="21">
         <v>1411.74</v>
       </c>
-      <c r="F105" s="21">
+      <c r="F105" s="11">
         <v>2.25</v>
       </c>
-      <c r="G105" s="21">
+      <c r="G105" s="11">
         <v>23.682700000000001</v>
       </c>
-      <c r="H105" s="21">
+      <c r="H105" s="11">
         <v>12.4298</v>
       </c>
-      <c r="I105" s="21">
+      <c r="I105" s="11">
         <v>15.968999999999999</v>
       </c>
       <c r="J105" s="11">
@@ -50177,16 +50121,16 @@
       <c r="E106" s="21">
         <v>1432.46</v>
       </c>
-      <c r="F106" s="21">
+      <c r="F106" s="11">
         <v>2.52</v>
       </c>
-      <c r="G106" s="21">
+      <c r="G106" s="11">
         <v>23.740200000000002</v>
       </c>
-      <c r="H106" s="21">
+      <c r="H106" s="11">
         <v>12.731999999999999</v>
       </c>
-      <c r="I106" s="21">
+      <c r="I106" s="11">
         <v>16.268999999999998</v>
       </c>
       <c r="J106" s="11">
@@ -50209,16 +50153,16 @@
       <c r="E107" s="21">
         <v>1445.76</v>
       </c>
-      <c r="F107" s="21">
+      <c r="F107" s="11">
         <v>2.52</v>
       </c>
-      <c r="G107" s="21">
+      <c r="G107" s="11">
         <v>23.334099999999999</v>
       </c>
-      <c r="H107" s="21">
+      <c r="H107" s="11">
         <v>13.0253</v>
       </c>
-      <c r="I107" s="21">
+      <c r="I107" s="11">
         <v>15.956300000000001</v>
       </c>
       <c r="J107" s="11">
@@ -50241,16 +50185,16 @@
       <c r="E108" s="21">
         <v>1453.1</v>
       </c>
-      <c r="F108" s="21">
+      <c r="F108" s="11">
         <v>2.52</v>
       </c>
-      <c r="G108" s="21">
+      <c r="G108" s="11">
         <v>23.745999999999999</v>
       </c>
-      <c r="H108" s="21">
+      <c r="H108" s="11">
         <v>13.6379</v>
       </c>
-      <c r="I108" s="21">
+      <c r="I108" s="11">
         <v>16.426400000000001</v>
       </c>
       <c r="J108" s="11">
@@ -50273,16 +50217,16 @@
       <c r="E109" s="21">
         <v>1468.28</v>
       </c>
-      <c r="F109" s="21">
+      <c r="F109" s="11">
         <v>2.52</v>
       </c>
-      <c r="G109" s="21">
+      <c r="G109" s="11">
         <v>25.7636</v>
       </c>
-      <c r="H109" s="21">
+      <c r="H109" s="11">
         <v>14.0626</v>
       </c>
-      <c r="I109" s="21">
+      <c r="I109" s="11">
         <v>16.702300000000001</v>
       </c>
       <c r="J109" s="11">
@@ -50305,16 +50249,16 @@
       <c r="E110" s="21">
         <v>1456.21</v>
       </c>
-      <c r="F110" s="21">
+      <c r="F110" s="11">
         <v>2.52</v>
       </c>
-      <c r="G110" s="21">
+      <c r="G110" s="11">
         <v>27.667899999999999</v>
       </c>
-      <c r="H110" s="21">
+      <c r="H110" s="11">
         <v>15.1379</v>
       </c>
-      <c r="I110" s="21">
+      <c r="I110" s="11">
         <v>16.552099999999999</v>
       </c>
       <c r="J110" s="11">
@@ -50337,16 +50281,16 @@
       <c r="E111" s="21">
         <v>1453.89</v>
       </c>
-      <c r="F111" s="21">
+      <c r="F111" s="11">
         <v>2.52</v>
       </c>
-      <c r="G111" s="21">
+      <c r="G111" s="11">
         <v>30.374199999999998</v>
       </c>
-      <c r="H111" s="21">
+      <c r="H111" s="11">
         <v>15.2074</v>
       </c>
-      <c r="I111" s="21">
+      <c r="I111" s="11">
         <v>16.7561</v>
       </c>
       <c r="J111" s="11">
@@ -50369,16 +50313,16 @@
       <c r="E112" s="21">
         <v>1478</v>
       </c>
-      <c r="F112" s="21">
+      <c r="F112" s="11">
         <v>2.52</v>
       </c>
-      <c r="G112" s="21">
+      <c r="G112" s="11">
         <v>31.3249</v>
       </c>
-      <c r="H112" s="21">
+      <c r="H112" s="11">
         <v>14.8911</v>
       </c>
-      <c r="I112" s="21">
+      <c r="I112" s="11">
         <v>16.3249</v>
       </c>
       <c r="J112" s="11">
@@ -50401,16 +50345,16 @@
       <c r="E113" s="21">
         <v>1477.28</v>
       </c>
-      <c r="F113" s="21">
+      <c r="F113" s="11">
         <v>2.79</v>
       </c>
-      <c r="G113" s="21">
+      <c r="G113" s="11">
         <v>31.938500000000001</v>
       </c>
-      <c r="H113" s="21">
+      <c r="H113" s="11">
         <v>15.3287</v>
       </c>
-      <c r="I113" s="21">
+      <c r="I113" s="11">
         <v>16.236799999999999</v>
       </c>
       <c r="J113" s="11">
@@ -50433,16 +50377,16 @@
       <c r="E114" s="21">
         <v>1484.89</v>
       </c>
-      <c r="F114" s="21">
+      <c r="F114" s="11">
         <v>2.79</v>
       </c>
-      <c r="G114" s="21">
+      <c r="G114" s="11">
         <v>39.653599999999997</v>
       </c>
-      <c r="H114" s="21">
+      <c r="H114" s="11">
         <v>15.736700000000001</v>
       </c>
-      <c r="I114" s="21">
+      <c r="I114" s="11">
         <v>16.919799999999999</v>
       </c>
       <c r="J114" s="11">
@@ -50465,16 +50409,16 @@
       <c r="E115" s="21">
         <v>1471.56</v>
       </c>
-      <c r="F115" s="21">
+      <c r="F115" s="11">
         <v>3.06</v>
       </c>
-      <c r="G115" s="21">
+      <c r="G115" s="11">
         <v>41.237000000000002</v>
       </c>
-      <c r="H115" s="21">
+      <c r="H115" s="11">
         <v>15.984400000000001</v>
       </c>
-      <c r="I115" s="21">
+      <c r="I115" s="11">
         <v>17.4434</v>
       </c>
       <c r="J115" s="11">
@@ -50497,16 +50441,16 @@
       <c r="E116" s="21">
         <v>1470.92</v>
       </c>
-      <c r="F116" s="21">
+      <c r="F116" s="11">
         <v>3.06</v>
       </c>
-      <c r="G116" s="21">
+      <c r="G116" s="11">
         <v>32.941699999999997</v>
       </c>
-      <c r="H116" s="21">
+      <c r="H116" s="11">
         <v>14.964499999999999</v>
       </c>
-      <c r="I116" s="21">
+      <c r="I116" s="11">
         <v>16.758400000000002</v>
       </c>
       <c r="J116" s="11">
@@ -50529,16 +50473,16 @@
       <c r="E117" s="21">
         <v>1495.31</v>
       </c>
-      <c r="F117" s="21">
+      <c r="F117" s="11">
         <v>3.33</v>
       </c>
-      <c r="G117" s="21">
+      <c r="G117" s="11">
         <v>38.392099999999999</v>
       </c>
-      <c r="H117" s="21">
+      <c r="H117" s="11">
         <v>15.925800000000001</v>
       </c>
-      <c r="I117" s="21">
+      <c r="I117" s="11">
         <v>16.2013</v>
       </c>
       <c r="J117" s="11">
@@ -50561,16 +50505,16 @@
       <c r="E118" s="21">
         <v>1518.75</v>
       </c>
-      <c r="F118" s="21">
+      <c r="F118" s="11">
         <v>3.6</v>
       </c>
-      <c r="G118" s="21">
+      <c r="G118" s="11">
         <v>43.627699999999997</v>
       </c>
-      <c r="H118" s="21">
+      <c r="H118" s="11">
         <v>16.4787</v>
       </c>
-      <c r="I118" s="21">
+      <c r="I118" s="11">
         <v>16.391500000000001</v>
       </c>
       <c r="J118" s="11">
@@ -50593,16 +50537,16 @@
       <c r="E119" s="21">
         <v>1526.94</v>
       </c>
-      <c r="F119" s="21">
+      <c r="F119" s="11">
         <v>3.87</v>
       </c>
-      <c r="G119" s="21">
+      <c r="G119" s="11">
         <v>44.103999999999999</v>
       </c>
-      <c r="H119" s="21">
+      <c r="H119" s="11">
         <v>18.7532</v>
       </c>
-      <c r="I119" s="21">
+      <c r="I119" s="11">
         <v>17.0992</v>
       </c>
       <c r="J119" s="11">
@@ -50625,16 +50569,16 @@
       <c r="E120" s="21">
         <v>1538.95</v>
       </c>
-      <c r="F120" s="21">
+      <c r="F120" s="11">
         <v>3.87</v>
       </c>
-      <c r="G120" s="21">
+      <c r="G120" s="11">
         <v>47.842500000000001</v>
       </c>
-      <c r="H120" s="21">
+      <c r="H120" s="11">
         <v>21.690200000000001</v>
       </c>
-      <c r="I120" s="21">
+      <c r="I120" s="11">
         <v>17.327400000000001</v>
       </c>
       <c r="J120" s="11">
@@ -50657,16 +50601,16 @@
       <c r="E121" s="21">
         <v>1586.18</v>
       </c>
-      <c r="F121" s="21">
+      <c r="F121" s="11">
         <v>3.87</v>
       </c>
-      <c r="G121" s="21">
+      <c r="G121" s="11">
         <v>41.157699999999998</v>
       </c>
-      <c r="H121" s="21">
+      <c r="H121" s="11">
         <v>19.759499999999999</v>
       </c>
-      <c r="I121" s="21">
+      <c r="I121" s="11">
         <v>16.682700000000001</v>
       </c>
       <c r="J121" s="11">
@@ -50689,16 +50633,16 @@
       <c r="E122" s="21">
         <v>1587.45</v>
       </c>
-      <c r="F122" s="21">
+      <c r="F122" s="11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G122" s="21">
+      <c r="G122" s="11">
         <v>39.645000000000003</v>
       </c>
-      <c r="H122" s="21">
+      <c r="H122" s="11">
         <v>16.848300000000002</v>
       </c>
-      <c r="I122" s="21">
+      <c r="I122" s="11">
         <v>17.4497</v>
       </c>
       <c r="J122" s="11">
@@ -50721,16 +50665,16 @@
       <c r="E123" s="21">
         <v>1627.75</v>
       </c>
-      <c r="F123" s="21">
+      <c r="F123" s="11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G123" s="21">
+      <c r="G123" s="11">
         <v>33.145600000000002</v>
       </c>
-      <c r="H123" s="21">
+      <c r="H123" s="11">
         <v>14.442500000000001</v>
       </c>
-      <c r="I123" s="21">
+      <c r="I123" s="11">
         <v>16.349499999999999</v>
       </c>
       <c r="J123" s="11">
@@ -50753,16 +50697,16 @@
       <c r="E124" s="21">
         <v>1646.3</v>
       </c>
-      <c r="F124" s="21">
+      <c r="F124" s="11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G124" s="21">
+      <c r="G124" s="11">
         <v>32.902099999999997</v>
       </c>
-      <c r="H124" s="21">
+      <c r="H124" s="11">
         <v>14.7807</v>
       </c>
-      <c r="I124" s="21">
+      <c r="I124" s="11">
         <v>15.843400000000001</v>
       </c>
       <c r="J124" s="11">
@@ -50785,16 +50729,16 @@
       <c r="E125" s="21">
         <v>1657.72</v>
       </c>
-      <c r="F125" s="21">
+      <c r="F125" s="11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G125" s="21">
+      <c r="G125" s="11">
         <v>25.5458</v>
       </c>
-      <c r="H125" s="21">
+      <c r="H125" s="11">
         <v>14.049099999999999</v>
       </c>
-      <c r="I125" s="21">
+      <c r="I125" s="11">
         <v>16.718800000000002</v>
       </c>
       <c r="J125" s="11">
@@ -50817,16 +50761,16 @@
       <c r="E126" s="21">
         <v>1629.23</v>
       </c>
-      <c r="F126" s="21">
+      <c r="F126" s="11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G126" s="21">
+      <c r="G126" s="11">
         <v>27.011700000000001</v>
       </c>
-      <c r="H126" s="21">
+      <c r="H126" s="11">
         <v>15.8505</v>
       </c>
-      <c r="I126" s="21">
+      <c r="I126" s="11">
         <v>17.481200000000001</v>
       </c>
       <c r="J126" s="11">
@@ -50849,16 +50793,16 @@
       <c r="E127" s="21">
         <v>1610.21</v>
       </c>
-      <c r="F127" s="21">
+      <c r="F127" s="11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G127" s="21">
+      <c r="G127" s="11">
         <v>25.760200000000001</v>
       </c>
-      <c r="H127" s="21">
+      <c r="H127" s="11">
         <v>15.0824</v>
       </c>
-      <c r="I127" s="21">
+      <c r="I127" s="11">
         <v>17.844999999999999</v>
       </c>
       <c r="J127" s="11">
@@ -50881,16 +50825,16 @@
       <c r="E128" s="21">
         <v>1622.86</v>
       </c>
-      <c r="F128" s="21">
+      <c r="F128" s="11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G128" s="21">
+      <c r="G128" s="11">
         <v>20.2178</v>
       </c>
-      <c r="H128" s="21">
+      <c r="H128" s="11">
         <v>13.9536</v>
       </c>
-      <c r="I128" s="21">
+      <c r="I128" s="11">
         <v>17.433299999999999</v>
       </c>
       <c r="J128" s="11">
@@ -50913,16 +50857,16 @@
       <c r="E129" s="21">
         <v>1629.72</v>
       </c>
-      <c r="F129" s="21">
+      <c r="F129" s="11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G129" s="21">
+      <c r="G129" s="11">
         <v>20.585899999999999</v>
       </c>
-      <c r="H129" s="21">
+      <c r="H129" s="11">
         <v>14.341100000000001</v>
       </c>
-      <c r="I129" s="21">
+      <c r="I129" s="11">
         <v>17.470300000000002</v>
       </c>
       <c r="J129" s="11">
@@ -50945,16 +50889,16 @@
       <c r="E130" s="21">
         <v>1650.08</v>
       </c>
-      <c r="F130" s="21">
+      <c r="F130" s="11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G130" s="21">
+      <c r="G130" s="11">
         <v>17.523900000000001</v>
       </c>
-      <c r="H130" s="21">
+      <c r="H130" s="11">
         <v>13.3756</v>
       </c>
-      <c r="I130" s="21">
+      <c r="I130" s="11">
         <v>17.998699999999999</v>
       </c>
       <c r="J130" s="11">
@@ -50977,16 +50921,16 @@
       <c r="E131" s="21">
         <v>1660.18</v>
       </c>
-      <c r="F131" s="21">
+      <c r="F131" s="11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G131" s="21">
+      <c r="G131" s="11">
         <v>17.268599999999999</v>
       </c>
-      <c r="H131" s="21">
+      <c r="H131" s="11">
         <v>11.4918</v>
       </c>
-      <c r="I131" s="21">
+      <c r="I131" s="11">
         <v>16.777799999999999</v>
       </c>
       <c r="J131" s="11">
@@ -51009,16 +50953,16 @@
       <c r="E132" s="21">
         <v>1658.35</v>
       </c>
-      <c r="F132" s="21">
+      <c r="F132" s="11">
         <v>3.6</v>
       </c>
-      <c r="G132" s="21">
+      <c r="G132" s="11">
         <v>12.9902</v>
       </c>
-      <c r="H132" s="21">
+      <c r="H132" s="11">
         <v>8.9219000000000008</v>
       </c>
-      <c r="I132" s="21">
+      <c r="I132" s="11">
         <v>14.1127</v>
       </c>
       <c r="J132" s="11">
@@ -51041,16 +50985,16 @@
       <c r="E133" s="21">
         <v>1746.36</v>
       </c>
-      <c r="F133" s="21">
+      <c r="F133" s="11">
         <v>2.52</v>
       </c>
-      <c r="G133" s="21">
+      <c r="G133" s="11">
         <v>14.270799999999999</v>
       </c>
-      <c r="H133" s="21">
+      <c r="H133" s="11">
         <v>8.8795999999999999</v>
       </c>
-      <c r="I133" s="21">
+      <c r="I133" s="11">
         <v>13.1739</v>
       </c>
       <c r="J133" s="11">
@@ -51073,16 +51017,16 @@
       <c r="E134" s="21">
         <v>1805.52</v>
       </c>
-      <c r="F134" s="21">
+      <c r="F134" s="11">
         <v>2.25</v>
       </c>
-      <c r="G134" s="21">
+      <c r="G134" s="11">
         <v>17.2959</v>
       </c>
-      <c r="H134" s="21">
+      <c r="H134" s="11">
         <v>12.3741</v>
       </c>
-      <c r="I134" s="21">
+      <c r="I134" s="11">
         <v>16.729500000000002</v>
       </c>
       <c r="J134" s="11">
@@ -51105,16 +51049,16 @@
       <c r="E135" s="21">
         <v>1752.87</v>
       </c>
-      <c r="F135" s="21">
+      <c r="F135" s="11">
         <v>2.25</v>
       </c>
-      <c r="G135" s="21">
+      <c r="G135" s="11">
         <v>18.914300000000001</v>
       </c>
-      <c r="H135" s="21">
+      <c r="H135" s="11">
         <v>11.414300000000001</v>
       </c>
-      <c r="I135" s="21">
+      <c r="I135" s="11">
         <v>13.542400000000001</v>
       </c>
       <c r="J135" s="11">
@@ -51137,16 +51081,16 @@
       <c r="E136" s="21">
         <v>1743.65</v>
       </c>
-      <c r="F136" s="21">
+      <c r="F136" s="11">
         <v>2.25</v>
       </c>
-      <c r="G136" s="21">
+      <c r="G136" s="11">
         <v>20.061499999999999</v>
       </c>
-      <c r="H136" s="21">
+      <c r="H136" s="11">
         <v>11.0199</v>
       </c>
-      <c r="I136" s="21">
+      <c r="I136" s="11">
         <v>12.0746</v>
       </c>
       <c r="J136" s="11">
@@ -51169,16 +51113,16 @@
       <c r="E137" s="21">
         <v>1781.64</v>
       </c>
-      <c r="F137" s="21">
+      <c r="F137" s="11">
         <v>2.25</v>
       </c>
-      <c r="G137" s="21">
+      <c r="G137" s="11">
         <v>24.552099999999999</v>
       </c>
-      <c r="H137" s="21">
+      <c r="H137" s="11">
         <v>11.866899999999999</v>
       </c>
-      <c r="I137" s="21">
+      <c r="I137" s="11">
         <v>14.3764</v>
       </c>
       <c r="J137" s="11">
@@ -51201,16 +51145,16 @@
       <c r="E138" s="21">
         <v>1749.14</v>
       </c>
-      <c r="F138" s="21">
+      <c r="F138" s="11">
         <v>2.25</v>
       </c>
-      <c r="G138" s="21">
+      <c r="G138" s="11">
         <v>25.648199999999999</v>
       </c>
-      <c r="H138" s="21">
+      <c r="H138" s="11">
         <v>13.562200000000001</v>
       </c>
-      <c r="I138" s="21">
+      <c r="I138" s="11">
         <v>15.886699999999999</v>
       </c>
       <c r="J138" s="11">
@@ -51233,16 +51177,16 @@
       <c r="E139" s="21">
         <v>1731.49</v>
       </c>
-      <c r="F139" s="21">
+      <c r="F139" s="11">
         <v>2.25</v>
       </c>
-      <c r="G139" s="21">
+      <c r="G139" s="11">
         <v>27.496099999999998</v>
       </c>
-      <c r="H139" s="21">
+      <c r="H139" s="11">
         <v>15.859500000000001</v>
       </c>
-      <c r="I139" s="21">
+      <c r="I139" s="11">
         <v>16.822600000000001</v>
       </c>
       <c r="J139" s="11">
@@ -51265,16 +51209,16 @@
       <c r="E140" s="21">
         <v>1727.82</v>
       </c>
-      <c r="F140" s="21">
+      <c r="F140" s="11">
         <v>2.25</v>
       </c>
-      <c r="G140" s="21">
+      <c r="G140" s="11">
         <v>31.408300000000001</v>
       </c>
-      <c r="H140" s="21">
+      <c r="H140" s="11">
         <v>18.872700000000002</v>
       </c>
-      <c r="I140" s="21">
+      <c r="I140" s="11">
         <v>18.128799999999998</v>
       </c>
       <c r="J140" s="11">
@@ -51297,16 +51241,16 @@
       <c r="E141" s="21">
         <v>1735.05</v>
       </c>
-      <c r="F141" s="21">
+      <c r="F141" s="11">
         <v>2.25</v>
       </c>
-      <c r="G141" s="21">
+      <c r="G141" s="11">
         <v>37.129199999999997</v>
       </c>
-      <c r="H141" s="21">
+      <c r="H141" s="11">
         <v>21.108000000000001</v>
       </c>
-      <c r="I141" s="21">
+      <c r="I141" s="11">
         <v>19.5764</v>
       </c>
       <c r="J141" s="11">
@@ -51329,16 +51273,16 @@
       <c r="E142" s="21">
         <v>1750.5</v>
       </c>
-      <c r="F142" s="21">
+      <c r="F142" s="11">
         <v>2.25</v>
       </c>
-      <c r="G142" s="21">
+      <c r="G142" s="11">
         <v>28.645099999999999</v>
       </c>
-      <c r="H142" s="21">
+      <c r="H142" s="11">
         <v>20.2422</v>
       </c>
-      <c r="I142" s="21">
+      <c r="I142" s="11">
         <v>21.507200000000001</v>
       </c>
       <c r="J142" s="11">
@@ -51361,16 +51305,16 @@
       <c r="E143" s="21">
         <v>1764.12</v>
       </c>
-      <c r="F143" s="21">
+      <c r="F143" s="11">
         <v>2.25</v>
       </c>
-      <c r="G143" s="21">
+      <c r="G143" s="11">
         <v>28.091699999999999</v>
       </c>
-      <c r="H143" s="21">
+      <c r="H143" s="11">
         <v>20.424700000000001</v>
       </c>
-      <c r="I143" s="21">
+      <c r="I143" s="11">
         <v>23.0609</v>
       </c>
       <c r="J143" s="11">
@@ -51393,16 +51337,16 @@
       <c r="E144" s="21">
         <v>1763.26</v>
       </c>
-      <c r="F144" s="21">
+      <c r="F144" s="11">
         <v>2.25</v>
       </c>
-      <c r="G144" s="21">
+      <c r="G144" s="11">
         <v>30.2118</v>
       </c>
-      <c r="H144" s="21">
+      <c r="H144" s="11">
         <v>21.206399999999999</v>
       </c>
-      <c r="I144" s="21">
+      <c r="I144" s="11">
         <v>22.840499999999999</v>
       </c>
       <c r="J144" s="11">
@@ -51425,16 +51369,16 @@
       <c r="E145" s="21">
         <v>1787.81</v>
       </c>
-      <c r="F145" s="21">
+      <c r="F145" s="11">
         <v>2.25</v>
       </c>
-      <c r="G145" s="21">
+      <c r="G145" s="11">
         <v>32.196100000000001</v>
       </c>
-      <c r="H145" s="21">
+      <c r="H145" s="11">
         <v>21.289000000000001</v>
       </c>
-      <c r="I145" s="21">
+      <c r="I145" s="11">
         <v>24.109200000000001</v>
       </c>
       <c r="J145" s="11">
@@ -51457,16 +51401,16 @@
       <c r="E146" s="21">
         <v>1741.11</v>
       </c>
-      <c r="F146" s="21">
+      <c r="F146" s="11">
         <v>2.25</v>
       </c>
-      <c r="G146" s="21">
+      <c r="G146" s="11">
         <v>26.048100000000002</v>
       </c>
-      <c r="H146" s="21">
+      <c r="H146" s="11">
         <v>15.654400000000001</v>
       </c>
-      <c r="I146" s="21">
+      <c r="I146" s="11">
         <v>18.919899999999998</v>
       </c>
       <c r="J146" s="11">
@@ -51489,16 +51433,16 @@
       <c r="E147" s="21">
         <v>1768.63</v>
       </c>
-      <c r="F147" s="21">
+      <c r="F147" s="11">
         <v>2.25</v>
       </c>
-      <c r="G147" s="21">
+      <c r="G147" s="11">
         <v>23.713899999999999</v>
       </c>
-      <c r="H147" s="21">
+      <c r="H147" s="11">
         <v>14.4095</v>
       </c>
-      <c r="I147" s="21">
+      <c r="I147" s="11">
         <v>17.989999999999998</v>
       </c>
       <c r="J147" s="11">
@@ -51521,16 +51465,16 @@
       <c r="E148" s="21">
         <v>1775.62</v>
       </c>
-      <c r="F148" s="21">
+      <c r="F148" s="11">
         <v>2.25</v>
       </c>
-      <c r="G148" s="21">
+      <c r="G148" s="11">
         <v>24.244299999999999</v>
       </c>
-      <c r="H148" s="21">
+      <c r="H148" s="11">
         <v>14.762</v>
       </c>
-      <c r="I148" s="21">
+      <c r="I148" s="11">
         <v>18.5459</v>
       </c>
       <c r="J148" s="11">
@@ -51553,16 +51497,16 @@
       <c r="E149" s="21">
         <v>1760.58</v>
       </c>
-      <c r="F149" s="21">
+      <c r="F149" s="11">
         <v>2.25</v>
       </c>
-      <c r="G149" s="21">
+      <c r="G149" s="11">
         <v>22.248699999999999</v>
       </c>
-      <c r="H149" s="21">
+      <c r="H149" s="11">
         <v>14.9549</v>
       </c>
-      <c r="I149" s="21">
+      <c r="I149" s="11">
         <v>17.7179</v>
       </c>
       <c r="J149" s="11">
@@ -51585,16 +51529,16 @@
       <c r="E150" s="21">
         <v>1779.03</v>
       </c>
-      <c r="F150" s="21">
+      <c r="F150" s="11">
         <v>2.25</v>
       </c>
-      <c r="G150" s="21">
+      <c r="G150" s="11">
         <v>20.623999999999999</v>
       </c>
-      <c r="H150" s="21">
+      <c r="H150" s="11">
         <v>14.8689</v>
       </c>
-      <c r="I150" s="21">
+      <c r="I150" s="11">
         <v>17.8904</v>
       </c>
       <c r="J150" s="11">
@@ -51617,16 +51561,16 @@
       <c r="E151" s="21">
         <v>1809.46</v>
       </c>
-      <c r="F151" s="21">
+      <c r="F151" s="11">
         <v>2.25</v>
       </c>
-      <c r="G151" s="21">
+      <c r="G151" s="11">
         <v>18.588999999999999</v>
       </c>
-      <c r="H151" s="21">
+      <c r="H151" s="11">
         <v>13.9297</v>
       </c>
-      <c r="I151" s="21">
+      <c r="I151" s="11">
         <v>16.334</v>
       </c>
       <c r="J151" s="11">
@@ -51649,16 +51593,16 @@
       <c r="E152" s="21">
         <v>1843.06</v>
       </c>
-      <c r="F152" s="21">
+      <c r="F152" s="11">
         <v>2.25</v>
       </c>
-      <c r="G152" s="21">
+      <c r="G152" s="11">
         <v>16.0901</v>
       </c>
-      <c r="H152" s="21">
+      <c r="H152" s="11">
         <v>12.5032</v>
       </c>
-      <c r="I152" s="21">
+      <c r="I152" s="11">
         <v>14.2037</v>
       </c>
       <c r="J152" s="11">
@@ -51681,16 +51625,16 @@
       <c r="E153" s="21">
         <v>1855.63</v>
       </c>
-      <c r="F153" s="21">
+      <c r="F153" s="11">
         <v>2.25</v>
       </c>
-      <c r="G153" s="21">
+      <c r="G153" s="11">
         <v>17.156199999999998</v>
       </c>
-      <c r="H153" s="21">
+      <c r="H153" s="11">
         <v>13.059699999999999</v>
       </c>
-      <c r="I153" s="21">
+      <c r="I153" s="11">
         <v>14.9954</v>
       </c>
       <c r="J153" s="11">
@@ -51713,16 +51657,16 @@
       <c r="E154" s="21">
         <v>1892.89</v>
       </c>
-      <c r="F154" s="21">
+      <c r="F154" s="11">
         <v>2.25</v>
       </c>
-      <c r="G154" s="21">
+      <c r="G154" s="11">
         <v>17.1736</v>
       </c>
-      <c r="H154" s="21">
+      <c r="H154" s="11">
         <v>12.757400000000001</v>
       </c>
-      <c r="I154" s="21">
+      <c r="I154" s="11">
         <v>14.2525</v>
       </c>
       <c r="J154" s="11">
@@ -51745,16 +51689,16 @@
       <c r="E155" s="21">
         <v>1893.29</v>
       </c>
-      <c r="F155" s="21">
+      <c r="F155" s="11">
         <v>2.25</v>
       </c>
-      <c r="G155" s="21">
+      <c r="G155" s="11">
         <v>16.601299999999998</v>
       </c>
-      <c r="H155" s="21">
+      <c r="H155" s="11">
         <v>13.7698</v>
       </c>
-      <c r="I155" s="21">
+      <c r="I155" s="11">
         <v>14.732099999999999</v>
       </c>
       <c r="J155" s="11">
@@ -51777,16 +51721,16 @@
       <c r="E156" s="21">
         <v>1890.3</v>
       </c>
-      <c r="F156" s="21">
+      <c r="F156" s="11">
         <v>2.5</v>
       </c>
-      <c r="G156" s="21">
+      <c r="G156" s="11">
         <v>18.563600000000001</v>
       </c>
-      <c r="H156" s="21">
+      <c r="H156" s="11">
         <v>14.216100000000001</v>
       </c>
-      <c r="I156" s="21">
+      <c r="I156" s="11">
         <v>15.248799999999999</v>
       </c>
       <c r="J156" s="11">
@@ -51809,16 +51753,16 @@
       <c r="E157" s="21">
         <v>1877.09</v>
       </c>
-      <c r="F157" s="21">
+      <c r="F157" s="11">
         <v>2.5</v>
       </c>
-      <c r="G157" s="21">
+      <c r="G157" s="11">
         <v>17.6267</v>
       </c>
-      <c r="H157" s="21">
+      <c r="H157" s="11">
         <v>14.1173</v>
       </c>
-      <c r="I157" s="21">
+      <c r="I157" s="11">
         <v>15.1873</v>
       </c>
       <c r="J157" s="11">
@@ -51841,16 +51785,16 @@
       <c r="E158" s="21">
         <v>1843.32</v>
       </c>
-      <c r="F158" s="21">
+      <c r="F158" s="11">
         <v>2.75</v>
       </c>
-      <c r="G158" s="21">
+      <c r="G158" s="11">
         <v>15.968999999999999</v>
       </c>
-      <c r="H158" s="21">
+      <c r="H158" s="11">
         <v>12.836</v>
       </c>
-      <c r="I158" s="21">
+      <c r="I158" s="11">
         <v>15.4085</v>
       </c>
       <c r="J158" s="11">
@@ -51873,16 +51817,16 @@
       <c r="E159" s="21">
         <v>1842.86</v>
       </c>
-      <c r="F159" s="21">
+      <c r="F159" s="11">
         <v>2.75</v>
       </c>
-      <c r="G159" s="21">
+      <c r="G159" s="11">
         <v>15.8371</v>
       </c>
-      <c r="H159" s="21">
+      <c r="H159" s="11">
         <v>13.063499999999999</v>
       </c>
-      <c r="I159" s="21">
+      <c r="I159" s="11">
         <v>15.683199999999999</v>
       </c>
       <c r="J159" s="11">
@@ -51905,16 +51849,16 @@
       <c r="E160" s="21">
         <v>1841.49</v>
       </c>
-      <c r="F160" s="21">
+      <c r="F160" s="11">
         <v>3</v>
       </c>
-      <c r="G160" s="21">
+      <c r="G160" s="11">
         <v>16.9693</v>
       </c>
-      <c r="H160" s="21">
+      <c r="H160" s="11">
         <v>13.018700000000001</v>
       </c>
-      <c r="I160" s="21">
+      <c r="I160" s="11">
         <v>16.145099999999999</v>
       </c>
       <c r="J160" s="11">
@@ -51937,16 +51881,16 @@
       <c r="E161" s="21">
         <v>1840.37</v>
       </c>
-      <c r="F161" s="21">
+      <c r="F161" s="11">
         <v>3</v>
       </c>
-      <c r="G161" s="21">
+      <c r="G161" s="11">
         <v>16.0976</v>
       </c>
-      <c r="H161" s="21">
+      <c r="H161" s="11">
         <v>12.5837</v>
       </c>
-      <c r="I161" s="21">
+      <c r="I161" s="11">
         <v>15.491</v>
       </c>
       <c r="J161" s="11">
@@ -51969,16 +51913,16 @@
       <c r="E162" s="21">
         <v>1861.6</v>
       </c>
-      <c r="F162" s="21">
+      <c r="F162" s="11">
         <v>3.25</v>
       </c>
-      <c r="G162" s="21">
+      <c r="G162" s="11">
         <v>16.031300000000002</v>
       </c>
-      <c r="H162" s="21">
+      <c r="H162" s="11">
         <v>12.6831</v>
       </c>
-      <c r="I162" s="21">
+      <c r="I162" s="11">
         <v>15.819900000000001</v>
       </c>
       <c r="J162" s="11">
@@ -52001,16 +51945,16 @@
       <c r="E163" s="21">
         <v>1890.67</v>
       </c>
-      <c r="F163" s="21">
+      <c r="F163" s="11">
         <v>3.25</v>
       </c>
-      <c r="G163" s="21">
+      <c r="G163" s="11">
         <v>15.133800000000001</v>
       </c>
-      <c r="H163" s="21">
+      <c r="H163" s="11">
         <v>12.673400000000001</v>
       </c>
-      <c r="I163" s="21">
+      <c r="I163" s="11">
         <v>15.867100000000001</v>
       </c>
       <c r="J163" s="11">
@@ -52033,16 +51977,16 @@
       <c r="E164" s="21">
         <v>1884.28</v>
       </c>
-      <c r="F164" s="21">
+      <c r="F164" s="11">
         <v>3.25</v>
       </c>
-      <c r="G164" s="21">
+      <c r="G164" s="11">
         <v>14.517200000000001</v>
       </c>
-      <c r="H164" s="21">
+      <c r="H164" s="11">
         <v>10.938599999999999</v>
       </c>
-      <c r="I164" s="21">
+      <c r="I164" s="11">
         <v>15.227399999999999</v>
       </c>
       <c r="J164" s="11">
@@ -52065,16 +52009,16 @@
       <c r="E165" s="21">
         <v>1918.62</v>
       </c>
-      <c r="F165" s="21">
+      <c r="F165" s="11">
         <v>3.5</v>
       </c>
-      <c r="G165" s="21">
+      <c r="G165" s="11">
         <v>14.1212</v>
       </c>
-      <c r="H165" s="21">
+      <c r="H165" s="11">
         <v>10.9781</v>
       </c>
-      <c r="I165" s="21">
+      <c r="I165" s="11">
         <v>14.7942</v>
       </c>
       <c r="J165" s="11">
@@ -52097,16 +52041,16 @@
       <c r="E166" s="21">
         <v>1971.91</v>
       </c>
-      <c r="F166" s="21">
+      <c r="F166" s="11">
         <v>3.5</v>
       </c>
-      <c r="G166" s="21">
+      <c r="G166" s="11">
         <v>13.4298</v>
       </c>
-      <c r="H166" s="21">
+      <c r="H166" s="11">
         <v>10.042</v>
       </c>
-      <c r="I166" s="21">
+      <c r="I166" s="11">
         <v>13.9298</v>
       </c>
       <c r="J166" s="11">
@@ -52129,16 +52073,16 @@
       <c r="E167" s="21">
         <v>2006.35</v>
       </c>
-      <c r="F167" s="21">
+      <c r="F167" s="11">
         <v>3.5</v>
       </c>
-      <c r="G167" s="21">
+      <c r="G167" s="11">
         <v>12.1302</v>
       </c>
-      <c r="H167" s="21">
+      <c r="H167" s="11">
         <v>8.3307000000000002</v>
       </c>
-      <c r="I167" s="21">
+      <c r="I167" s="11">
         <v>12.609500000000001</v>
       </c>
       <c r="J167" s="11">
@@ -52161,16 +52105,16 @@
       <c r="E168" s="21">
         <v>1989.99</v>
       </c>
-      <c r="F168" s="21">
+      <c r="F168" s="11">
         <v>3.5</v>
       </c>
-      <c r="G168" s="21">
+      <c r="G168" s="11">
         <v>12.6798</v>
       </c>
-      <c r="H168" s="21">
+      <c r="H168" s="11">
         <v>9.3825000000000003</v>
       </c>
-      <c r="I168" s="21">
+      <c r="I168" s="11">
         <v>13.8949</v>
       </c>
       <c r="J168" s="11">
@@ -52193,16 +52137,16 @@
       <c r="E169" s="21">
         <v>2004.84</v>
       </c>
-      <c r="F169" s="21">
+      <c r="F169" s="11">
         <v>3.5</v>
       </c>
-      <c r="G169" s="21">
+      <c r="G169" s="11">
         <v>11.988</v>
       </c>
-      <c r="H169" s="21">
+      <c r="H169" s="11">
         <v>8.6005000000000003</v>
       </c>
-      <c r="I169" s="21">
+      <c r="I169" s="11">
         <v>13.8063</v>
       </c>
       <c r="J169" s="11">
@@ -52225,16 +52169,16 @@
       <c r="E170" s="21">
         <v>2024.21</v>
       </c>
-      <c r="F170" s="21">
+      <c r="F170" s="11">
         <v>3.5</v>
       </c>
-      <c r="G170" s="21">
+      <c r="G170" s="11">
         <v>11.7752</v>
       </c>
-      <c r="H170" s="21">
+      <c r="H170" s="11">
         <v>9.0831</v>
       </c>
-      <c r="I170" s="21">
+      <c r="I170" s="11">
         <v>13.4285</v>
       </c>
       <c r="J170" s="11">
@@ -52257,16 +52201,16 @@
       <c r="E171" s="21">
         <v>2032.77</v>
       </c>
-      <c r="F171" s="21">
+      <c r="F171" s="11">
         <v>3.5</v>
       </c>
-      <c r="G171" s="21">
+      <c r="G171" s="11">
         <v>12.296900000000001</v>
       </c>
-      <c r="H171" s="21">
+      <c r="H171" s="11">
         <v>10.0375</v>
       </c>
-      <c r="I171" s="21">
+      <c r="I171" s="11">
         <v>13.962300000000001</v>
       </c>
       <c r="J171" s="11">
@@ -52289,16 +52233,16 @@
       <c r="E172" s="21">
         <v>2018.29</v>
       </c>
-      <c r="F172" s="21">
+      <c r="F172" s="11">
         <v>3.5</v>
       </c>
-      <c r="G172" s="21">
+      <c r="G172" s="11">
         <v>13.019500000000001</v>
       </c>
-      <c r="H172" s="21">
+      <c r="H172" s="11">
         <v>10.669599999999999</v>
       </c>
-      <c r="I172" s="21">
+      <c r="I172" s="11">
         <v>14.511699999999999</v>
       </c>
       <c r="J172" s="11">
@@ -52321,16 +52265,16 @@
       <c r="E173" s="21">
         <v>1998.04</v>
       </c>
-      <c r="F173" s="21">
+      <c r="F173" s="11">
         <v>3.5</v>
       </c>
-      <c r="G173" s="21">
+      <c r="G173" s="11">
         <v>12.078900000000001</v>
       </c>
-      <c r="H173" s="21">
+      <c r="H173" s="11">
         <v>10.1873</v>
       </c>
-      <c r="I173" s="21">
+      <c r="I173" s="11">
         <v>14.8207</v>
       </c>
       <c r="J173" s="11">
@@ -52353,16 +52297,16 @@
       <c r="E174" s="21">
         <v>2027.1</v>
       </c>
-      <c r="F174" s="21">
+      <c r="F174" s="11">
         <v>3.5</v>
       </c>
-      <c r="G174" s="21">
+      <c r="G174" s="11">
         <v>12.722200000000001</v>
       </c>
-      <c r="H174" s="21">
+      <c r="H174" s="11">
         <v>10.4619</v>
       </c>
-      <c r="I174" s="21">
+      <c r="I174" s="11">
         <v>14.683199999999999</v>
       </c>
       <c r="J174" s="11">
@@ -52385,16 +52329,16 @@
       <c r="E175" s="21">
         <v>2061.85</v>
       </c>
-      <c r="F175" s="21">
+      <c r="F175" s="11">
         <v>3.5</v>
       </c>
-      <c r="G175" s="21">
+      <c r="G175" s="11">
         <v>12.602</v>
       </c>
-      <c r="H175" s="21">
+      <c r="H175" s="11">
         <v>9.2317</v>
       </c>
-      <c r="I175" s="21">
+      <c r="I175" s="11">
         <v>13.744299999999999</v>
       </c>
       <c r="J175" s="11">
@@ -52417,16 +52361,16 @@
       <c r="E176" s="21">
         <v>2054.6799999999998</v>
       </c>
-      <c r="F176" s="21">
+      <c r="F176" s="11">
         <v>3.25</v>
       </c>
-      <c r="G176" s="21">
+      <c r="G176" s="11">
         <v>12.0413</v>
       </c>
-      <c r="H176" s="21">
+      <c r="H176" s="11">
         <v>10.057399999999999</v>
       </c>
-      <c r="I176" s="21">
+      <c r="I176" s="11">
         <v>14.053599999999999</v>
       </c>
       <c r="J176" s="11">
@@ -52449,16 +52393,16 @@
       <c r="E177" s="21">
         <v>2075.36</v>
       </c>
-      <c r="F177" s="21">
+      <c r="F177" s="11">
         <v>3</v>
       </c>
-      <c r="G177" s="21">
+      <c r="G177" s="11">
         <v>11.3855</v>
       </c>
-      <c r="H177" s="21">
+      <c r="H177" s="11">
         <v>10.2278</v>
       </c>
-      <c r="I177" s="21">
+      <c r="I177" s="11">
         <v>14.231199999999999</v>
       </c>
       <c r="J177" s="11">
@@ -52481,16 +52425,16 @@
       <c r="E178" s="21">
         <v>2072.69</v>
       </c>
-      <c r="F178" s="21">
+      <c r="F178" s="11">
         <v>3</v>
       </c>
-      <c r="G178" s="21">
+      <c r="G178" s="11">
         <v>11.0534</v>
       </c>
-      <c r="H178" s="21">
+      <c r="H178" s="11">
         <v>10.042199999999999</v>
       </c>
-      <c r="I178" s="21">
+      <c r="I178" s="11">
         <v>14.5206</v>
       </c>
       <c r="J178" s="11">
@@ -52513,16 +52457,16 @@
       <c r="E179" s="21">
         <v>2066.35</v>
       </c>
-      <c r="F179" s="21">
+      <c r="F179" s="11">
         <v>3</v>
       </c>
-      <c r="G179" s="21">
+      <c r="G179" s="11">
         <v>11.4024</v>
       </c>
-      <c r="H179" s="21">
+      <c r="H179" s="11">
         <v>10.9193</v>
       </c>
-      <c r="I179" s="21">
+      <c r="I179" s="11">
         <v>14.822900000000001</v>
       </c>
       <c r="J179" s="11">
@@ -52545,16 +52489,16 @@
       <c r="E180" s="21">
         <v>2062.85</v>
       </c>
-      <c r="F180" s="21">
+      <c r="F180" s="11">
         <v>3</v>
       </c>
-      <c r="G180" s="21">
+      <c r="G180" s="11">
         <v>11.3058</v>
       </c>
-      <c r="H180" s="21">
+      <c r="H180" s="11">
         <v>11.3522</v>
       </c>
-      <c r="I180" s="21">
+      <c r="I180" s="11">
         <v>14.506600000000001</v>
       </c>
       <c r="J180" s="11">
@@ -52577,16 +52521,16 @@
       <c r="E181" s="21">
         <v>2073.58</v>
       </c>
-      <c r="F181" s="21">
+      <c r="F181" s="11">
         <v>3</v>
       </c>
-      <c r="G181" s="21">
+      <c r="G181" s="11">
         <v>10.8186</v>
       </c>
-      <c r="H181" s="21">
+      <c r="H181" s="11">
         <v>11.3835</v>
       </c>
-      <c r="I181" s="21">
+      <c r="I181" s="11">
         <v>14.5359</v>
       </c>
       <c r="J181" s="11">
@@ -52609,16 +52553,16 @@
       <c r="E182" s="21">
         <v>2064.56</v>
       </c>
-      <c r="F182" s="21">
+      <c r="F182" s="11">
         <v>3</v>
       </c>
-      <c r="G182" s="21">
+      <c r="G182" s="11">
         <v>12.5321</v>
       </c>
-      <c r="H182" s="21">
+      <c r="H182" s="11">
         <v>11.1637</v>
       </c>
-      <c r="I182" s="21">
+      <c r="I182" s="11">
         <v>14.3924</v>
       </c>
       <c r="J182" s="11">
@@ -52641,16 +52585,16 @@
       <c r="E183" s="21">
         <v>2047.89</v>
       </c>
-      <c r="F183" s="21">
+      <c r="F183" s="11">
         <v>3</v>
       </c>
-      <c r="G183" s="21">
+      <c r="G183" s="11">
         <v>13.0962</v>
       </c>
-      <c r="H183" s="21">
+      <c r="H183" s="11">
         <v>11.685499999999999</v>
       </c>
-      <c r="I183" s="21">
+      <c r="I183" s="11">
         <v>15.003500000000001</v>
       </c>
       <c r="J183" s="11">
@@ -52673,16 +52617,16 @@
       <c r="E184" s="21">
         <v>2058.71</v>
       </c>
-      <c r="F184" s="21">
+      <c r="F184" s="11">
         <v>3</v>
       </c>
-      <c r="G184" s="21">
+      <c r="G184" s="11">
         <v>12.9801</v>
       </c>
-      <c r="H184" s="21">
+      <c r="H184" s="11">
         <v>11.3462</v>
       </c>
-      <c r="I184" s="21">
+      <c r="I184" s="11">
         <v>15.1387</v>
       </c>
       <c r="J184" s="11">
@@ -52705,16 +52649,16 @@
       <c r="E185" s="21">
         <v>2060.73</v>
       </c>
-      <c r="F185" s="21">
+      <c r="F185" s="11">
         <v>3</v>
       </c>
-      <c r="G185" s="21">
+      <c r="G185" s="11">
         <v>12.0199</v>
       </c>
-      <c r="H185" s="21">
+      <c r="H185" s="11">
         <v>10.462</v>
       </c>
-      <c r="I185" s="21">
+      <c r="I185" s="11">
         <v>15.587899999999999</v>
       </c>
       <c r="J185" s="11">
@@ -52737,16 +52681,16 @@
       <c r="E186" s="21">
         <v>2079.0500000000002</v>
       </c>
-      <c r="F186" s="21">
+      <c r="F186" s="11">
         <v>3</v>
       </c>
-      <c r="G186" s="21">
+      <c r="G186" s="11">
         <v>11.7135</v>
       </c>
-      <c r="H186" s="21">
+      <c r="H186" s="11">
         <v>10.669</v>
       </c>
-      <c r="I186" s="21">
+      <c r="I186" s="11">
         <v>15.8645</v>
       </c>
       <c r="J186" s="11">
@@ -52769,16 +52713,16 @@
       <c r="E187" s="21">
         <v>2043.55</v>
       </c>
-      <c r="F187" s="21">
+      <c r="F187" s="11">
         <v>3</v>
       </c>
-      <c r="G187" s="21">
+      <c r="G187" s="11">
         <v>12.3833</v>
       </c>
-      <c r="H187" s="21">
+      <c r="H187" s="11">
         <v>10.4589</v>
       </c>
-      <c r="I187" s="21">
+      <c r="I187" s="11">
         <v>16.212499999999999</v>
       </c>
       <c r="J187" s="11">
@@ -52801,16 +52745,16 @@
       <c r="E188" s="21">
         <v>2021.06</v>
       </c>
-      <c r="F188" s="21">
+      <c r="F188" s="11">
         <v>3</v>
       </c>
-      <c r="G188" s="21">
+      <c r="G188" s="11">
         <v>10.4032</v>
       </c>
-      <c r="H188" s="21">
+      <c r="H188" s="11">
         <v>9.7225000000000001</v>
       </c>
-      <c r="I188" s="21">
+      <c r="I188" s="11">
         <v>15.743</v>
       </c>
       <c r="J188" s="11">
@@ -52833,16 +52777,16 @@
       <c r="E189" s="21">
         <v>2018.86</v>
       </c>
-      <c r="F189" s="21">
+      <c r="F189" s="11">
         <v>3</v>
       </c>
-      <c r="G189" s="21">
+      <c r="G189" s="11">
         <v>10.4788</v>
       </c>
-      <c r="H189" s="21">
+      <c r="H189" s="11">
         <v>10.2317</v>
       </c>
-      <c r="I189" s="21">
+      <c r="I189" s="11">
         <v>16.3993</v>
       </c>
       <c r="J189" s="11">
@@ -52865,16 +52809,16 @@
       <c r="E190" s="21">
         <v>2009.05</v>
       </c>
-      <c r="F190" s="21">
+      <c r="F190" s="11">
         <v>3</v>
       </c>
-      <c r="G190" s="21">
+      <c r="G190" s="11">
         <v>11.015700000000001</v>
       </c>
-      <c r="H190" s="21">
+      <c r="H190" s="11">
         <v>10.1577</v>
       </c>
-      <c r="I190" s="21">
+      <c r="I190" s="11">
         <v>15.8619</v>
       </c>
       <c r="J190" s="11">
@@ -52897,16 +52841,16 @@
       <c r="E191" s="21">
         <v>2023.1</v>
       </c>
-      <c r="F191" s="21">
+      <c r="F191" s="11">
         <v>3</v>
       </c>
-      <c r="G191" s="21">
+      <c r="G191" s="11">
         <v>10.9262</v>
       </c>
-      <c r="H191" s="21">
+      <c r="H191" s="11">
         <v>10.4801</v>
       </c>
-      <c r="I191" s="21">
+      <c r="I191" s="11">
         <v>16.1769</v>
       </c>
       <c r="J191" s="11">
@@ -52929,16 +52873,16 @@
       <c r="E192" s="21">
         <v>2032.86</v>
       </c>
-      <c r="F192" s="21">
+      <c r="F192" s="11">
         <v>3</v>
       </c>
-      <c r="G192" s="21">
+      <c r="G192" s="11">
         <v>10.7638</v>
       </c>
-      <c r="H192" s="21">
+      <c r="H192" s="11">
         <v>10.635300000000001</v>
       </c>
-      <c r="I192" s="21">
+      <c r="I192" s="11">
         <v>16.8748</v>
       </c>
       <c r="J192" s="11">
@@ -52961,16 +52905,16 @@
       <c r="E193" s="21">
         <v>2026.21</v>
       </c>
-      <c r="F193" s="21">
+      <c r="F193" s="11">
         <v>3</v>
       </c>
-      <c r="G193" s="21">
+      <c r="G193" s="11">
         <v>11.1767</v>
       </c>
-      <c r="H193" s="21">
+      <c r="H193" s="11">
         <v>11.0366</v>
       </c>
-      <c r="I193" s="21">
+      <c r="I193" s="11">
         <v>17.273</v>
       </c>
       <c r="J193" s="11">
@@ -52993,16 +52937,16 @@
       <c r="E194" s="21">
         <v>2007.83</v>
       </c>
-      <c r="F194" s="21">
+      <c r="F194" s="11">
         <v>3</v>
       </c>
-      <c r="G194" s="21">
+      <c r="G194" s="11">
         <v>10.360900000000001</v>
       </c>
-      <c r="H194" s="21">
+      <c r="H194" s="11">
         <v>11.0017</v>
       </c>
-      <c r="I194" s="21">
+      <c r="I194" s="11">
         <v>17.405000000000001</v>
       </c>
       <c r="J194" s="11">
@@ -53025,16 +52969,16 @@
       <c r="E195" s="21">
         <v>2035.07</v>
       </c>
-      <c r="F195" s="21">
+      <c r="F195" s="11">
         <v>3</v>
       </c>
-      <c r="G195" s="21">
+      <c r="G195" s="11">
         <v>9.9635999999999996</v>
       </c>
-      <c r="H195" s="21">
+      <c r="H195" s="11">
         <v>10.4078</v>
       </c>
-      <c r="I195" s="21">
+      <c r="I195" s="11">
         <v>16.794699999999999</v>
       </c>
       <c r="J195" s="11">
@@ -53057,16 +53001,16 @@
       <c r="E196" s="21">
         <v>2040.61</v>
       </c>
-      <c r="F196" s="21">
+      <c r="F196" s="11">
         <v>3</v>
       </c>
-      <c r="G196" s="21">
+      <c r="G196" s="11">
         <v>10.120900000000001</v>
       </c>
-      <c r="H196" s="21">
+      <c r="H196" s="11">
         <v>10.7745</v>
       </c>
-      <c r="I196" s="21">
+      <c r="I196" s="11">
         <v>17.4924</v>
       </c>
       <c r="J196" s="11">
@@ -53089,16 +53033,16 @@
       <c r="E197" s="21">
         <v>2034.78</v>
       </c>
-      <c r="F197" s="21">
+      <c r="F197" s="11">
         <v>3</v>
       </c>
-      <c r="G197" s="21">
+      <c r="G197" s="11">
         <v>9.8270999999999997</v>
       </c>
-      <c r="H197" s="21">
+      <c r="H197" s="11">
         <v>10.4429</v>
       </c>
-      <c r="I197" s="21">
+      <c r="I197" s="11">
         <v>17.462700000000002</v>
       </c>
       <c r="J197" s="11">
@@ -53121,16 +53065,16 @@
       <c r="E198" s="21">
         <v>2046.01</v>
       </c>
-      <c r="F198" s="21">
+      <c r="F198" s="11">
         <v>3</v>
       </c>
-      <c r="G198" s="21">
+      <c r="G198" s="11">
         <v>9.8019999999999996</v>
       </c>
-      <c r="H198" s="21">
+      <c r="H198" s="11">
         <v>10.4314</v>
       </c>
-      <c r="I198" s="21">
+      <c r="I198" s="11">
         <v>17.370999999999999</v>
       </c>
       <c r="J198" s="11">
@@ -53153,16 +53097,16 @@
       <c r="E199" s="21">
         <v>2065.2800000000002</v>
       </c>
-      <c r="F199" s="21">
+      <c r="F199" s="11">
         <v>3</v>
       </c>
-      <c r="G199" s="21">
+      <c r="G199" s="11">
         <v>9.8742999999999999</v>
       </c>
-      <c r="H199" s="21">
+      <c r="H199" s="11">
         <v>10.9274</v>
       </c>
-      <c r="I199" s="21">
+      <c r="I199" s="11">
         <v>17.695900000000002</v>
       </c>
       <c r="J199" s="11">
@@ -53185,16 +53129,16 @@
       <c r="E200" s="21">
         <v>2062.34</v>
       </c>
-      <c r="F200" s="21">
+      <c r="F200" s="11">
         <v>3</v>
       </c>
-      <c r="G200" s="21">
+      <c r="G200" s="11">
         <v>9.5370000000000008</v>
       </c>
-      <c r="H200" s="21">
+      <c r="H200" s="11">
         <v>10.1975</v>
       </c>
-      <c r="I200" s="21">
+      <c r="I200" s="11">
         <v>17.803599999999999</v>
       </c>
       <c r="J200" s="11">
@@ -53217,16 +53161,16 @@
       <c r="E201" s="21">
         <v>2058.98</v>
       </c>
-      <c r="F201" s="21">
+      <c r="F201" s="11">
         <v>3</v>
       </c>
-      <c r="G201" s="21">
+      <c r="G201" s="11">
         <v>10.3233</v>
       </c>
-      <c r="H201" s="21">
+      <c r="H201" s="11">
         <v>10.878500000000001</v>
       </c>
-      <c r="I201" s="21">
+      <c r="I201" s="11">
         <v>17.529900000000001</v>
       </c>
       <c r="J201" s="11">
@@ -53249,16 +53193,16 @@
       <c r="E202" s="21">
         <v>2080.6999999999998</v>
       </c>
-      <c r="F202" s="21">
+      <c r="F202" s="11">
         <v>3</v>
       </c>
-      <c r="G202" s="21">
+      <c r="G202" s="11">
         <v>10.419599999999999</v>
       </c>
-      <c r="H202" s="21">
+      <c r="H202" s="11">
         <v>10.890700000000001</v>
       </c>
-      <c r="I202" s="21">
+      <c r="I202" s="11">
         <v>18.160399999999999</v>
       </c>
       <c r="J202" s="11">
@@ -53281,16 +53225,16 @@
       <c r="E203" s="21">
         <v>2069.31</v>
       </c>
-      <c r="F203" s="21">
+      <c r="F203" s="11">
         <v>3</v>
       </c>
-      <c r="G203" s="21">
+      <c r="G203" s="11">
         <v>10.783099999999999</v>
       </c>
-      <c r="H203" s="21">
+      <c r="H203" s="11">
         <v>10.0022</v>
       </c>
-      <c r="I203" s="21">
+      <c r="I203" s="11">
         <v>17.526499999999999</v>
       </c>
       <c r="J203" s="11">
@@ -53313,16 +53257,16 @@
       <c r="E204" s="21">
         <v>2089.4699999999998</v>
       </c>
-      <c r="F204" s="21">
+      <c r="F204" s="11">
         <v>3</v>
       </c>
-      <c r="G204" s="21">
+      <c r="G204" s="11">
         <v>11.067399999999999</v>
       </c>
-      <c r="H204" s="21">
+      <c r="H204" s="11">
         <v>10.462199999999999</v>
       </c>
-      <c r="I204" s="21">
+      <c r="I204" s="11">
         <v>17.930099999999999</v>
       </c>
       <c r="J204" s="11">
@@ -53345,16 +53289,16 @@
       <c r="E205" s="21">
         <v>2106.3200000000002</v>
       </c>
-      <c r="F205" s="21">
+      <c r="F205" s="11">
         <v>2.75</v>
       </c>
-      <c r="G205" s="21">
+      <c r="G205" s="11">
         <v>12.2913</v>
       </c>
-      <c r="H205" s="21">
+      <c r="H205" s="11">
         <v>10.335599999999999</v>
       </c>
-      <c r="I205" s="21">
+      <c r="I205" s="11">
         <v>18.350999999999999</v>
       </c>
       <c r="J205" s="11">
@@ -53377,16 +53321,16 @@
       <c r="E206" s="21">
         <v>2109.3200000000002</v>
       </c>
-      <c r="F206" s="21">
+      <c r="F206" s="11">
         <v>2.75</v>
       </c>
-      <c r="G206" s="21">
+      <c r="G206" s="11">
         <v>15.4336</v>
       </c>
-      <c r="H206" s="21">
+      <c r="H206" s="11">
         <v>9.8855000000000004</v>
       </c>
-      <c r="I206" s="21">
+      <c r="I206" s="11">
         <v>18.370100000000001</v>
       </c>
       <c r="J206" s="11">
@@ -53409,16 +53353,16 @@
       <c r="E207" s="21">
         <v>2163.88</v>
       </c>
-      <c r="F207" s="21">
+      <c r="F207" s="11">
         <v>2.75</v>
       </c>
-      <c r="G207" s="21">
+      <c r="G207" s="11">
         <v>15.305400000000001</v>
       </c>
-      <c r="H207" s="21">
+      <c r="H207" s="11">
         <v>10.2811</v>
       </c>
-      <c r="I207" s="21">
+      <c r="I207" s="11">
         <v>17.758500000000002</v>
       </c>
       <c r="J207" s="11">
@@ -53441,16 +53385,16 @@
       <c r="E208" s="21">
         <v>2130.46</v>
       </c>
-      <c r="F208" s="21">
+      <c r="F208" s="11">
         <v>2.75</v>
       </c>
-      <c r="G208" s="21">
+      <c r="G208" s="11">
         <v>15.8146</v>
       </c>
-      <c r="H208" s="21">
+      <c r="H208" s="11">
         <v>10.4133</v>
       </c>
-      <c r="I208" s="21">
+      <c r="I208" s="11">
         <v>18.695799999999998</v>
       </c>
       <c r="J208" s="11">
@@ -53473,16 +53417,16 @@
       <c r="E209" s="21">
         <v>2143.9</v>
       </c>
-      <c r="F209" s="21">
+      <c r="F209" s="11">
         <v>2.5</v>
       </c>
-      <c r="G209" s="21">
+      <c r="G209" s="11">
         <v>17.911899999999999</v>
       </c>
-      <c r="H209" s="21">
+      <c r="H209" s="11">
         <v>10.8301</v>
       </c>
-      <c r="I209" s="21">
+      <c r="I209" s="11">
         <v>18.454499999999999</v>
       </c>
       <c r="J209" s="11">
@@ -53505,16 +53449,16 @@
       <c r="E210" s="21">
         <v>2132.62</v>
       </c>
-      <c r="F210" s="21">
+      <c r="F210" s="11">
         <v>2.5</v>
       </c>
-      <c r="G210" s="21">
+      <c r="G210" s="11">
         <v>21.307600000000001</v>
       </c>
-      <c r="H210" s="21">
+      <c r="H210" s="11">
         <v>12.235799999999999</v>
       </c>
-      <c r="I210" s="21">
+      <c r="I210" s="11">
         <v>18.650200000000002</v>
       </c>
       <c r="J210" s="11">
@@ -53537,16 +53481,16 @@
       <c r="E211" s="21">
         <v>2128.7800000000002</v>
       </c>
-      <c r="F211" s="21">
+      <c r="F211" s="11">
         <v>2.25</v>
       </c>
-      <c r="G211" s="21">
+      <c r="G211" s="11">
         <v>22.1326</v>
       </c>
-      <c r="H211" s="21">
+      <c r="H211" s="11">
         <v>11.728400000000001</v>
       </c>
-      <c r="I211" s="21">
+      <c r="I211" s="11">
         <v>18.818999999999999</v>
       </c>
       <c r="J211" s="11">
@@ -53569,16 +53513,16 @@
       <c r="E212" s="21">
         <v>2109.9899999999998</v>
       </c>
-      <c r="F212" s="21">
+      <c r="F212" s="11">
         <v>2</v>
       </c>
-      <c r="G212" s="21">
+      <c r="G212" s="11">
         <v>20.367899999999999</v>
       </c>
-      <c r="H212" s="21">
+      <c r="H212" s="11">
         <v>11.940899999999999</v>
       </c>
-      <c r="I212" s="21">
+      <c r="I212" s="11">
         <v>18.511199999999999</v>
       </c>
       <c r="J212" s="11">
@@ -53601,16 +53545,16 @@
       <c r="E213" s="21">
         <v>2127.58</v>
       </c>
-      <c r="F213" s="21">
+      <c r="F213" s="11">
         <v>2</v>
       </c>
-      <c r="G213" s="21">
+      <c r="G213" s="11">
         <v>16.934200000000001</v>
       </c>
-      <c r="H213" s="21">
+      <c r="H213" s="11">
         <v>11.2052</v>
       </c>
-      <c r="I213" s="21">
+      <c r="I213" s="11">
         <v>18.8428</v>
       </c>
       <c r="J213" s="11">
@@ -53633,16 +53577,16 @@
       <c r="E214" s="21">
         <v>2128.5100000000002</v>
       </c>
-      <c r="F214" s="21">
+      <c r="F214" s="11">
         <v>1.75</v>
       </c>
-      <c r="G214" s="21">
+      <c r="G214" s="11">
         <v>14.8317</v>
       </c>
-      <c r="H214" s="21">
+      <c r="H214" s="11">
         <v>9.8548000000000009</v>
       </c>
-      <c r="I214" s="21">
+      <c r="I214" s="11">
         <v>17.6479</v>
       </c>
       <c r="J214" s="11">
@@ -53665,16 +53609,16 @@
       <c r="E215" s="21">
         <v>2147.19</v>
       </c>
-      <c r="F215" s="21">
+      <c r="F215" s="11">
         <v>1.75</v>
       </c>
-      <c r="G215" s="21">
+      <c r="G215" s="11">
         <v>14.8428</v>
       </c>
-      <c r="H215" s="21">
+      <c r="H215" s="11">
         <v>9.7571999999999992</v>
       </c>
-      <c r="I215" s="21">
+      <c r="I215" s="11">
         <v>17.380800000000001</v>
       </c>
       <c r="J215" s="11">
@@ -53697,16 +53641,16 @@
       <c r="E216" s="21">
         <v>2139.33</v>
       </c>
-      <c r="F216" s="21">
+      <c r="F216" s="11">
         <v>1.5</v>
       </c>
-      <c r="G216" s="21">
+      <c r="G216" s="11">
         <v>16.410900000000002</v>
       </c>
-      <c r="H216" s="21">
+      <c r="H216" s="11">
         <v>10.5974</v>
       </c>
-      <c r="I216" s="21">
+      <c r="I216" s="11">
         <v>18.7697</v>
       </c>
       <c r="J216" s="11">
@@ -53729,16 +53673,16 @@
       <c r="E217" s="21">
         <v>2130.58</v>
       </c>
-      <c r="F217" s="21">
+      <c r="F217" s="11">
         <v>1.5</v>
       </c>
-      <c r="G217" s="21">
+      <c r="G217" s="11">
         <v>16.634699999999999</v>
       </c>
-      <c r="H217" s="21">
+      <c r="H217" s="11">
         <v>10.4505</v>
       </c>
-      <c r="I217" s="21">
+      <c r="I217" s="11">
         <v>18.755400000000002</v>
       </c>
       <c r="J217" s="11">
@@ -53761,16 +53705,16 @@
       <c r="E218" s="21">
         <v>2127.09</v>
       </c>
-      <c r="F218" s="21">
+      <c r="F218" s="11">
         <v>1.5</v>
       </c>
-      <c r="G218" s="21">
+      <c r="G218" s="11">
         <v>17.973400000000002</v>
       </c>
-      <c r="H218" s="21">
+      <c r="H218" s="11">
         <v>10.663499999999999</v>
       </c>
-      <c r="I218" s="21">
+      <c r="I218" s="11">
         <v>18.780200000000001</v>
       </c>
       <c r="J218" s="11">
@@ -53793,16 +53737,16 @@
       <c r="E219" s="21">
         <v>2172.39</v>
       </c>
-      <c r="F219" s="21">
+      <c r="F219" s="11">
         <v>1.5</v>
       </c>
-      <c r="G219" s="21">
+      <c r="G219" s="11">
         <v>13.9251</v>
       </c>
-      <c r="H219" s="21">
+      <c r="H219" s="11">
         <v>9.5777000000000001</v>
       </c>
-      <c r="I219" s="21">
+      <c r="I219" s="11">
         <v>17.815999999999999</v>
       </c>
       <c r="J219" s="11">
@@ -53825,16 +53769,16 @@
       <c r="E220" s="21">
         <v>2191.75</v>
       </c>
-      <c r="F220" s="21">
+      <c r="F220" s="11">
         <v>1.5</v>
       </c>
-      <c r="G220" s="21">
+      <c r="G220" s="11">
         <v>13.711500000000001</v>
       </c>
-      <c r="H220" s="21">
+      <c r="H220" s="11">
         <v>9.3277999999999999</v>
       </c>
-      <c r="I220" s="21">
+      <c r="I220" s="11">
         <v>17.782</v>
       </c>
       <c r="J220" s="11">
@@ -53857,16 +53801,16 @@
       <c r="E221" s="21">
         <v>2195.2199999999998</v>
       </c>
-      <c r="F221" s="21">
+      <c r="F221" s="11">
         <v>1.5</v>
       </c>
-      <c r="G221" s="21">
+      <c r="G221" s="11">
         <v>16.144200000000001</v>
       </c>
-      <c r="H221" s="21">
+      <c r="H221" s="11">
         <v>10.3697</v>
       </c>
-      <c r="I221" s="21">
+      <c r="I221" s="11">
         <v>19.447600000000001</v>
       </c>
       <c r="J221" s="11">
@@ -53889,16 +53833,16 @@
       <c r="E222" s="21">
         <v>2192.91</v>
       </c>
-      <c r="F222" s="21">
+      <c r="F222" s="11">
         <v>1.5</v>
       </c>
-      <c r="G222" s="21">
+      <c r="G222" s="11">
         <v>15.7674</v>
       </c>
-      <c r="H222" s="21">
+      <c r="H222" s="11">
         <v>10.5146</v>
       </c>
-      <c r="I222" s="21">
+      <c r="I222" s="11">
         <v>19.4453</v>
       </c>
       <c r="J222" s="11">
@@ -53921,16 +53865,16 @@
       <c r="E223" s="21">
         <v>2192.85</v>
       </c>
-      <c r="F223" s="21">
+      <c r="F223" s="11">
         <v>1.5</v>
       </c>
-      <c r="G223" s="21">
+      <c r="G223" s="11">
         <v>15.6988</v>
       </c>
-      <c r="H223" s="21">
+      <c r="H223" s="11">
         <v>10.403700000000001</v>
       </c>
-      <c r="I223" s="21">
+      <c r="I223" s="11">
         <v>19.712900000000001</v>
       </c>
       <c r="J223" s="11">
@@ -53953,16 +53897,16 @@
       <c r="E224" s="21">
         <v>2241.2600000000002</v>
       </c>
-      <c r="F224" s="21">
+      <c r="F224" s="11">
         <v>1.5</v>
       </c>
-      <c r="G224" s="21">
+      <c r="G224" s="11">
         <v>16.6004</v>
       </c>
-      <c r="H224" s="21">
+      <c r="H224" s="11">
         <v>11.3238</v>
       </c>
-      <c r="I224" s="21">
+      <c r="I224" s="11">
         <v>19.894300000000001</v>
       </c>
       <c r="J224" s="11">
@@ -53985,16 +53929,16 @@
       <c r="E225" s="21">
         <v>2250.34</v>
       </c>
-      <c r="F225" s="21">
+      <c r="F225" s="11">
         <v>1.5</v>
       </c>
-      <c r="G225" s="21">
+      <c r="G225" s="11">
         <v>16.908799999999999</v>
       </c>
-      <c r="H225" s="21">
+      <c r="H225" s="11">
         <v>11.921200000000001</v>
       </c>
-      <c r="I225" s="21">
+      <c r="I225" s="11">
         <v>20.543500000000002</v>
       </c>
       <c r="J225" s="11">
@@ -54017,16 +53961,16 @@
       <c r="E226" s="21">
         <v>2237.9699999999998</v>
       </c>
-      <c r="F226" s="21">
+      <c r="F226" s="11">
         <v>1.5</v>
       </c>
-      <c r="G226" s="21">
+      <c r="G226" s="11">
         <v>17.533899999999999</v>
       </c>
-      <c r="H226" s="21">
+      <c r="H226" s="11">
         <v>12.5235</v>
       </c>
-      <c r="I226" s="21">
+      <c r="I226" s="11">
         <v>20.491</v>
       </c>
       <c r="J226" s="11">
@@ -54049,16 +53993,16 @@
       <c r="E227" s="21">
         <v>2235.0100000000002</v>
       </c>
-      <c r="F227" s="21">
+      <c r="F227" s="11">
         <v>1.5</v>
       </c>
-      <c r="G227" s="21">
+      <c r="G227" s="11">
         <v>16.6372</v>
       </c>
-      <c r="H227" s="21">
+      <c r="H227" s="11">
         <v>13.0807</v>
       </c>
-      <c r="I227" s="21">
+      <c r="I227" s="11">
         <v>20.454699999999999</v>
       </c>
       <c r="J227" s="11">
@@ -54081,16 +54025,16 @@
       <c r="E228" s="21">
         <v>2210.41</v>
       </c>
-      <c r="F228" s="21">
+      <c r="F228" s="11">
         <v>1.5</v>
       </c>
-      <c r="G228" s="21">
+      <c r="G228" s="11">
         <v>17.179200000000002</v>
       </c>
-      <c r="H228" s="21">
+      <c r="H228" s="11">
         <v>12.8771</v>
       </c>
-      <c r="I228" s="21">
+      <c r="I228" s="11">
         <v>20.0243</v>
       </c>
       <c r="J228" s="11">
@@ -54113,16 +54057,16 @@
       <c r="E229" s="21">
         <v>2151.4299999999998</v>
       </c>
-      <c r="F229" s="21">
+      <c r="F229" s="11">
         <v>1.5</v>
       </c>
-      <c r="G229" s="21">
+      <c r="G229" s="11">
         <v>17.997599999999998</v>
       </c>
-      <c r="H229" s="21">
+      <c r="H229" s="11">
         <v>12.535299999999999</v>
       </c>
-      <c r="I229" s="21">
+      <c r="I229" s="11">
         <v>20.6706</v>
       </c>
       <c r="J229" s="11">
@@ -54145,16 +54089,16 @@
       <c r="E230" s="21">
         <v>2149.16</v>
       </c>
-      <c r="F230" s="21">
+      <c r="F230" s="11">
         <v>1.5</v>
       </c>
-      <c r="G230" s="21">
+      <c r="G230" s="11">
         <v>17.0627</v>
       </c>
-      <c r="H230" s="21">
+      <c r="H230" s="11">
         <v>12.240600000000001</v>
       </c>
-      <c r="I230" s="21">
+      <c r="I230" s="11">
         <v>20.544699999999999</v>
       </c>
       <c r="J230" s="11">
@@ -54177,16 +54121,16 @@
       <c r="E231" s="21">
         <v>2154.02</v>
       </c>
-      <c r="F231" s="21">
+      <c r="F231" s="11">
         <v>1.5</v>
       </c>
-      <c r="G231" s="21">
+      <c r="G231" s="11">
         <v>17.2332</v>
       </c>
-      <c r="H231" s="21">
+      <c r="H231" s="11">
         <v>13.000999999999999</v>
       </c>
-      <c r="I231" s="21">
+      <c r="I231" s="11">
         <v>20.876200000000001</v>
       </c>
       <c r="J231" s="11">
@@ -54209,16 +54153,16 @@
       <c r="E232" s="21">
         <v>2164.65</v>
       </c>
-      <c r="F232" s="21">
+      <c r="F232" s="11">
         <v>1.5</v>
       </c>
-      <c r="G232" s="21">
+      <c r="G232" s="11">
         <v>17.650099999999998</v>
       </c>
-      <c r="H232" s="21">
+      <c r="H232" s="11">
         <v>13.2156</v>
       </c>
-      <c r="I232" s="21">
+      <c r="I232" s="11">
         <v>21.620799999999999</v>
       </c>
       <c r="J232" s="11">
@@ -54241,16 +54185,16 @@
       <c r="E233" s="21">
         <v>2163.66</v>
       </c>
-      <c r="F233" s="21">
+      <c r="F233" s="11">
         <v>1.5</v>
       </c>
-      <c r="G233" s="21">
+      <c r="G233" s="11">
         <v>17.010000000000002</v>
       </c>
-      <c r="H233" s="21">
+      <c r="H233" s="11">
         <v>13.2189</v>
       </c>
-      <c r="I233" s="21">
+      <c r="I233" s="11">
         <v>21.0124</v>
       </c>
       <c r="J233" s="11">
@@ -54273,16 +54217,16 @@
       <c r="E234" s="21">
         <v>2178.69</v>
       </c>
-      <c r="F234" s="21">
+      <c r="F234" s="11">
         <v>1.5</v>
       </c>
-      <c r="G234" s="21">
+      <c r="G234" s="11">
         <v>16.7532</v>
       </c>
-      <c r="H234" s="21">
+      <c r="H234" s="11">
         <v>13.5082</v>
       </c>
-      <c r="I234" s="21">
+      <c r="I234" s="11">
         <v>21.097300000000001</v>
       </c>
       <c r="J234" s="11">
@@ -54305,16 +54249,16 @@
       <c r="E235" s="21">
         <v>2192.91</v>
       </c>
-      <c r="F235" s="21">
+      <c r="F235" s="11">
         <v>1.5</v>
       </c>
-      <c r="G235" s="21">
+      <c r="G235" s="11">
         <v>16.5517</v>
       </c>
-      <c r="H235" s="21">
+      <c r="H235" s="11">
         <v>13.9199</v>
       </c>
-      <c r="I235" s="21">
+      <c r="I235" s="11">
         <v>21.308</v>
       </c>
       <c r="J235" s="11">
@@ -54337,16 +54281,16 @@
       <c r="E236" s="21">
         <v>2189.36</v>
       </c>
-      <c r="F236" s="21">
+      <c r="F236" s="11">
         <v>1.5</v>
       </c>
-      <c r="G236" s="21">
+      <c r="G236" s="11">
         <v>16.624199999999998</v>
       </c>
-      <c r="H236" s="21">
+      <c r="H236" s="11">
         <v>12.8635</v>
       </c>
-      <c r="I236" s="21">
+      <c r="I236" s="11">
         <v>20.973099999999999</v>
       </c>
       <c r="J236" s="11">
@@ -54369,16 +54313,16 @@
       <c r="E237" s="21">
         <v>2193.0100000000002</v>
       </c>
-      <c r="F237" s="21">
+      <c r="F237" s="11">
         <v>1.5</v>
       </c>
-      <c r="G237" s="21">
+      <c r="G237" s="11">
         <v>17.153700000000001</v>
       </c>
-      <c r="H237" s="21">
+      <c r="H237" s="11">
         <v>13.6272</v>
       </c>
-      <c r="I237" s="21">
+      <c r="I237" s="11">
         <v>21.119199999999999</v>
       </c>
       <c r="J237" s="11">
@@ -54401,16 +54345,16 @@
       <c r="E238" s="21">
         <v>2216.75</v>
       </c>
-      <c r="F238" s="21">
+      <c r="F238" s="11">
         <v>1.5</v>
       </c>
-      <c r="G238" s="21">
+      <c r="G238" s="11">
         <v>17.6995</v>
       </c>
-      <c r="H238" s="21">
+      <c r="H238" s="11">
         <v>13.950200000000001</v>
       </c>
-      <c r="I238" s="21">
+      <c r="I238" s="11">
         <v>21.068100000000001</v>
       </c>
       <c r="J238" s="11">
@@ -54433,16 +54377,16 @@
       <c r="E239" s="21">
         <v>2197.7460000000001</v>
       </c>
-      <c r="F239" s="21">
+      <c r="F239" s="11">
         <v>1.5</v>
       </c>
-      <c r="G239" s="21">
+      <c r="G239" s="11">
         <v>16.810200000000002</v>
       </c>
-      <c r="H239" s="21">
+      <c r="H239" s="11">
         <v>12.9041</v>
       </c>
-      <c r="I239" s="21">
+      <c r="I239" s="11">
         <v>21.345700000000001</v>
       </c>
       <c r="J239" s="11">
@@ -54465,16 +54409,16 @@
       <c r="E240" s="21">
         <v>2195.087</v>
       </c>
-      <c r="F240" s="21">
+      <c r="F240" s="11">
         <v>1.5</v>
       </c>
-      <c r="G240" s="21">
+      <c r="G240" s="11">
         <v>17.127400000000002</v>
       </c>
-      <c r="H240" s="21">
+      <c r="H240" s="11">
         <v>13.2278</v>
       </c>
-      <c r="I240" s="21">
+      <c r="I240" s="11">
         <v>21.7638</v>
       </c>
       <c r="J240" s="11">
@@ -54497,16 +54441,16 @@
       <c r="E241" s="21">
         <v>2192.0700000000002</v>
       </c>
-      <c r="F241" s="21">
+      <c r="F241" s="11">
         <v>1.5</v>
       </c>
-      <c r="G241" s="21">
+      <c r="G241" s="11">
         <v>16.852599999999999</v>
       </c>
-      <c r="H241" s="21">
+      <c r="H241" s="11">
         <v>13.4087</v>
       </c>
-      <c r="I241" s="21">
+      <c r="I241" s="11">
         <v>22.3094</v>
       </c>
       <c r="J241" s="11">
@@ -54529,16 +54473,16 @@
       <c r="E242" s="21">
         <v>2198.8449999999998</v>
       </c>
-      <c r="F242" s="21">
+      <c r="F242" s="11">
         <v>1.5</v>
       </c>
-      <c r="G242" s="21">
+      <c r="G242" s="11">
         <v>16.3626</v>
       </c>
-      <c r="H242" s="21">
+      <c r="H242" s="11">
         <v>12.3942</v>
       </c>
-      <c r="I242" s="21">
+      <c r="I242" s="11">
         <v>21.817399999999999</v>
       </c>
       <c r="J242" s="11">
@@ -54561,16 +54505,16 @@
       <c r="E243" s="21">
         <v>2168.9650000000001</v>
       </c>
-      <c r="F243" s="21">
+      <c r="F243" s="11">
         <v>1.5</v>
       </c>
-      <c r="G243" s="21">
+      <c r="G243" s="11">
         <v>17.238700000000001</v>
       </c>
-      <c r="H243" s="21">
+      <c r="H243" s="11">
         <v>13.623799999999999</v>
       </c>
-      <c r="I243" s="21">
+      <c r="I243" s="11">
         <v>22.8781</v>
       </c>
       <c r="J243" s="11">
@@ -54593,16 +54537,16 @@
       <c r="E244" s="21">
         <v>2152.627</v>
       </c>
-      <c r="F244" s="21">
+      <c r="F244" s="11">
         <v>1.5</v>
       </c>
-      <c r="G244" s="21">
+      <c r="G244" s="11">
         <v>16.4452</v>
       </c>
-      <c r="H244" s="21">
+      <c r="H244" s="11">
         <v>12.7652</v>
       </c>
-      <c r="I244" s="21">
+      <c r="I244" s="11">
         <v>21.9071</v>
       </c>
       <c r="J244" s="11">
@@ -54625,16 +54569,16 @@
       <c r="E245" s="21">
         <v>2172.9290000000001</v>
       </c>
-      <c r="F245" s="21">
+      <c r="F245" s="11">
         <v>1.5</v>
       </c>
-      <c r="G245" s="21">
+      <c r="G245" s="11">
         <v>15.5298</v>
       </c>
-      <c r="H245" s="21">
+      <c r="H245" s="11">
         <v>11.956200000000001</v>
       </c>
-      <c r="I245" s="21">
+      <c r="I245" s="11">
         <v>20.305599999999998</v>
       </c>
       <c r="J245" s="11">
@@ -54657,16 +54601,16 @@
       <c r="E246" s="21">
         <v>2155.3330000000001</v>
       </c>
-      <c r="F246" s="21">
+      <c r="F246" s="11">
         <v>1.5</v>
       </c>
-      <c r="G246" s="21">
+      <c r="G246" s="11">
         <v>15.1182</v>
       </c>
-      <c r="H246" s="21">
+      <c r="H246" s="11">
         <v>12.2403</v>
       </c>
-      <c r="I246" s="21">
+      <c r="I246" s="11">
         <v>20.2607</v>
       </c>
       <c r="J246" s="11">
@@ -54689,16 +54633,16 @@
       <c r="E247" s="21">
         <v>2174.6836499999999</v>
       </c>
-      <c r="F247" s="21">
+      <c r="F247" s="11">
         <v>1.5</v>
       </c>
-      <c r="G247" s="21">
+      <c r="G247" s="11">
         <v>15.151299999999999</v>
       </c>
-      <c r="H247" s="21">
+      <c r="H247" s="11">
         <v>12.1053</v>
       </c>
-      <c r="I247" s="21">
+      <c r="I247" s="11">
         <v>20.564499999999999</v>
       </c>
       <c r="J247" s="11">
@@ -54721,16 +54665,16 @@
       <c r="E248" s="21">
         <v>2175.127</v>
       </c>
-      <c r="F248" s="21">
+      <c r="F248" s="11">
         <v>1.5</v>
       </c>
-      <c r="G248" s="21">
+      <c r="G248" s="11">
         <v>13.472</v>
       </c>
-      <c r="H248" s="21">
+      <c r="H248" s="11">
         <v>10.9581</v>
       </c>
-      <c r="I248" s="21">
+      <c r="I248" s="11">
         <v>19.8249</v>
       </c>
       <c r="J248" s="11">
@@ -54753,16 +54697,16 @@
       <c r="E249" s="21">
         <v>2166.0300000000002</v>
       </c>
-      <c r="F249" s="21">
+      <c r="F249" s="11">
         <v>1.5</v>
       </c>
-      <c r="G249" s="21">
+      <c r="G249" s="11">
         <v>13.581</v>
       </c>
-      <c r="H249" s="21">
+      <c r="H249" s="11">
         <v>10.8172</v>
       </c>
-      <c r="I249" s="21">
+      <c r="I249" s="11">
         <v>20.481400000000001</v>
       </c>
       <c r="J249" s="11">
@@ -54785,16 +54729,16 @@
       <c r="E250" s="21">
         <v>2182.5970000000002</v>
       </c>
-      <c r="F250" s="21">
+      <c r="F250" s="11">
         <v>1.5</v>
       </c>
-      <c r="G250" s="21">
+      <c r="G250" s="11">
         <v>12.6998</v>
       </c>
-      <c r="H250" s="21">
+      <c r="H250" s="11">
         <v>10.554399999999999</v>
       </c>
-      <c r="I250" s="21">
+      <c r="I250" s="11">
         <v>21.019500000000001</v>
       </c>
       <c r="J250" s="11">
@@ -54817,16 +54761,16 @@
       <c r="E251" s="21">
         <v>2162.2199999999998</v>
       </c>
-      <c r="F251" s="21">
+      <c r="F251" s="11">
         <v>1.5</v>
       </c>
-      <c r="G251" s="21">
+      <c r="G251" s="11">
         <v>13.0345</v>
       </c>
-      <c r="H251" s="21">
+      <c r="H251" s="11">
         <v>10.6067</v>
       </c>
-      <c r="I251" s="21">
+      <c r="I251" s="11">
         <v>19.975300000000001</v>
       </c>
       <c r="J251" s="11">
@@ -54849,16 +54793,16 @@
       <c r="E252" s="21">
         <v>2151.8919999999998</v>
       </c>
-      <c r="F252" s="21">
+      <c r="F252" s="11">
         <v>1.5</v>
       </c>
-      <c r="G252" s="21">
+      <c r="G252" s="11">
         <v>12.0412</v>
       </c>
-      <c r="H252" s="21">
+      <c r="H252" s="11">
         <v>9.5345999999999993</v>
       </c>
-      <c r="I252" s="21">
+      <c r="I252" s="11">
         <v>18.590900000000001</v>
       </c>
       <c r="J252" s="11">
@@ -54881,16 +54825,16 @@
       <c r="E253" s="21">
         <v>2170.9929999999999</v>
       </c>
-      <c r="F253" s="21">
+      <c r="F253" s="11">
         <v>1.5</v>
       </c>
-      <c r="G253" s="21">
+      <c r="G253" s="11">
         <v>12.261799999999999</v>
       </c>
-      <c r="H253" s="21">
+      <c r="H253" s="11">
         <v>10.1175</v>
       </c>
-      <c r="I253" s="21">
+      <c r="I253" s="11">
         <v>18.8611</v>
       </c>
       <c r="J253" s="11">
@@ -54913,16 +54857,16 @@
       <c r="E254" s="21">
         <v>2217.6999999999998</v>
       </c>
-      <c r="F254" s="21">
+      <c r="F254" s="11">
         <v>1.5</v>
       </c>
-      <c r="G254" s="21">
+      <c r="G254" s="11">
         <v>12.3338</v>
       </c>
-      <c r="H254" s="21">
+      <c r="H254" s="11">
         <v>10.1205</v>
       </c>
-      <c r="I254" s="21">
+      <c r="I254" s="11">
         <v>16.616099999999999</v>
       </c>
       <c r="J254" s="11">
@@ -54945,16 +54889,16 @@
       <c r="E255" s="21">
         <v>2228.1350000000002</v>
       </c>
-      <c r="F255" s="21">
+      <c r="F255" s="11">
         <v>1.5</v>
       </c>
-      <c r="G255" s="21">
+      <c r="G255" s="11">
         <v>12.780100000000001</v>
       </c>
-      <c r="H255" s="21">
+      <c r="H255" s="11">
         <v>10.941599999999999</v>
       </c>
-      <c r="I255" s="21">
+      <c r="I255" s="11">
         <v>17.952200000000001</v>
       </c>
       <c r="J255" s="11">
@@ -54977,16 +54921,16 @@
       <c r="E256" s="21">
         <v>2222.1</v>
       </c>
-      <c r="F256" s="21">
+      <c r="F256" s="11">
         <v>1.5</v>
       </c>
-      <c r="G256" s="21">
+      <c r="G256" s="11">
         <v>14.5372</v>
       </c>
-      <c r="H256" s="21">
+      <c r="H256" s="11">
         <v>11.1812</v>
       </c>
-      <c r="I256" s="21">
+      <c r="I256" s="11">
         <v>18.5002</v>
       </c>
       <c r="J256" s="11">
@@ -55009,16 +54953,16 @@
       <c r="E257" s="21">
         <v>2264.5230000000001</v>
       </c>
-      <c r="F257" s="21">
+      <c r="F257" s="11">
         <v>1.5</v>
       </c>
-      <c r="G257" s="21">
+      <c r="G257" s="11">
         <v>14.9025</v>
       </c>
-      <c r="H257" s="21">
+      <c r="H257" s="11">
         <v>11.445499999999999</v>
       </c>
-      <c r="I257" s="21">
+      <c r="I257" s="11">
         <v>18.71</v>
       </c>
       <c r="J257" s="11">
@@ -55041,16 +54985,16 @@
       <c r="E258" s="21">
         <v>2258.2359999999999</v>
       </c>
-      <c r="F258" s="21">
+      <c r="F258" s="11">
         <v>1.5</v>
       </c>
-      <c r="G258" s="21">
+      <c r="G258" s="11">
         <v>14.8657</v>
       </c>
-      <c r="H258" s="21">
+      <c r="H258" s="11">
         <v>11.700799999999999</v>
       </c>
-      <c r="I258" s="21">
+      <c r="I258" s="11">
         <v>19.459199999999999</v>
       </c>
       <c r="J258" s="11">
@@ -55073,17 +55017,17 @@
       <c r="E259" s="21">
         <v>2311.308</v>
       </c>
-      <c r="F259" s="21">
+      <c r="F259" s="11">
         <v>1.5</v>
       </c>
-      <c r="G259" s="21">
-        <v>14.0046</v>
-      </c>
-      <c r="H259" s="21">
+      <c r="G259" s="11">
+        <v>14.0002</v>
+      </c>
+      <c r="H259" s="11">
         <v>10.5992</v>
       </c>
-      <c r="I259" s="21">
-        <v>18.236699999999999</v>
+      <c r="I259" s="11">
+        <v>18.244</v>
       </c>
       <c r="J259" s="11">
         <v>2.375</v>
@@ -55105,17 +55049,17 @@
       <c r="E260" s="21">
         <v>2332.6350000000002</v>
       </c>
-      <c r="F260" s="21">
+      <c r="F260" s="11">
         <v>1.5</v>
       </c>
-      <c r="G260" s="21">
-        <v>14.3606</v>
-      </c>
-      <c r="H260" s="21">
+      <c r="G260" s="11">
+        <v>14.3568</v>
+      </c>
+      <c r="H260" s="11">
         <v>11.167</v>
       </c>
-      <c r="I260" s="21">
-        <v>19.366199999999999</v>
+      <c r="I260" s="11">
+        <v>19.373999999999999</v>
       </c>
       <c r="J260" s="11">
         <v>2.375</v>
@@ -55137,17 +55081,17 @@
       <c r="E261" s="21">
         <v>2329.893</v>
       </c>
-      <c r="F261" s="21">
+      <c r="F261" s="11">
         <v>1.5</v>
       </c>
-      <c r="G261" s="21">
-        <v>14.187200000000001</v>
-      </c>
-      <c r="H261" s="21">
+      <c r="G261" s="11">
+        <v>14.183400000000001</v>
+      </c>
+      <c r="H261" s="11">
         <v>10.867800000000001</v>
       </c>
-      <c r="I261" s="21">
-        <v>19.624600000000001</v>
+      <c r="I261" s="11">
+        <v>19.632100000000001</v>
       </c>
       <c r="J261" s="11">
         <v>2.125</v>
@@ -55169,17 +55113,17 @@
       <c r="E262" s="21">
         <v>2409.096</v>
       </c>
-      <c r="F262" s="21">
+      <c r="F262" s="11">
         <v>1.5</v>
       </c>
-      <c r="G262" s="21">
-        <v>14.0044</v>
-      </c>
-      <c r="H262" s="21">
+      <c r="G262" s="11">
+        <v>14.0006</v>
+      </c>
+      <c r="H262" s="11">
         <v>10.064500000000001</v>
       </c>
-      <c r="I262" s="21">
-        <v>19.319299999999998</v>
+      <c r="I262" s="11">
+        <v>19.326799999999999</v>
       </c>
       <c r="J262" s="11">
         <v>2.125</v>
@@ -55201,17 +55145,17 @@
       <c r="E263" s="21">
         <v>2388.7190000000001</v>
       </c>
-      <c r="F263" s="21">
+      <c r="F263" s="11">
         <v>1.5</v>
       </c>
-      <c r="G263" s="21">
-        <v>14.009499999999999</v>
-      </c>
-      <c r="H263" s="21">
+      <c r="G263" s="11">
+        <v>14.0047</v>
+      </c>
+      <c r="H263" s="11">
         <v>10.1686</v>
       </c>
-      <c r="I263" s="21">
-        <v>19.799499999999998</v>
+      <c r="I263" s="11">
+        <v>19.806699999999999</v>
       </c>
       <c r="J263" s="11">
         <v>1.875</v>
@@ -55233,17 +55177,17 @@
       <c r="E264" s="21">
         <v>2390.346</v>
       </c>
-      <c r="F264" s="21">
+      <c r="F264" s="11">
         <v>1.5</v>
       </c>
-      <c r="G264" s="21">
-        <v>14.1191</v>
-      </c>
-      <c r="H264" s="21">
+      <c r="G264" s="11">
+        <v>14.1143</v>
+      </c>
+      <c r="H264" s="11">
         <v>10.486000000000001</v>
       </c>
-      <c r="I264" s="21">
-        <v>20.211600000000001</v>
+      <c r="I264" s="11">
+        <v>20.22</v>
       </c>
       <c r="J264" s="11">
         <v>1.625</v>
@@ -55265,17 +55209,17 @@
       <c r="E265" s="21">
         <v>2383.1559999999999</v>
       </c>
-      <c r="F265" s="21">
+      <c r="F265" s="11">
         <v>1.5</v>
       </c>
-      <c r="G265" s="21">
-        <v>13.834899999999999</v>
-      </c>
-      <c r="H265" s="21">
+      <c r="G265" s="11">
+        <v>13.8302</v>
+      </c>
+      <c r="H265" s="11">
         <v>10.2677</v>
       </c>
-      <c r="I265" s="21">
-        <v>20.999700000000001</v>
+      <c r="I265" s="11">
+        <v>21.008600000000001</v>
       </c>
       <c r="J265" s="11">
         <v>1.625</v>
@@ -55297,17 +55241,17 @@
       <c r="E266" s="21">
         <v>2369.779</v>
       </c>
-      <c r="F266" s="21">
+      <c r="F266" s="11">
         <v>1.5</v>
       </c>
-      <c r="G266" s="21">
-        <v>14.289300000000001</v>
-      </c>
-      <c r="H266" s="21">
-        <v>11.2475</v>
-      </c>
-      <c r="I266" s="21">
-        <v>21.208400000000001</v>
+      <c r="G266" s="11">
+        <v>14.3483</v>
+      </c>
+      <c r="H266" s="11">
+        <v>11.2493</v>
+      </c>
+      <c r="I266" s="11">
+        <v>21.2151</v>
       </c>
       <c r="J266" s="11">
         <v>1.625</v>
@@ -55329,17 +55273,17 @@
       <c r="E267" s="21">
         <v>2427.692</v>
       </c>
-      <c r="F267" s="21">
+      <c r="F267" s="11">
         <v>1.5</v>
       </c>
-      <c r="G267" s="21">
-        <v>13.9488</v>
-      </c>
-      <c r="H267" s="21">
-        <v>10.4985</v>
-      </c>
-      <c r="I267" s="21">
-        <v>21.1465</v>
+      <c r="G267" s="11">
+        <v>14.0055</v>
+      </c>
+      <c r="H267" s="11">
+        <v>10.5002</v>
+      </c>
+      <c r="I267" s="11">
+        <v>21.152999999999999</v>
       </c>
       <c r="J267" s="11">
         <v>1.625</v>
@@ -55361,17 +55305,17 @@
       <c r="E268" s="21">
         <v>2492.0390000000002</v>
       </c>
-      <c r="F268" s="21">
+      <c r="F268" s="11">
         <v>1.5</v>
       </c>
-      <c r="G268" s="21">
-        <v>13.606199999999999</v>
-      </c>
-      <c r="H268" s="21">
-        <v>10.425599999999999</v>
-      </c>
-      <c r="I268" s="21">
-        <v>19.404399999999999</v>
+      <c r="G268" s="11">
+        <v>13.661200000000001</v>
+      </c>
+      <c r="H268" s="11">
+        <v>10.427300000000001</v>
+      </c>
+      <c r="I268" s="11">
+        <v>19.410299999999999</v>
       </c>
       <c r="J268" s="11">
         <v>1.625</v>
@@ -55393,17 +55337,17 @@
       <c r="E269" s="22">
         <v>2564.1170000000002</v>
       </c>
-      <c r="F269" s="22">
+      <c r="F269" s="11">
         <v>1.5</v>
       </c>
-      <c r="G269" s="22">
-        <v>14.074199999999999</v>
-      </c>
-      <c r="H269" s="22">
-        <v>9.8092000000000006</v>
-      </c>
-      <c r="I269" s="22">
-        <v>17.649999999999999</v>
+      <c r="G269" s="11">
+        <v>14.138199999999999</v>
+      </c>
+      <c r="H269" s="11">
+        <v>10.2606</v>
+      </c>
+      <c r="I269" s="11">
+        <v>17.919699999999999</v>
       </c>
       <c r="J269">
         <v>0.125</v>
@@ -55425,19 +55369,83 @@
       <c r="E270" s="22">
         <v>2580.4250000000002</v>
       </c>
-      <c r="F270" s="22">
+      <c r="F270" s="11">
         <v>1.5</v>
       </c>
-      <c r="G270" s="22">
-        <v>14.6457</v>
-      </c>
-      <c r="H270" s="22">
-        <v>10.241400000000001</v>
-      </c>
-      <c r="I270" s="22">
-        <v>19.847799999999999</v>
+      <c r="G270" s="11">
+        <v>14.712300000000001</v>
+      </c>
+      <c r="H270" s="11">
+        <v>10.7128</v>
+      </c>
+      <c r="I270" s="11">
+        <v>20.186900000000001</v>
       </c>
       <c r="J270">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A271" s="14">
+        <v>43980</v>
+      </c>
+      <c r="B271" s="11">
+        <v>581.30359999999996</v>
+      </c>
+      <c r="C271" s="11">
+        <v>43392.582999999999</v>
+      </c>
+      <c r="D271" s="11">
+        <v>44444.766069999998</v>
+      </c>
+      <c r="E271" s="11">
+        <v>2573.8850000000002</v>
+      </c>
+      <c r="F271" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G271" s="11">
+        <v>14.5032</v>
+      </c>
+      <c r="H271" s="11">
+        <v>9.9844000000000008</v>
+      </c>
+      <c r="I271" s="11">
+        <v>21.180499999999999</v>
+      </c>
+      <c r="J271" s="11">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A272" s="24">
+        <v>44012</v>
+      </c>
+      <c r="B272">
+        <v>620.22230000000002</v>
+      </c>
+      <c r="C272">
+        <v>46140.421199999997</v>
+      </c>
+      <c r="D272">
+        <v>44877.089220000002</v>
+      </c>
+      <c r="E272">
+        <v>2576.299</v>
+      </c>
+      <c r="F272" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="G272" s="22">
+        <v>15.242599999999999</v>
+      </c>
+      <c r="H272" s="22">
+        <v>10.6584</v>
+      </c>
+      <c r="I272" s="22">
+        <v>21.8108</v>
+      </c>
+      <c r="J272" s="11">
         <v>0.125</v>
       </c>
     </row>
@@ -55448,9 +55456,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55568,25 +55579,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340ECE23-F605-459D-B71A-70F1326DFCAC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD70034E-2A52-426E-92C4-520D5226A98D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -55608,9 +55609,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD70034E-2A52-426E-92C4-520D5226A98D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340ECE23-F605-459D-B71A-70F1326DFCAC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>